--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Hoja1!$B$12</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Production</t>
   </si>
@@ -193,6 +194,27 @@
   </si>
   <si>
     <t>contract price</t>
+  </si>
+  <si>
+    <t>utility per unit</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>units sold per hour</t>
+  </si>
+  <si>
+    <t>utility per hour</t>
+  </si>
+  <si>
+    <t>Best price to get more utility daily</t>
   </si>
 </sst>
 </file>
@@ -318,7 +340,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -393,7 +414,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -776,7 +796,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -851,7 +870,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2664,7 +2682,7 @@
   <dimension ref="A2:P20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,9 +3140,6 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
       <c r="G19" t="s">
         <v>39</v>
       </c>
@@ -3497,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3603,7 +3618,7 @@
       </c>
       <c r="K4">
         <f>836*B4*C4-141*B7*C7</f>
-        <v>1239</v>
+        <v>1380</v>
       </c>
       <c r="L4" s="3">
         <f>0.5*D4</f>
@@ -3636,14 +3651,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="3">
         <f>IF(836*B4*C4&gt;141*B7*C7,141*B7*C7,D4)</f>
-        <v>1269</v>
+        <v>1128</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -3657,7 +3672,7 @@
       </c>
       <c r="H7">
         <f>G7*B7*C7+D7*F7</f>
-        <v>3757.5921531100475</v>
+        <v>3340.0819138755978</v>
       </c>
       <c r="I7">
         <f>H7/D7</f>
@@ -3668,19 +3683,19 @@
       </c>
       <c r="K7">
         <f>D7-B12*B10*C10</f>
-        <v>161.02741689050549</v>
+        <v>20.027416890505492</v>
       </c>
       <c r="L7" s="3">
         <f>3*D7</f>
-        <v>3807</v>
+        <v>3384</v>
       </c>
       <c r="N7">
         <f>2*D7</f>
-        <v>2538</v>
+        <v>2256</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1359</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3802,7 +3817,7 @@
       </c>
       <c r="L13">
         <f>SUM(L4:L12)</f>
-        <v>5061</v>
+        <v>4638</v>
       </c>
       <c r="M13">
         <f>SUM(M4:M12)</f>
@@ -3810,7 +3825,7 @@
       </c>
       <c r="N13">
         <f>SUM(N4:N12)</f>
-        <v>2538</v>
+        <v>2256</v>
       </c>
       <c r="O13">
         <f>SUM(O4:O12)</f>
@@ -3818,7 +3833,7 @@
       </c>
       <c r="P13">
         <f>SUM(P4:P12)</f>
-        <v>1773</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -3836,7 +3851,7 @@
       </c>
       <c r="L14">
         <f>L13*24</f>
-        <v>121464</v>
+        <v>111312</v>
       </c>
       <c r="M14">
         <f t="shared" ref="M14:P14" si="1">M13*24</f>
@@ -3844,7 +3859,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>60912</v>
+        <v>54144</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
@@ -3852,7 +3867,7 @@
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
-        <v>42552</v>
+        <v>38928</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -3881,14 +3896,14 @@
       </c>
       <c r="C16">
         <f>0.5*D4+3*D7*C7</f>
-        <v>5061</v>
+        <v>4638</v>
       </c>
       <c r="D16">
         <f>C16*24</f>
-        <v>121464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>111312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -3904,33 +3919,545 @@
         <v>60192</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" t="e">
-        <f>(#REF!+0.1*0.35)*1.03</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" t="e">
-        <f>(H18-H19)/H19</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" s="7"/>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="e">
-        <f>(#REF!+0.1*0.35*0.5)</f>
-        <v>#REF!</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.78</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>C2*60 +D2</f>
+        <v>850</v>
+      </c>
+      <c r="F2">
+        <f>3600/E2</f>
+        <v>4.2352941176470589</v>
+      </c>
+      <c r="G2">
+        <f>F2*B2</f>
+        <v>3.303529411764706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B3">
+        <v>0.82</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E19" si="0">C3*60 +D3</f>
+        <v>889</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F19" si="1">3600/E3</f>
+        <v>4.0494938132733411</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G19" si="2">F3*B3</f>
+        <v>3.3205849268841394</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.2</v>
+      </c>
+      <c r="B4">
+        <v>0.86</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>933</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>3.8585209003215435</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>3.3183279742765275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5.3</v>
+      </c>
+      <c r="B5">
+        <v>0.9</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3.6734693877551021</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>3.306122448979592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5.4</v>
+      </c>
+      <c r="B6">
+        <v>0.93</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1031</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.4917555771096023</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>3.2473326867119301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.5</v>
+      </c>
+      <c r="B7">
+        <v>0.95</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1086</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.3149171270718232</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>3.1491712707182318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5.6</v>
+      </c>
+      <c r="B8">
+        <v>0.97</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1146</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3.1413612565445028</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>3.0471204188481678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5.7</v>
+      </c>
+      <c r="B9">
+        <v>0.99</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1210</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2.9752066115702478</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>2.9454545454545453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5.8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1277</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.8191072826938135</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>2.8191072826938135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5.9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1349</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.6686434395848777</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>2.6686434395848777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1425</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.5263157894736841</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>2.5263157894736841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6.1</v>
+      </c>
+      <c r="B13">
+        <v>0.99</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1505</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2.3920265780730898</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2.3681063122923591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6.2</v>
+      </c>
+      <c r="B14">
+        <v>0.98</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1589</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2.2655758338577723</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2.2202643171806167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.3</v>
+      </c>
+      <c r="B15">
+        <v>0.96</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>57</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1677</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2.1466905187835419</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2.0608228980322001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6.4</v>
+      </c>
+      <c r="B16">
+        <v>0.93</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1769</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.0350480497456189</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1.8925946862634258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6.4999999999999902</v>
+      </c>
+      <c r="B17">
+        <v>0.9</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1865</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1.9302949061662198</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>1.7372654155495979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6.5999999999999899</v>
+      </c>
+      <c r="B18">
+        <v>0.87</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1965</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.83206106870229</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>1.5938931297709924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6.6999999999999904</v>
+      </c>
+      <c r="B19">
+        <v>0.82</v>
+      </c>
+      <c r="C19">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>2070</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.7391304347826086</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1.4260869565217391</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G19">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Documents\SimCompanies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Production</t>
   </si>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t>Best price to get more utility daily</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sausages: </t>
+  </si>
+  <si>
+    <t>Eggs:</t>
+  </si>
+  <si>
+    <t>Best price to get the most utility</t>
+  </si>
+  <si>
+    <t>Revenue less wages per unit</t>
+  </si>
+  <si>
+    <t>unit production price</t>
+  </si>
+  <si>
+    <t>Units sold per hour</t>
   </si>
 </sst>
 </file>
@@ -340,6 +361,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -414,6 +436,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -796,6 +819,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -870,6 +894,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3160,7 +3185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -3512,7 +3537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -3934,507 +3959,863 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.78</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <f>C2*60 +D2</f>
+      <c r="F2">
+        <f>D2*60 +E2</f>
         <v>850</v>
       </c>
-      <c r="F2">
-        <f>3600/E2</f>
+      <c r="G2">
+        <f>3600/F2</f>
         <v>4.2352941176470589</v>
       </c>
-      <c r="G2">
-        <f>F2*B2</f>
+      <c r="H2">
+        <f>G2*C2</f>
         <v>3.303529411764706</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.82</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>49</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E19" si="0">C3*60 +D3</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F19" si="0">D3*60 +E3</f>
         <v>889</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F19" si="1">3600/E3</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G19" si="1">3600/F3</f>
         <v>4.0494938132733411</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G19" si="2">F3*B3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H19" si="2">G3*C3</f>
         <v>3.3205849268841394</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.86</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>33</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>933</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>3.8585209003215435</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="2"/>
         <v>3.3183279742765275</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.9</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>980</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>3.6734693877551021</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="2"/>
         <v>3.306122448979592</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.93</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>1031</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>3.4917555771096023</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="2"/>
         <v>3.2473326867119301</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.95</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>1086</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>3.3149171270718232</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="2"/>
         <v>3.1491712707182318</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.97</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>1146</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>3.1413612565445028</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="2"/>
         <v>3.0471204188481678</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.7</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.99</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>1210</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>2.9752066115702478</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="2"/>
         <v>2.9454545454545453</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>21</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>1277</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>2.8191072826938135</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="2"/>
         <v>2.8191072826938135</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>22</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>29</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>1349</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>2.6686434395848777</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="2"/>
         <v>2.6686434395848777</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>23</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>45</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>1425</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>2.5263157894736841</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="2"/>
         <v>2.5263157894736841</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6.1</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.99</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>25</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>1505</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>2.3920265780730898</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="2"/>
         <v>2.3681063122923591</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6.2</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.98</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>26</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>29</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>1589</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>2.2655758338577723</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>2.2202643171806167</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6.3</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.96</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>57</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>1677</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>2.1466905187835419</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>2.0608228980322001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6.4</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.93</v>
-      </c>
-      <c r="C16">
-        <v>29</v>
       </c>
       <c r="D16">
         <v>29</v>
       </c>
       <c r="E16">
+        <v>29</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>1769</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>2.0350480497456189</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="2"/>
         <v>1.8925946862634258</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.4999999999999902</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.9</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>31</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>1865</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>1.9302949061662198</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="2"/>
         <v>1.7372654155495979</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6.5999999999999899</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.87</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>32</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>45</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>1965</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>1.83206106870229</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="2"/>
         <v>1.5938931297709924</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.6999999999999904</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.82</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>34</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>30</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>2070</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>1.7391304347826086</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="2"/>
         <v>1.4260869565217391</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <f>0.933</f>
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.99</v>
+      </c>
+      <c r="B25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C25">
+        <v>421.55</v>
+      </c>
+      <c r="D25">
+        <f>B25-$E$23</f>
+        <v>-0.3630000000000001</v>
+      </c>
+      <c r="E25">
+        <f>D25*C25</f>
+        <v>-153.02265000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="B26">
+        <v>0.72</v>
+      </c>
+      <c r="C26">
+        <v>480</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D42" si="3">B26-$E$23</f>
+        <v>-0.21300000000000008</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E38" si="4">D26*C26</f>
+        <v>-102.24000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.19</v>
+      </c>
+      <c r="B27">
+        <v>0.85</v>
+      </c>
+      <c r="C27">
+        <v>525</v>
+      </c>
+      <c r="D27">
+        <f>B27-$E$23</f>
+        <v>-8.3000000000000074E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>-43.575000000000038</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.29</v>
+      </c>
+      <c r="B28">
+        <v>0.96</v>
+      </c>
+      <c r="C28">
+        <v>544.63</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>2.6999999999999913E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>14.705009999999952</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.39</v>
+      </c>
+      <c r="B29">
+        <v>1.06</v>
+      </c>
+      <c r="C29">
+        <v>530.97</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>0.127</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>67.43319000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.49</v>
+      </c>
+      <c r="B30">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C30">
+        <v>490.46</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>0.19699999999999984</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>96.620619999999917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.59</v>
+      </c>
+      <c r="B31">
+        <v>1.18</v>
+      </c>
+      <c r="C31">
+        <v>433.21</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>0.24699999999999989</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>107.00286999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.69</v>
+      </c>
+      <c r="B32">
+        <v>1.21</v>
+      </c>
+      <c r="C32">
+        <v>371.9</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>0.27699999999999991</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>103.01629999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.79</v>
+      </c>
+      <c r="B33">
+        <v>1.23</v>
+      </c>
+      <c r="C33">
+        <v>314.41000000000003</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>0.29699999999999993</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>93.379769999999979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.89</v>
+      </c>
+      <c r="B34">
+        <v>1.22</v>
+      </c>
+      <c r="C34">
+        <v>264.12</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>0.28699999999999992</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>75.802439999999976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.99</v>
+      </c>
+      <c r="B35">
+        <v>1.19</v>
+      </c>
+      <c r="C35">
+        <v>222.09</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>0.2569999999999999</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>57.077129999999975</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2.09</v>
+      </c>
+      <c r="B36">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C36">
+        <v>187.6</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>0.21699999999999986</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>40.709199999999974</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2.19</v>
+      </c>
+      <c r="B37">
+        <v>1.08</v>
+      </c>
+      <c r="C37">
+        <v>159.5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>0.14700000000000002</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>23.446500000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2.29</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>136.62</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>6.6999999999999948E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>9.1535399999999925</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F19">
+  <conditionalFormatting sqref="G2:G19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G42">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H42">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4446,7 +4827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G19">
+  <conditionalFormatting sqref="D25:D38">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +786,7 @@
         <v>159.84</v>
       </c>
       <c r="G24" s="1">
-        <f>$E$2*F24</f>
+        <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
         <v>46.065888000000001</v>
       </c>
       <c r="H24">
@@ -815,11 +815,11 @@
         <v>65.12</v>
       </c>
       <c r="G25" s="1">
-        <f>$E$2*F25</f>
+        <f t="shared" si="0"/>
         <v>18.767584000000003</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H52" si="0">D25+F25+G25</f>
+        <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
         <v>2158.8875840000001</v>
       </c>
     </row>
@@ -844,11 +844,11 @@
         <v>117.22</v>
       </c>
       <c r="G26" s="1">
-        <f>$E$2*F26</f>
+        <f t="shared" si="0"/>
         <v>33.782803999999999</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9601.0028039999997</v>
       </c>
     </row>
@@ -873,11 +873,11 @@
         <v>43.96</v>
       </c>
       <c r="G27" s="1">
-        <f>$E$2*F27</f>
+        <f t="shared" si="0"/>
         <v>12.669272000000001</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>510.62927199999996</v>
       </c>
     </row>
@@ -902,11 +902,11 @@
         <v>175.82</v>
       </c>
       <c r="G28" s="1">
-        <f>$E$2*F28</f>
+        <f t="shared" si="0"/>
         <v>50.671323999999998</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100543.08142400002</v>
       </c>
     </row>
@@ -931,11 +931,11 @@
         <v>351.65</v>
       </c>
       <c r="G29" s="1">
-        <f>$E$2*F29</f>
+        <f t="shared" si="0"/>
         <v>101.34553</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>619219.04662200005</v>
       </c>
     </row>
@@ -960,11 +960,11 @@
         <v>1758.23</v>
       </c>
       <c r="G30" s="1">
-        <f>$E$2*F30</f>
+        <f t="shared" si="0"/>
         <v>506.72188600000004</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>153448.52208400003</v>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>81.629768000000013</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4960.8697679999996</v>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
         <v>81.629768000000013</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5286.8697679999996</v>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
         <v>68.023846000000006</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1392.053846</v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <v>1632.56654</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48695.225843999993</v>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
         <v>573.34796200000005</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7262.7579619999997</v>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>573.34796200000005</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10332.757962</v>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
         <v>286.67254000000003</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11410.37254</v>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
         <v>191.11694800000001</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4629.2569480000002</v>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
         <v>28.667254</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>549.63725399999998</v>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
         <v>304.61299000000002</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109167.40237600001</v>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
         <v>913.83897000000002</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>776752.25767600012</v>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         <v>3046.1327820000001</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>220971.52147000004</v>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
         <v>1142.300874</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75811.712138000003</v>
       </c>
     </row>
@@ -1450,11 +1450,12 @@
         <v>130.54883600000002</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33505.058130000005</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="H24:H52">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
+    <sheet name="Jumbo jet" sheetId="8" r:id="rId1"/>
+    <sheet name="Luxury jet" sheetId="7" r:id="rId2"/>
+    <sheet name="s. Engine" sheetId="11" r:id="rId3"/>
+    <sheet name="BFRs" sheetId="9" r:id="rId4"/>
+    <sheet name="SORs" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="71">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -252,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +266,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,13 +324,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +791,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1">
@@ -795,7 +820,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="1">
@@ -824,10 +849,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -853,7 +878,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
@@ -882,7 +907,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1">
@@ -911,7 +936,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="1">
@@ -940,7 +965,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="1">
@@ -989,7 +1014,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="1">
@@ -1018,7 +1043,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="1">
@@ -1047,7 +1072,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="1">
@@ -1076,7 +1101,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="1">
@@ -1125,7 +1150,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="1">
@@ -1154,7 +1179,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1">
@@ -1183,7 +1208,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -1212,7 +1237,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="1">
@@ -1290,7 +1315,7 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -1319,7 +1344,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="1">
@@ -1368,7 +1393,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1">
@@ -1397,7 +1422,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="1">
@@ -1455,7 +1480,3542 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="H24:H52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.28820000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <f>40*B3</f>
+        <v>2640</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="F24" s="1">
+        <v>159.84</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
+        <v>46.065888000000001</v>
+      </c>
+      <c r="H24">
+        <f>D24+F24+G24</f>
+        <v>2845.9058880000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <f>30*B3+5*B4</f>
+        <v>2075</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="F25" s="1">
+        <v>65.12</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>18.767584000000003</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
+        <v>2158.8875840000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <f>50*B4+250*B5</f>
+        <v>9450</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>117.22</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>33.782803999999999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>9601.0028039999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <f>20*B8+30*B9</f>
+        <v>454</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13.34</v>
+      </c>
+      <c r="F27" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>12.669272000000001</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>510.62927199999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1">
+        <f>8*H24+2*H26+2*H33+4*H41+2*H35</f>
+        <v>100316.59010000002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="F28" s="1">
+        <v>175.82</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>50.671323999999998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>100543.08142400002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <f>40*H24+16*H26+34*H40</f>
+        <v>618766.05109199998</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="F29" s="1">
+        <v>351.65</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>101.34553</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>619219.04662200005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <f>2*H34+10*H27+4*H35+6*H26+7*H40</f>
+        <v>151183.570198</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1758.23</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>506.72188600000004</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>153448.52208400003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <f>4*B10+2*B11</f>
+        <v>4596</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F33" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G33" s="1">
+        <f>$E$2*F33</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>4960.8697679999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <f>4*B10+8*B12+B6</f>
+        <v>4922</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F34" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G34" s="1">
+        <f>$E$2*F34</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>5286.8697679999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <f>3*B8+5*B13+3*B14</f>
+        <v>1088</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="F35" s="1">
+        <v>236.03</v>
+      </c>
+      <c r="G35" s="1">
+        <f>$E$2*F35</f>
+        <v>68.023846000000006</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1392.053846</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1">
+        <f>8*B10+4*H33+H41+2*H35</f>
+        <v>41397.959303999996</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5664.7</v>
+      </c>
+      <c r="G36" s="1">
+        <f>$E$2*F36</f>
+        <v>1632.56654</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>48695.225843999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1">
+        <f>30*B4+100*B5+50*B15</f>
+        <v>4700</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G39" s="1">
+        <f>$E$2*F39</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>7262.7579619999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1">
+        <f>20*B8+8*B10+10*B4</f>
+        <v>7770</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G40" s="1">
+        <f>$E$2*F40</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>10332.757962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1">
+        <f>8*B10+30*B13+15*B15</f>
+        <v>10129</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F41" s="1">
+        <v>994.7</v>
+      </c>
+      <c r="G41" s="1">
+        <f>$E$2*F41</f>
+        <v>286.67254000000003</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>11410.37254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1">
+        <f>4*B10+5*B4</f>
+        <v>3775</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F42" s="1">
+        <v>663.14</v>
+      </c>
+      <c r="G42" s="1">
+        <f>$E$2*F42</f>
+        <v>191.11694800000001</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>4629.2569480000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="1">
+        <f>6*B8+5*B15+5*B16</f>
+        <v>421.5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="F43" s="1">
+        <v>99.47</v>
+      </c>
+      <c r="G43" s="1">
+        <f>$E$2*F43</f>
+        <v>28.667254</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>549.63725399999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1">
+        <f>H39+H28</f>
+        <v>107805.83938600002</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1056.95</v>
+      </c>
+      <c r="G46" s="1">
+        <f>$E$2*F46</f>
+        <v>304.61299000000002</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>109167.40237600001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="1">
+        <f>H29+H30</f>
+        <v>772667.56870600011</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3170.85</v>
+      </c>
+      <c r="G47" s="1">
+        <f>$E$2*F47</f>
+        <v>913.83897000000002</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>776752.25767600012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1">
+        <f>40*H24+10*H25+2*H34+140*B6+4*H42</f>
+        <v>207355.87868800003</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10569.51</v>
+      </c>
+      <c r="G50" s="1">
+        <f>$E$2*F50</f>
+        <v>3046.1327820000001</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>220971.52147000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="1">
+        <f>14*H24+2*H25+H34+2*B7+2*H42</f>
+        <v>70705.841264000002</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3963.57</v>
+      </c>
+      <c r="G51" s="1">
+        <f>$E$2*F51</f>
+        <v>1142.300874</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>75811.712138000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5">
+        <v>100</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1">
+        <f>8*H24+2*H25+H34+H43</f>
+        <v>32921.529294</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="F52" s="1">
+        <v>452.98</v>
+      </c>
+      <c r="G52" s="1">
+        <f>$E$2*F52</f>
+        <v>130.54883600000002</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>33505.058130000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H24:H52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.28820000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <f>40*B3</f>
+        <v>2640</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="F24" s="1">
+        <v>159.84</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
+        <v>46.065888000000001</v>
+      </c>
+      <c r="H24">
+        <f>D24+F24+G24</f>
+        <v>2845.9058880000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <f>30*B3+5*B4</f>
+        <v>2075</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="F25" s="1">
+        <v>65.12</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>18.767584000000003</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
+        <v>2158.8875840000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <f>50*B4+250*B5</f>
+        <v>9450</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>117.22</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>33.782803999999999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>9601.0028039999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <f>20*B8+30*B9</f>
+        <v>454</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13.34</v>
+      </c>
+      <c r="F27" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>12.669272000000001</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>510.62927199999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1">
+        <f>8*H24+2*H26+2*H33+4*H41+2*H35</f>
+        <v>100316.59010000002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="F28" s="1">
+        <v>175.82</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>50.671323999999998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>100543.08142400002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <f>40*H24+16*H26+34*H40</f>
+        <v>618766.05109199998</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="F29" s="1">
+        <v>351.65</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>101.34553</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>619219.04662200005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <f>2*H34+10*H27+4*H35+6*H26+7*H40</f>
+        <v>151183.570198</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1758.23</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>506.72188600000004</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>153448.52208400003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <f>4*B10+2*B11</f>
+        <v>4596</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F33" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G33" s="1">
+        <f>$E$2*F33</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>4960.8697679999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <f>4*B10+8*B12+B6</f>
+        <v>4922</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F34" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G34" s="1">
+        <f>$E$2*F34</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>5286.8697679999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <f>3*B8+5*B13+3*B14</f>
+        <v>1088</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="F35" s="1">
+        <v>236.03</v>
+      </c>
+      <c r="G35" s="1">
+        <f>$E$2*F35</f>
+        <v>68.023846000000006</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1392.053846</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1">
+        <f>8*B10+4*H33+H41+2*H35</f>
+        <v>41397.959303999996</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5664.7</v>
+      </c>
+      <c r="G36" s="1">
+        <f>$E$2*F36</f>
+        <v>1632.56654</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>48695.225843999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1">
+        <f>30*B4+100*B5+50*B15</f>
+        <v>4700</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G39" s="1">
+        <f>$E$2*F39</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>7262.7579619999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1">
+        <f>20*B8+8*B10+10*B4</f>
+        <v>7770</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G40" s="1">
+        <f>$E$2*F40</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>10332.757962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1">
+        <f>8*B10+30*B13+15*B15</f>
+        <v>10129</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F41" s="1">
+        <v>994.7</v>
+      </c>
+      <c r="G41" s="1">
+        <f>$E$2*F41</f>
+        <v>286.67254000000003</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>11410.37254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1">
+        <f>4*B10+5*B4</f>
+        <v>3775</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F42" s="1">
+        <v>663.14</v>
+      </c>
+      <c r="G42" s="1">
+        <f>$E$2*F42</f>
+        <v>191.11694800000001</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>4629.2569480000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="1">
+        <f>6*B8+5*B15+5*B16</f>
+        <v>421.5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="F43" s="1">
+        <v>99.47</v>
+      </c>
+      <c r="G43" s="1">
+        <f>$E$2*F43</f>
+        <v>28.667254</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>549.63725399999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1">
+        <f>H39+H28</f>
+        <v>107805.83938600002</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1056.95</v>
+      </c>
+      <c r="G46" s="1">
+        <f>$E$2*F46</f>
+        <v>304.61299000000002</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>109167.40237600001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="1">
+        <f>H29+H30</f>
+        <v>772667.56870600011</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3170.85</v>
+      </c>
+      <c r="G47" s="1">
+        <f>$E$2*F47</f>
+        <v>913.83897000000002</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>776752.25767600012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1">
+        <f>40*H24+10*H25+2*H34+140*B6+4*H42</f>
+        <v>207355.87868800003</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10569.51</v>
+      </c>
+      <c r="G50" s="1">
+        <f>$E$2*F50</f>
+        <v>3046.1327820000001</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>220971.52147000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="1">
+        <f>14*H24+2*H25+H34+2*B7+2*H42</f>
+        <v>70705.841264000002</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3963.57</v>
+      </c>
+      <c r="G51" s="1">
+        <f>$E$2*F51</f>
+        <v>1142.300874</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>75811.712138000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5">
+        <v>100</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1">
+        <f>8*H24+2*H25+H34+H43</f>
+        <v>32921.529294</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="F52" s="1">
+        <v>452.98</v>
+      </c>
+      <c r="G52" s="1">
+        <f>$E$2*F52</f>
+        <v>130.54883600000002</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>33505.058130000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H24:H52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.28820000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <f>40*B3</f>
+        <v>2640</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="F24" s="1">
+        <v>159.84</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
+        <v>46.065888000000001</v>
+      </c>
+      <c r="H24">
+        <f>D24+F24+G24</f>
+        <v>2845.9058880000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <f>30*B3+5*B4</f>
+        <v>2075</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="F25" s="1">
+        <v>65.12</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>18.767584000000003</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
+        <v>2158.8875840000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <f>50*B4+250*B5</f>
+        <v>9450</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>117.22</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>33.782803999999999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>9601.0028039999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <f>20*B8+30*B9</f>
+        <v>454</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13.34</v>
+      </c>
+      <c r="F27" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>12.669272000000001</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>510.62927199999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1">
+        <f>8*H24+2*H26+2*H33+4*H41+2*H35</f>
+        <v>100316.59010000002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="F28" s="1">
+        <v>175.82</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>50.671323999999998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>100543.08142400002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <f>40*H24+16*H26+34*H40</f>
+        <v>618766.05109199998</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="F29" s="1">
+        <v>351.65</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>101.34553</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>619219.04662200005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <f>2*H34+10*H27+4*H35+6*H26+7*H40</f>
+        <v>151183.570198</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1758.23</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>506.72188600000004</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>153448.52208400003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <f>4*B10+2*B11</f>
+        <v>4596</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F33" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G33" s="1">
+        <f>$E$2*F33</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>4960.8697679999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <f>4*B10+8*B12+B6</f>
+        <v>4922</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F34" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G34" s="1">
+        <f>$E$2*F34</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>5286.8697679999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <f>3*B8+5*B13+3*B14</f>
+        <v>1088</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="F35" s="1">
+        <v>236.03</v>
+      </c>
+      <c r="G35" s="1">
+        <f>$E$2*F35</f>
+        <v>68.023846000000006</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1392.053846</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1">
+        <f>8*B10+4*H33+H41+2*H35</f>
+        <v>41397.959303999996</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5664.7</v>
+      </c>
+      <c r="G36" s="1">
+        <f>$E$2*F36</f>
+        <v>1632.56654</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>48695.225843999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1">
+        <f>30*B4+100*B5+50*B15</f>
+        <v>4700</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G39" s="1">
+        <f>$E$2*F39</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>7262.7579619999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1">
+        <f>20*B8+8*B10+10*B4</f>
+        <v>7770</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G40" s="1">
+        <f>$E$2*F40</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>10332.757962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1">
+        <f>8*B10+30*B13+15*B15</f>
+        <v>10129</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F41" s="1">
+        <v>994.7</v>
+      </c>
+      <c r="G41" s="1">
+        <f>$E$2*F41</f>
+        <v>286.67254000000003</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>11410.37254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1">
+        <f>4*B10+5*B4</f>
+        <v>3775</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F42" s="1">
+        <v>663.14</v>
+      </c>
+      <c r="G42" s="1">
+        <f>$E$2*F42</f>
+        <v>191.11694800000001</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>4629.2569480000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="1">
+        <f>6*B8+5*B15+5*B16</f>
+        <v>421.5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="F43" s="1">
+        <v>99.47</v>
+      </c>
+      <c r="G43" s="1">
+        <f>$E$2*F43</f>
+        <v>28.667254</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>549.63725399999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1">
+        <f>H39+H28</f>
+        <v>107805.83938600002</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1056.95</v>
+      </c>
+      <c r="G46" s="1">
+        <f>$E$2*F46</f>
+        <v>304.61299000000002</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>109167.40237600001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="1">
+        <f>H29+H30</f>
+        <v>772667.56870600011</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3170.85</v>
+      </c>
+      <c r="G47" s="1">
+        <f>$E$2*F47</f>
+        <v>913.83897000000002</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>776752.25767600012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1">
+        <f>40*H24+10*H25+2*H34+140*B6+4*H42</f>
+        <v>207355.87868800003</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10569.51</v>
+      </c>
+      <c r="G50" s="1">
+        <f>$E$2*F50</f>
+        <v>3046.1327820000001</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>220971.52147000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="1">
+        <f>14*H24+2*H25+H34+2*B7+2*H42</f>
+        <v>70705.841264000002</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3963.57</v>
+      </c>
+      <c r="G51" s="1">
+        <f>$E$2*F51</f>
+        <v>1142.300874</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>75811.712138000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5">
+        <v>100</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1">
+        <f>8*H24+2*H25+H34+H43</f>
+        <v>32921.529294</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="F52" s="1">
+        <v>452.98</v>
+      </c>
+      <c r="G52" s="1">
+        <f>$E$2*F52</f>
+        <v>130.54883600000002</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>33505.058130000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H24:H52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.28820000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <f>40*B3</f>
+        <v>2640</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="F24" s="1">
+        <v>159.84</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
+        <v>46.065888000000001</v>
+      </c>
+      <c r="H24">
+        <f>D24+F24+G24</f>
+        <v>2845.9058880000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <f>30*B3+5*B4</f>
+        <v>2075</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="F25" s="1">
+        <v>65.12</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>18.767584000000003</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
+        <v>2158.8875840000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <f>50*B4+250*B5</f>
+        <v>9450</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>117.22</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>33.782803999999999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>9601.0028039999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <f>20*B8+30*B9</f>
+        <v>454</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13.34</v>
+      </c>
+      <c r="F27" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>12.669272000000001</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>510.62927199999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1">
+        <f>8*H24+2*H26+2*H33+4*H41+2*H35</f>
+        <v>100316.59010000002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="F28" s="1">
+        <v>175.82</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>50.671323999999998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>100543.08142400002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <f>40*H24+16*H26+34*H40</f>
+        <v>618766.05109199998</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="F29" s="1">
+        <v>351.65</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>101.34553</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>619219.04662200005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <f>2*H34+10*H27+4*H35+6*H26+7*H40</f>
+        <v>151183.570198</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1758.23</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>506.72188600000004</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>153448.52208400003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <f>4*B10+2*B11</f>
+        <v>4596</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F33" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G33" s="1">
+        <f>$E$2*F33</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>4960.8697679999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <f>4*B10+8*B12+B6</f>
+        <v>4922</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F34" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G34" s="1">
+        <f>$E$2*F34</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>5286.8697679999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <f>3*B8+5*B13+3*B14</f>
+        <v>1088</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="F35" s="1">
+        <v>236.03</v>
+      </c>
+      <c r="G35" s="1">
+        <f>$E$2*F35</f>
+        <v>68.023846000000006</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1392.053846</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1">
+        <f>8*B10+4*H33+H41+2*H35</f>
+        <v>41397.959303999996</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5664.7</v>
+      </c>
+      <c r="G36" s="1">
+        <f>$E$2*F36</f>
+        <v>1632.56654</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>48695.225843999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1">
+        <f>30*B4+100*B5+50*B15</f>
+        <v>4700</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G39" s="1">
+        <f>$E$2*F39</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>7262.7579619999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1">
+        <f>20*B8+8*B10+10*B4</f>
+        <v>7770</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G40" s="1">
+        <f>$E$2*F40</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>10332.757962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1">
+        <f>8*B10+30*B13+15*B15</f>
+        <v>10129</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F41" s="1">
+        <v>994.7</v>
+      </c>
+      <c r="G41" s="1">
+        <f>$E$2*F41</f>
+        <v>286.67254000000003</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>11410.37254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1">
+        <f>4*B10+5*B4</f>
+        <v>3775</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F42" s="1">
+        <v>663.14</v>
+      </c>
+      <c r="G42" s="1">
+        <f>$E$2*F42</f>
+        <v>191.11694800000001</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>4629.2569480000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="1">
+        <f>6*B8+5*B15+5*B16</f>
+        <v>421.5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="F43" s="1">
+        <v>99.47</v>
+      </c>
+      <c r="G43" s="1">
+        <f>$E$2*F43</f>
+        <v>28.667254</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>549.63725399999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1">
+        <f>H39+H28</f>
+        <v>107805.83938600002</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1056.95</v>
+      </c>
+      <c r="G46" s="1">
+        <f>$E$2*F46</f>
+        <v>304.61299000000002</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>109167.40237600001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="1">
+        <f>H29+H30</f>
+        <v>772667.56870600011</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3170.85</v>
+      </c>
+      <c r="G47" s="1">
+        <f>$E$2*F47</f>
+        <v>913.83897000000002</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>776752.25767600012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1">
+        <f>40*H24+10*H25+2*H34+140*B6+4*H42</f>
+        <v>207355.87868800003</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10569.51</v>
+      </c>
+      <c r="G50" s="1">
+        <f>$E$2*F50</f>
+        <v>3046.1327820000001</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>220971.52147000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="1">
+        <f>14*H24+2*H25+H34+2*B7+2*H42</f>
+        <v>70705.841264000002</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3963.57</v>
+      </c>
+      <c r="G51" s="1">
+        <f>$E$2*F51</f>
+        <v>1142.300874</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>75811.712138000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5">
+        <v>100</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1">
+        <f>8*H24+2*H25+H34+H43</f>
+        <v>32921.529294</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="F52" s="1">
+        <v>452.98</v>
+      </c>
+      <c r="G52" s="1">
+        <f>$E$2*F52</f>
+        <v>130.54883600000002</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>33505.058130000005</v>
+      </c>
+    </row>
+  </sheetData>
   <conditionalFormatting sqref="H24:H52">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Jumbo jet" sheetId="8" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="s. Engine" sheetId="11" r:id="rId3"/>
     <sheet name="BFRs" sheetId="9" r:id="rId4"/>
     <sheet name="SORs" sheetId="5" r:id="rId5"/>
+    <sheet name="All of them" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="83">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -241,13 +242,49 @@
   </si>
   <si>
     <t>In order to become an Aerospacial supplier/ retailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">required labor hours </t>
+  </si>
+  <si>
+    <t>required hours aerospace factory</t>
+  </si>
+  <si>
+    <t>required vertical integration facilities</t>
+  </si>
+  <si>
+    <t>required hours propulsion</t>
+  </si>
+  <si>
+    <t>required hours aerospace electronics</t>
+  </si>
+  <si>
+    <t>total hours vertical integration</t>
+  </si>
+  <si>
+    <t>total hours propulsion factory</t>
+  </si>
+  <si>
+    <t>total hours aerospace factory</t>
+  </si>
+  <si>
+    <t>total hours aerospace electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total hours </t>
+  </si>
+  <si>
+    <t>labor times in building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proportional labor times </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,8 +292,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,12 +334,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -320,11 +383,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -333,7 +405,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3266,10 +3351,1294 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H52"/>
+  <dimension ref="A2:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.28820000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <f>40*B3</f>
+        <v>2640</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="F24" s="1">
+        <v>159.84</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ref="G24:G28" si="0">$E$2*F24</f>
+        <v>46.065888000000001</v>
+      </c>
+      <c r="H24">
+        <f>D24+F24+G24</f>
+        <v>2845.9058880000002</v>
+      </c>
+      <c r="J24">
+        <f>1/E24*40</f>
+        <v>10.899182561307903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1">
+        <f>50*B4+250*B5</f>
+        <v>9450</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>117.22</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>33.782803999999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H38" si="1">D25+F25+G25</f>
+        <v>9601.0028039999997</v>
+      </c>
+      <c r="J25">
+        <f>1/E25*(16+6)</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1">
+        <f>20*B8+30*B9</f>
+        <v>454</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13.34</v>
+      </c>
+      <c r="F26" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>12.669272000000001</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>510.62927199999996</v>
+      </c>
+      <c r="J26">
+        <f>1/E26*10</f>
+        <v>0.74962518740629691</v>
+      </c>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>100</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <f>40*H24+16*H25+34*H35</f>
+        <v>618766.05109199998</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="F27" s="1">
+        <v>351.65</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>101.34553</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>619219.04662200005</v>
+      </c>
+      <c r="J27">
+        <f>1/E27</f>
+        <v>0.5988023952095809</v>
+      </c>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1">
+        <f>2*H31+10*H26+4*H32+6*H25+7*H35</f>
+        <v>151183.570198</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1758.23</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>506.72188600000004</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>153448.52208400003</v>
+      </c>
+      <c r="J28" s="17">
+        <f>1/E28</f>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="J29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="19">
+        <f>SUM(J24:J28)</f>
+        <v>19.677913174226813</v>
+      </c>
+      <c r="L29">
+        <f>K29/$K$41</f>
+        <v>0.12439666233684535</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <f>4*B10+8*B12+B6</f>
+        <v>4922</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F31" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G31" s="1">
+        <f>$E$2*F31</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>5286.8697679999996</v>
+      </c>
+      <c r="J31">
+        <f>1/E31*2</f>
+        <v>0.78125</v>
+      </c>
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1">
+        <f>3*B8+5*B13+3*B14</f>
+        <v>1088</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="F32" s="1">
+        <v>236.03</v>
+      </c>
+      <c r="G32" s="1">
+        <f>$E$2*F32</f>
+        <v>68.023846000000006</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>1392.053846</v>
+      </c>
+      <c r="J32" s="17">
+        <f>1/E32*4</f>
+        <v>1.3029315960912053</v>
+      </c>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="J33" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" s="19">
+        <f>SUM(J31:J32)</f>
+        <v>2.0841815960912053</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L30:L39" si="2">K33/$K$41</f>
+        <v>1.3175443552479855E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="K34" s="19"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="15">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1">
+        <f>20*B8+8*B10+10*B4</f>
+        <v>7770</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G35" s="1">
+        <f>$E$2*F35</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>10332.757962</v>
+      </c>
+      <c r="J35" s="17">
+        <f>1/E35*(34+7)</f>
+        <v>132.25806451612905</v>
+      </c>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="J36" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <f>SUM(J35)</f>
+        <v>132.25806451612905</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>0.83608773182749174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="1">
+        <f>H27+H28</f>
+        <v>772667.56870600011</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3170.85</v>
+      </c>
+      <c r="G38" s="1">
+        <f>$E$2*F38</f>
+        <v>913.83897000000002</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>776752.25767600012</v>
+      </c>
+      <c r="J38" s="17">
+        <f>1/E38</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J39" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <f>SUM(J38)</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>2.6340162283183172E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J41" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41">
+        <f>SUM(K29:K39)</f>
+        <v>158.18682595311373</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K37">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H43">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:L39">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BDF16AA2-396F-4E5D-AEC7-EB8761326BA0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BDF16AA2-396F-4E5D-AEC7-EB8761326BA0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L29:L39</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L40"/>
+  <sheetViews>
+    <sheetView topLeftCell="F13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.28820000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <f>40*B3</f>
+        <v>2640</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="F24" s="1">
+        <v>159.84</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ref="G24:G26" si="0">$E$2*F24</f>
+        <v>46.065888000000001</v>
+      </c>
+      <c r="H24">
+        <f>D24+F24+G24</f>
+        <v>2845.9058880000002</v>
+      </c>
+      <c r="J24">
+        <f>1/E24*8</f>
+        <v>2.1798365122615806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1">
+        <f>50*B4+250*B5</f>
+        <v>9450</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>117.22</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>33.782803999999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H37" si="1">D25+F25+G25</f>
+        <v>9601.0028039999997</v>
+      </c>
+      <c r="J25">
+        <f>1/E25*2</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <f>8*H24+2*H25+2*H29+4*H34+2*H30</f>
+        <v>100316.59010000002</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="F26" s="1">
+        <v>175.82</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>50.671323999999998</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>100543.08142400002</v>
+      </c>
+      <c r="J26" s="17">
+        <f>1/E26</f>
+        <v>0.29940119760479045</v>
+      </c>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="J27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27">
+        <f>SUM(J24:J26)</f>
+        <v>2.8792377098663708</v>
+      </c>
+      <c r="L27">
+        <f>K27/$K$40</f>
+        <v>0.20581606753315429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1">
+        <f>4*B10+2*B11</f>
+        <v>4596</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F29" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G29" s="1">
+        <f>$E$2*F29</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>4960.8697679999996</v>
+      </c>
+      <c r="J29">
+        <f>1/E29*2</f>
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1">
+        <f>3*B8+5*B13+3*B14</f>
+        <v>1088</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="F30" s="1">
+        <v>236.03</v>
+      </c>
+      <c r="G30" s="1">
+        <f>$E$2*F30</f>
+        <v>68.023846000000006</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>1392.053846</v>
+      </c>
+      <c r="J30" s="17">
+        <f>1/E30*2</f>
+        <v>0.65146579804560267</v>
+      </c>
+      <c r="K30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="J31" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31">
+        <f>SUM(J29:J30)</f>
+        <v>1.4327157980456027</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L28:L38" si="2">K31/$K$40</f>
+        <v>0.10241458370592693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1">
+        <f>30*B4+100*B5+50*B15</f>
+        <v>4700</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G33" s="1">
+        <f>$E$2*F33</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>7262.7579619999997</v>
+      </c>
+      <c r="J33">
+        <f>1/E33</f>
+        <v>3.2258064516129035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="1">
+        <f>8*B10+30*B13+15*B15</f>
+        <v>10129</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F34" s="1">
+        <v>994.7</v>
+      </c>
+      <c r="G34" s="1">
+        <f>$E$2*F34</f>
+        <v>286.67254000000003</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>11410.37254</v>
+      </c>
+      <c r="J34" s="17">
+        <f>1/E34*4</f>
+        <v>6.4516129032258069</v>
+      </c>
+      <c r="K34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="J35" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35">
+        <f>SUM(J33:J34)</f>
+        <v>9.67741935483871</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>0.69176934876091867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="1">
+        <f>H33+H26</f>
+        <v>107805.83938600002</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1056.95</v>
+      </c>
+      <c r="G37" s="1">
+        <f>$E$2*F37</f>
+        <v>304.61299000000002</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>109167.40237600001</v>
+      </c>
+      <c r="J37" s="17">
+        <f>1/E37</f>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J38" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38">
+        <f>SUM(J37)</f>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>9.9281712090687396E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40">
+        <f>SUM(K23:K37)</f>
+        <v>13.989372862750685</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H24:H38 J40 H40:H43">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L38">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9BAE95EA-14E8-4362-9C45-851007743641}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9BAE95EA-14E8-4362-9C45-851007743641}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L27:L38</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,7 +4779,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +4801,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1"/>
@@ -3443,7 +4812,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1">
@@ -3501,10 +4870,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3530,7 +4899,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1">
@@ -3588,7 +4957,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="1">
@@ -3617,7 +4986,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="1">
@@ -3646,7 +5015,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3655,7 +5024,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="1"/>
@@ -3695,7 +5064,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="1">
@@ -3724,7 +5093,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="1">
@@ -3782,7 +5151,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3791,7 +5160,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="1"/>
@@ -3831,7 +5200,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1">
@@ -3947,7 +5316,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3956,7 +5325,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1"/>
@@ -3996,7 +5365,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="1">
@@ -4025,7 +5394,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -4034,7 +5403,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1"/>
@@ -4045,7 +5414,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1">
@@ -4074,7 +5443,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="1">
@@ -4103,7 +5472,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="5">
@@ -4131,889 +5500,20 @@
         <v>33505.058130000005</v>
       </c>
     </row>
-  </sheetData>
-  <conditionalFormatting sqref="H24:H52">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0.28820000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>306</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16">
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="1">
-        <f>40*B3</f>
-        <v>2640</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="F24" s="1">
-        <v>159.84</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
-        <v>46.065888000000001</v>
-      </c>
-      <c r="H24">
-        <f>D24+F24+G24</f>
-        <v>2845.9058880000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1">
-        <f>30*B3+5*B4</f>
-        <v>2075</v>
-      </c>
-      <c r="E25" s="1">
-        <v>9.01</v>
-      </c>
-      <c r="F25" s="1">
-        <v>65.12</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>18.767584000000003</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
-        <v>2158.8875840000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1">
-        <f>50*B4+250*B5</f>
-        <v>9450</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>117.22</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>33.782803999999999</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>9601.0028039999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1">
-        <f>20*B8+30*B9</f>
-        <v>454</v>
-      </c>
-      <c r="E27" s="1">
-        <v>13.34</v>
-      </c>
-      <c r="F27" s="1">
-        <v>43.96</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>12.669272000000001</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>510.62927199999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1">
-        <f>8*H24+2*H26+2*H33+4*H41+2*H35</f>
-        <v>100316.59010000002</v>
-      </c>
-      <c r="E28" s="1">
-        <v>3.34</v>
-      </c>
-      <c r="F28" s="1">
-        <v>175.82</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>50.671323999999998</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>100543.08142400002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1">
-        <v>100</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1">
-        <f>40*H24+16*H26+34*H40</f>
-        <v>618766.05109199998</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="F29" s="1">
-        <v>351.65</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>101.34553</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>619219.04662200005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
-        <v>100</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1">
-        <f>2*H34+10*H27+4*H35+6*H26+7*H40</f>
-        <v>151183.570198</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1758.23</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>506.72188600000004</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>153448.52208400003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1">
-        <f>4*B10+2*B11</f>
-        <v>4596</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2.56</v>
-      </c>
-      <c r="F33" s="1">
-        <v>283.24</v>
-      </c>
-      <c r="G33" s="1">
-        <f>$E$2*F33</f>
-        <v>81.629768000000013</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>4960.8697679999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="1">
-        <f>4*B10+8*B12+B6</f>
-        <v>4922</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2.56</v>
-      </c>
-      <c r="F34" s="1">
-        <v>283.24</v>
-      </c>
-      <c r="G34" s="1">
-        <f>$E$2*F34</f>
-        <v>81.629768000000013</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>5286.8697679999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="1">
-        <f>3*B8+5*B13+3*B14</f>
-        <v>1088</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="F35" s="1">
-        <v>236.03</v>
-      </c>
-      <c r="G35" s="1">
-        <f>$E$2*F35</f>
-        <v>68.023846000000006</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>1392.053846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="1">
-        <f>8*B10+4*H33+H41+2*H35</f>
-        <v>41397.959303999996</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="F36" s="1">
-        <v>5664.7</v>
-      </c>
-      <c r="G36" s="1">
-        <f>$E$2*F36</f>
-        <v>1632.56654</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>48695.225843999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="1">
-        <f>30*B4+100*B5+50*B15</f>
-        <v>4700</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1989.41</v>
-      </c>
-      <c r="G39" s="1">
-        <f>$E$2*F39</f>
-        <v>573.34796200000005</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>7262.7579619999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1">
-        <f>20*B8+8*B10+10*B4</f>
-        <v>7770</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1989.41</v>
-      </c>
-      <c r="G40" s="1">
-        <f>$E$2*F40</f>
-        <v>573.34796200000005</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>10332.757962</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="1">
-        <f>8*B10+30*B13+15*B15</f>
-        <v>10129</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F41" s="1">
-        <v>994.7</v>
-      </c>
-      <c r="G41" s="1">
-        <f>$E$2*F41</f>
-        <v>286.67254000000003</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>11410.37254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1">
-        <f>4*B10+5*B4</f>
-        <v>3775</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="F42" s="1">
-        <v>663.14</v>
-      </c>
-      <c r="G42" s="1">
-        <f>$E$2*F42</f>
-        <v>191.11694800000001</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>4629.2569480000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="1">
-        <f>6*B8+5*B15+5*B16</f>
-        <v>421.5</v>
-      </c>
-      <c r="E43" s="1">
-        <v>6.24</v>
-      </c>
-      <c r="F43" s="1">
-        <v>99.47</v>
-      </c>
-      <c r="G43" s="1">
-        <f>$E$2*F43</f>
-        <v>28.667254</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>549.63725399999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1">
-        <f>H39+H28</f>
-        <v>107805.83938600002</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1056.95</v>
-      </c>
-      <c r="G46" s="1">
-        <f>$E$2*F46</f>
-        <v>304.61299000000002</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>109167.40237600001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="1">
-        <f>H29+H30</f>
-        <v>772667.56870600011</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3170.85</v>
-      </c>
-      <c r="G47" s="1">
-        <f>$E$2*F47</f>
-        <v>913.83897000000002</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>776752.25767600012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="1">
-        <f>40*H24+10*H25+2*H34+140*B6+4*H42</f>
-        <v>207355.87868800003</v>
-      </c>
-      <c r="E50" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F50" s="1">
-        <v>10569.51</v>
-      </c>
-      <c r="G50" s="1">
-        <f>$E$2*F50</f>
-        <v>3046.1327820000001</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
-        <v>220971.52147000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="1">
-        <f>14*H24+2*H25+H34+2*B7+2*H42</f>
-        <v>70705.841264000002</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3963.57</v>
-      </c>
-      <c r="G51" s="1">
-        <f>$E$2*F51</f>
-        <v>1142.300874</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>75811.712138000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5">
-        <v>100</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="1">
-        <f>8*H24+2*H25+H34+H43</f>
-        <v>32921.529294</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="F52" s="1">
-        <v>452.98</v>
-      </c>
-      <c r="G52" s="1">
-        <f>$E$2*F52</f>
-        <v>130.54883600000002</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>33505.058130000005</v>
-      </c>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H24:H52">

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Jumbo jet" sheetId="8" r:id="rId1"/>
@@ -17,8 +17,59 @@
     <sheet name="s. Engine" sheetId="11" r:id="rId3"/>
     <sheet name="BFRs" sheetId="9" r:id="rId4"/>
     <sheet name="SORs" sheetId="5" r:id="rId5"/>
-    <sheet name="All of them" sheetId="12" r:id="rId6"/>
+    <sheet name="Launchpad" sheetId="13" r:id="rId6"/>
+    <sheet name="All of them" sheetId="12" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">Launchpad!$I$10:$I$11</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
+    <definedName name="solver_lhs6" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
+    <definedName name="solver_lhs7" localSheetId="5" hidden="1">Launchpad!$L$17</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">7</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">Launchpad!$L$14</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_rel6" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">10</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">entero</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">10</definedName>
+    <definedName name="solver_rhs5" localSheetId="5" hidden="1">entero</definedName>
+    <definedName name="solver_rhs6" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rhs7" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="100">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -278,13 +329,67 @@
   </si>
   <si>
     <t xml:space="preserve">proportional labor times </t>
+  </si>
+  <si>
+    <t xml:space="preserve">buillding cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">probability of incidence </t>
+  </si>
+  <si>
+    <t>launchpad lvl</t>
+  </si>
+  <si>
+    <t>time to launch</t>
+  </si>
+  <si>
+    <t>BFR Quality</t>
+  </si>
+  <si>
+    <t>Research cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFR costs: </t>
+  </si>
+  <si>
+    <t>research value:</t>
+  </si>
+  <si>
+    <t>Launchpad lvl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFR quality </t>
+  </si>
+  <si>
+    <t>costs</t>
+  </si>
+  <si>
+    <t>time/probability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">daily return </t>
+  </si>
+  <si>
+    <t xml:space="preserve">investment </t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>optimo según solver ROI!!</t>
+  </si>
+  <si>
+    <t>optimo según solver daily return!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,8 +411,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +459,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,10 +517,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -419,8 +544,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3353,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3529,7 +3659,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1">
@@ -3562,10 +3692,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="23">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3595,7 +3725,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="1">
@@ -3730,7 +3860,7 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
@@ -3764,7 +3894,7 @@
       <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -3813,7 +3943,7 @@
         <v>2.0841815960912053</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L30:L39" si="2">K33/$K$41</f>
+        <f t="shared" ref="L33:L39" si="2">K33/$K$41</f>
         <v>1.3175443552479855E-2</v>
       </c>
     </row>
@@ -3830,10 +3960,10 @@
       <c r="K34" s="19"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="23">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -3955,7 +4085,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K37">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3967,7 +4097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H43">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3979,7 +4109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:L39">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3988,6 +4118,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{BDF16AA2-396F-4E5D-AEC7-EB8761326BA0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J28">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{395963F4-3B66-4324-8957-914DA4852A0F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:J32">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{07F4C7B8-9D97-44FB-A34F-7919208335C4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4007,6 +4165,28 @@
           </x14:cfRule>
           <xm:sqref>L29:L39</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{395963F4-3B66-4324-8957-914DA4852A0F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J24:J28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{07F4C7B8-9D97-44FB-A34F-7919208335C4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J31:J32</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4017,8 +4197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4416,7 +4596,7 @@
         <v>1.4327157980456027</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L28:L38" si="2">K31/$K$40</f>
+        <f t="shared" ref="L31:L38" si="2">K31/$K$40</f>
         <v>0.10241458370592693</v>
       </c>
     </row>
@@ -4587,7 +4767,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H24:H38 J40 H40:H43">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4599,7 +4779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L38">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4608,6 +4788,48 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9BAE95EA-14E8-4362-9C45-851007743641}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J26">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E33AF4C7-0A01-495A-A581-93B8264FCEF6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{16857896-B1BA-4502-B546-1A8C3AC24EEF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:J34">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0E8D3099-D8D3-4D8F-9E07-3AEDEFCD3D0A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4627,6 +4849,39 @@
           </x14:cfRule>
           <xm:sqref>L27:L38</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E33AF4C7-0A01-495A-A581-93B8264FCEF6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J24:J26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{16857896-B1BA-4502-B546-1A8C3AC24EEF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J29:J30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0E8D3099-D8D3-4D8F-9E07-3AEDEFCD3D0A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J33:J34</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -4634,6 +4889,422 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>124200</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>124000*(C6-1)+D5</f>
+        <v>248200</v>
+      </c>
+      <c r="E6">
+        <f>E5/2</f>
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <f>298*2800</f>
+        <v>834400</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f>124000*(C7-1)+D6</f>
+        <v>496200</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E14" si="0">E6/2</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f>124000*(C8-1)+D7</f>
+        <v>868200</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f>124000*(C9-1)+D8</f>
+        <v>1364200</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:D14" si="1">124000*(C10-1)+D9</f>
+        <v>1984200</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <f>LOOKUP(I10,C5:C14,D5:D14)</f>
+        <v>5704200</v>
+      </c>
+      <c r="K10">
+        <f>LOOKUP(J10,D5:D14,E5:E14)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>2728200</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <f>LOOKUP(I11,C18:C27,D18:D27)</f>
+        <v>23840000</v>
+      </c>
+      <c r="K11">
+        <f>LOOKUP(I11,C18:C27,E18:E27)</f>
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>3596200</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>4588200</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>5704200</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="24">
+        <f>J6*(1-K11)*24/K10</f>
+        <v>80024175</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="24">
+        <f>K11*J6+J11+J10</f>
+        <v>29545014.84375</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17">
+        <f>L14/L15</f>
+        <v>2.7085508476882163</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>298*(1/0.125)*12</f>
+        <v>28608</v>
+      </c>
+      <c r="E19">
+        <f>E18/2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f>298*(1/0.125)*50</f>
+        <v>119200</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E27" si="2">E19/2</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f>298*(1/0.125)*500</f>
+        <v>1192000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <f>298*(1/0.125)*2000</f>
+        <v>4768000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f>298*(1/0.125)*5000</f>
+        <v>11920000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <f>298*(1/0.125)*10000</f>
+        <v>23840000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D27" si="3">298*(1/0.125)*10000</f>
+        <v>23840000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>3.90625E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>23840000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>1.953125E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>23840000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="25"/>
+      <c r="I28" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H57"/>
   <sheetViews>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -21,44 +21,53 @@
     <sheet name="All of them" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">Launchpad!$I$10:$I$11</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">Launchpad!$I$10,Launchpad!$I$11,Launchpad!$G$10</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
-    <definedName name="solver_lhs4" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
-    <definedName name="solver_lhs5" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
-    <definedName name="solver_lhs6" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
-    <definedName name="solver_lhs7" localSheetId="5" hidden="1">Launchpad!$L$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">Launchpad!$G$10</definedName>
+    <definedName name="solver_lhs10" localSheetId="5" hidden="1">Launchpad!$L$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">Launchpad!$G$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">Launchpad!$G$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
+    <definedName name="solver_lhs6" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
+    <definedName name="solver_lhs7" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
+    <definedName name="solver_lhs8" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
+    <definedName name="solver_lhs9" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">10</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">Launchpad!$L$14</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">Launchpad!$L$17</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_rel6" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">10</definedName>
+    <definedName name="solver_rel7" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_rel9" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">6</definedName>
+    <definedName name="solver_rhs10" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">entero</definedName>
     <definedName name="solver_rhs3" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rhs4" localSheetId="5" hidden="1">10</definedName>
     <definedName name="solver_rhs5" localSheetId="5" hidden="1">entero</definedName>
-    <definedName name="solver_rhs6" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rhs7" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs6" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rhs7" localSheetId="5" hidden="1">10</definedName>
+    <definedName name="solver_rhs8" localSheetId="5" hidden="1">entero</definedName>
+    <definedName name="solver_rhs9" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
@@ -80,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="104">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -380,6 +389,18 @@
   </si>
   <si>
     <t>optimo según solver daily return!!</t>
+  </si>
+  <si>
+    <t>quant</t>
+  </si>
+  <si>
+    <t>single launchpad</t>
+  </si>
+  <si>
+    <t>multiple launchpads</t>
+  </si>
+  <si>
+    <t>quant launchpads</t>
   </si>
 </sst>
 </file>
@@ -475,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -516,12 +537,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -547,7 +630,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4890,10 +4980,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:L31"/>
+  <dimension ref="C4:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4993,6 +5083,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
       <c r="J9" t="s">
         <v>93</v>
       </c>
@@ -5012,6 +5105,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
       <c r="H10" t="s">
         <v>91</v>
       </c>
@@ -5043,15 +5139,15 @@
         <v>92</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <f>LOOKUP(I11,C18:C27,D18:D27)</f>
-        <v>23840000</v>
+        <v>1192000</v>
       </c>
       <c r="K11">
         <f>LOOKUP(I11,C18:C27,E18:E27)</f>
-        <v>9.765625E-4</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
@@ -5096,8 +5192,8 @@
         <v>95</v>
       </c>
       <c r="L14" s="24">
-        <f>J6*(1-K11)*24/K10</f>
-        <v>80024175</v>
+        <f>(J6*(1-K11)*24/K10)*G10</f>
+        <v>450576000</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
@@ -5105,8 +5201,8 @@
         <v>96</v>
       </c>
       <c r="L15" s="24">
-        <f>K11*J6+J11+J10</f>
-        <v>29545014.84375</v>
+        <f>K11*J6+J11+J10*G10</f>
+        <v>35469350</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
@@ -5124,7 +5220,7 @@
       </c>
       <c r="L17">
         <f>L14/L15</f>
-        <v>2.7085508476882163</v>
+        <v>12.703249425207961</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
@@ -5160,9 +5256,17 @@
         <v>119200</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E27" si="2">E19/2</f>
+        <f t="shared" ref="E20:E28" si="2">E19/2</f>
         <v>0.125</v>
       </c>
+      <c r="H20" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="K20" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
@@ -5176,8 +5280,12 @@
         <f t="shared" si="2"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5193,10 +5301,16 @@
         <f t="shared" si="2"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="28">
+        <v>10</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="28">
         <v>10</v>
       </c>
     </row>
@@ -5212,10 +5326,16 @@
         <f t="shared" si="2"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="28">
+        <v>3</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="28">
         <v>3</v>
       </c>
     </row>
@@ -5231,21 +5351,31 @@
         <f t="shared" si="2"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="K24" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="28">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>7</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D27" si="3">298*(1/0.125)*10000</f>
+        <f t="shared" ref="D25:D28" si="3">298*(1/0.125)*10000</f>
         <v>23840000</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
         <v>3.90625E-3</v>
       </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
@@ -5259,6 +5389,10 @@
         <f t="shared" si="2"/>
         <v>1.953125E-3</v>
       </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
@@ -5272,32 +5406,75 @@
         <f t="shared" si="2"/>
         <v>9.765625E-4</v>
       </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H28" s="25"/>
-      <c r="I28" s="25" t="s">
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>23840000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28" t="s">
         <v>99</v>
       </c>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="28">
         <v>10</v>
       </c>
+      <c r="K29" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="28">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="25">
-        <v>9</v>
+      <c r="I30" s="28">
+        <v>10</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="28">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="K31" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,75 +9,76 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Jumbo jet" sheetId="8" r:id="rId1"/>
-    <sheet name="Luxury jet" sheetId="7" r:id="rId2"/>
-    <sheet name="s. Engine" sheetId="11" r:id="rId3"/>
-    <sheet name="BFRs" sheetId="9" r:id="rId4"/>
-    <sheet name="SORs" sheetId="5" r:id="rId5"/>
-    <sheet name="Launchpad" sheetId="13" r:id="rId6"/>
-    <sheet name="All of them" sheetId="12" r:id="rId7"/>
+    <sheet name="All of them" sheetId="12" r:id="rId1"/>
+    <sheet name="Jumbo jet" sheetId="8" r:id="rId2"/>
+    <sheet name="Luxury jet" sheetId="7" r:id="rId3"/>
+    <sheet name="s. Engine" sheetId="11" r:id="rId4"/>
+    <sheet name="BFRs" sheetId="9" r:id="rId5"/>
+    <sheet name="SORs" sheetId="5" r:id="rId6"/>
+    <sheet name="Launchpad BFR" sheetId="13" r:id="rId7"/>
+    <sheet name="Launchpad SOR" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">Launchpad!$I$10,Launchpad!$I$11,Launchpad!$G$10</definedName>
-    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">Launchpad!$G$10</definedName>
-    <definedName name="solver_lhs10" localSheetId="5" hidden="1">Launchpad!$L$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">Launchpad!$G$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">Launchpad!$G$10</definedName>
-    <definedName name="solver_lhs4" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
-    <definedName name="solver_lhs5" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
-    <definedName name="solver_lhs6" localSheetId="5" hidden="1">Launchpad!$I$10</definedName>
-    <definedName name="solver_lhs7" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
-    <definedName name="solver_lhs8" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
-    <definedName name="solver_lhs9" localSheetId="5" hidden="1">Launchpad!$I$11</definedName>
-    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">10</definedName>
-    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">Launchpad!$L$17</definedName>
-    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">4</definedName>
-    <definedName name="solver_rel3" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="5" hidden="1">4</definedName>
-    <definedName name="solver_rel6" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="5" hidden="1">4</definedName>
-    <definedName name="solver_rel9" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">6</definedName>
-    <definedName name="solver_rhs10" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">entero</definedName>
-    <definedName name="solver_rhs3" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rhs4" localSheetId="5" hidden="1">10</definedName>
-    <definedName name="solver_rhs5" localSheetId="5" hidden="1">entero</definedName>
-    <definedName name="solver_rhs6" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rhs7" localSheetId="5" hidden="1">10</definedName>
-    <definedName name="solver_rhs8" localSheetId="5" hidden="1">entero</definedName>
-    <definedName name="solver_rhs9" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Launchpad BFR'!$I$10,'Launchpad BFR'!$I$11,'Launchpad BFR'!$G$10</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Launchpad BFR'!$G$10</definedName>
+    <definedName name="solver_lhs10" localSheetId="6" hidden="1">'Launchpad BFR'!$L$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Launchpad BFR'!$G$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Launchpad BFR'!$G$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="6" hidden="1">'Launchpad BFR'!$I$10</definedName>
+    <definedName name="solver_lhs5" localSheetId="6" hidden="1">'Launchpad BFR'!$I$10</definedName>
+    <definedName name="solver_lhs6" localSheetId="6" hidden="1">'Launchpad BFR'!$I$10</definedName>
+    <definedName name="solver_lhs7" localSheetId="6" hidden="1">'Launchpad BFR'!$I$11</definedName>
+    <definedName name="solver_lhs8" localSheetId="6" hidden="1">'Launchpad BFR'!$I$11</definedName>
+    <definedName name="solver_lhs9" localSheetId="6" hidden="1">'Launchpad BFR'!$I$11</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">10</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Launchpad BFR'!$L$17</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="6" hidden="1">4</definedName>
+    <definedName name="solver_rel6" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="6" hidden="1">4</definedName>
+    <definedName name="solver_rel9" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">6</definedName>
+    <definedName name="solver_rhs10" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">entero</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rhs4" localSheetId="6" hidden="1">10</definedName>
+    <definedName name="solver_rhs5" localSheetId="6" hidden="1">entero</definedName>
+    <definedName name="solver_rhs6" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rhs7" localSheetId="6" hidden="1">10</definedName>
+    <definedName name="solver_rhs8" localSheetId="6" hidden="1">entero</definedName>
+    <definedName name="solver_rhs9" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="111">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -401,6 +402,27 @@
   </si>
   <si>
     <t>quant launchpads</t>
+  </si>
+  <si>
+    <t>(141,450 per lvl)</t>
+  </si>
+  <si>
+    <t>(103,500 per lvl)</t>
+  </si>
+  <si>
+    <t>(106,059 per lvl)</t>
+  </si>
+  <si>
+    <t>(113,850 per lvl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOR costs: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOR quality </t>
+  </si>
+  <si>
+    <t>SOR Quality</t>
   </si>
 </sst>
 </file>
@@ -440,7 +462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,12 +496,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -613,31 +629,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -919,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H52"/>
+  <dimension ref="A2:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1078,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1085,7 +1100,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1"/>
@@ -1096,7 +1111,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1">
@@ -1125,7 +1140,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="1">
@@ -1299,7 +1314,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1308,7 +1323,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="1"/>
@@ -1348,7 +1363,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="1">
@@ -1435,7 +1450,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1444,7 +1459,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="1"/>
@@ -1542,7 +1557,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="1">
@@ -1571,7 +1586,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="1">
@@ -1600,7 +1615,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1609,7 +1624,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1"/>
@@ -1678,7 +1693,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1687,7 +1702,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1"/>
@@ -1698,7 +1713,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1">
@@ -1756,7 +1771,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="5">
@@ -1783,6 +1798,21 @@
         <f t="shared" si="1"/>
         <v>33505.058130000005</v>
       </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H24:H52">
@@ -1806,7 +1836,7 @@
   <dimension ref="A2:H52"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,7 +2612,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1">
@@ -2611,7 +2641,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="1">
@@ -2690,7 +2720,7 @@
   <dimension ref="A2:H52"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3310,7 +3340,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="1">
@@ -3339,7 +3369,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="1">
@@ -3495,7 +3525,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="1">
@@ -3524,7 +3554,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="5">
@@ -3571,10 +3601,894 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>0.28820000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <f>40*B3</f>
+        <v>2640</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.67</v>
+      </c>
+      <c r="F24" s="1">
+        <v>159.84</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
+        <v>46.065888000000001</v>
+      </c>
+      <c r="H24">
+        <f>D24+F24+G24</f>
+        <v>2845.9058880000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <f>30*B3+5*B4</f>
+        <v>2075</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="F25" s="1">
+        <v>65.12</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>18.767584000000003</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
+        <v>2158.8875840000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <f>50*B4+250*B5</f>
+        <v>9450</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>117.22</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>33.782803999999999</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>9601.0028039999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <f>20*B8+30*B9</f>
+        <v>454</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13.34</v>
+      </c>
+      <c r="F27" s="1">
+        <v>43.96</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>12.669272000000001</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>510.62927199999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1">
+        <f>8*H24+2*H26+2*H33+4*H41+2*H35</f>
+        <v>100316.59010000002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="F28" s="1">
+        <v>175.82</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>50.671323999999998</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>100543.08142400002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1">
+        <f>40*H24+16*H26+34*H40</f>
+        <v>618766.05109199998</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="F29" s="1">
+        <v>351.65</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>101.34553</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>619219.04662200005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <f>2*H34+10*H27+4*H35+6*H26+7*H40</f>
+        <v>151183.570198</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1758.23</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>506.72188600000004</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>153448.52208400003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <f>4*B10+2*B11</f>
+        <v>4596</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F33" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G33" s="1">
+        <f>$E$2*F33</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>4960.8697679999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <f>4*B10+8*B12+B6</f>
+        <v>4922</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F34" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G34" s="1">
+        <f>$E$2*F34</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>5286.8697679999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1">
+        <f>3*B8+5*B13+3*B14</f>
+        <v>1088</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.07</v>
+      </c>
+      <c r="F35" s="1">
+        <v>236.03</v>
+      </c>
+      <c r="G35" s="1">
+        <f>$E$2*F35</f>
+        <v>68.023846000000006</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1392.053846</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1">
+        <f>8*B10+4*H33+H41+2*H35</f>
+        <v>41397.959303999996</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5664.7</v>
+      </c>
+      <c r="G36" s="1">
+        <f>$E$2*F36</f>
+        <v>1632.56654</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>48695.225843999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1">
+        <f>30*B4+100*B5+50*B15</f>
+        <v>4700</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G39" s="1">
+        <f>$E$2*F39</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>7262.7579619999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1">
+        <f>20*B8+8*B10+10*B4</f>
+        <v>7770</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1989.41</v>
+      </c>
+      <c r="G40" s="1">
+        <f>$E$2*F40</f>
+        <v>573.34796200000005</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>10332.757962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1">
+        <f>8*B10+30*B13+15*B15</f>
+        <v>10129</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="F41" s="1">
+        <v>994.7</v>
+      </c>
+      <c r="G41" s="1">
+        <f>$E$2*F41</f>
+        <v>286.67254000000003</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>11410.37254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1">
+        <f>4*B10+5*B4</f>
+        <v>3775</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F42" s="1">
+        <v>663.14</v>
+      </c>
+      <c r="G42" s="1">
+        <f>$E$2*F42</f>
+        <v>191.11694800000001</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>4629.2569480000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="1">
+        <f>6*B8+5*B15+5*B16</f>
+        <v>421.5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="F43" s="1">
+        <v>99.47</v>
+      </c>
+      <c r="G43" s="1">
+        <f>$E$2*F43</f>
+        <v>28.667254</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>549.63725399999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="1">
+        <f>H39+H28</f>
+        <v>107805.83938600002</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1056.95</v>
+      </c>
+      <c r="G46" s="1">
+        <f>$E$2*F46</f>
+        <v>304.61299000000002</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>109167.40237600001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="1">
+        <f>H29+H30</f>
+        <v>772667.56870600011</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3170.85</v>
+      </c>
+      <c r="G47" s="1">
+        <f>$E$2*F47</f>
+        <v>913.83897000000002</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>776752.25767600012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1">
+        <f>40*H24+10*H25+2*H34+140*B6+4*H42</f>
+        <v>207355.87868800003</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10569.51</v>
+      </c>
+      <c r="G50" s="1">
+        <f>$E$2*F50</f>
+        <v>3046.1327820000001</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>220971.52147000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="1">
+        <f>14*H24+2*H25+H34+2*B7+2*H42</f>
+        <v>70705.841264000002</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3963.57</v>
+      </c>
+      <c r="G51" s="1">
+        <f>$E$2*F51</f>
+        <v>1142.300874</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>75811.712138000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5">
+        <v>100</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1">
+        <f>8*H24+2*H25+H34+H43</f>
+        <v>32921.529294</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="F52" s="1">
+        <v>452.98</v>
+      </c>
+      <c r="G52" s="1">
+        <f>$E$2*F52</f>
+        <v>130.54883600000002</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>33505.058130000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H24:H52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L41"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,7 +4630,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
@@ -3738,10 +4652,12 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3749,7 +4665,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1">
@@ -3782,10 +4698,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="21">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3815,7 +4731,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="1">
@@ -3846,7 +4762,7 @@
         <f>1/E26*10</f>
         <v>0.74962518740629691</v>
       </c>
-      <c r="L26" s="19"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -3880,10 +4796,10 @@
         <f>1/E27</f>
         <v>0.5988023952095809</v>
       </c>
-      <c r="L27" s="19"/>
+      <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1">
@@ -3910,12 +4826,12 @@
         <f t="shared" si="1"/>
         <v>153448.52208400003</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="15">
         <f>1/E28</f>
         <v>3.0303030303030303</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="19"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -3925,10 +4841,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="17">
         <f>SUM(J24:J28)</f>
         <v>19.677913174226813</v>
       </c>
@@ -3938,19 +4854,21 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
@@ -3981,10 +4899,10 @@
         <f>1/E31*2</f>
         <v>0.78125</v>
       </c>
-      <c r="K31" s="19"/>
+      <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -4011,11 +4929,11 @@
         <f t="shared" si="1"/>
         <v>1392.053846</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="15">
         <f>1/E32*4</f>
         <v>1.3029315960912053</v>
       </c>
-      <c r="K32" s="17"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -4025,10 +4943,10 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="17">
         <f>SUM(J31:J32)</f>
         <v>2.0841815960912053</v>
       </c>
@@ -4038,22 +4956,24 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="K34" s="19"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="21">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -4077,11 +4997,11 @@
         <f t="shared" si="1"/>
         <v>10332.757962</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="15">
         <f>1/E35*(34+7)</f>
         <v>132.25806451612905</v>
       </c>
-      <c r="K35" s="21"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
@@ -4091,7 +5011,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="14" t="s">
         <v>77</v>
       </c>
       <c r="K36">
@@ -4104,10 +5024,12 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4115,7 +5037,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="1">
@@ -4142,14 +5064,14 @@
         <f t="shared" si="1"/>
         <v>776752.25767600012</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="15">
         <f>1/E38</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="K38" s="17"/>
+      <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="14" t="s">
         <v>76</v>
       </c>
       <c r="K39">
@@ -4162,10 +5084,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L40" s="19"/>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="14" t="s">
         <v>80</v>
       </c>
       <c r="K41">
@@ -4283,12 +5205,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4324,7 +5246,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B4">
@@ -4332,7 +5254,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B5">
@@ -4415,7 +5337,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B15">
@@ -4462,7 +5384,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1"/>
@@ -4473,7 +5395,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1">
@@ -4506,7 +5428,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="1">
@@ -4539,7 +5461,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="1">
@@ -4566,11 +5488,11 @@
         <f t="shared" si="1"/>
         <v>100543.08142400002</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="15">
         <f>1/E26</f>
         <v>0.29940119760479045</v>
       </c>
-      <c r="K26" s="17"/>
+      <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -4580,7 +5502,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="14" t="s">
         <v>72</v>
       </c>
       <c r="K27">
@@ -4593,7 +5515,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1"/>
@@ -4604,7 +5526,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1">
@@ -4637,7 +5559,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="1">
@@ -4664,21 +5586,21 @@
         <f t="shared" si="1"/>
         <v>1392.053846</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="15">
         <f>1/E30*2</f>
         <v>0.65146579804560267</v>
       </c>
-      <c r="K30" s="17"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="14" t="s">
         <v>75</v>
       </c>
       <c r="K31">
@@ -4691,7 +5613,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="1"/>
@@ -4702,7 +5624,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="1">
@@ -4735,7 +5657,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="1">
@@ -4762,11 +5684,11 @@
         <f t="shared" si="1"/>
         <v>11410.37254</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="15">
         <f>1/E34*4</f>
         <v>6.4516129032258069</v>
       </c>
-      <c r="K34" s="17"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -4776,7 +5698,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="14" t="s">
         <v>74</v>
       </c>
       <c r="K35">
@@ -4789,7 +5711,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="1"/>
@@ -4800,7 +5722,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="1">
@@ -4827,14 +5749,14 @@
         <f t="shared" si="1"/>
         <v>109167.40237600001</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="15">
         <f>1/E37</f>
         <v>1.3888888888888888</v>
       </c>
-      <c r="K37" s="17"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J38" s="16" t="s">
+      <c r="J38" s="14" t="s">
         <v>73</v>
       </c>
       <c r="K38">
@@ -4978,12 +5900,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5041,8 +5963,12 @@
         <v>90</v>
       </c>
       <c r="J6">
-        <f>298*2800</f>
-        <v>834400</v>
+        <f>298*(1-0.03)*2800</f>
+        <v>809368</v>
+      </c>
+      <c r="K6">
+        <f>J6/J4</f>
+        <v>1.037651282051282</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
@@ -5054,7 +5980,7 @@
         <v>496200</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E14" si="0">E6/2</f>
+        <f>E6/2</f>
         <v>32</v>
       </c>
     </row>
@@ -5067,7 +5993,7 @@
         <v>868200</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>E7/2</f>
         <v>16</v>
       </c>
     </row>
@@ -5080,7 +6006,7 @@
         <v>1364200</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>E8/2</f>
         <v>8</v>
       </c>
       <c r="G9" t="s">
@@ -5098,29 +6024,29 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D14" si="1">124000*(C10-1)+D9</f>
+        <f>124000*(C10-1)+D9</f>
         <v>1984200</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>E9/2</f>
         <v>4</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>91</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f>LOOKUP(I10,C5:C14,D5:D14)</f>
-        <v>5704200</v>
+        <v>124200</v>
       </c>
       <c r="K10">
         <f>LOOKUP(J10,D5:D14,E5:E14)</f>
-        <v>0.25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
@@ -5128,26 +6054,26 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f>124000*(C11-1)+D10</f>
         <v>2728200</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>E10/2</f>
         <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>92</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <f>LOOKUP(I11,C18:C27,D18:D27)</f>
-        <v>1192000</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <f>LOOKUP(I11,C18:C27,E18:E27)</f>
-        <v>6.25E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
@@ -5155,11 +6081,11 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f>124000*(C12-1)+D11</f>
         <v>3596200</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>E11/2</f>
         <v>1</v>
       </c>
     </row>
@@ -5168,11 +6094,11 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f>124000*(C13-1)+D12</f>
         <v>4588200</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>E12/2</f>
         <v>0.5</v>
       </c>
     </row>
@@ -5181,28 +6107,28 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f>124000*(C14-1)+D13</f>
         <v>5704200</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>E13/2</f>
         <v>0.25</v>
       </c>
       <c r="K14" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <f>(J6*(1-K11)*24/K10)*G10</f>
-        <v>450576000</v>
+        <v>75878.25</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="22">
         <f>K11*J6+J11+J10*G10</f>
-        <v>35469350</v>
+        <v>528884</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
@@ -5220,7 +6146,7 @@
       </c>
       <c r="L17">
         <f>L14/L15</f>
-        <v>12.703249425207961</v>
+        <v>0.14346860559215252</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
@@ -5256,17 +6182,17 @@
         <v>119200</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:E28" si="2">E19/2</f>
+        <f>E19/2</f>
         <v>0.125</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="K20" s="25" t="s">
+      <c r="I20" s="24"/>
+      <c r="K20" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="26"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
@@ -5277,15 +6203,15 @@
         <v>1192000</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
+        <f>E20/2</f>
         <v>6.25E-2</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="28" t="s">
+      <c r="K21" s="25"/>
+      <c r="L21" s="26" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5298,19 +6224,19 @@
         <v>4768000</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
+        <f>E21/2</f>
         <v>3.125E-2</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="26">
         <v>10</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="26">
         <v>10</v>
       </c>
     </row>
@@ -5323,19 +6249,19 @@
         <v>11920000</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f>E22/2</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="26">
         <v>3</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="26">
         <v>3</v>
       </c>
     </row>
@@ -5348,15 +6274,15 @@
         <v>23840000</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f>E23/2</f>
         <v>7.8125E-3</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-      <c r="K24" s="27" t="s">
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="K24" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="26">
         <v>6</v>
       </c>
     </row>
@@ -5365,1017 +6291,619 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:D28" si="3">298*(1/0.125)*10000</f>
+        <f>298*(1/0.125)*10000</f>
         <v>23840000</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f>E24/2</f>
         <v>3.90625E-3</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>8</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f>298*(1/0.125)*10000</f>
         <v>23840000</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f>E25/2</f>
         <v>1.953125E-3</v>
       </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>9</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f>298*(1/0.125)*10000</f>
         <v>23840000</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f>E26/2</f>
         <v>9.765625E-4</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>10</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f>298*(1/0.125)*10000</f>
         <v>23840000</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f>E27/2</f>
         <v>4.8828125E-4</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28" t="s">
+      <c r="H28" s="25"/>
+      <c r="I28" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="28" t="s">
+      <c r="K28" s="25"/>
+      <c r="L28" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="26">
         <v>10</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="26">
         <v>10</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L30" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="K31" s="27" t="s">
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="K31" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="32"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H57"/>
+  <dimension ref="C4:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D5">
+        <v>124200</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6">
+        <f>124000*(C6-1)+D5</f>
+        <v>248200</v>
+      </c>
+      <c r="E6">
+        <f>E5/2</f>
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6">
+        <f>298*(1-0.03)*400</f>
+        <v>115624</v>
+      </c>
+      <c r="K6">
+        <f>J6/J4</f>
+        <v>1.0511272727272727</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f>124000*(C7-1)+D6</f>
+        <v>496200</v>
+      </c>
+      <c r="E7">
+        <f>E6/2</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f>124000*(C8-1)+D7</f>
+        <v>868200</v>
+      </c>
+      <c r="E8">
+        <f>E7/2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f>124000*(C9-1)+D8</f>
+        <v>1364200</v>
+      </c>
+      <c r="E9">
+        <f>E8/2</f>
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <f>124000*(C10-1)+D9</f>
+        <v>1984200</v>
+      </c>
+      <c r="E10">
+        <f>E9/2</f>
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <f>LOOKUP(I10,C5:C14,D5:D14)</f>
+        <v>5704200</v>
+      </c>
+      <c r="K10">
+        <f>LOOKUP(J10,D5:D14,E5:E14)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f>124000*(C11-1)+D10</f>
+        <v>2728200</v>
+      </c>
+      <c r="E11">
+        <f>E10/2</f>
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <f>LOOKUP(I11,C18:C27,D18:D27)</f>
+        <v>1192000</v>
+      </c>
+      <c r="K11">
+        <f>LOOKUP(I11,C18:C27,E18:E27)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <f>124000*(C12-1)+D11</f>
+        <v>3596200</v>
+      </c>
+      <c r="E12">
+        <f>E11/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C13">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>0.28820000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D13">
+        <f>124000*(C13-1)+D12</f>
+        <v>4588200</v>
+      </c>
+      <c r="E13">
+        <f>E12/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f>124000*(C14-1)+D13</f>
+        <v>5704200</v>
+      </c>
+      <c r="E14">
+        <f>E13/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="22">
+        <f>(J6*(1-K11)*24/K10)*G10</f>
+        <v>10406160</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="22">
+        <f>K11*J6+J11+J10*G10</f>
+        <v>6903426.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17">
+        <f>L14/L15</f>
+        <v>1.5073905690167049</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>298*(1/0.125)*12</f>
+        <v>28608</v>
+      </c>
+      <c r="E19">
+        <f>E18/2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f>298*(1/0.125)*50</f>
+        <v>119200</v>
+      </c>
+      <c r="E20">
+        <f>E19/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="K20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f>298*(1/0.125)*500</f>
+        <v>1192000</v>
+      </c>
+      <c r="E21">
+        <f>E20/2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <f>298*(1/0.125)*2000</f>
+        <v>4768000</v>
+      </c>
+      <c r="E22">
+        <f>E21/2</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="26">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>306</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16">
-        <v>56.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="K22" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f>298*(1/0.125)*5000</f>
+        <v>11920000</v>
+      </c>
+      <c r="E23">
+        <f>E22/2</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="26">
+        <v>3</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="D24">
+        <f>298*(1/0.125)*10000</f>
+        <v>23840000</v>
+      </c>
+      <c r="E24">
+        <f>E23/2</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="K24" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="D25">
+        <f>298*(1/0.125)*10000</f>
+        <v>23840000</v>
+      </c>
+      <c r="E25">
+        <f>E24/2</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26">
         <v>8</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="1">
-        <f>40*B3</f>
-        <v>2640</v>
-      </c>
-      <c r="E24" s="1">
-        <v>3.67</v>
-      </c>
-      <c r="F24" s="1">
-        <v>159.84</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
-        <v>46.065888000000001</v>
-      </c>
-      <c r="H24">
-        <f>D24+F24+G24</f>
-        <v>2845.9058880000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1">
-        <f>30*B3+5*B4</f>
-        <v>2075</v>
-      </c>
-      <c r="E25" s="1">
-        <v>9.01</v>
-      </c>
-      <c r="F25" s="1">
-        <v>65.12</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>18.767584000000003</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
-        <v>2158.8875840000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1">
-        <f>50*B4+250*B5</f>
-        <v>9450</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>117.22</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>33.782803999999999</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>9601.0028039999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1">
-        <f>20*B8+30*B9</f>
-        <v>454</v>
-      </c>
-      <c r="E27" s="1">
-        <v>13.34</v>
-      </c>
-      <c r="F27" s="1">
-        <v>43.96</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>12.669272000000001</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>510.62927199999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1">
-        <f>8*H24+2*H26+2*H33+4*H41+2*H35</f>
-        <v>100316.59010000002</v>
-      </c>
-      <c r="E28" s="1">
-        <v>3.34</v>
-      </c>
-      <c r="F28" s="1">
-        <v>175.82</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>50.671323999999998</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>100543.08142400002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1">
-        <v>100</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1">
-        <f>40*H24+16*H26+34*H40</f>
-        <v>618766.05109199998</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="F29" s="1">
-        <v>351.65</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>101.34553</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>619219.04662200005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
-        <v>100</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1">
-        <f>2*H34+10*H27+4*H35+6*H26+7*H40</f>
-        <v>151183.570198</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1758.23</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>506.72188600000004</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>153448.52208400003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1">
-        <f>4*B10+2*B11</f>
-        <v>4596</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2.56</v>
-      </c>
-      <c r="F33" s="1">
-        <v>283.24</v>
-      </c>
-      <c r="G33" s="1">
-        <f>$E$2*F33</f>
-        <v>81.629768000000013</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>4960.8697679999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="1">
-        <f>4*B10+8*B12+B6</f>
-        <v>4922</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2.56</v>
-      </c>
-      <c r="F34" s="1">
-        <v>283.24</v>
-      </c>
-      <c r="G34" s="1">
-        <f>$E$2*F34</f>
-        <v>81.629768000000013</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>5286.8697679999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="1">
-        <f>3*B8+5*B13+3*B14</f>
-        <v>1088</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="F35" s="1">
-        <v>236.03</v>
-      </c>
-      <c r="G35" s="1">
-        <f>$E$2*F35</f>
-        <v>68.023846000000006</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>1392.053846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="D26">
+        <f>298*(1/0.125)*10000</f>
+        <v>23840000</v>
+      </c>
+      <c r="E26">
+        <f>E25/2</f>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <f>298*(1/0.125)*10000</f>
+        <v>23840000</v>
+      </c>
+      <c r="E27">
+        <f>E26/2</f>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C28">
         <v>10</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="1">
-        <f>8*B10+4*H33+H41+2*H35</f>
-        <v>41397.959303999996</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="F36" s="1">
-        <v>5664.7</v>
-      </c>
-      <c r="G36" s="1">
-        <f>$E$2*F36</f>
-        <v>1632.56654</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>48695.225843999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="1">
-        <f>30*B4+100*B5+50*B15</f>
-        <v>4700</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1989.41</v>
-      </c>
-      <c r="G39" s="1">
-        <f>$E$2*F39</f>
-        <v>573.34796200000005</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>7262.7579619999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1">
-        <f>20*B8+8*B10+10*B4</f>
-        <v>7770</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1989.41</v>
-      </c>
-      <c r="G40" s="1">
-        <f>$E$2*F40</f>
-        <v>573.34796200000005</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>10332.757962</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="1">
-        <f>8*B10+30*B13+15*B15</f>
-        <v>10129</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F41" s="1">
-        <v>994.7</v>
-      </c>
-      <c r="G41" s="1">
-        <f>$E$2*F41</f>
-        <v>286.67254000000003</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>11410.37254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1">
-        <f>4*B10+5*B4</f>
-        <v>3775</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="F42" s="1">
-        <v>663.14</v>
-      </c>
-      <c r="G42" s="1">
-        <f>$E$2*F42</f>
-        <v>191.11694800000001</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>4629.2569480000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="1">
-        <f>6*B8+5*B15+5*B16</f>
-        <v>421.5</v>
-      </c>
-      <c r="E43" s="1">
-        <v>6.24</v>
-      </c>
-      <c r="F43" s="1">
-        <v>99.47</v>
-      </c>
-      <c r="G43" s="1">
-        <f>$E$2*F43</f>
-        <v>28.667254</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>549.63725399999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1">
-        <f>H39+H28</f>
-        <v>107805.83938600002</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1056.95</v>
-      </c>
-      <c r="G46" s="1">
-        <f>$E$2*F46</f>
-        <v>304.61299000000002</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>109167.40237600001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="1">
-        <f>H29+H30</f>
-        <v>772667.56870600011</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3170.85</v>
-      </c>
-      <c r="G47" s="1">
-        <f>$E$2*F47</f>
-        <v>913.83897000000002</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>776752.25767600012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="1">
-        <f>40*H24+10*H25+2*H34+140*B6+4*H42</f>
-        <v>207355.87868800003</v>
-      </c>
-      <c r="E50" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F50" s="1">
-        <v>10569.51</v>
-      </c>
-      <c r="G50" s="1">
-        <f>$E$2*F50</f>
-        <v>3046.1327820000001</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
-        <v>220971.52147000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="1">
-        <f>14*H24+2*H25+H34+2*B7+2*H42</f>
-        <v>70705.841264000002</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3963.57</v>
-      </c>
-      <c r="G51" s="1">
-        <f>$E$2*F51</f>
-        <v>1142.300874</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>75811.712138000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5">
-        <v>100</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="1">
-        <f>8*H24+2*H25+H34+H43</f>
-        <v>32921.529294</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="F52" s="1">
-        <v>452.98</v>
-      </c>
-      <c r="G52" s="1">
-        <f>$E$2*F52</f>
-        <v>130.54883600000002</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>33505.058130000005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="D28">
+        <f>298*(1/0.125)*10000</f>
+        <v>23840000</v>
+      </c>
+      <c r="E28">
+        <f>E27/2</f>
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="26">
+        <v>10</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30" s="26">
+        <v>10</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="K31" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H24:H52">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="All of them" sheetId="12" r:id="rId1"/>
@@ -18,68 +18,7 @@
     <sheet name="s. Engine" sheetId="11" r:id="rId4"/>
     <sheet name="BFRs" sheetId="9" r:id="rId5"/>
     <sheet name="SORs" sheetId="5" r:id="rId6"/>
-    <sheet name="Launchpad BFR" sheetId="13" r:id="rId7"/>
-    <sheet name="Launchpad SOR" sheetId="14" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="solver_adj" localSheetId="6" hidden="1">'Launchpad BFR'!$I$10,'Launchpad BFR'!$I$11,'Launchpad BFR'!$G$10</definedName>
-    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="6" hidden="1">3</definedName>
-    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Launchpad BFR'!$G$10</definedName>
-    <definedName name="solver_lhs10" localSheetId="6" hidden="1">'Launchpad BFR'!$L$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Launchpad BFR'!$G$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Launchpad BFR'!$G$10</definedName>
-    <definedName name="solver_lhs4" localSheetId="6" hidden="1">'Launchpad BFR'!$I$10</definedName>
-    <definedName name="solver_lhs5" localSheetId="6" hidden="1">'Launchpad BFR'!$I$10</definedName>
-    <definedName name="solver_lhs6" localSheetId="6" hidden="1">'Launchpad BFR'!$I$10</definedName>
-    <definedName name="solver_lhs7" localSheetId="6" hidden="1">'Launchpad BFR'!$I$11</definedName>
-    <definedName name="solver_lhs8" localSheetId="6" hidden="1">'Launchpad BFR'!$I$11</definedName>
-    <definedName name="solver_lhs9" localSheetId="6" hidden="1">'Launchpad BFR'!$I$11</definedName>
-    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">10</definedName>
-    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">'Launchpad BFR'!$L$17</definedName>
-    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="6" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="6" hidden="1">4</definedName>
-    <definedName name="solver_rel3" localSheetId="6" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="6" hidden="1">4</definedName>
-    <definedName name="solver_rel6" localSheetId="6" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="6" hidden="1">4</definedName>
-    <definedName name="solver_rel9" localSheetId="6" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="6" hidden="1">6</definedName>
-    <definedName name="solver_rhs10" localSheetId="6" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="6" hidden="1">entero</definedName>
-    <definedName name="solver_rhs3" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs4" localSheetId="6" hidden="1">10</definedName>
-    <definedName name="solver_rhs5" localSheetId="6" hidden="1">entero</definedName>
-    <definedName name="solver_rhs6" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs7" localSheetId="6" hidden="1">10</definedName>
-    <definedName name="solver_rhs8" localSheetId="6" hidden="1">entero</definedName>
-    <definedName name="solver_rhs9" localSheetId="6" hidden="1">3</definedName>
-    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -90,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="88">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -341,69 +280,6 @@
     <t xml:space="preserve">proportional labor times </t>
   </si>
   <si>
-    <t xml:space="preserve">buillding cost </t>
-  </si>
-  <si>
-    <t xml:space="preserve">probability of incidence </t>
-  </si>
-  <si>
-    <t>launchpad lvl</t>
-  </si>
-  <si>
-    <t>time to launch</t>
-  </si>
-  <si>
-    <t>BFR Quality</t>
-  </si>
-  <si>
-    <t>Research cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFR costs: </t>
-  </si>
-  <si>
-    <t>research value:</t>
-  </si>
-  <si>
-    <t>Launchpad lvl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFR quality </t>
-  </si>
-  <si>
-    <t>costs</t>
-  </si>
-  <si>
-    <t>time/probability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">daily return </t>
-  </si>
-  <si>
-    <t xml:space="preserve">investment </t>
-  </si>
-  <si>
-    <t>ROI</t>
-  </si>
-  <si>
-    <t>optimo según solver ROI!!</t>
-  </si>
-  <si>
-    <t>optimo según solver daily return!!</t>
-  </si>
-  <si>
-    <t>quant</t>
-  </si>
-  <si>
-    <t>single launchpad</t>
-  </si>
-  <si>
-    <t>multiple launchpads</t>
-  </si>
-  <si>
-    <t>quant launchpads</t>
-  </si>
-  <si>
     <t>(141,450 per lvl)</t>
   </si>
   <si>
@@ -416,23 +292,14 @@
     <t>(113,850 per lvl)</t>
   </si>
   <si>
-    <t xml:space="preserve">SOR costs: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOR quality </t>
-  </si>
-  <si>
-    <t>SOR Quality</t>
+    <t>total required hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,15 +321,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,12 +338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,8 +365,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -553,74 +425,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -628,34 +437,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -936,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +880,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1100,7 +902,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1"/>
@@ -1323,7 +1125,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="1"/>
@@ -1459,7 +1261,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="1"/>
@@ -1624,7 +1426,7 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1"/>
@@ -1702,7 +1504,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1"/>
@@ -1800,19 +1602,19 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="A53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="A55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H24:H52">
@@ -1833,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H52"/>
+  <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,18 +1664,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="25">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="25">
         <v>19</v>
       </c>
     </row>
@@ -1886,10 +1688,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="23">
         <v>306</v>
       </c>
       <c r="D6" t="s">
@@ -1921,10 +1723,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="25">
         <v>920</v>
       </c>
     </row>
@@ -1937,10 +1739,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="25">
         <v>117</v>
       </c>
     </row>
@@ -1976,7 +1778,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>14</v>
@@ -1998,7 +1800,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +1811,8 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1">
@@ -2030,16 +1832,24 @@
         <v>159.84</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
+        <f t="shared" ref="G24:G25" si="0">$E$2*F24</f>
         <v>46.065888000000001</v>
       </c>
       <c r="H24">
         <f>D24+F24+G24</f>
         <v>2845.9058880000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="J24">
+        <f>40/E24</f>
+        <v>10.899182561307903</v>
+      </c>
+      <c r="K24">
+        <f>J24/$K$36</f>
+        <v>0.3478683389014206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="1">
@@ -2063,168 +1873,134 @@
         <v>18.767584000000003</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
+        <f t="shared" ref="H25:H34" si="1">D25+F25+G25</f>
         <v>2158.8875840000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="5">
+      <c r="J25">
+        <f>10/E25</f>
+        <v>1.1098779134295227</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:K34" si="2">J25/$K$36</f>
+        <v>3.5423884677253423E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1">
-        <f>50*B4+250*B5</f>
-        <v>9450</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>117.22</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>33.782803999999999</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>9601.0028039999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1">
-        <f>20*B8+30*B9</f>
-        <v>454</v>
-      </c>
-      <c r="E27" s="1">
-        <v>13.34</v>
-      </c>
-      <c r="F27" s="1">
-        <v>43.96</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>12.669272000000001</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>510.62927199999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1">
-        <v>20</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1">
-        <f>8*H24+2*H26+2*H33+4*H41+2*H35</f>
-        <v>100316.59010000002</v>
+        <f>4*B10+8*B12+B6</f>
+        <v>4922</v>
       </c>
       <c r="E28" s="1">
-        <v>3.34</v>
+        <v>2.56</v>
       </c>
       <c r="F28" s="1">
-        <v>175.82</v>
+        <v>283.24</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>50.671323999999998</v>
+        <f>$E$2*F28</f>
+        <v>81.629768000000013</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>100543.08142400002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1">
-        <v>100</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1">
-        <f>40*H24+16*H26+34*H40</f>
-        <v>618766.05109199998</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="F29" s="1">
-        <v>351.65</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>101.34553</v>
-      </c>
-      <c r="H29">
+        <v>5286.8697679999996</v>
+      </c>
+      <c r="J28">
+        <f>2/E28</f>
+        <v>0.78125</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>2.4935093823597921E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1">
+        <f>4*B10+5*B4</f>
+        <v>3775</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F31" s="1">
+        <v>663.14</v>
+      </c>
+      <c r="G31" s="1">
+        <f>$E$2*F31</f>
+        <v>191.11694800000001</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="1"/>
-        <v>619219.04662200005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
-        <v>100</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1">
-        <f>2*H34+10*H27+4*H35+6*H26+7*H40</f>
-        <v>151183.570198</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1758.23</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>506.72188600000004</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>153448.52208400003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>4629.2569480000002</v>
+      </c>
+      <c r="J31">
+        <f>4/E31</f>
+        <v>4.2553191489361701</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0.1358166812519376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2232,475 +2008,66 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1">
-        <f>4*B10+2*B11</f>
-        <v>4596</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2.56</v>
-      </c>
-      <c r="F33" s="1">
-        <v>283.24</v>
-      </c>
-      <c r="G33" s="1">
-        <f>$E$2*F33</f>
-        <v>81.629768000000013</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>4960.8697679999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>29</v>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1">
-        <f>4*B10+8*B12+B6</f>
-        <v>4922</v>
+        <f>40*H24+10*H25+2*H28+140*B6+4*H31</f>
+        <v>207355.87868800003</v>
       </c>
       <c r="E34" s="1">
-        <v>2.56</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F34" s="1">
-        <v>283.24</v>
+        <v>10569.51</v>
       </c>
       <c r="G34" s="1">
         <f>$E$2*F34</f>
-        <v>81.629768000000013</v>
+        <v>3046.1327820000001</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>5286.8697679999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="1">
-        <f>3*B8+5*B13+3*B14</f>
-        <v>1088</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="F35" s="1">
-        <v>236.03</v>
-      </c>
-      <c r="G35" s="1">
-        <f>$E$2*F35</f>
-        <v>68.023846000000006</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>1392.053846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="1">
-        <f>8*B10+4*H33+H41+2*H35</f>
-        <v>41397.959303999996</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="F36" s="1">
-        <v>5664.7</v>
-      </c>
-      <c r="G36" s="1">
-        <f>$E$2*F36</f>
-        <v>1632.56654</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>48695.225843999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="1">
-        <f>30*B4+100*B5+50*B15</f>
-        <v>4700</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1989.41</v>
-      </c>
-      <c r="G39" s="1">
-        <f>$E$2*F39</f>
-        <v>573.34796200000005</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>7262.7579619999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1">
-        <f>20*B8+8*B10+10*B4</f>
-        <v>7770</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1989.41</v>
-      </c>
-      <c r="G40" s="1">
-        <f>$E$2*F40</f>
-        <v>573.34796200000005</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>10332.757962</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="1">
-        <f>8*B10+30*B13+15*B15</f>
-        <v>10129</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F41" s="1">
-        <v>994.7</v>
-      </c>
-      <c r="G41" s="1">
-        <f>$E$2*F41</f>
-        <v>286.67254000000003</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>11410.37254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1">
-        <f>4*B10+5*B4</f>
-        <v>3775</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="F42" s="1">
-        <v>663.14</v>
-      </c>
-      <c r="G42" s="1">
-        <f>$E$2*F42</f>
-        <v>191.11694800000001</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>4629.2569480000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="1">
-        <f>6*B8+5*B15+5*B16</f>
-        <v>421.5</v>
-      </c>
-      <c r="E43" s="1">
-        <v>6.24</v>
-      </c>
-      <c r="F43" s="1">
-        <v>99.47</v>
-      </c>
-      <c r="G43" s="1">
-        <f>$E$2*F43</f>
-        <v>28.667254</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>549.63725399999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1">
-        <f>H39+H28</f>
-        <v>107805.83938600002</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1056.95</v>
-      </c>
-      <c r="G46" s="1">
-        <f>$E$2*F46</f>
-        <v>304.61299000000002</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>109167.40237600001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="1">
-        <f>H29+H30</f>
-        <v>772667.56870600011</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3170.85</v>
-      </c>
-      <c r="G47" s="1">
-        <f>$E$2*F47</f>
-        <v>913.83897000000002</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>776752.25767600012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="1">
-        <f>40*H24+10*H25+2*H34+140*B6+4*H42</f>
-        <v>207355.87868800003</v>
-      </c>
-      <c r="E50" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F50" s="1">
-        <v>10569.51</v>
-      </c>
-      <c r="G50" s="1">
-        <f>$E$2*F50</f>
-        <v>3046.1327820000001</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
         <v>220971.52147000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="1">
-        <f>14*H24+2*H25+H34+2*B7+2*H42</f>
-        <v>70705.841264000002</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3963.57</v>
-      </c>
-      <c r="G51" s="1">
-        <f>$E$2*F51</f>
-        <v>1142.300874</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>75811.712138000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5">
-        <v>100</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="1">
-        <f>8*H24+2*H25+H34+H43</f>
-        <v>32921.529294</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="F52" s="1">
-        <v>452.98</v>
-      </c>
-      <c r="G52" s="1">
-        <f>$E$2*F52</f>
-        <v>130.54883600000002</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>33505.058130000005</v>
+      <c r="J34">
+        <f>1/E34</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>0.45595600134579051</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36">
+        <f>SUM(J34,J31,J28,J24,J25)</f>
+        <v>31.331343909387879</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H24:H52">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H24:H34">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2711,16 +2078,49 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K34">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D2C358B2-F5A8-46A3-9023-69603AEC16D0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D2C358B2-F5A8-46A3-9023-69603AEC16D0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K24:K34</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H52"/>
+  <dimension ref="A2:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,18 +2146,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="24">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="24">
         <v>19</v>
       </c>
     </row>
@@ -2770,10 +2170,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="24">
         <v>306</v>
       </c>
       <c r="D6" t="s">
@@ -2781,10 +2181,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="23">
         <v>6000</v>
       </c>
     </row>
@@ -2805,10 +2205,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="24">
         <v>920</v>
       </c>
     </row>
@@ -2821,10 +2221,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="24">
         <v>117</v>
       </c>
     </row>
@@ -2860,7 +2260,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>14</v>
@@ -2882,7 +2282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -2893,8 +2293,8 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1">
@@ -2914,16 +2314,24 @@
         <v>159.84</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
+        <f t="shared" ref="G24:G25" si="0">$E$2*F24</f>
         <v>46.065888000000001</v>
       </c>
       <c r="H24">
         <f>D24+F24+G24</f>
         <v>2845.9058880000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="J24">
+        <f>14/E24</f>
+        <v>3.8147138964577656</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K33" si="1">J24/$K$36</f>
+        <v>0.32278484561943088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="1">
@@ -2947,168 +2355,134 @@
         <v>18.767584000000003</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
+        <f t="shared" ref="H25:H34" si="2">D25+F25+G25</f>
         <v>2158.8875840000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="5">
+      <c r="J25">
+        <f>2/E25</f>
+        <v>0.22197558268590456</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>1.8782628562284943E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1">
-        <f>50*B4+250*B5</f>
-        <v>9450</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>117.22</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>33.782803999999999</v>
-      </c>
-      <c r="H26">
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1">
+        <f>4*B10+8*B12+B6</f>
+        <v>4922</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F28" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G28" s="1">
+        <f>$E$2*F28</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>5286.8697679999996</v>
+      </c>
+      <c r="J28">
+        <f>1/E28</f>
+        <v>0.390625</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="1"/>
-        <v>9601.0028039999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1">
+        <v>3.3053024091052215E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1">
-        <f>20*B8+30*B9</f>
-        <v>454</v>
-      </c>
-      <c r="E27" s="1">
-        <v>13.34</v>
-      </c>
-      <c r="F27" s="1">
-        <v>43.96</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>12.669272000000001</v>
-      </c>
-      <c r="H27">
+      <c r="C31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1">
+        <f>4*B10+5*B4</f>
+        <v>3775</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="F31" s="1">
+        <v>663.14</v>
+      </c>
+      <c r="G31" s="1">
+        <f>$E$2*F31</f>
+        <v>191.11694800000001</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>4629.2569480000002</v>
+      </c>
+      <c r="J31">
+        <f>2/E31</f>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="1"/>
-        <v>510.62927199999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1">
-        <f>8*H24+2*H26+2*H33+4*H41+2*H35</f>
-        <v>100316.59010000002</v>
-      </c>
-      <c r="E28" s="1">
-        <v>3.34</v>
-      </c>
-      <c r="F28" s="1">
-        <v>175.82</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>50.671323999999998</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>100543.08142400002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1">
-        <v>100</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1">
-        <f>40*H24+16*H26+34*H40</f>
-        <v>618766.05109199998</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="F29" s="1">
-        <v>351.65</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>101.34553</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>619219.04662200005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
-        <v>100</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1">
-        <f>2*H34+10*H27+4*H35+6*H26+7*H40</f>
-        <v>151183.570198</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1758.23</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>506.72188600000004</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>153448.52208400003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>0.18003349292147589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3116,475 +2490,66 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1">
-        <f>4*B10+2*B11</f>
-        <v>4596</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2.56</v>
-      </c>
-      <c r="F33" s="1">
-        <v>283.24</v>
-      </c>
-      <c r="G33" s="1">
-        <f>$E$2*F33</f>
-        <v>81.629768000000013</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>4960.8697679999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>29</v>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1">
-        <f>4*B10+8*B12+B6</f>
-        <v>4922</v>
+        <f>14*H24+2*H25+H28+2*B7+2*H31</f>
+        <v>70705.841264000002</v>
       </c>
       <c r="E34" s="1">
-        <v>2.56</v>
+        <v>0.19</v>
       </c>
       <c r="F34" s="1">
-        <v>283.24</v>
+        <v>3963.57</v>
       </c>
       <c r="G34" s="1">
         <f>$E$2*F34</f>
-        <v>81.629768000000013</v>
+        <v>1142.300874</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
-        <v>5286.8697679999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="1">
-        <f>3*B8+5*B13+3*B14</f>
-        <v>1088</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="F35" s="1">
-        <v>236.03</v>
-      </c>
-      <c r="G35" s="1">
-        <f>$E$2*F35</f>
-        <v>68.023846000000006</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>1392.053846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="1">
-        <f>8*B10+4*H33+H41+2*H35</f>
-        <v>41397.959303999996</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="F36" s="1">
-        <v>5664.7</v>
-      </c>
-      <c r="G36" s="1">
-        <f>$E$2*F36</f>
-        <v>1632.56654</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>48695.225843999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="1">
-        <f>30*B4+100*B5+50*B15</f>
-        <v>4700</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1989.41</v>
-      </c>
-      <c r="G39" s="1">
-        <f>$E$2*F39</f>
-        <v>573.34796200000005</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>7262.7579619999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1">
-        <f>20*B8+8*B10+10*B4</f>
-        <v>7770</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1989.41</v>
-      </c>
-      <c r="G40" s="1">
-        <f>$E$2*F40</f>
-        <v>573.34796200000005</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>10332.757962</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="1">
-        <f>8*B10+30*B13+15*B15</f>
-        <v>10129</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F41" s="1">
-        <v>994.7</v>
-      </c>
-      <c r="G41" s="1">
-        <f>$E$2*F41</f>
-        <v>286.67254000000003</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>11410.37254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1">
-        <f>4*B10+5*B4</f>
-        <v>3775</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="F42" s="1">
-        <v>663.14</v>
-      </c>
-      <c r="G42" s="1">
-        <f>$E$2*F42</f>
-        <v>191.11694800000001</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>4629.2569480000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="1">
-        <f>6*B8+5*B15+5*B16</f>
-        <v>421.5</v>
-      </c>
-      <c r="E43" s="1">
-        <v>6.24</v>
-      </c>
-      <c r="F43" s="1">
-        <v>99.47</v>
-      </c>
-      <c r="G43" s="1">
-        <f>$E$2*F43</f>
-        <v>28.667254</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>549.63725399999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1">
-        <f>H39+H28</f>
-        <v>107805.83938600002</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1056.95</v>
-      </c>
-      <c r="G46" s="1">
-        <f>$E$2*F46</f>
-        <v>304.61299000000002</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>109167.40237600001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="1">
-        <f>H29+H30</f>
-        <v>772667.56870600011</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3170.85</v>
-      </c>
-      <c r="G47" s="1">
-        <f>$E$2*F47</f>
-        <v>913.83897000000002</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>776752.25767600012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="1">
-        <f>40*H24+10*H25+2*H34+140*B6+4*H42</f>
-        <v>207355.87868800003</v>
-      </c>
-      <c r="E50" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F50" s="1">
-        <v>10569.51</v>
-      </c>
-      <c r="G50" s="1">
-        <f>$E$2*F50</f>
-        <v>3046.1327820000001</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
-        <v>220971.52147000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="1">
-        <f>14*H24+2*H25+H34+2*B7+2*H42</f>
-        <v>70705.841264000002</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3963.57</v>
-      </c>
-      <c r="G51" s="1">
-        <f>$E$2*F51</f>
-        <v>1142.300874</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75811.712138000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5">
-        <v>100</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="1">
-        <f>8*H24+2*H25+H34+H43</f>
-        <v>32921.529294</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="F52" s="1">
-        <v>452.98</v>
-      </c>
-      <c r="G52" s="1">
-        <f>$E$2*F52</f>
-        <v>130.54883600000002</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
-        <v>33505.058130000005</v>
+      <c r="J34">
+        <f>1/E34</f>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="K34">
+        <f>J34/$K$36</f>
+        <v>0.44534600880575614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36">
+        <f>SUM(J24:J34)</f>
+        <v>11.818131948348597</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H24:H52">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H24:H34">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3595,16 +2560,49 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K35">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0378624B-AEF5-4105-A7B1-2A5211CACD1F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0378624B-AEF5-4105-A7B1-2A5211CACD1F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K24:K35</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H52"/>
+  <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3630,7 +2628,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -3638,7 +2636,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B4">
@@ -3654,7 +2652,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B6">
@@ -3673,7 +2671,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B8">
@@ -3689,7 +2687,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B10">
@@ -3705,7 +2703,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B12">
@@ -3729,7 +2727,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B15">
@@ -3737,14 +2735,14 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B16">
         <v>56.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>14</v>
@@ -3766,7 +2764,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -3777,8 +2775,8 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1">
@@ -3798,16 +2796,24 @@
         <v>159.84</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
+        <f t="shared" ref="G24:G25" si="0">$E$2*F24</f>
         <v>46.065888000000001</v>
       </c>
       <c r="H24">
         <f>D24+F24+G24</f>
         <v>2845.9058880000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="J24">
+        <f>8/E24</f>
+        <v>2.1798365122615806</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K33" si="1">J24/$K$36</f>
+        <v>0.46680175492536063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="1">
@@ -3831,168 +2837,134 @@
         <v>18.767584000000003</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
+        <f t="shared" ref="H25:H34" si="2">D25+F25+G25</f>
         <v>2158.8875840000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="5">
+      <c r="J25">
+        <f>2/E25</f>
+        <v>0.22197558268590456</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>4.7535028872810033E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1">
-        <f>50*B4+250*B5</f>
-        <v>9450</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1">
-        <v>117.22</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>33.782803999999999</v>
-      </c>
-      <c r="H26">
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1">
+        <f>4*B10+8*B12+B6</f>
+        <v>4922</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="F28" s="1">
+        <v>283.24</v>
+      </c>
+      <c r="G28" s="1">
+        <f>$E$2*F28</f>
+        <v>81.629768000000013</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>5286.8697679999996</v>
+      </c>
+      <c r="J28">
+        <f>1/E28</f>
+        <v>0.390625</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="1"/>
-        <v>9601.0028039999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1">
-        <f>20*B8+30*B9</f>
-        <v>454</v>
-      </c>
-      <c r="E27" s="1">
-        <v>13.34</v>
-      </c>
-      <c r="F27" s="1">
-        <v>43.96</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>12.669272000000001</v>
-      </c>
-      <c r="H27">
+        <v>8.3650509793753589E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1">
+        <f>6*B8+5*B15+5*B16</f>
+        <v>421.5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="F31" s="1">
+        <v>99.47</v>
+      </c>
+      <c r="G31" s="1">
+        <f>$E$2*F31</f>
+        <v>28.667254</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>549.63725399999998</v>
+      </c>
+      <c r="J31">
+        <f>8/E31</f>
+        <v>1.2820512820512819</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="1"/>
-        <v>510.62927199999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1">
-        <f>8*H24+2*H26+2*H33+4*H41+2*H35</f>
-        <v>100316.59010000002</v>
-      </c>
-      <c r="E28" s="1">
-        <v>3.34</v>
-      </c>
-      <c r="F28" s="1">
-        <v>175.82</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>50.671323999999998</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>100543.08142400002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1">
-        <v>100</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1">
-        <f>40*H24+16*H26+34*H40</f>
-        <v>618766.05109199998</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="F29" s="1">
-        <v>351.65</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>101.34553</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>619219.04662200005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
-        <v>100</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1">
-        <f>2*H34+10*H27+4*H35+6*H26+7*H40</f>
-        <v>151183.570198</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1758.23</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="0"/>
-        <v>506.72188600000004</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>153448.52208400003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>0.27454526291283227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4000,475 +2972,66 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1">
-        <f>4*B10+2*B11</f>
-        <v>4596</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2.56</v>
-      </c>
-      <c r="F33" s="1">
-        <v>283.24</v>
-      </c>
-      <c r="G33" s="1">
-        <f>$E$2*F33</f>
-        <v>81.629768000000013</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>4960.8697679999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="5">
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1">
-        <f>4*B10+8*B12+B6</f>
-        <v>4922</v>
+        <f>8*H24+2*H25+H28+H31</f>
+        <v>32921.529294</v>
       </c>
       <c r="E34" s="1">
-        <v>2.56</v>
+        <v>1.68</v>
       </c>
       <c r="F34" s="1">
-        <v>283.24</v>
+        <v>452.98</v>
       </c>
       <c r="G34" s="1">
         <f>$E$2*F34</f>
-        <v>81.629768000000013</v>
+        <v>130.54883600000002</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
-        <v>5286.8697679999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="1">
-        <f>3*B8+5*B13+3*B14</f>
-        <v>1088</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="F35" s="1">
-        <v>236.03</v>
-      </c>
-      <c r="G35" s="1">
-        <f>$E$2*F35</f>
-        <v>68.023846000000006</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>1392.053846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="1">
-        <f>8*B10+4*H33+H41+2*H35</f>
-        <v>41397.959303999996</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="F36" s="1">
-        <v>5664.7</v>
-      </c>
-      <c r="G36" s="1">
-        <f>$E$2*F36</f>
-        <v>1632.56654</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="1"/>
-        <v>48695.225843999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="1">
-        <f>30*B4+100*B5+50*B15</f>
-        <v>4700</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1989.41</v>
-      </c>
-      <c r="G39" s="1">
-        <f>$E$2*F39</f>
-        <v>573.34796200000005</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="1"/>
-        <v>7262.7579619999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1">
-        <f>20*B8+8*B10+10*B4</f>
-        <v>7770</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1989.41</v>
-      </c>
-      <c r="G40" s="1">
-        <f>$E$2*F40</f>
-        <v>573.34796200000005</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="1"/>
-        <v>10332.757962</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="1">
-        <f>8*B10+30*B13+15*B15</f>
-        <v>10129</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F41" s="1">
-        <v>994.7</v>
-      </c>
-      <c r="G41" s="1">
-        <f>$E$2*F41</f>
-        <v>286.67254000000003</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="1"/>
-        <v>11410.37254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1">
-        <f>4*B10+5*B4</f>
-        <v>3775</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="F42" s="1">
-        <v>663.14</v>
-      </c>
-      <c r="G42" s="1">
-        <f>$E$2*F42</f>
-        <v>191.11694800000001</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>4629.2569480000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="1">
-        <f>6*B8+5*B15+5*B16</f>
-        <v>421.5</v>
-      </c>
-      <c r="E43" s="1">
-        <v>6.24</v>
-      </c>
-      <c r="F43" s="1">
-        <v>99.47</v>
-      </c>
-      <c r="G43" s="1">
-        <f>$E$2*F43</f>
-        <v>28.667254</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="1"/>
-        <v>549.63725399999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1">
-        <f>H39+H28</f>
-        <v>107805.83938600002</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1056.95</v>
-      </c>
-      <c r="G46" s="1">
-        <f>$E$2*F46</f>
-        <v>304.61299000000002</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="1"/>
-        <v>109167.40237600001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="1">
-        <f>H29+H30</f>
-        <v>772667.56870600011</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3170.85</v>
-      </c>
-      <c r="G47" s="1">
-        <f>$E$2*F47</f>
-        <v>913.83897000000002</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>776752.25767600012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="1">
-        <f>40*H24+10*H25+2*H34+140*B6+4*H42</f>
-        <v>207355.87868800003</v>
-      </c>
-      <c r="E50" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F50" s="1">
-        <v>10569.51</v>
-      </c>
-      <c r="G50" s="1">
-        <f>$E$2*F50</f>
-        <v>3046.1327820000001</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
-        <v>220971.52147000004</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="1">
-        <f>14*H24+2*H25+H34+2*B7+2*H42</f>
-        <v>70705.841264000002</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3963.57</v>
-      </c>
-      <c r="G51" s="1">
-        <f>$E$2*F51</f>
-        <v>1142.300874</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="1"/>
-        <v>75811.712138000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="5">
-        <v>100</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="1">
-        <f>8*H24+2*H25+H34+H43</f>
-        <v>32921.529294</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="F52" s="1">
-        <v>452.98</v>
-      </c>
-      <c r="G52" s="1">
-        <f>$E$2*F52</f>
-        <v>130.54883600000002</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33505.058130000005</v>
       </c>
+      <c r="J34">
+        <f>1/E34</f>
+        <v>0.59523809523809523</v>
+      </c>
+      <c r="K34">
+        <f>J34/$K$36</f>
+        <v>0.12746744349524355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36">
+        <f>SUM(J24:J34)</f>
+        <v>4.6697264722368619</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H24:H52">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H24:H34">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4479,7 +3042,40 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K34">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3023A3B1-1E3A-4261-8A5F-8D1DC20D5A93}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3023A3B1-1E3A-4261-8A5F-8D1DC20D5A93}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K24:K34</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4487,8 +3083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4527,7 +3123,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4562,7 +3158,7 @@
         <v>58</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4578,7 +3174,7 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>920</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4630,7 +3226,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>14</v>
       </c>
@@ -4652,11 +3248,11 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4665,7 +3261,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1">
@@ -4698,10 +3294,10 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -4709,7 +3305,7 @@
       </c>
       <c r="D25" s="1">
         <f>50*B4+250*B5</f>
-        <v>9450</v>
+        <v>9425</v>
       </c>
       <c r="E25" s="1">
         <v>5</v>
@@ -4723,7 +3319,7 @@
       </c>
       <c r="H25">
         <f t="shared" ref="H25:H38" si="1">D25+F25+G25</f>
-        <v>9601.0028039999997</v>
+        <v>9576.0028039999997</v>
       </c>
       <c r="J25">
         <f>1/E25*(16+6)</f>
@@ -4731,7 +3327,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="1">
@@ -4742,7 +3338,7 @@
       </c>
       <c r="D26" s="1">
         <f>20*B8+30*B9</f>
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E26" s="1">
         <v>13.34</v>
@@ -4756,13 +3352,13 @@
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>510.62927199999996</v>
+        <v>500.62927199999996</v>
       </c>
       <c r="J26">
         <f>1/E26*10</f>
         <v>0.74962518740629691</v>
       </c>
-      <c r="L26" s="17"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -4776,7 +3372,7 @@
       </c>
       <c r="D27" s="1">
         <f>40*H24+16*H25+34*H35</f>
-        <v>618766.05109199998</v>
+        <v>593376.05109199998</v>
       </c>
       <c r="E27" s="1">
         <v>1.67</v>
@@ -4790,16 +3386,16 @@
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>619219.04662200005</v>
+        <v>593829.04662200005</v>
       </c>
       <c r="J27">
         <f>1/E27</f>
         <v>0.5988023952095809</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1">
@@ -4810,7 +3406,7 @@
       </c>
       <c r="D28" s="1">
         <f>2*H31+10*H26+4*H32+6*H25+7*H35</f>
-        <v>151183.570198</v>
+        <v>145062.570198</v>
       </c>
       <c r="E28" s="1">
         <v>0.33</v>
@@ -4824,14 +3420,14 @@
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>153448.52208400003</v>
-      </c>
-      <c r="J28" s="15">
+        <v>147327.52208400003</v>
+      </c>
+      <c r="J28" s="14">
         <f>1/E28</f>
         <v>3.0303030303030303</v>
       </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="17"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -4841,10 +3437,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="16">
         <f>SUM(J24:J28)</f>
         <v>19.677913174226813</v>
       </c>
@@ -4854,21 +3450,21 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="K30" s="18"/>
+      <c r="K30" s="17"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
@@ -4879,7 +3475,7 @@
       </c>
       <c r="D31" s="1">
         <f>4*B10+8*B12+B6</f>
-        <v>4922</v>
+        <v>4562</v>
       </c>
       <c r="E31" s="1">
         <v>2.56</v>
@@ -4893,16 +3489,16 @@
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>5286.8697679999996</v>
+        <v>4926.8697679999996</v>
       </c>
       <c r="J31">
         <f>1/E31*2</f>
         <v>0.78125</v>
       </c>
-      <c r="K31" s="17"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -4913,7 +3509,7 @@
       </c>
       <c r="D32" s="1">
         <f>3*B8+5*B13+3*B14</f>
-        <v>1088</v>
+        <v>1086.5</v>
       </c>
       <c r="E32" s="1">
         <v>3.07</v>
@@ -4927,13 +3523,13 @@
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>1392.053846</v>
-      </c>
-      <c r="J32" s="15">
+        <v>1390.553846</v>
+      </c>
+      <c r="J32" s="14">
         <f>1/E32*4</f>
         <v>1.3029315960912053</v>
       </c>
-      <c r="K32" s="15"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -4943,10 +3539,10 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="16">
         <f>SUM(J31:J32)</f>
         <v>2.0841815960912053</v>
       </c>
@@ -4956,24 +3552,24 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="K34" s="17"/>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -4981,7 +3577,7 @@
       </c>
       <c r="D35" s="1">
         <f>20*B8+8*B10+10*B4</f>
-        <v>7770</v>
+        <v>7035</v>
       </c>
       <c r="E35" s="1">
         <v>0.31</v>
@@ -4995,13 +3591,13 @@
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>10332.757962</v>
-      </c>
-      <c r="J35" s="15">
+        <v>9597.7579619999997</v>
+      </c>
+      <c r="J35" s="14">
         <f>1/E35*(34+7)</f>
         <v>132.25806451612905</v>
       </c>
-      <c r="K35" s="19"/>
+      <c r="K35" s="18"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
@@ -5011,7 +3607,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="13" t="s">
         <v>77</v>
       </c>
       <c r="K36">
@@ -5024,11 +3620,11 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5037,7 +3633,7 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="1">
@@ -5048,7 +3644,7 @@
       </c>
       <c r="D38" s="1">
         <f>H27+H28</f>
-        <v>772667.56870600011</v>
+        <v>741156.56870600011</v>
       </c>
       <c r="E38" s="1">
         <v>0.24</v>
@@ -5062,16 +3658,16 @@
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>776752.25767600012</v>
-      </c>
-      <c r="J38" s="15">
+        <v>745241.25767600012</v>
+      </c>
+      <c r="J38" s="14">
         <f>1/E38</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="K38" s="15"/>
+      <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="13" t="s">
         <v>76</v>
       </c>
       <c r="K39">
@@ -5084,10 +3680,10 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L40" s="17"/>
+      <c r="L40" s="16"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="13" t="s">
         <v>80</v>
       </c>
       <c r="K41">
@@ -5209,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5246,7 +3842,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B4">
@@ -5254,7 +3850,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B5">
@@ -5337,7 +3933,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B15">
@@ -5384,7 +3980,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1"/>
@@ -5395,7 +3991,7 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1">
@@ -5428,7 +4024,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="1">
@@ -5461,7 +4057,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="1">
@@ -5488,11 +4084,11 @@
         <f t="shared" si="1"/>
         <v>100543.08142400002</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="14">
         <f>1/E26</f>
         <v>0.29940119760479045</v>
       </c>
-      <c r="K26" s="15"/>
+      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -5502,7 +4098,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="13" t="s">
         <v>72</v>
       </c>
       <c r="K27">
@@ -5515,7 +4111,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1"/>
@@ -5526,7 +4122,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1">
@@ -5559,7 +4155,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="1">
@@ -5586,11 +4182,11 @@
         <f t="shared" si="1"/>
         <v>1392.053846</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="14">
         <f>1/E30*2</f>
         <v>0.65146579804560267</v>
       </c>
-      <c r="K30" s="15"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -5600,7 +4196,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="13" t="s">
         <v>75</v>
       </c>
       <c r="K31">
@@ -5613,7 +4209,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="1"/>
@@ -5624,7 +4220,7 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="1">
@@ -5657,7 +4253,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="1">
@@ -5684,11 +4280,11 @@
         <f t="shared" si="1"/>
         <v>11410.37254</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="14">
         <f>1/E34*4</f>
         <v>6.4516129032258069</v>
       </c>
-      <c r="K34" s="15"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -5698,7 +4294,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="13" t="s">
         <v>74</v>
       </c>
       <c r="K35">
@@ -5711,7 +4307,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="1"/>
@@ -5722,7 +4318,7 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="1">
@@ -5749,14 +4345,14 @@
         <f t="shared" si="1"/>
         <v>109167.40237600001</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="14">
         <f>1/E37</f>
         <v>1.3888888888888888</v>
       </c>
-      <c r="K37" s="15"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="13" t="s">
         <v>73</v>
       </c>
       <c r="K38">
@@ -5898,1012 +4494,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:L32"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4">
-        <v>780000</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>124200</v>
-      </c>
-      <c r="E5">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f>124000*(C6-1)+D5</f>
-        <v>248200</v>
-      </c>
-      <c r="E6">
-        <f>E5/2</f>
-        <v>64</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6">
-        <f>298*(1-0.03)*2800</f>
-        <v>809368</v>
-      </c>
-      <c r="K6">
-        <f>J6/J4</f>
-        <v>1.037651282051282</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <f>124000*(C7-1)+D6</f>
-        <v>496200</v>
-      </c>
-      <c r="E7">
-        <f>E6/2</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <f>124000*(C8-1)+D7</f>
-        <v>868200</v>
-      </c>
-      <c r="E8">
-        <f>E7/2</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <f>124000*(C9-1)+D8</f>
-        <v>1364200</v>
-      </c>
-      <c r="E9">
-        <f>E8/2</f>
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <f>124000*(C10-1)+D9</f>
-        <v>1984200</v>
-      </c>
-      <c r="E10">
-        <f>E9/2</f>
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <f>LOOKUP(I10,C5:C14,D5:D14)</f>
-        <v>124200</v>
-      </c>
-      <c r="K10">
-        <f>LOOKUP(J10,D5:D14,E5:E14)</f>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <f>124000*(C11-1)+D10</f>
-        <v>2728200</v>
-      </c>
-      <c r="E11">
-        <f>E10/2</f>
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f>LOOKUP(I11,C18:C27,D18:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f>LOOKUP(I11,C18:C27,E18:E27)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <f>124000*(C12-1)+D11</f>
-        <v>3596200</v>
-      </c>
-      <c r="E12">
-        <f>E11/2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <f>124000*(C13-1)+D12</f>
-        <v>4588200</v>
-      </c>
-      <c r="E13">
-        <f>E12/2</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <f>124000*(C14-1)+D13</f>
-        <v>5704200</v>
-      </c>
-      <c r="E14">
-        <f>E13/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="K14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="22">
-        <f>(J6*(1-K11)*24/K10)*G10</f>
-        <v>75878.25</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="22">
-        <f>K11*J6+J11+J10*G10</f>
-        <v>528884</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17">
-        <f>L14/L15</f>
-        <v>0.14346860559215252</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f>298*(1/0.125)*12</f>
-        <v>28608</v>
-      </c>
-      <c r="E19">
-        <f>E18/2</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <f>298*(1/0.125)*50</f>
-        <v>119200</v>
-      </c>
-      <c r="E20">
-        <f>E19/2</f>
-        <v>0.125</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="K20" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <f>298*(1/0.125)*500</f>
-        <v>1192000</v>
-      </c>
-      <c r="E21">
-        <f>E20/2</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <f>298*(1/0.125)*2000</f>
-        <v>4768000</v>
-      </c>
-      <c r="E22">
-        <f>E21/2</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="26">
-        <v>10</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <f>298*(1/0.125)*5000</f>
-        <v>11920000</v>
-      </c>
-      <c r="E23">
-        <f>E22/2</f>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="26">
-        <v>3</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="L23" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <f>298*(1/0.125)*10000</f>
-        <v>23840000</v>
-      </c>
-      <c r="E24">
-        <f>E23/2</f>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="K24" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <f>298*(1/0.125)*10000</f>
-        <v>23840000</v>
-      </c>
-      <c r="E25">
-        <f>E24/2</f>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <f>298*(1/0.125)*10000</f>
-        <v>23840000</v>
-      </c>
-      <c r="E26">
-        <f>E25/2</f>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="28"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <f>298*(1/0.125)*10000</f>
-        <v>23840000</v>
-      </c>
-      <c r="E27">
-        <f>E26/2</f>
-        <v>9.765625E-4</v>
-      </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="28"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <f>298*(1/0.125)*10000</f>
-        <v>23840000</v>
-      </c>
-      <c r="E28">
-        <f>E27/2</f>
-        <v>4.8828125E-4</v>
-      </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="26">
-        <v>10</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H30" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="26">
-        <v>10</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="L30" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="K31" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:L32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="12" max="12" width="31.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>124200</v>
-      </c>
-      <c r="E5">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <f>124000*(C6-1)+D5</f>
-        <v>248200</v>
-      </c>
-      <c r="E6">
-        <f>E5/2</f>
-        <v>64</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6">
-        <f>298*(1-0.03)*400</f>
-        <v>115624</v>
-      </c>
-      <c r="K6">
-        <f>J6/J4</f>
-        <v>1.0511272727272727</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <f>124000*(C7-1)+D6</f>
-        <v>496200</v>
-      </c>
-      <c r="E7">
-        <f>E6/2</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <f>124000*(C8-1)+D7</f>
-        <v>868200</v>
-      </c>
-      <c r="E8">
-        <f>E7/2</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <f>124000*(C9-1)+D8</f>
-        <v>1364200</v>
-      </c>
-      <c r="E9">
-        <f>E8/2</f>
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <f>124000*(C10-1)+D9</f>
-        <v>1984200</v>
-      </c>
-      <c r="E10">
-        <f>E9/2</f>
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <f>LOOKUP(I10,C5:C14,D5:D14)</f>
-        <v>5704200</v>
-      </c>
-      <c r="K10">
-        <f>LOOKUP(J10,D5:D14,E5:E14)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <f>124000*(C11-1)+D10</f>
-        <v>2728200</v>
-      </c>
-      <c r="E11">
-        <f>E10/2</f>
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <f>LOOKUP(I11,C18:C27,D18:D27)</f>
-        <v>1192000</v>
-      </c>
-      <c r="K11">
-        <f>LOOKUP(I11,C18:C27,E18:E27)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <f>124000*(C12-1)+D11</f>
-        <v>3596200</v>
-      </c>
-      <c r="E12">
-        <f>E11/2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <f>124000*(C13-1)+D12</f>
-        <v>4588200</v>
-      </c>
-      <c r="E13">
-        <f>E12/2</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <f>124000*(C14-1)+D13</f>
-        <v>5704200</v>
-      </c>
-      <c r="E14">
-        <f>E13/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="K14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="22">
-        <f>(J6*(1-K11)*24/K10)*G10</f>
-        <v>10406160</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="22">
-        <f>K11*J6+J11+J10*G10</f>
-        <v>6903426.5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17">
-        <f>L14/L15</f>
-        <v>1.5073905690167049</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f>298*(1/0.125)*12</f>
-        <v>28608</v>
-      </c>
-      <c r="E19">
-        <f>E18/2</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <f>298*(1/0.125)*50</f>
-        <v>119200</v>
-      </c>
-      <c r="E20">
-        <f>E19/2</f>
-        <v>0.125</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="K20" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <f>298*(1/0.125)*500</f>
-        <v>1192000</v>
-      </c>
-      <c r="E21">
-        <f>E20/2</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <f>298*(1/0.125)*2000</f>
-        <v>4768000</v>
-      </c>
-      <c r="E22">
-        <f>E21/2</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="26">
-        <v>10</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <f>298*(1/0.125)*5000</f>
-        <v>11920000</v>
-      </c>
-      <c r="E23">
-        <f>E22/2</f>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="26">
-        <v>3</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="L23" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <f>298*(1/0.125)*10000</f>
-        <v>23840000</v>
-      </c>
-      <c r="E24">
-        <f>E23/2</f>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="K24" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <f>298*(1/0.125)*10000</f>
-        <v>23840000</v>
-      </c>
-      <c r="E25">
-        <f>E24/2</f>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <f>298*(1/0.125)*10000</f>
-        <v>23840000</v>
-      </c>
-      <c r="E26">
-        <f>E25/2</f>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="28"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <f>298*(1/0.125)*10000</f>
-        <v>23840000</v>
-      </c>
-      <c r="E27">
-        <f>E26/2</f>
-        <v>9.765625E-4</v>
-      </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="28"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <f>298*(1/0.125)*10000</f>
-        <v>23840000</v>
-      </c>
-      <c r="E28">
-        <f>E27/2</f>
-        <v>4.8828125E-4</v>
-      </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="26">
-        <v>10</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H30" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="I30" s="26">
-        <v>10</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="L30" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="K31" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All of them" sheetId="12" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="s. Engine" sheetId="11" r:id="rId4"/>
     <sheet name="BFRs" sheetId="9" r:id="rId5"/>
     <sheet name="SORs" sheetId="5" r:id="rId6"/>
+    <sheet name="Rocket Engines" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="99">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -293,6 +294,39 @@
   </si>
   <si>
     <t>total required hours</t>
+  </si>
+  <si>
+    <t>Market price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market price - comission </t>
+  </si>
+  <si>
+    <t>earning per rocket</t>
+  </si>
+  <si>
+    <t>earning per hour</t>
+  </si>
+  <si>
+    <t>UNIT RESOURCES COSTS</t>
+  </si>
+  <si>
+    <t>Buildings total level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total earning daily </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-day financing: </t>
+  </si>
+  <si>
+    <t>DAILY NEEDS</t>
+  </si>
+  <si>
+    <t>HOUR NEEDS</t>
+  </si>
+  <si>
+    <t>REQUIRED CASH</t>
   </si>
 </sst>
 </file>
@@ -384,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -425,11 +459,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -456,6 +587,28 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2326,7 +2479,7 @@
         <v>3.8147138964577656</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:K33" si="1">J24/$K$36</f>
+        <f t="shared" ref="K24:K31" si="1">J24/$K$36</f>
         <v>0.32278484561943088</v>
       </c>
     </row>
@@ -2601,7 +2754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
@@ -2808,7 +2961,7 @@
         <v>2.1798365122615806</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:K33" si="1">J24/$K$36</f>
+        <f t="shared" ref="K24:K31" si="1">J24/$K$36</f>
         <v>0.46680175492536063</v>
       </c>
     </row>
@@ -3083,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,4 +4647,315 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="30">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="27">
+        <v>18.5</v>
+      </c>
+      <c r="C3" s="16">
+        <f>1/E10*10*B19</f>
+        <v>161.29032258064515</v>
+      </c>
+      <c r="D3" s="26">
+        <f>C3*24</f>
+        <v>3870.9677419354839</v>
+      </c>
+      <c r="E3" s="35">
+        <f>D3*B3</f>
+        <v>71612.903225806454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="27">
+        <v>10.5</v>
+      </c>
+      <c r="C4" s="16">
+        <f>1/E10*20*B19</f>
+        <v>322.58064516129031</v>
+      </c>
+      <c r="D4" s="26">
+        <f t="shared" ref="D4:D5" si="0">C4*24</f>
+        <v>7741.9354838709678</v>
+      </c>
+      <c r="E4" s="35">
+        <f>D4*B4</f>
+        <v>81290.322580645166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="37">
+        <v>860</v>
+      </c>
+      <c r="C5" s="14">
+        <f>1/E10*8*B19</f>
+        <v>129.03225806451613</v>
+      </c>
+      <c r="D5" s="38">
+        <f t="shared" si="0"/>
+        <v>3096.7741935483873</v>
+      </c>
+      <c r="E5" s="39">
+        <f>D5*B5</f>
+        <v>2663225.8064516131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="42"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="14">
+        <f>20*B4+8*B5+10*B3</f>
+        <v>7275</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1989.41</v>
+      </c>
+      <c r="G10" s="14">
+        <f>$H$2*F10</f>
+        <v>278.51740000000007</v>
+      </c>
+      <c r="H10" s="39">
+        <f>D10+F10+G10</f>
+        <v>9542.9274000000005</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="46">
+        <v>11400</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="42">
+        <f>B13/1.03</f>
+        <v>11067.961165048544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="35">
+        <f>B14-H10</f>
+        <v>1525.0337650485435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="39">
+        <f>B15*E10</f>
+        <v>472.76046716504851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="35">
+        <f>B16*24*B19</f>
+        <v>56731.256059805819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="47">
+        <f>B20*14</f>
+        <v>794237.58483728149</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H10:H13">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L9">
+    <cfRule type="dataBar" priority="46">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3165805C-5004-49C5-854A-5F4767D7AE87}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3165805C-5004-49C5-854A-5F4767D7AE87}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L8:L9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="All of them" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="98">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total earning daily </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-day financing: </t>
   </si>
   <si>
     <t>DAILY NEEDS</t>
@@ -356,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,6 +411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +592,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -608,7 +610,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,7 +895,7 @@
   <dimension ref="A2:H57"/>
   <sheetViews>
     <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1471,7 @@
         <v>7770</v>
       </c>
       <c r="E40" s="1">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F40" s="1">
         <v>1989.41</v>
@@ -3234,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L41"/>
+  <dimension ref="A2:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,7 +3249,9 @@
     <col min="2" max="2" width="17.140625" customWidth="1"/>
     <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3378,7 +3383,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>14</v>
@@ -3399,8 +3404,11 @@
       <c r="H22" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
@@ -3413,7 +3421,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>5</v>
       </c>
@@ -3441,12 +3449,16 @@
         <f>D24+F24+G24</f>
         <v>2845.9058880000002</v>
       </c>
-      <c r="J24">
+      <c r="I24">
+        <f>H24*40</f>
+        <v>113836.23552000002</v>
+      </c>
+      <c r="K24">
         <f>1/E24*40</f>
         <v>10.899182561307903</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>13</v>
       </c>
@@ -3474,12 +3486,16 @@
         <f t="shared" ref="H25:H38" si="1">D25+F25+G25</f>
         <v>9576.0028039999997</v>
       </c>
-      <c r="J25">
+      <c r="I25">
+        <f>H25*(16+6)</f>
+        <v>210672.06168799999</v>
+      </c>
+      <c r="K25">
         <f>1/E25*(16+6)</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>18</v>
       </c>
@@ -3507,13 +3523,17 @@
         <f t="shared" si="1"/>
         <v>500.62927199999996</v>
       </c>
-      <c r="J26">
+      <c r="I26">
+        <f>H26*10</f>
+        <v>5006.2927199999995</v>
+      </c>
+      <c r="K26">
         <f>1/E26*10</f>
         <v>0.74962518740629691</v>
       </c>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
@@ -3541,13 +3561,13 @@
         <f t="shared" si="1"/>
         <v>593829.04662200005</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f>1/E27</f>
         <v>0.5988023952095809</v>
       </c>
-      <c r="L27" s="16"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
@@ -3575,14 +3595,14 @@
         <f t="shared" si="1"/>
         <v>147327.52208400003</v>
       </c>
-      <c r="J28" s="14">
+      <c r="K28" s="14">
         <f>1/E28</f>
         <v>3.0303030303030303</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="14"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3590,19 +3610,19 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="J29" s="13" t="s">
+      <c r="K29" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="16">
-        <f>SUM(J24:J28)</f>
+      <c r="L29" s="16">
+        <f>SUM(K24:K28)</f>
         <v>19.677913174226813</v>
       </c>
-      <c r="L29">
-        <f>K29/$K$41</f>
-        <v>0.12439666233684535</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f>L29/$L$41</f>
+        <v>0.11761484646053975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
@@ -3614,9 +3634,9 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>29</v>
       </c>
@@ -3644,13 +3664,17 @@
         <f t="shared" si="1"/>
         <v>4926.8697679999996</v>
       </c>
-      <c r="J31">
+      <c r="I31">
+        <f>H31*2</f>
+        <v>9853.7395359999991</v>
+      </c>
+      <c r="K31">
         <f>1/E31*2</f>
         <v>0.78125</v>
       </c>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>31</v>
       </c>
@@ -3678,13 +3702,17 @@
         <f t="shared" si="1"/>
         <v>1390.553846</v>
       </c>
-      <c r="J32" s="14">
+      <c r="I32">
+        <f>H32*4</f>
+        <v>5562.2153840000001</v>
+      </c>
+      <c r="K32" s="14">
         <f>1/E32*4</f>
         <v>1.3029315960912053</v>
       </c>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3692,19 +3720,19 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="J33" s="13" t="s">
+      <c r="K33" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="K33" s="16">
-        <f>SUM(J31:J32)</f>
+      <c r="L33" s="16">
+        <f>SUM(K31:K32)</f>
         <v>2.0841815960912053</v>
       </c>
-      <c r="L33">
-        <f t="shared" ref="L33:L39" si="2">K33/$K$41</f>
-        <v>1.3175443552479855E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" ref="M33:M39" si="2">L33/$L$41</f>
+        <v>1.2457149101623755E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
@@ -3716,9 +3744,9 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>38</v>
       </c>
@@ -3733,7 +3761,7 @@
         <v>7035</v>
       </c>
       <c r="E35" s="1">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F35" s="1">
         <v>1989.41</v>
@@ -3746,13 +3774,17 @@
         <f t="shared" si="1"/>
         <v>9597.7579619999997</v>
       </c>
-      <c r="J35" s="14">
+      <c r="I35">
+        <f>H35*(34+7)</f>
+        <v>393508.07644199999</v>
+      </c>
+      <c r="K35" s="14">
         <f>1/E35*(34+7)</f>
-        <v>132.25806451612905</v>
-      </c>
-      <c r="K35" s="18"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>141.37931034482759</v>
+      </c>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3760,19 +3792,19 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="J36" s="13" t="s">
+      <c r="K36" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="K36">
-        <f>SUM(J35)</f>
-        <v>132.25806451612905</v>
-      </c>
       <c r="L36">
+        <f>SUM(K35)</f>
+        <v>141.37931034482759</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="2"/>
-        <v>0.83608773182749174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.84502384636409789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
@@ -3785,7 +3817,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>47</v>
       </c>
@@ -3813,39 +3845,39 @@
         <f t="shared" si="1"/>
         <v>745241.25767600012</v>
       </c>
-      <c r="J38" s="14">
+      <c r="K38" s="14">
         <f>1/E38</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J39" s="13" t="s">
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K39" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="K39">
-        <f>SUM(J38)</f>
+      <c r="L39">
+        <f>SUM(K38)</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <f t="shared" si="2"/>
-        <v>2.6340162283183172E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L40" s="16"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J41" s="13" t="s">
+        <v>2.490415807373866E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="16"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K41" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="K41">
-        <f>SUM(K29:K39)</f>
-        <v>158.18682595311373</v>
+      <c r="L41">
+        <f>SUM(L29:L39)</f>
+        <v>167.30807178181226</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K37">
+  <conditionalFormatting sqref="L37">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3857,7 +3889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H43">
+  <conditionalFormatting sqref="H24:I43">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3869,7 +3901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29:L39">
+  <conditionalFormatting sqref="M29:M39">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -3883,7 +3915,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J28">
+  <conditionalFormatting sqref="K24:K28">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3897,7 +3929,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:J32">
+  <conditionalFormatting sqref="K31:K32">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3924,7 +3956,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L29:L39</xm:sqref>
+          <xm:sqref>M29:M39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{395963F4-3B66-4324-8957-914DA4852A0F}">
@@ -3935,7 +3967,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J24:J28</xm:sqref>
+          <xm:sqref>K24:K28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{07F4C7B8-9D97-44FB-A34F-7919208335C4}">
@@ -3946,7 +3978,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J31:J32</xm:sqref>
+          <xm:sqref>K31:K32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4651,10 +4683,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L21"/>
+  <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4668,116 +4700,115 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="29">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="27">
+        <v>10.5</v>
+      </c>
+      <c r="C3" s="16">
+        <f>E10*20*B19</f>
+        <v>87</v>
+      </c>
+      <c r="D3" s="26">
+        <f t="shared" ref="D3:D4" si="0">C3*24</f>
+        <v>2088</v>
+      </c>
+      <c r="E3" s="34">
+        <f>D3*B3</f>
+        <v>21924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="27">
+        <v>860</v>
+      </c>
+      <c r="C4" s="16">
+        <f>E10*8*B19</f>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D4" s="26">
+        <f t="shared" si="0"/>
+        <v>835.19999999999993</v>
+      </c>
+      <c r="E4" s="34">
+        <f>D4*B4</f>
+        <v>718271.99999999988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B5" s="36">
         <v>18.5</v>
       </c>
-      <c r="C3" s="16">
-        <f>1/E10*10*B19</f>
-        <v>161.29032258064515</v>
-      </c>
-      <c r="D3" s="26">
-        <f>C3*24</f>
-        <v>3870.9677419354839</v>
-      </c>
-      <c r="E3" s="35">
-        <f>D3*B3</f>
-        <v>71612.903225806454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="27">
-        <v>10.5</v>
-      </c>
-      <c r="C4" s="16">
-        <f>1/E10*20*B19</f>
-        <v>322.58064516129031</v>
-      </c>
-      <c r="D4" s="26">
-        <f t="shared" ref="D4:D5" si="0">C4*24</f>
-        <v>7741.9354838709678</v>
-      </c>
-      <c r="E4" s="35">
-        <f>D4*B4</f>
-        <v>81290.322580645166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="37">
-        <v>860</v>
-      </c>
       <c r="C5" s="14">
-        <f>1/E10*8*B19</f>
-        <v>129.03225806451613</v>
-      </c>
-      <c r="D5" s="38">
-        <f t="shared" si="0"/>
-        <v>3096.7741935483873</v>
-      </c>
-      <c r="E5" s="39">
+        <f>E10*10*B19</f>
+        <v>43.5</v>
+      </c>
+      <c r="D5" s="37">
+        <f>C5*24</f>
+        <v>1044</v>
+      </c>
+      <c r="E5" s="38">
         <f>D5*B5</f>
-        <v>2663225.8064516131</v>
+        <v>19314</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="E6" s="46">
+        <f>SUM(E3:E5)</f>
+        <v>759509.99999999988</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="16"/>
@@ -4785,7 +4816,7 @@
       <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="16"/>
@@ -4794,27 +4825,27 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="42"/>
+      <c r="H9" s="41"/>
       <c r="J9" s="16"/>
       <c r="K9" s="17"/>
       <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="43">
         <v>1</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="14">
-        <f>20*B4+8*B5+10*B3</f>
+        <f>20*B3+8*B4+10*B5</f>
         <v>7275</v>
       </c>
       <c r="E10" s="14">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F10" s="14">
         <v>1989.41</v>
@@ -4823,7 +4854,7 @@
         <f>$H$2*F10</f>
         <v>278.51740000000007</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="47">
         <f>D10+F10+G10</f>
         <v>9542.9274000000005</v>
       </c>
@@ -4849,71 +4880,62 @@
       <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="46">
-        <v>11400</v>
+      <c r="B13" s="45">
+        <v>10800</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="41">
         <f>B13/1.03</f>
-        <v>11067.961165048544</v>
+        <v>10485.436893203883</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <f>B14-H10</f>
-        <v>1525.0337650485435</v>
+        <v>942.50949320388281</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="38">
         <f>B15*E10</f>
-        <v>472.76046716504851</v>
+        <v>273.32775302912597</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="46">
-        <v>5</v>
+      <c r="B19" s="45">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="38">
         <f>B16*24*B19</f>
-        <v>56731.256059805819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="47">
-        <f>B20*14</f>
-        <v>794237.58483728149</v>
+        <v>98397.99109048536</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H10:H13">
+  <conditionalFormatting sqref="H11:H13">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -3239,8 +3239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4685,8 +4685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4731,15 +4731,15 @@
       </c>
       <c r="C3" s="16">
         <f>E10*20*B19</f>
-        <v>87</v>
+        <v>98.6</v>
       </c>
       <c r="D3" s="26">
         <f t="shared" ref="D3:D4" si="0">C3*24</f>
-        <v>2088</v>
+        <v>2366.3999999999996</v>
       </c>
       <c r="E3" s="34">
         <f>D3*B3</f>
-        <v>21924</v>
+        <v>24847.199999999997</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4751,15 +4751,15 @@
       </c>
       <c r="C4" s="16">
         <f>E10*8*B19</f>
-        <v>34.799999999999997</v>
+        <v>39.44</v>
       </c>
       <c r="D4" s="26">
         <f t="shared" si="0"/>
-        <v>835.19999999999993</v>
+        <v>946.56</v>
       </c>
       <c r="E4" s="34">
         <f>D4*B4</f>
-        <v>718271.99999999988</v>
+        <v>814041.59999999998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4771,21 +4771,21 @@
       </c>
       <c r="C5" s="14">
         <f>E10*10*B19</f>
-        <v>43.5</v>
+        <v>49.3</v>
       </c>
       <c r="D5" s="37">
         <f>C5*24</f>
-        <v>1044</v>
+        <v>1183.1999999999998</v>
       </c>
       <c r="E5" s="38">
         <f>D5*B5</f>
-        <v>19314</v>
+        <v>21889.199999999997</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E6" s="46">
         <f>SUM(E3:E5)</f>
-        <v>759509.99999999988</v>
+        <v>860777.99999999988</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4922,7 +4922,7 @@
         <v>93</v>
       </c>
       <c r="B19" s="45">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="B20" s="38">
         <f>B16*24*B19</f>
-        <v>98397.99109048536</v>
+        <v>111517.7232358834</v>
       </c>
     </row>
   </sheetData>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -18,7 +18,7 @@
     <sheet name="s. Engine" sheetId="11" r:id="rId4"/>
     <sheet name="BFRs" sheetId="9" r:id="rId5"/>
     <sheet name="SORs" sheetId="5" r:id="rId6"/>
-    <sheet name="Rocket Engines" sheetId="13" r:id="rId7"/>
+    <sheet name="Production Plans 1st stage" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="106">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -281,56 +281,80 @@
     <t xml:space="preserve">proportional labor times </t>
   </si>
   <si>
-    <t>(141,450 per lvl)</t>
-  </si>
-  <si>
-    <t>(103,500 per lvl)</t>
-  </si>
-  <si>
-    <t>(106,059 per lvl)</t>
-  </si>
-  <si>
-    <t>(113,850 per lvl)</t>
-  </si>
-  <si>
     <t>total required hours</t>
   </si>
   <si>
-    <t>Market price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Market price - comission </t>
-  </si>
-  <si>
-    <t>earning per rocket</t>
-  </si>
-  <si>
-    <t>earning per hour</t>
-  </si>
-  <si>
     <t>UNIT RESOURCES COSTS</t>
   </si>
   <si>
-    <t>Buildings total level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total earning daily </t>
-  </si>
-  <si>
-    <t>DAILY NEEDS</t>
-  </si>
-  <si>
-    <t>HOUR NEEDS</t>
-  </si>
-  <si>
     <t>REQUIRED CASH</t>
+  </si>
+  <si>
+    <t>LVL</t>
+  </si>
+  <si>
+    <t>Expected profit</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOR ASR: </t>
+  </si>
+  <si>
+    <t>First difference</t>
+  </si>
+  <si>
+    <t>Second difference</t>
+  </si>
+  <si>
+    <t>AEROSPACE FACTORY</t>
+  </si>
+  <si>
+    <t>PRODUCED UNITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attitude control </t>
+  </si>
+  <si>
+    <t>At this moment we assume that most of the elements will be bought at the market. It is also assumed that we buy q2 at minimum so BFRs are</t>
+  </si>
+  <si>
+    <t>at most q4. This way we do not spend too much in investigation, at the expense of having some idle buildings.</t>
+  </si>
+  <si>
+    <t>NEEDS PER BFR</t>
+  </si>
+  <si>
+    <t>REQUIRED CASH PER BFR</t>
+  </si>
+  <si>
+    <t>REQUIRED HOURS</t>
+  </si>
+  <si>
+    <t>QUALITY</t>
+  </si>
+  <si>
+    <t>BUILDING SLOTS</t>
+  </si>
+  <si>
+    <t>BUILDING REQ. AVG LVL</t>
+  </si>
+  <si>
+    <t>Given any slots, there's a building required level to produce the specified amount of BFR's every hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +372,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,36 +461,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,61 +576,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -892,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H57"/>
+  <dimension ref="A2:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,742 +1045,790 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <f>40*B3</f>
         <v>2640</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>3.67</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>159.84</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <f t="shared" ref="G24:G30" si="0">$E$2*F24</f>
         <v>46.065888000000001</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <f>D24+F24+G24</f>
         <v>2845.9058880000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <f>30*B3+5*B4</f>
         <v>2075</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>9.01</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>65.12</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>18.767584000000003</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <f t="shared" ref="H25:H52" si="1">D25+F25+G25</f>
         <v>2158.8875840000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="24">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <f>50*B4+250*B5</f>
         <v>9450</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>5</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>117.22</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <f t="shared" si="0"/>
         <v>33.782803999999999</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <f t="shared" si="1"/>
         <v>9601.0028039999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <f>20*B8+30*B9</f>
         <v>454</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>13.34</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>43.96</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <f t="shared" si="0"/>
         <v>12.669272000000001</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <f t="shared" si="1"/>
         <v>510.62927199999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>20</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <f>8*H24+2*H26+2*H33+4*H41+2*H35</f>
         <v>100316.59010000002</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>3.34</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>175.82</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <f t="shared" si="0"/>
         <v>50.671323999999998</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <f t="shared" si="1"/>
         <v>100543.08142400002</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>100</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <f>40*H24+16*H26+34*H40</f>
         <v>618766.05109199998</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>1.67</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>351.65</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <f t="shared" si="0"/>
         <v>101.34553</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <f t="shared" si="1"/>
         <v>619219.04662200005</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>100</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <f>2*H34+10*H27+4*H35+6*H26+7*H40</f>
         <v>151183.570198</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>0.33</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>1758.23</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <f t="shared" si="0"/>
         <v>506.72188600000004</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <f t="shared" si="1"/>
         <v>153448.52208400003</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <f>4*B10+2*B11</f>
         <v>4596</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="4">
         <v>2.56</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="4">
         <v>283.24</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="4">
         <f>$E$2*F33</f>
         <v>81.629768000000013</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <f t="shared" si="1"/>
         <v>4960.8697679999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <f>4*B10+8*B12+B6</f>
         <v>4922</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>2.56</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
         <v>283.24</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="4">
         <f>$E$2*F34</f>
         <v>81.629768000000013</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <f t="shared" si="1"/>
         <v>5286.8697679999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <f>3*B8+5*B13+3*B14</f>
         <v>1088</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="4">
         <v>3.07</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="4">
         <v>236.03</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="4">
         <f>$E$2*F35</f>
         <v>68.023846000000006</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <f t="shared" si="1"/>
         <v>1392.053846</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="4">
         <v>10</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="4">
         <f>8*B10+4*H33+H41+2*H35</f>
         <v>41397.959303999996</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="4">
         <v>0.13</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="4">
         <v>5664.7</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="4">
         <f>$E$2*F36</f>
         <v>1632.56654</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="4">
         <f t="shared" si="1"/>
         <v>48695.225843999993</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="4">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4">
         <f>30*B4+100*B5+50*B15</f>
         <v>4700</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="4">
         <v>0.31</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="4">
         <v>1989.41</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="4">
         <f>$E$2*F39</f>
         <v>573.34796200000005</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="4">
         <f t="shared" si="1"/>
         <v>7262.7579619999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="4">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4">
         <f>20*B8+8*B10+10*B4</f>
         <v>7770</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="4">
         <v>1989.41</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="4">
         <f>$E$2*F40</f>
         <v>573.34796200000005</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="4">
         <f t="shared" si="1"/>
         <v>10332.757962</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="4">
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="4">
         <f>8*B10+30*B13+15*B15</f>
         <v>10129</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="4">
         <v>0.62</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="4">
         <v>994.7</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="4">
         <f>$E$2*F41</f>
         <v>286.67254000000003</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="4">
         <f t="shared" si="1"/>
         <v>11410.37254</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="4">
         <f>4*B10+5*B4</f>
         <v>3775</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="4">
         <v>0.94</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="4">
         <v>663.14</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="4">
         <f>$E$2*F42</f>
         <v>191.11694800000001</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="4">
         <f t="shared" si="1"/>
         <v>4629.2569480000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>2</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="4">
         <f>6*B8+5*B15+5*B16</f>
         <v>421.5</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="4">
         <v>6.24</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="4">
         <v>99.47</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="4">
         <f>$E$2*F43</f>
         <v>28.667254</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="4">
         <f t="shared" si="1"/>
         <v>549.63725399999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <v>20</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="4">
         <f>H39+H28</f>
         <v>107805.83938600002</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="4">
         <v>0.72</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="4">
         <v>1056.95</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="4">
         <f>$E$2*F46</f>
         <v>304.61299000000002</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="4">
         <f t="shared" si="1"/>
         <v>109167.40237600001</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <v>2000</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="4">
         <f>H29+H30</f>
         <v>772667.56870600011</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="4">
         <v>0.24</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="4">
         <v>3170.85</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="4">
         <f>$E$2*F47</f>
         <v>913.83897000000002</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="4">
         <f t="shared" si="1"/>
         <v>776752.25767600012</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="4">
         <v>2000</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="4">
         <f>40*H24+10*H25+2*H34+140*B6+4*H42</f>
         <v>207355.87868800003</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="4">
         <v>10569.51</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="4">
         <f>$E$2*F50</f>
         <v>3046.1327820000001</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="4">
         <f t="shared" si="1"/>
         <v>220971.52147000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="4">
         <v>1000</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="4">
         <f>14*H24+2*H25+H34+2*B7+2*H42</f>
         <v>70705.841264000002</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="4">
         <v>0.19</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="4">
         <v>3963.57</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="4">
         <f>$E$2*F51</f>
         <v>1142.300874</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <f t="shared" si="1"/>
         <v>75811.712138000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="24">
         <v>100</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="4">
         <f>8*H24+2*H25+H34+H43</f>
         <v>32921.529294</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="4">
         <v>1.68</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="4">
         <v>452.98</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="4">
         <f>$E$2*F52</f>
         <v>130.54883600000002</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="4">
         <f t="shared" si="1"/>
         <v>33505.058130000005</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H24:H52">
@@ -1791,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K36"/>
+  <dimension ref="A2:K41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="A18" sqref="A18:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,18 +1878,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="10">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="10">
         <v>19</v>
       </c>
     </row>
@@ -1844,10 +1902,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="8">
         <v>306</v>
       </c>
       <c r="D6" t="s">
@@ -1879,10 +1937,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="10">
         <v>920</v>
       </c>
     </row>
@@ -1895,10 +1953,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="10">
         <v>117</v>
       </c>
     </row>
@@ -1934,67 +1992,115 @@
         <v>56.5</v>
       </c>
     </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="24" t="s">
         <v>55</v>
       </c>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <f>40*B3</f>
         <v>2640</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>3.67</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>159.84</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <f t="shared" ref="G24:G25" si="0">$E$2*F24</f>
         <v>46.065888000000001</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <f>D24+F24+G24</f>
         <v>2845.9058880000002</v>
       </c>
+      <c r="I24" s="4"/>
       <c r="J24">
         <f>40/E24</f>
         <v>10.899182561307903</v>
@@ -2005,33 +2111,34 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <f>30*B3+5*B4</f>
         <v>2075</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>9.01</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>65.12</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>18.767584000000003</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <f t="shared" ref="H25:H34" si="1">D25+F25+G25</f>
         <v>2158.8875840000001</v>
       </c>
+      <c r="I25" s="4"/>
       <c r="J25">
         <f>10/E25</f>
         <v>1.1098779134295227</v>
@@ -2042,53 +2149,58 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <f>4*B10+8*B12+B6</f>
         <v>4922</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>2.56</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>283.24</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <f>$E$2*F28</f>
         <v>81.629768000000013</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <f t="shared" si="1"/>
         <v>5286.8697679999996</v>
       </c>
+      <c r="I28" s="4"/>
       <c r="J28">
         <f>2/E28</f>
         <v>0.78125</v>
@@ -2099,53 +2211,58 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <f>4*B10+5*B4</f>
         <v>3775</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>0.94</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>663.14</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <f>$E$2*F31</f>
         <v>191.11694800000001</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <f t="shared" si="1"/>
         <v>4629.2569480000002</v>
       </c>
+      <c r="I31" s="4"/>
       <c r="J31">
         <f>4/E31</f>
         <v>4.2553191489361701</v>
@@ -2156,53 +2273,58 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>2000</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <f>40*H24+10*H25+2*H28+140*B6+4*H31</f>
         <v>207355.87868800003</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
         <v>10569.51</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="4">
         <f>$E$2*F34</f>
         <v>3046.1327820000001</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <f t="shared" si="1"/>
         <v>220971.52147000004</v>
       </c>
+      <c r="I34" s="4"/>
       <c r="J34">
         <f>1/E34</f>
         <v>14.285714285714285</v>
@@ -2212,14 +2334,89 @@
         <v>0.45595600134579051</v>
       </c>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K36">
         <f>SUM(J34,J31,J28,J24,J25)</f>
         <v>31.331343909387879</v>
       </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H24:H34">
@@ -2273,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K36"/>
+  <dimension ref="A2:K38"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="A21" sqref="A21:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,18 +2499,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="9">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="9">
         <v>19</v>
       </c>
     </row>
@@ -2326,10 +2523,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="9">
         <v>306</v>
       </c>
       <c r="D6" t="s">
@@ -2337,10 +2534,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="8">
         <v>6000</v>
       </c>
     </row>
@@ -2361,10 +2558,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="9">
         <v>920</v>
       </c>
     </row>
@@ -2377,10 +2574,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="9">
         <v>117</v>
       </c>
     </row>
@@ -2416,67 +2613,82 @@
         <v>56.5</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="24" t="s">
         <v>55</v>
       </c>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <f>40*B3</f>
         <v>2640</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>3.67</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>159.84</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <f t="shared" ref="G24:G25" si="0">$E$2*F24</f>
         <v>46.065888000000001</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <f>D24+F24+G24</f>
         <v>2845.9058880000002</v>
       </c>
+      <c r="I24" s="4"/>
       <c r="J24">
         <f>14/E24</f>
         <v>3.8147138964577656</v>
@@ -2487,33 +2699,34 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <f>30*B3+5*B4</f>
         <v>2075</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>9.01</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>65.12</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>18.767584000000003</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <f t="shared" ref="H25:H34" si="2">D25+F25+G25</f>
         <v>2158.8875840000001</v>
       </c>
+      <c r="I25" s="4"/>
       <c r="J25">
         <f>2/E25</f>
         <v>0.22197558268590456</v>
@@ -2524,53 +2737,58 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <f>4*B10+8*B12+B6</f>
         <v>4922</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>2.56</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>283.24</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <f>$E$2*F28</f>
         <v>81.629768000000013</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <f t="shared" si="2"/>
         <v>5286.8697679999996</v>
       </c>
+      <c r="I28" s="4"/>
       <c r="J28">
         <f>1/E28</f>
         <v>0.390625</v>
@@ -2581,53 +2799,58 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <f>4*B10+5*B4</f>
         <v>3775</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>0.94</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>663.14</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <f>$E$2*F31</f>
         <v>191.11694800000001</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <f t="shared" si="2"/>
         <v>4629.2569480000002</v>
       </c>
+      <c r="I31" s="4"/>
       <c r="J31">
         <f>2/E31</f>
         <v>2.1276595744680851</v>
@@ -2638,53 +2861,58 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>1000</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <f>14*H24+2*H25+H28+2*B7+2*H31</f>
         <v>70705.841264000002</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>0.19</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
         <v>3963.57</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="4">
         <f>$E$2*F34</f>
         <v>1142.300874</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <f t="shared" si="2"/>
         <v>75811.712138000003</v>
       </c>
+      <c r="I34" s="4"/>
       <c r="J34">
         <f>1/E34</f>
         <v>5.2631578947368425</v>
@@ -2694,14 +2922,56 @@
         <v>0.44534600880575614</v>
       </c>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
       <c r="J36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K36">
         <f>SUM(J24:J34)</f>
         <v>11.818131948348597</v>
       </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H24:H34">
@@ -2755,10 +3025,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K36"/>
+  <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,7 +3054,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -2792,7 +3062,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B4">
@@ -2808,7 +3078,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B6">
@@ -2827,7 +3097,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B8">
@@ -2843,7 +3113,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B10">
@@ -2859,7 +3129,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B12">
@@ -2883,7 +3153,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B15">
@@ -2891,71 +3161,102 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B16">
         <v>56.5</v>
       </c>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <f>40*B3</f>
         <v>2640</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>3.67</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>159.84</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <f t="shared" ref="G24:G25" si="0">$E$2*F24</f>
         <v>46.065888000000001</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <f>D24+F24+G24</f>
         <v>2845.9058880000002</v>
       </c>
@@ -2969,30 +3270,30 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <f>30*B3+5*B4</f>
         <v>2075</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>9.01</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>65.12</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>18.767584000000003</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <f t="shared" ref="H25:H34" si="2">D25+F25+G25</f>
         <v>2158.8875840000001</v>
       </c>
@@ -3006,50 +3307,52 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <f>4*B10+8*B12+B6</f>
         <v>4922</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>2.56</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>283.24</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <f>$E$2*F28</f>
         <v>81.629768000000013</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <f t="shared" si="2"/>
         <v>5286.8697679999996</v>
       </c>
@@ -3063,50 +3366,52 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <f>6*B8+5*B15+5*B16</f>
         <v>421.5</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>6.24</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>99.47</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <f>$E$2*F31</f>
         <v>28.667254</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="4">
         <f t="shared" si="2"/>
         <v>549.63725399999998</v>
       </c>
@@ -3120,50 +3425,52 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="24">
         <v>100</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <f>8*H24+2*H25+H28+H31</f>
         <v>32921.529294</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>1.68</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
         <v>452.98</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="4">
         <f>$E$2*F34</f>
         <v>130.54883600000002</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <f t="shared" si="2"/>
         <v>33505.058130000005</v>
       </c>
@@ -3176,14 +3483,62 @@
         <v>0.12746744349524355</v>
       </c>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="J36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K36">
         <f>SUM(J24:J34)</f>
         <v>4.6697264722368619</v>
       </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H24:H34">
@@ -3237,38 +3592,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M41"/>
+  <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.28820000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3276,7 +3632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3284,7 +3640,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3292,18 +3648,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="B6">
         <v>306</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -3311,7 +3667,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -3319,7 +3675,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -3327,7 +3683,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -3335,7 +3691,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -3343,7 +3699,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -3351,7 +3707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -3359,7 +3715,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -3367,7 +3723,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -3375,7 +3731,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -3383,501 +3739,899 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="3" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="J22" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="32">
+        <f>IF(B27&gt;0,B27-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="4">
         <f>40*B3</f>
         <v>2640</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="4">
         <v>3.67</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="4">
         <v>159.84</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" ref="G24:G28" si="0">$E$2*F24</f>
+      <c r="H24" s="4">
+        <f t="shared" ref="H24:H28" si="0">$F$2*G24</f>
         <v>46.065888000000001</v>
       </c>
-      <c r="H24">
-        <f>D24+F24+G24</f>
+      <c r="I24" s="4">
+        <f>E24+G24+H24</f>
         <v>2845.9058880000002</v>
       </c>
-      <c r="I24">
-        <f>H24*40</f>
+      <c r="J24" s="4">
+        <f>I24*40</f>
         <v>113836.23552000002</v>
       </c>
-      <c r="K24">
-        <f>1/E24*40</f>
+      <c r="L24">
+        <f>1/F24*40</f>
         <v>10.899182561307903</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="N24" s="21">
+        <f t="shared" ref="N24:N27" si="1">L24/$M$41</f>
+        <v>6.5144391691523473E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="32">
+        <f>IF(B27&gt;0,B27-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C25" s="24">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="4">
         <f>50*B4+250*B5</f>
         <v>9425</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="4">
         <v>117.22</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>33.782803999999999</v>
       </c>
-      <c r="H25">
-        <f t="shared" ref="H25:H38" si="1">D25+F25+G25</f>
+      <c r="I25" s="4">
+        <f t="shared" ref="I25:I38" si="2">E25+G25+H25</f>
         <v>9576.0028039999997</v>
       </c>
-      <c r="I25">
-        <f>H25*(16+6)</f>
+      <c r="J25" s="4">
+        <f>I25*(16+6)</f>
         <v>210672.06168799999</v>
       </c>
-      <c r="K25">
-        <f>1/E25*(16+6)</f>
+      <c r="L25">
+        <f>1/F25*(16+6)</f>
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="N25" s="21">
+        <f t="shared" si="1"/>
+        <v>2.6298790925868024E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="32">
+        <f>IF(B28&gt;0,B28-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="4">
         <f>20*B8+30*B9</f>
         <v>444</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="4">
         <v>13.34</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="4">
         <v>43.96</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>12.669272000000001</v>
       </c>
-      <c r="H26">
+      <c r="I26" s="4">
+        <f t="shared" si="2"/>
+        <v>500.62927199999996</v>
+      </c>
+      <c r="J26" s="4">
+        <f>I26*10</f>
+        <v>5006.2927199999995</v>
+      </c>
+      <c r="L26">
+        <f>1/F26*10</f>
+        <v>0.74962518740629691</v>
+      </c>
+      <c r="N26" s="21">
         <f t="shared" si="1"/>
-        <v>500.62927199999996</v>
-      </c>
-      <c r="I26">
-        <f>H26*10</f>
-        <v>5006.2927199999995</v>
-      </c>
-      <c r="K26">
-        <f>1/E26*10</f>
-        <v>0.74962518740629691</v>
-      </c>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+        <v>4.4805081991733725E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="32">
+        <f>IF(B38&gt;0,B38-1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
         <v>100</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="1">
-        <f>40*H24+16*H25+34*H35</f>
+      <c r="E27" s="4">
+        <f>40*I24+16*I25+34*I35</f>
         <v>593376.05109199998</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="4">
         <v>1.67</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="4">
         <v>351.65</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="4">
         <f t="shared" si="0"/>
         <v>101.34553</v>
       </c>
-      <c r="H27">
+      <c r="I27" s="4">
+        <f t="shared" si="2"/>
+        <v>593829.04662200005</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="L27">
+        <f>1/F27</f>
+        <v>0.5988023952095809</v>
+      </c>
+      <c r="N27" s="21">
         <f t="shared" si="1"/>
-        <v>593829.04662200005</v>
-      </c>
-      <c r="K27">
-        <f>1/E27</f>
-        <v>0.5988023952095809</v>
-      </c>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+        <v>3.5790406812558555E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="32">
+        <f>IF(B38&gt;0,B38-1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C28" s="4">
         <v>100</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="1">
-        <f>2*H31+10*H26+4*H32+6*H25+7*H35</f>
+      <c r="E28" s="4">
+        <f>2*I31+10*I26+4*I32+6*I25+7*I35</f>
         <v>145062.570198</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="4">
         <v>0.33</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="4">
         <v>1758.23</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="4">
         <f t="shared" si="0"/>
         <v>506.72188600000004</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
+      <c r="I28" s="4">
+        <f t="shared" si="2"/>
         <v>147327.52208400003</v>
       </c>
-      <c r="K28" s="14">
-        <f>1/E28</f>
+      <c r="J28" s="4"/>
+      <c r="L28" s="3">
+        <f>1/F28</f>
         <v>3.0303030303030303</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="16"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="K29" s="13" t="s">
+      <c r="M28" s="3"/>
+      <c r="N28" s="21">
+        <f>L28/$M$41</f>
+        <v>1.8112114962719025E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="L29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="16">
-        <f>SUM(K24:K28)</f>
+      <c r="M29" s="5">
+        <f>SUM(L24:L28)</f>
         <v>19.677913174226813</v>
       </c>
-      <c r="M29">
-        <f>L29/$L$41</f>
+      <c r="N29" s="22">
+        <f>M29/$M$41</f>
         <v>0.11761484646053975</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="21"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="32">
+        <f>IF(B28&gt;0,B28-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="4">
         <f>4*B10+8*B12+B6</f>
         <v>4562</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="4">
         <v>2.56</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="4">
         <v>283.24</v>
       </c>
-      <c r="G31" s="1">
-        <f>$E$2*F31</f>
+      <c r="H31" s="4">
+        <f>$F$2*G31</f>
         <v>81.629768000000013</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
+      <c r="I31" s="4">
+        <f t="shared" si="2"/>
         <v>4926.8697679999996</v>
       </c>
-      <c r="I31">
-        <f>H31*2</f>
+      <c r="J31" s="4">
+        <f>I31*2</f>
         <v>9853.7395359999991</v>
       </c>
-      <c r="K31">
-        <f>1/E31*2</f>
+      <c r="L31">
+        <f>1/F31*2</f>
         <v>0.78125</v>
       </c>
-      <c r="L31" s="16"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="M31" s="4"/>
+      <c r="N31" s="21">
+        <f t="shared" ref="N31:N32" si="3">L31/$M$41</f>
+        <v>4.6695296388259986E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="32">
+        <f>IF(B28&gt;0,B28-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="4">
         <f>3*B8+5*B13+3*B14</f>
         <v>1086.5</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="4">
         <v>3.07</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="4">
         <v>236.03</v>
       </c>
-      <c r="G32" s="1">
-        <f>$E$2*F32</f>
+      <c r="H32" s="4">
+        <f>$F$2*G32</f>
         <v>68.023846000000006</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
+      <c r="I32" s="4">
+        <f t="shared" si="2"/>
         <v>1390.553846</v>
       </c>
-      <c r="I32">
-        <f>H32*4</f>
+      <c r="J32" s="4">
+        <f>I32*4</f>
         <v>5562.2153840000001</v>
       </c>
-      <c r="K32" s="14">
-        <f>1/E32*4</f>
+      <c r="L32" s="3">
+        <f>1/F32*4</f>
         <v>1.3029315960912053</v>
       </c>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="K33" s="13" t="s">
+      <c r="M32" s="3"/>
+      <c r="N32" s="21">
+        <f t="shared" si="3"/>
+        <v>7.7876194627977567E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="L33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="L33" s="16">
-        <f>SUM(K31:K32)</f>
+      <c r="M33" s="5">
+        <f>SUM(L31:L32)</f>
         <v>2.0841815960912053</v>
       </c>
-      <c r="M33">
-        <f t="shared" ref="M33:M39" si="2">L33/$L$41</f>
+      <c r="N33" s="22">
+        <f t="shared" ref="N33:N39" si="4">M33/$M$41</f>
         <v>1.2457149101623755E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="L34" s="16"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="21"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="32">
+        <f>IF(B27&gt;0,B27-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="24">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="4">
         <f>20*B8+8*B10+10*B4</f>
         <v>7035</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="4">
         <v>1989.41</v>
       </c>
-      <c r="G35" s="1">
-        <f>$E$2*F35</f>
+      <c r="H35" s="4">
+        <f>$F$2*G35</f>
         <v>573.34796200000005</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
+      <c r="I35" s="4">
+        <f t="shared" si="2"/>
         <v>9597.7579619999997</v>
       </c>
-      <c r="I35">
-        <f>H35*(34+7)</f>
+      <c r="J35" s="4">
+        <f>I35*(34+7)</f>
         <v>393508.07644199999</v>
       </c>
-      <c r="K35" s="14">
-        <f>1/E35*(34+7)</f>
+      <c r="L35" s="3">
+        <f>1/F35*(34+7)</f>
         <v>141.37931034482759</v>
       </c>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="K36" s="13" t="s">
+      <c r="M35" s="6"/>
+      <c r="N35" s="21">
+        <f t="shared" ref="N35" si="5">L35/$M$41</f>
+        <v>0.84502384636409789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="L36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L36">
-        <f>SUM(K35)</f>
+      <c r="M36" s="2">
+        <f>SUM(L35)</f>
         <v>141.37931034482759</v>
       </c>
-      <c r="M36">
+      <c r="N36" s="22">
+        <f t="shared" si="4"/>
+        <v>0.84502384636409789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="N37" s="21"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="12">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="4">
+        <f>I27+I28</f>
+        <v>741156.56870600011</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="G38" s="4">
+        <v>3170.85</v>
+      </c>
+      <c r="H38" s="4">
+        <f>$F$2*G38</f>
+        <v>913.83897000000002</v>
+      </c>
+      <c r="I38" s="4">
         <f t="shared" si="2"/>
-        <v>0.84502384636409789</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="1">
-        <f>H27+H28</f>
-        <v>741156.56870600011</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3170.85</v>
-      </c>
-      <c r="G38" s="1">
-        <f>$E$2*F38</f>
-        <v>913.83897000000002</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="1"/>
         <v>745241.25767600012</v>
       </c>
-      <c r="K38" s="14">
-        <f>1/E38</f>
+      <c r="J38" s="4"/>
+      <c r="L38" s="3">
+        <f>1/F38</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K39" s="13" t="s">
+      <c r="M38" s="3"/>
+      <c r="N38" s="21">
+        <f t="shared" ref="N38" si="6">L38/$M$41</f>
+        <v>2.490415807373866E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="L39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L39">
-        <f>SUM(K38)</f>
+      <c r="M39" s="2">
+        <f>SUM(L38)</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="2"/>
+      <c r="N39" s="22">
+        <f t="shared" si="4"/>
         <v>2.490415807373866E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="16"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K41" s="13" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="L41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L41">
-        <f>SUM(L29:L39)</f>
+      <c r="M41">
+        <f>SUM(M29:M39)</f>
         <v>167.30807178181226</v>
       </c>
     </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="4">
+        <f>346*0.985</f>
+        <v>340.81</v>
+      </c>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2800</v>
+      </c>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4">
+        <f>$C$45*$C$46*(1-1/2^(A50+1))</f>
+        <v>477134</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" ref="B51:B60" si="7">$C$45*$C$46*(1-1/2^(A51+1))</f>
+        <v>715701</v>
+      </c>
+      <c r="C51" s="4">
+        <f>B51-B50</f>
+        <v>238567</v>
+      </c>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4">
+        <f t="shared" si="7"/>
+        <v>834984.5</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" ref="C52:D60" si="8">B52-B51</f>
+        <v>119283.5</v>
+      </c>
+      <c r="D52" s="20">
+        <f>C52-C51</f>
+        <v>-119283.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>3</v>
+      </c>
+      <c r="B53" s="4">
+        <f t="shared" si="7"/>
+        <v>894626.25</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="8"/>
+        <v>59641.75</v>
+      </c>
+      <c r="D53" s="20">
+        <f t="shared" si="8"/>
+        <v>-59641.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <v>4</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="7"/>
+        <v>924447.125</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="8"/>
+        <v>29820.875</v>
+      </c>
+      <c r="D54" s="20">
+        <f t="shared" si="8"/>
+        <v>-29820.875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="18">
+        <v>5</v>
+      </c>
+      <c r="B55" s="4">
+        <f t="shared" si="7"/>
+        <v>939357.5625</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="8"/>
+        <v>14910.4375</v>
+      </c>
+      <c r="D55" s="20">
+        <f t="shared" si="8"/>
+        <v>-14910.4375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
+        <v>6</v>
+      </c>
+      <c r="B56" s="4">
+        <f t="shared" si="7"/>
+        <v>946812.78125</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="8"/>
+        <v>7455.21875</v>
+      </c>
+      <c r="D56" s="20">
+        <f t="shared" si="8"/>
+        <v>-7455.21875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="18">
+        <v>7</v>
+      </c>
+      <c r="B57" s="4">
+        <f t="shared" si="7"/>
+        <v>950540.390625</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="8"/>
+        <v>3727.609375</v>
+      </c>
+      <c r="D57" s="20">
+        <f t="shared" si="8"/>
+        <v>-3727.609375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <v>8</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" si="7"/>
+        <v>952404.1953125</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="8"/>
+        <v>1863.8046875</v>
+      </c>
+      <c r="D58" s="20">
+        <f t="shared" si="8"/>
+        <v>-1863.8046875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <v>9</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" si="7"/>
+        <v>953336.09765625</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="8"/>
+        <v>931.90234375</v>
+      </c>
+      <c r="D59" s="20">
+        <f t="shared" si="8"/>
+        <v>-931.90234375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="19">
+        <v>10</v>
+      </c>
+      <c r="B60" s="3">
+        <f t="shared" si="7"/>
+        <v>953802.048828125</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="8"/>
+        <v>465.951171875</v>
+      </c>
+      <c r="D60" s="23">
+        <f t="shared" si="8"/>
+        <v>-465.951171875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L37">
+  <conditionalFormatting sqref="M37">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3889,7 +4643,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:I43">
+  <conditionalFormatting sqref="I24:J43">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3901,7 +4655,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29:M39">
+  <conditionalFormatting sqref="N24:N39">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -3915,7 +4669,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K28">
+  <conditionalFormatting sqref="L24:L28">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -3929,7 +4683,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K32">
+  <conditionalFormatting sqref="L31:L32">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -3944,6 +4698,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3956,7 +4711,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M29:M39</xm:sqref>
+          <xm:sqref>N24:N39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{395963F4-3B66-4324-8957-914DA4852A0F}">
@@ -3967,7 +4722,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K24:K28</xm:sqref>
+          <xm:sqref>L24:L28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{07F4C7B8-9D97-44FB-A34F-7919208335C4}">
@@ -3978,9 +4733,37 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K31:K32</xm:sqref>
+          <xm:sqref>L31:L32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>BFRs!B50:B60</xm:f>
+              <xm:sqref>B61</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>BFRs!C50:C60</xm:f>
+              <xm:sqref>C61</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>BFRs!D50:D60</xm:f>
+              <xm:sqref>D61</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
     </ext>
   </extLst>
 </worksheet>
@@ -3990,8 +4773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H40" sqref="A17:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4027,7 +4810,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B4">
@@ -4035,7 +4818,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5">
@@ -4118,7 +4901,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B15">
@@ -4134,27 +4917,74 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="24" t="s">
         <v>55</v>
       </c>
       <c r="K22" t="s">
@@ -4165,41 +4995,42 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <f>40*B3</f>
         <v>2640</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>3.67</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>159.84</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <f t="shared" ref="G24:G26" si="0">$E$2*F24</f>
         <v>46.065888000000001</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <f>D24+F24+G24</f>
         <v>2845.9058880000002</v>
       </c>
@@ -4209,30 +5040,30 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <f>50*B4+250*B5</f>
         <v>9450</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>5</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>117.22</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>33.782803999999999</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <f t="shared" ref="H25:H37" si="1">D25+F25+G25</f>
         <v>9601.0028039999997</v>
       </c>
@@ -4242,48 +5073,49 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>20</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <f>8*H24+2*H25+2*H29+4*H34+2*H30</f>
         <v>100316.59010000002</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>3.34</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>175.82</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <f t="shared" si="0"/>
         <v>50.671323999999998</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <f t="shared" si="1"/>
         <v>100543.08142400002</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="3">
         <f>1/E26</f>
         <v>0.29940119760479045</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="J27" s="13" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="J27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K27">
@@ -4296,41 +5128,42 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <f>4*B10+2*B11</f>
         <v>4596</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>2.56</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>283.24</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <f>$E$2*F29</f>
         <v>81.629768000000013</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <f t="shared" si="1"/>
         <v>4960.8697679999996</v>
       </c>
@@ -4340,48 +5173,49 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <f>3*B8+5*B13+3*B14</f>
         <v>1088</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>3.07</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>236.03</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <f>$E$2*F30</f>
         <v>68.023846000000006</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <f t="shared" si="1"/>
         <v>1392.053846</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="3">
         <f>1/E30*2</f>
         <v>0.65146579804560267</v>
       </c>
-      <c r="K30" s="14"/>
+      <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="J31" s="13" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="J31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="K31">
@@ -4394,41 +5228,42 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <f>30*B4+100*B5+50*B15</f>
         <v>4700</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="4">
         <v>0.31</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="4">
         <v>1989.41</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="4">
         <f>$E$2*F33</f>
         <v>573.34796200000005</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="4">
         <f t="shared" si="1"/>
         <v>7262.7579619999997</v>
       </c>
@@ -4438,48 +5273,49 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <f>8*B10+30*B13+15*B15</f>
         <v>10129</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="4">
         <v>0.62</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="4">
         <v>994.7</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="4">
         <f>$E$2*F34</f>
         <v>286.67254000000003</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="4">
         <f t="shared" si="1"/>
         <v>11410.37254</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="3">
         <f>1/E34*4</f>
         <v>6.4516129032258069</v>
       </c>
-      <c r="K34" s="14"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="J35" s="13" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="J35" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K35">
@@ -4492,52 +5328,61 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="4">
         <v>20</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="4">
         <f>H33+H26</f>
         <v>107805.83938600002</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="4">
         <v>0.72</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="4">
         <v>1056.95</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="4">
         <f>$E$2*F37</f>
         <v>304.61299000000002</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="4">
         <f t="shared" si="1"/>
         <v>109167.40237600001</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="3">
         <f>1/E37</f>
         <v>1.3888888888888888</v>
       </c>
-      <c r="K37" s="14"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J38" s="13" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="J38" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K38">
@@ -4549,7 +5394,25 @@
         <v>9.9281712090687396E-2</v>
       </c>
     </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="J40" t="s">
         <v>71</v>
       </c>
@@ -4683,272 +5546,677 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L20"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>10.5</v>
+      </c>
+      <c r="D3" s="4">
+        <f>20*C18</f>
+        <v>34.166666666666657</v>
+      </c>
+      <c r="E3" s="11">
+        <f>D3*C3</f>
+        <v>358.74999999999989</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>890</v>
+      </c>
+      <c r="D4" s="4">
+        <f>8*C18</f>
+        <v>13.666666666666664</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" ref="E4:E10" si="0">D4*C4</f>
+        <v>12163.333333333332</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>18.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>10*C18</f>
+        <v>17.083333333333329</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>316.04166666666657</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3180</v>
+      </c>
+      <c r="D6" s="4">
+        <f>40*C21</f>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>5299.9999999999991</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="24">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10300</v>
+      </c>
+      <c r="D7" s="4">
+        <f>16*C21+C22*6</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>9441.6666666666661</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="24">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5570</v>
+      </c>
+      <c r="D8" s="4">
+        <f>2*C22</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>464.16666666666663</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="K8" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>545</v>
+      </c>
+      <c r="D9" s="4">
+        <f>10*C22</f>
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>227.08333333333331</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="B10" s="24">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1730</v>
+      </c>
+      <c r="D10" s="4">
+        <f>4*C22</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>288.33333333333331</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="27">
+        <f>SUM(E3:E10)</f>
+        <v>28559.374999999996</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="29">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="27">
-        <v>10.5</v>
-      </c>
-      <c r="C3" s="16">
-        <f>E10*20*B19</f>
-        <v>98.6</v>
-      </c>
-      <c r="D3" s="26">
-        <f t="shared" ref="D3:D4" si="0">C3*24</f>
-        <v>2366.3999999999996</v>
-      </c>
-      <c r="E3" s="34">
-        <f>D3*B3</f>
-        <v>24847.199999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="27">
-        <v>860</v>
-      </c>
-      <c r="C4" s="16">
-        <f>E10*8*B19</f>
-        <v>39.44</v>
-      </c>
-      <c r="D4" s="26">
-        <f t="shared" si="0"/>
-        <v>946.56</v>
-      </c>
-      <c r="E4" s="34">
-        <f>D4*B4</f>
-        <v>814041.59999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="36">
-        <v>18.5</v>
-      </c>
-      <c r="C5" s="14">
-        <f>E10*10*B19</f>
-        <v>49.3</v>
-      </c>
-      <c r="D5" s="37">
-        <f>C5*24</f>
-        <v>1183.1999999999998</v>
-      </c>
-      <c r="E5" s="38">
-        <f>D5*B5</f>
-        <v>21889.199999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="46">
-        <f>SUM(E3:E5)</f>
-        <v>860777.99999999988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="D16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="E16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="G16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="H16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="I16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="K16" s="24"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="41"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B18" s="24">
+        <v>2</v>
+      </c>
+      <c r="C18" s="24">
+        <f>34*C21+7*C22</f>
+        <v>1.708333333333333</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="24">
+        <f>20*C3+8*C4+10*C5</f>
+        <v>7515</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1989.41</v>
+      </c>
+      <c r="H18" s="24">
+        <f>$I$2*G18</f>
+        <v>278.51740000000007</v>
+      </c>
+      <c r="I18">
+        <f>C18/F18</f>
+        <v>5.8908045977011492</v>
+      </c>
+      <c r="J18" s="4">
+        <f>E18+G18+H18</f>
+        <v>9782.9274000000005</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="38">
+        <v>8</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="39">
+        <f>I18/G19</f>
+        <v>0.73635057471264365</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="24">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <f>C25</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="4">
+        <f>40*C6+16*C7+34*J18</f>
+        <v>624619.53159999999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="G21" s="4">
+        <v>351.65</v>
+      </c>
+      <c r="H21" s="4">
+        <f>$I$2*G21</f>
+        <v>49.231000000000002</v>
+      </c>
+      <c r="I21">
+        <f>C21/F21</f>
+        <v>2.4950099800399202E-2</v>
+      </c>
+      <c r="J21" s="4">
+        <f>E21+G21+H21</f>
+        <v>625020.41260000004</v>
+      </c>
+      <c r="K21" s="24"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="24">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <f>C25</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4">
+        <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
+        <v>153790.49180000002</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1758.23</v>
+      </c>
+      <c r="H22" s="4">
+        <f>$I$2*G22</f>
+        <v>246.15220000000002</v>
+      </c>
+      <c r="I22">
+        <f>C22/F22</f>
+        <v>0.12626262626262624</v>
+      </c>
+      <c r="J22" s="4">
+        <f>E22+G22+H22</f>
+        <v>155794.87400000004</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="38">
         <v>1</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="14">
-        <f>20*B3+8*B4+10*B5</f>
-        <v>7275</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1989.41</v>
-      </c>
-      <c r="G10" s="14">
-        <f>$H$2*F10</f>
-        <v>278.51740000000007</v>
-      </c>
-      <c r="H10" s="47">
-        <f>D10+F10+G10</f>
-        <v>9542.9274000000005</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="45">
-        <v>10800</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="41">
-        <f>B13/1.03</f>
-        <v>10485.436893203883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="34">
-        <f>B14-H10</f>
-        <v>942.50949320388281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="38">
-        <f>B15*E10</f>
-        <v>273.32775302912597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="45">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="38">
-        <f>B16*24*B19</f>
-        <v>111517.7232358834</v>
-      </c>
+      <c r="H23" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="39">
+        <f>(I21+I22)/G23</f>
+        <v>0.15121272606302544</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="24">
+        <v>4</v>
+      </c>
+      <c r="C25" s="12">
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="24">
+        <f>J21+J22</f>
+        <v>780815.28660000011</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="G25" s="24">
+        <v>3170.85</v>
+      </c>
+      <c r="H25" s="24">
+        <f>$I$2*G25</f>
+        <v>443.91900000000004</v>
+      </c>
+      <c r="I25">
+        <f>C25/F25</f>
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="J25" s="24">
+        <f>E25+G25+H25</f>
+        <v>784430.05560000008</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="38">
+        <v>1</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="39">
+        <f>I25/G26</f>
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="24"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="24"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H11:H13">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
-    <cfRule type="dataBar" priority="46">
+  <conditionalFormatting sqref="M16:M17">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4961,7 +6229,44 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J21:J22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4974,7 +6279,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L8:L9</xm:sqref>
+          <xm:sqref>M16:M17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All of them" sheetId="12" r:id="rId1"/>
@@ -3594,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5548,8 +5548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5603,7 +5603,8 @@
         <v>58</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>2</v>
       </c>
       <c r="C3" s="12">
         <v>10.5</v>
@@ -5623,7 +5624,8 @@
         <v>60</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>2</v>
       </c>
       <c r="C4" s="12">
         <v>890</v>
@@ -5646,7 +5648,8 @@
         <v>10</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>2</v>
       </c>
       <c r="C5" s="12">
         <v>18.5</v>
@@ -5669,7 +5672,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="24">
-        <v>2</v>
+        <f>IF(B21&gt;0,B21-1,0)</f>
+        <v>3</v>
       </c>
       <c r="C6" s="12">
         <v>3180</v>
@@ -5689,7 +5693,8 @@
         <v>13</v>
       </c>
       <c r="B7" s="24">
-        <v>2</v>
+        <f>IF(B22&gt;0,B22-1,0)</f>
+        <v>3</v>
       </c>
       <c r="C7" s="12">
         <v>10300</v>
@@ -5709,7 +5714,8 @@
         <v>29</v>
       </c>
       <c r="B8" s="24">
-        <v>2</v>
+        <f>IF(B22&gt;0,B22-1,0)</f>
+        <v>3</v>
       </c>
       <c r="C8" s="12">
         <v>5570</v>
@@ -5735,7 +5741,8 @@
         <v>18</v>
       </c>
       <c r="B9" s="24">
-        <v>2</v>
+        <f>IF(B22&gt;0,B22-1,0)</f>
+        <v>3</v>
       </c>
       <c r="C9" s="12">
         <v>545</v>
@@ -5755,7 +5762,8 @@
         <v>96</v>
       </c>
       <c r="B10" s="24">
-        <v>2</v>
+        <f>IF(B22&gt;0,B22-1,0)</f>
+        <v>3</v>
       </c>
       <c r="C10" s="12">
         <v>1730</v>
@@ -5870,7 +5878,8 @@
         <v>38</v>
       </c>
       <c r="B18" s="24">
-        <v>2</v>
+        <f>IF(B21&gt;0,B21-1,0)</f>
+        <v>3</v>
       </c>
       <c r="C18" s="24">
         <f>34*C21+7*C22</f>
@@ -5950,7 +5959,8 @@
         <v>24</v>
       </c>
       <c r="B21" s="24">
-        <v>3</v>
+        <f>IF(B25&gt;0,B25-1,0)</f>
+        <v>4</v>
       </c>
       <c r="C21" s="4">
         <f>C25</f>
@@ -5990,7 +6000,8 @@
         <v>23</v>
       </c>
       <c r="B22" s="24">
-        <v>3</v>
+        <f>IF(B25&gt;0,B25-1,0)</f>
+        <v>4</v>
       </c>
       <c r="C22" s="4">
         <f>C25</f>
@@ -6069,8 +6080,8 @@
       <c r="A25" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="24">
-        <v>4</v>
+      <c r="B25" s="12">
+        <v>5</v>
       </c>
       <c r="C25" s="12">
         <f>1/24</f>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All of them" sheetId="12" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="s. Engine" sheetId="11" r:id="rId4"/>
     <sheet name="BFRs" sheetId="9" r:id="rId5"/>
     <sheet name="SORs" sheetId="5" r:id="rId6"/>
-    <sheet name="Production Plans 1st stage" sheetId="13" r:id="rId7"/>
+    <sheet name="Rocket production" sheetId="13" r:id="rId7"/>
+    <sheet name="Production Plans second stage" sheetId="15" r:id="rId8"/>
+    <sheet name="Production Plans final stage" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="131">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -332,9 +334,6 @@
     <t>NEEDS PER BFR</t>
   </si>
   <si>
-    <t>REQUIRED CASH PER BFR</t>
-  </si>
-  <si>
     <t>REQUIRED HOURS</t>
   </si>
   <si>
@@ -348,13 +347,91 @@
   </si>
   <si>
     <t>Given any slots, there's a building required level to produce the specified amount of BFR's every hour</t>
+  </si>
+  <si>
+    <t>REQUIRED CASH PER ROCKET</t>
+  </si>
+  <si>
+    <t>Level required to produce the specified amount in 1 hour with the defined amount of buildings</t>
+  </si>
+  <si>
+    <t>selling price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hourly profit </t>
+  </si>
+  <si>
+    <t>daily profit</t>
+  </si>
+  <si>
+    <t>TOTAL BUILDING LVL</t>
+  </si>
+  <si>
+    <t>selling BFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selling ASR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount per launch </t>
+  </si>
+  <si>
+    <t>probability of failure</t>
+  </si>
+  <si>
+    <t>Expected selling price</t>
+  </si>
+  <si>
+    <t>Expected hourly profit</t>
+  </si>
+  <si>
+    <t>Expected daily profit</t>
+  </si>
+  <si>
+    <t>LAUNCHPAD</t>
+  </si>
+  <si>
+    <t>1 BFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launchpad level: </t>
+  </si>
+  <si>
+    <t>BFR with VIF rent</t>
+  </si>
+  <si>
+    <t>For the first stage we only pretend to sell BFRs</t>
+  </si>
+  <si>
+    <t>For the second stage we pretend to build a high q launchpad and sell ASR</t>
+  </si>
+  <si>
+    <t>REQUIRED CASH PER HOUR</t>
+  </si>
+  <si>
+    <t>REQUIRED CASH PER DAY</t>
+  </si>
+  <si>
+    <t>PRODUCED UNITS PER HOUR</t>
+  </si>
+  <si>
+    <t>Assuming we will prefer to launch our BFRs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assuming we can produce our own high quality BFRs. </t>
+  </si>
+  <si>
+    <t>UNITS PER HOUR PER LEVEL</t>
+  </si>
+  <si>
+    <t>daily units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +465,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -580,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -621,6 +705,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5546,10 +5633,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5560,8 +5647,10 @@
     <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5579,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -5588,7 +5677,7 @@
         <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="13" t="s">
@@ -5603,19 +5692,19 @@
         <v>58</v>
       </c>
       <c r="B3" s="4">
-        <f>IF(B18&gt;0,B18-1,0)</f>
+        <f>IF(B13&gt;0,B13-1,0)</f>
         <v>2</v>
       </c>
       <c r="C3" s="12">
         <v>10.5</v>
       </c>
       <c r="D3" s="4">
-        <f>20*C18</f>
-        <v>34.166666666666657</v>
+        <f>20*C13</f>
+        <v>160</v>
       </c>
       <c r="E3" s="11">
         <f>D3*C3</f>
-        <v>358.74999999999989</v>
+        <v>1680</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -5624,19 +5713,19 @@
         <v>60</v>
       </c>
       <c r="B4" s="4">
-        <f>IF(B18&gt;0,B18-1,0)</f>
+        <f>IF(B13&gt;0,B13-1,0)</f>
         <v>2</v>
       </c>
       <c r="C4" s="12">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="D4" s="4">
-        <f>8*C18</f>
-        <v>13.666666666666664</v>
+        <f>8*C13</f>
+        <v>64</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" ref="E4:E10" si="0">D4*C4</f>
-        <v>12163.333333333332</v>
+        <f t="shared" ref="E4:E5" si="0">D4*C4</f>
+        <v>57600</v>
       </c>
       <c r="G4" s="4"/>
       <c r="K4" t="s">
@@ -5648,19 +5737,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="4">
-        <f>IF(B18&gt;0,B18-1,0)</f>
+        <f>IF(B13&gt;0,B13-1,0)</f>
         <v>2</v>
       </c>
       <c r="C5" s="12">
         <v>18.5</v>
       </c>
       <c r="D5" s="4">
-        <f>10*C18</f>
-        <v>17.083333333333329</v>
+        <f>10*C13</f>
+        <v>80</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>316.04166666666657</v>
+        <v>1480</v>
       </c>
       <c r="G5" s="4"/>
       <c r="K5" t="s">
@@ -5668,565 +5757,237 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24">
-        <f>IF(B21&gt;0,B21-1,0)</f>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="27">
+        <f>SUM(E3:E5)</f>
+        <v>60760</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="12">
-        <v>3180</v>
-      </c>
-      <c r="D6" s="4">
-        <f>40*C21</f>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="E6" s="11">
-        <f t="shared" si="0"/>
-        <v>5299.9999999999991</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="24">
-        <f>IF(B22&gt;0,B22-1,0)</f>
-        <v>3</v>
-      </c>
-      <c r="C7" s="12">
-        <v>10300</v>
-      </c>
-      <c r="D7" s="4">
-        <f>16*C21+C22*6</f>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
-        <v>9441.6666666666661</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="24">
-        <f>IF(B22&gt;0,B22-1,0)</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="12">
-        <v>5570</v>
-      </c>
-      <c r="D8" s="4">
-        <f>2*C22</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E8" s="11">
-        <f t="shared" si="0"/>
-        <v>464.16666666666663</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="K8" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="24">
-        <f>IF(B22&gt;0,B22-1,0)</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="12">
-        <v>545</v>
-      </c>
-      <c r="D9" s="4">
-        <f>10*C22</f>
-        <v>0.41666666666666663</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="0"/>
-        <v>227.08333333333331</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="24">
-        <f>IF(B22&gt;0,B22-1,0)</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1730</v>
-      </c>
-      <c r="D10" s="4">
-        <f>4*C22</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="0"/>
-        <v>288.33333333333331</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="27">
-        <f>SUM(E3:E10)</f>
-        <v>28559.374999999996</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="12">
+        <v>8</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="24">
+        <f>20*C3+8*C4+10*C5</f>
+        <v>7595</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1989.41</v>
+      </c>
+      <c r="H13" s="24">
+        <f>$I$2*G13</f>
+        <v>278.51740000000007</v>
+      </c>
+      <c r="I13">
+        <f>C13/F13</f>
+        <v>27.586206896551726</v>
+      </c>
+      <c r="J13" s="27">
+        <f>E13+G13+H13</f>
+        <v>9862.9274000000005</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="40">
+        <v>9</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="39">
+        <f>I13/G14</f>
+        <v>3.0651340996168583</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="H15" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="39">
+        <f>I14*G14</f>
+        <v>27.586206896551726</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
-      <c r="B16" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="12">
+        <v>11700</v>
+      </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="24">
-        <f>IF(B21&gt;0,B21-1,0)</f>
-        <v>3</v>
-      </c>
-      <c r="C18" s="24">
-        <f>34*C21+7*C22</f>
-        <v>1.708333333333333</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="24">
-        <f>20*C3+8*C4+10*C5</f>
-        <v>7515</v>
-      </c>
-      <c r="F18" s="24">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G18" s="24">
-        <v>1989.41</v>
-      </c>
-      <c r="H18" s="24">
-        <f>$I$2*G18</f>
-        <v>278.51740000000007</v>
-      </c>
-      <c r="I18">
-        <f>C18/F18</f>
-        <v>5.8908045977011492</v>
-      </c>
-      <c r="J18" s="4">
-        <f>E18+G18+H18</f>
-        <v>9782.9274000000005</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="27">
+        <f>(C17-J13)*C13</f>
+        <v>14696.580799999996</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="27">
+        <f>C18*24</f>
+        <v>352717.93919999991</v>
+      </c>
+      <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="38">
-        <v>8</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="39">
-        <f>I18/G19</f>
-        <v>0.73635057471264365</v>
-      </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="29"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="24">
-        <f>IF(B25&gt;0,B25-1,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C21" s="4">
-        <f>C25</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="4">
-        <f>40*C6+16*C7+34*J18</f>
-        <v>624619.53159999999</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1.67</v>
-      </c>
-      <c r="G21" s="4">
-        <v>351.65</v>
-      </c>
-      <c r="H21" s="4">
-        <f>$I$2*G21</f>
-        <v>49.231000000000002</v>
-      </c>
-      <c r="I21">
-        <f>C21/F21</f>
-        <v>2.4950099800399202E-2</v>
-      </c>
-      <c r="J21" s="4">
-        <f>E21+G21+H21</f>
-        <v>625020.41260000004</v>
-      </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="24">
-        <f>IF(B25&gt;0,B25-1,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C22" s="4">
-        <f>C25</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="4">
-        <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
-        <v>153790.49180000002</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1758.23</v>
-      </c>
-      <c r="H22" s="4">
-        <f>$I$2*G22</f>
-        <v>246.15220000000002</v>
-      </c>
-      <c r="I22">
-        <f>C22/F22</f>
-        <v>0.12626262626262624</v>
-      </c>
-      <c r="J22" s="4">
-        <f>E22+G22+H22</f>
-        <v>155794.87400000004</v>
-      </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="38">
-        <v>1</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="39">
-        <f>(I21+I22)/G23</f>
-        <v>0.15121272606302544</v>
-      </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="12">
-        <v>5</v>
-      </c>
-      <c r="C25" s="12">
-        <f>1/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="24">
-        <f>J21+J22</f>
-        <v>780815.28660000011</v>
-      </c>
-      <c r="F25" s="24">
-        <v>0.24</v>
-      </c>
-      <c r="G25" s="24">
-        <v>3170.85</v>
-      </c>
-      <c r="H25" s="24">
-        <f>$I$2*G25</f>
-        <v>443.91900000000004</v>
-      </c>
-      <c r="I25">
-        <f>C25/F25</f>
-        <v>0.1736111111111111</v>
-      </c>
-      <c r="J25" s="24">
-        <f>E25+G25+H25</f>
-        <v>784430.05560000008</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="38">
-        <v>1</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" s="39">
-        <f>I25/G26</f>
-        <v>0.1736111111111111</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="24"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="24"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M16:M17">
+  <conditionalFormatting sqref="M11:M12">
     <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="min"/>
@@ -6238,42 +5999,6 @@
           <x14:id>{3165805C-5004-49C5-854A-5F4767D7AE87}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:J22">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6290,6 +6015,1874 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>M11:M12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4">
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>10.5</v>
+      </c>
+      <c r="D3" s="4">
+        <f>20*C18</f>
+        <v>162.39999999999978</v>
+      </c>
+      <c r="E3" s="11">
+        <f>D3*C3</f>
+        <v>1705.1999999999978</v>
+      </c>
+      <c r="F3" s="11">
+        <f>E3*24</f>
+        <v>40924.799999999945</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4">
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>900</v>
+      </c>
+      <c r="D4" s="4">
+        <f>8*C18</f>
+        <v>64.959999999999908</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" ref="E4:E10" si="0">D4*C4</f>
+        <v>58463.99999999992</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:F10" si="1">E4*24</f>
+        <v>1403135.9999999981</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>18.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>10*C18</f>
+        <v>81.199999999999889</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>1502.199999999998</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="1"/>
+        <v>36052.799999999952</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24">
+        <f>IF(B22&gt;0,B22-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <f>3180*0.98</f>
+        <v>3116.4</v>
+      </c>
+      <c r="D6" s="4">
+        <f>40*C22</f>
+        <v>7.9219512195121844</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>24687.968780487772</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="1"/>
+        <v>592511.2507317065</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
+        <f>9900*0.98</f>
+        <v>9702</v>
+      </c>
+      <c r="D7" s="4">
+        <f>16*C22+C23*6</f>
+        <v>4.3570731707317014</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>42272.32390243897</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="1"/>
+        <v>1014535.7736585352</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5570</v>
+      </c>
+      <c r="D8" s="4">
+        <f>2*C23</f>
+        <v>0.39609756097560922</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>2206.2634146341434</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="1"/>
+        <v>52950.321951219441</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="K8" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>545</v>
+      </c>
+      <c r="D9" s="4">
+        <f>10*C23</f>
+        <v>1.9804878048780461</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>1079.3658536585351</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>25904.780487804841</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1730</v>
+      </c>
+      <c r="D10" s="4">
+        <f>4*C23</f>
+        <v>0.79219512195121844</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>1370.4975609756079</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>32891.941463414594</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="27">
+        <f>SUM(E3:E10)</f>
+        <v>133287.81951219495</v>
+      </c>
+      <c r="F11" s="27">
+        <f>E11*24</f>
+        <v>3198907.6682926789</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="24">
+        <f>IF(B22&gt;0,B22-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="24">
+        <f>34*C22+7*C23</f>
+        <v>8.1199999999999886</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="24">
+        <f>20*C3+8*C4+10*C5</f>
+        <v>7595</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1989.41</v>
+      </c>
+      <c r="H18" s="24">
+        <f>$I$2*G18</f>
+        <v>397.88200000000006</v>
+      </c>
+      <c r="I18">
+        <f>C18/F18</f>
+        <v>27.999999999999961</v>
+      </c>
+      <c r="J18" s="27">
+        <f>E18+G18+H18</f>
+        <v>9982.2919999999995</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="40">
+        <v>9</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="39">
+        <f>I18/G19</f>
+        <v>3.1111111111111067</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="39">
+        <f>I19*G19</f>
+        <v>27.999999999999961</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="24">
+        <f>IF(B27&gt;0,B27-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <f>C27</f>
+        <v>0.19804878048780461</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4">
+        <f>40*C6+16*C7+34*J18</f>
+        <v>619285.92799999996</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="G22" s="4">
+        <v>351.65</v>
+      </c>
+      <c r="H22" s="4">
+        <f>$I$2*G22</f>
+        <v>70.33</v>
+      </c>
+      <c r="I22">
+        <f>C22/F22</f>
+        <v>0.11859208412443391</v>
+      </c>
+      <c r="J22" s="27">
+        <f>E22+G22+H22</f>
+        <v>619707.90799999994</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="24">
+        <f>IF(B27&gt;0,B27-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="4">
+        <f>C27</f>
+        <v>0.19804878048780461</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4">
+        <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
+        <v>151598.04399999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1758.23</v>
+      </c>
+      <c r="H23" s="4">
+        <f>$I$2*G23</f>
+        <v>351.64600000000002</v>
+      </c>
+      <c r="I23">
+        <f>C23/F23</f>
+        <v>0.60014781966001396</v>
+      </c>
+      <c r="J23" s="27">
+        <f>E23+G23+H23</f>
+        <v>153707.92000000001</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="39">
+        <f>(I22+I23)/G24</f>
+        <v>0.71873990378444785</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="39">
+        <f>I24*G24</f>
+        <v>0.71873990378444785</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="12">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.19804878048780461</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="24">
+        <f>J22+J23</f>
+        <v>773415.82799999998</v>
+      </c>
+      <c r="F27" s="24">
+        <f>C27</f>
+        <v>0.19804878048780461</v>
+      </c>
+      <c r="G27" s="24">
+        <v>12500</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27">
+        <f>C27/F27</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="27">
+        <f>E27+G27+H27</f>
+        <v>785915.82799999998</v>
+      </c>
+      <c r="K27" t="s">
+        <v>122</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="12">
+        <v>10</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="24">
+        <f>J27</f>
+        <v>785915.82799999998</v>
+      </c>
+      <c r="F30" s="24">
+        <v>4</v>
+      </c>
+      <c r="G30" s="42">
+        <f>518*B30*(128/(2^(B30-1)))</f>
+        <v>1295</v>
+      </c>
+      <c r="H30" s="24">
+        <f>G30*I2</f>
+        <v>259</v>
+      </c>
+      <c r="I30">
+        <f>C27/F30</f>
+        <v>4.9512195121951152E-2</v>
+      </c>
+      <c r="J30" s="27">
+        <f>E30+H30+G30</f>
+        <v>787469.82799999998</v>
+      </c>
+      <c r="K30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="12">
+        <f>790000+15000*B27</f>
+        <v>850000</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="24">
+        <f>24*C27</f>
+        <v>4.7531707317073106</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="27">
+        <f>(C34-J27)*C27</f>
+        <v>12691.792113170719</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="27">
+        <f>C36*24</f>
+        <v>304603.01071609725</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="12">
+        <v>318</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="24">
+        <v>2800</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="24">
+        <f>(0.5)^(B27+1)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="1">
+        <f>C40*C41*(1-C42)</f>
+        <v>862575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="41">
+        <f>(C43-J30)*C27</f>
+        <v>14874.487722926813</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="41">
+        <f>C44*24</f>
+        <v>356987.70535024349</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M16:M17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F5360406-8EFD-4FF6-B64C-F183DE818DE2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F5360406-8EFD-4FF6-B64C-F183DE818DE2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M16:M17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4">
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>10.5</v>
+      </c>
+      <c r="D3" s="4">
+        <f>20*C18</f>
+        <v>162.39999999999978</v>
+      </c>
+      <c r="E3" s="11">
+        <f>D3*C3</f>
+        <v>1705.1999999999978</v>
+      </c>
+      <c r="F3" s="11">
+        <f>E3*24</f>
+        <v>40924.799999999945</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4">
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>900</v>
+      </c>
+      <c r="D4" s="4">
+        <f>8*C18</f>
+        <v>64.959999999999908</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" ref="E4:E10" si="0">D4*C4</f>
+        <v>58463.99999999992</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:F10" si="1">E4*24</f>
+        <v>1403135.9999999981</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="K4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>18.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>10*C18</f>
+        <v>81.199999999999889</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>1502.199999999998</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="1"/>
+        <v>36052.799999999952</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24">
+        <f>IF(B22&gt;0,B22-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <f>3180*0.98</f>
+        <v>3116.4</v>
+      </c>
+      <c r="D6" s="4">
+        <f>40*C22</f>
+        <v>7.9219512195121844</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>24687.968780487772</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="1"/>
+        <v>592511.2507317065</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
+        <f>9900*0.98</f>
+        <v>9702</v>
+      </c>
+      <c r="D7" s="4">
+        <f>16*C22+C23*6</f>
+        <v>4.3570731707317014</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>42272.32390243897</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="1"/>
+        <v>1014535.7736585352</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5570</v>
+      </c>
+      <c r="D8" s="4">
+        <f>2*C23</f>
+        <v>0.39609756097560922</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>2206.2634146341434</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="1"/>
+        <v>52950.321951219441</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="K8" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>545</v>
+      </c>
+      <c r="D9" s="4">
+        <f>10*C23</f>
+        <v>1.9804878048780461</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>1079.3658536585351</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="1"/>
+        <v>25904.780487804841</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1730</v>
+      </c>
+      <c r="D10" s="4">
+        <f>4*C23</f>
+        <v>0.79219512195121844</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>1370.4975609756079</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>32891.941463414594</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="27">
+        <f>SUM(E3:E10)</f>
+        <v>133287.81951219495</v>
+      </c>
+      <c r="F11" s="27">
+        <f>SUM(F3:F10)</f>
+        <v>3198907.6682926784</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="24">
+        <f>IF(B22&gt;0,B22-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="24">
+        <f>34*C22+7*C23</f>
+        <v>8.1199999999999886</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="24">
+        <f>20*C3+8*C4+10*C5</f>
+        <v>7595</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1989.41</v>
+      </c>
+      <c r="H18" s="24">
+        <f>$I$2*G18</f>
+        <v>397.88200000000006</v>
+      </c>
+      <c r="I18">
+        <f>C18/F18</f>
+        <v>27.999999999999961</v>
+      </c>
+      <c r="J18" s="27">
+        <f>E18+G18+H18</f>
+        <v>9982.2919999999995</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="40">
+        <v>9</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="39">
+        <f>I18/G19</f>
+        <v>3.1111111111111067</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="39">
+        <f>I19*G19</f>
+        <v>27.999999999999961</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="24">
+        <f>IF(B27&gt;0,B27-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <f>C27</f>
+        <v>0.19804878048780461</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4">
+        <f>40*C6+16*C7+34*J18</f>
+        <v>619285.92799999996</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="G22" s="4">
+        <v>351.65</v>
+      </c>
+      <c r="H22" s="4">
+        <f>$I$2*G22</f>
+        <v>70.33</v>
+      </c>
+      <c r="I22">
+        <f>C22/F22</f>
+        <v>0.11859208412443391</v>
+      </c>
+      <c r="J22" s="27">
+        <f>E22+G22+H22</f>
+        <v>619707.90799999994</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="24">
+        <f>IF(B27&gt;0,B27-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="4">
+        <f>C27</f>
+        <v>0.19804878048780461</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4">
+        <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
+        <v>151598.04399999999</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1758.23</v>
+      </c>
+      <c r="H23" s="4">
+        <f>$I$2*G23</f>
+        <v>351.64600000000002</v>
+      </c>
+      <c r="I23">
+        <f>C23/F23</f>
+        <v>0.60014781966001396</v>
+      </c>
+      <c r="J23" s="27">
+        <f>E23+G23+H23</f>
+        <v>153707.92000000001</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="40">
+        <v>1</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="39">
+        <f>(I22+I23)/G24</f>
+        <v>0.71873990378444785</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="39">
+        <f>I24*G24</f>
+        <v>0.71873990378444785</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="12">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.19804878048780461</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="24">
+        <f>J22+J23</f>
+        <v>773415.82799999998</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="G27" s="24">
+        <v>3170.85</v>
+      </c>
+      <c r="H27" s="24">
+        <f>$I$2*G27</f>
+        <v>634.17000000000007</v>
+      </c>
+      <c r="I27">
+        <f>C27/F27</f>
+        <v>0.82520325203251921</v>
+      </c>
+      <c r="J27" s="27">
+        <f>E27+G27+H27</f>
+        <v>777220.848</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="40">
+        <v>1</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="39">
+        <f>I27/G28</f>
+        <v>0.82520325203251921</v>
+      </c>
+      <c r="K28" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="39">
+        <f>I28*G28</f>
+        <v>0.82520325203251921</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="12">
+        <v>10</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="24">
+        <f>J27</f>
+        <v>777220.848</v>
+      </c>
+      <c r="F31" s="24">
+        <v>4</v>
+      </c>
+      <c r="G31" s="42">
+        <f>518*B31*(128/(2^(B31-1)))</f>
+        <v>1295</v>
+      </c>
+      <c r="H31" s="24">
+        <f>G31*I2</f>
+        <v>259</v>
+      </c>
+      <c r="I31">
+        <f>C27/F31</f>
+        <v>4.9512195121951152E-2</v>
+      </c>
+      <c r="J31" s="27">
+        <f>E31+G31+H31</f>
+        <v>778774.848</v>
+      </c>
+      <c r="K31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="12">
+        <f>790000+15000*B27</f>
+        <v>850000</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="24">
+        <f>24*C27</f>
+        <v>4.7531707317073106</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="27">
+        <f>(C35-J27)*C27</f>
+        <v>14413.822298536566</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="27">
+        <f>C37*24</f>
+        <v>345931.73516487761</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="12">
+        <v>318</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="24">
+        <v>2800</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="24">
+        <f>(0.5)^(B27+1)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="1">
+        <f>C41*C42*(1-C43)</f>
+        <v>862575</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="41">
+        <f>(C44-J31)*C27</f>
+        <v>16596.517908292662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="41">
+        <f>C45*24</f>
+        <v>398316.4297990239</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M16:M17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7B01C992-87E0-4469-A5D5-96D18C7DB011}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7B01C992-87E0-4469-A5D5-96D18C7DB011}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>M16:M17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="130">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>Given any slots, there's a building required level to produce the specified amount of BFR's every hour</t>
-  </si>
-  <si>
-    <t>REQUIRED CASH PER ROCKET</t>
   </si>
   <si>
     <t>Level required to produce the specified amount in 1 hour with the defined amount of buildings</t>
@@ -5633,10 +5630,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5677,14 +5674,17 @@
         <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>123</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="14">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5700,11 +5700,15 @@
       </c>
       <c r="D3" s="4">
         <f>20*C13</f>
-        <v>160</v>
+        <v>301.59999999999997</v>
       </c>
       <c r="E3" s="11">
         <f>D3*C3</f>
-        <v>1680</v>
+        <v>3166.7999999999997</v>
+      </c>
+      <c r="F3" s="11">
+        <f>E3*24</f>
+        <v>76003.199999999997</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -5721,11 +5725,15 @@
       </c>
       <c r="D4" s="4">
         <f>8*C13</f>
-        <v>64</v>
+        <v>120.63999999999999</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" ref="E4:E5" si="0">D4*C4</f>
-        <v>57600</v>
+        <v>108575.99999999999</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:F5" si="1">E4*24</f>
+        <v>2605823.9999999995</v>
       </c>
       <c r="G4" s="4"/>
       <c r="K4" t="s">
@@ -5745,11 +5753,15 @@
       </c>
       <c r="D5" s="4">
         <f>10*C13</f>
-        <v>80</v>
+        <v>150.79999999999998</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>1480</v>
+        <v>2789.7999999999997</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="1"/>
+        <v>66955.199999999997</v>
       </c>
       <c r="G5" s="4"/>
       <c r="K5" t="s">
@@ -5763,7 +5775,11 @@
       <c r="D6" s="4"/>
       <c r="E6" s="27">
         <f>SUM(E3:E5)</f>
-        <v>60760</v>
+        <v>114532.59999999999</v>
+      </c>
+      <c r="F6" s="27">
+        <f>SUM(F3:F5)</f>
+        <v>2748782.4</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -5859,7 +5875,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="12">
-        <v>8</v>
+        <v>15.079999999999998</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>39</v>
@@ -5876,15 +5892,15 @@
       </c>
       <c r="H13" s="24">
         <f>$I$2*G13</f>
-        <v>278.51740000000007</v>
+        <v>397.88200000000006</v>
       </c>
       <c r="I13">
         <f>C13/F13</f>
-        <v>27.586206896551726</v>
+        <v>52</v>
       </c>
       <c r="J13" s="27">
         <f>E13+G13+H13</f>
-        <v>9862.9274000000005</v>
+        <v>9982.2919999999995</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="4"/>
@@ -5900,18 +5916,18 @@
         <v>102</v>
       </c>
       <c r="G14" s="40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I14" s="39">
         <f>I13/G14</f>
-        <v>3.0651340996168583</v>
+        <v>4</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -5923,11 +5939,11 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="H15" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I15" s="39">
         <f>I14*G14</f>
-        <v>27.586206896551726</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -5940,7 +5956,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="12">
         <v>11700</v>
@@ -5951,11 +5967,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="27">
-        <f>(C17-J13)*C13</f>
-        <v>14696.580799999996</v>
+        <v>129</v>
+      </c>
+      <c r="C18" s="24">
+        <f>C13*24</f>
+        <v>361.91999999999996</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -5963,19 +5979,24 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="27">
-        <f>C18*24</f>
-        <v>352717.93919999991</v>
+        <f>(C17-J13)*C13</f>
+        <v>25903.036640000006</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="27">
+        <f>C19*24</f>
+        <v>621672.87936000014</v>
+      </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
     </row>
@@ -5985,6 +6006,13 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M11:M12">
@@ -6027,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6069,10 +6097,10 @@
         <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="13" t="s">
@@ -6352,7 +6380,7 @@
         <v>101</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>4</v>
@@ -6361,7 +6389,7 @@
         <v>84</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>7</v>
@@ -6446,14 +6474,14 @@
         <v>102</v>
       </c>
       <c r="G19" s="40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I19" s="39">
         <f>I18/G19</f>
-        <v>3.1111111111111067</v>
+        <v>2.5454545454545419</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -6469,7 +6497,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" s="39">
         <f>I19*G19</f>
@@ -6611,7 +6639,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I25" s="39">
         <f>I24*G24</f>
@@ -6640,7 +6668,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="12">
         <v>4</v>
@@ -6670,7 +6698,7 @@
         <v>785915.82799999998</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -6691,7 +6719,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -6707,14 +6735,14 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="12">
         <v>10</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" s="24">
         <f>J27</f>
@@ -6740,7 +6768,7 @@
         <v>787469.82799999998</v>
       </c>
       <c r="K30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -6749,10 +6777,19 @@
       <c r="C31" s="24"/>
       <c r="D31" s="26"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
+      <c r="F31" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="40">
+        <v>1</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="39">
+        <f>(I30)/G31</f>
+        <v>4.9512195121951152E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
@@ -6761,13 +6798,18 @@
       <c r="D32" s="26"/>
       <c r="E32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="H32" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="39">
+        <f>I31*G31</f>
+        <v>4.9512195121951152E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="26"/>
@@ -6780,7 +6822,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="12">
         <f>790000+15000*B27</f>
@@ -6793,7 +6835,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="24">
         <f>24*C27</f>
@@ -6806,7 +6848,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="27">
         <f>(C34-J27)*C27</f>
@@ -6819,7 +6861,7 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="27">
         <f>C36*24</f>
@@ -6838,7 +6880,7 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -6847,7 +6889,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="12">
         <v>318</v>
@@ -6858,7 +6900,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="24">
         <v>2800</v>
@@ -6869,7 +6911,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="24">
         <f>(0.5)^(B27+1)</f>
@@ -6880,7 +6922,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="1">
         <f>C40*C41*(1-C42)</f>
@@ -6889,7 +6931,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="41">
         <f>(C43-J30)*C27</f>
@@ -6898,7 +6940,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="41">
         <f>C44*24</f>
@@ -6946,8 +6988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="E7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6987,10 +7029,10 @@
         <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="13" t="s">
@@ -7034,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="12">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="D4" s="4">
         <f>8*C18</f>
@@ -7042,11 +7084,11 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" ref="E4:E10" si="0">D4*C4</f>
-        <v>58463.99999999992</v>
+        <v>71455.999999999898</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" ref="F4:F10" si="1">E4*24</f>
-        <v>1403135.9999999981</v>
+        <v>1714943.9999999977</v>
       </c>
       <c r="G4" s="4"/>
       <c r="K4" t="s">
@@ -7221,11 +7263,11 @@
       <c r="D11" s="4"/>
       <c r="E11" s="27">
         <f>SUM(E3:E10)</f>
-        <v>133287.81951219495</v>
+        <v>146279.8195121949</v>
       </c>
       <c r="F11" s="27">
         <f>SUM(F3:F10)</f>
-        <v>3198907.6682926784</v>
+        <v>3510715.6682926784</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -7270,7 +7312,7 @@
         <v>101</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>4</v>
@@ -7279,7 +7321,7 @@
         <v>84</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>7</v>
@@ -7330,7 +7372,7 @@
       </c>
       <c r="E18" s="24">
         <f>20*C3+8*C4+10*C5</f>
-        <v>7595</v>
+        <v>9195</v>
       </c>
       <c r="F18" s="24">
         <v>0.28999999999999998</v>
@@ -7348,7 +7390,7 @@
       </c>
       <c r="J18" s="27">
         <f>E18+G18+H18</f>
-        <v>9982.2919999999995</v>
+        <v>11582.291999999999</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="4"/>
@@ -7364,14 +7406,14 @@
         <v>102</v>
       </c>
       <c r="G19" s="40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I19" s="39">
         <f>I18/G19</f>
-        <v>3.1111111111111067</v>
+        <v>2.7999999999999963</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -7387,11 +7429,11 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" s="39">
         <f>I19*G19</f>
-        <v>27.999999999999961</v>
+        <v>27.999999999999964</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -7431,7 +7473,7 @@
       </c>
       <c r="E22" s="4">
         <f>40*C6+16*C7+34*J18</f>
-        <v>619285.92799999996</v>
+        <v>673685.92799999996</v>
       </c>
       <c r="F22" s="4">
         <v>1.67</v>
@@ -7449,7 +7491,7 @@
       </c>
       <c r="J22" s="27">
         <f>E22+G22+H22</f>
-        <v>619707.90799999994</v>
+        <v>674107.90799999994</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="4"/>
@@ -7472,7 +7514,7 @@
       </c>
       <c r="E23" s="4">
         <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
-        <v>151598.04399999999</v>
+        <v>162798.04399999999</v>
       </c>
       <c r="F23" s="4">
         <v>0.33</v>
@@ -7490,7 +7532,7 @@
       </c>
       <c r="J23" s="27">
         <f>E23+G23+H23</f>
-        <v>153707.92000000001</v>
+        <v>164907.92000000001</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="4"/>
@@ -7529,7 +7571,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I25" s="39">
         <f>I24*G24</f>
@@ -7571,7 +7613,7 @@
       </c>
       <c r="E27" s="24">
         <f>J22+J23</f>
-        <v>773415.82799999998</v>
+        <v>839015.82799999998</v>
       </c>
       <c r="F27" s="24">
         <v>0.24</v>
@@ -7589,7 +7631,7 @@
       </c>
       <c r="J27" s="27">
         <f>E27+G27+H27</f>
-        <v>777220.848</v>
+        <v>842820.848</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -7614,7 +7656,7 @@
         <v>0.82520325203251921</v>
       </c>
       <c r="K28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -7628,7 +7670,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I29" s="39">
         <f>I28*G28</f>
@@ -7640,7 +7682,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -7656,18 +7698,18 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="12">
         <v>10</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="24">
         <f>J27</f>
-        <v>777220.848</v>
+        <v>842820.848</v>
       </c>
       <c r="F31" s="24">
         <v>4</v>
@@ -7686,10 +7728,10 @@
       </c>
       <c r="J31" s="27">
         <f>E31+G31+H31</f>
-        <v>778774.848</v>
+        <v>844374.848</v>
       </c>
       <c r="K31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -7698,10 +7740,19 @@
       <c r="C32" s="24"/>
       <c r="D32" s="26"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
+      <c r="F32" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="40">
+        <v>1</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="39">
+        <f>(I31)/G32</f>
+        <v>4.9512195121951152E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
@@ -7710,13 +7761,18 @@
       <c r="D33" s="26"/>
       <c r="E33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
+      <c r="H33" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="39">
+        <f>I32*G32</f>
+        <v>4.9512195121951152E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="26"/>
@@ -7729,7 +7785,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="12">
         <f>790000+15000*B27</f>
@@ -7742,7 +7798,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="24">
         <f>24*C27</f>
@@ -7755,11 +7811,11 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" s="27">
         <f>(C35-J27)*C27</f>
-        <v>14413.822298536566</v>
+        <v>1421.8222985365837</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -7768,11 +7824,11 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="27">
         <f>C37*24</f>
-        <v>345931.73516487761</v>
+        <v>34123.73516487801</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -7787,7 +7843,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -7796,7 +7852,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="12">
         <v>318</v>
@@ -7807,7 +7863,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="24">
         <v>2800</v>
@@ -7818,7 +7874,7 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="24">
         <f>(0.5)^(B27+1)</f>
@@ -7829,7 +7885,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="1">
         <f>C41*C42*(1-C43)</f>
@@ -7838,20 +7894,20 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="41">
         <f>(C44-J31)*C27</f>
-        <v>16596.517908292662</v>
+        <v>3604.5179082926784</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="41">
         <f>C45*24</f>
-        <v>398316.4297990239</v>
+        <v>86508.429799024278</v>
       </c>
     </row>
   </sheetData>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="All of them" sheetId="12" r:id="rId1"/>
@@ -5632,8 +5632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6055,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="B14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6123,15 +6123,15 @@
       </c>
       <c r="D3" s="4">
         <f>20*C18</f>
-        <v>162.39999999999978</v>
+        <v>255.19999999999996</v>
       </c>
       <c r="E3" s="11">
         <f>D3*C3</f>
-        <v>1705.1999999999978</v>
+        <v>2679.5999999999995</v>
       </c>
       <c r="F3" s="11">
         <f>E3*24</f>
-        <v>40924.799999999945</v>
+        <v>64310.399999999987</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -6148,15 +6148,15 @@
       </c>
       <c r="D4" s="4">
         <f>8*C18</f>
-        <v>64.959999999999908</v>
+        <v>102.07999999999998</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" ref="E4:E10" si="0">D4*C4</f>
-        <v>58463.99999999992</v>
+        <v>91871.999999999985</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" ref="F4:F10" si="1">E4*24</f>
-        <v>1403135.9999999981</v>
+        <v>2204927.9999999995</v>
       </c>
       <c r="G4" s="4"/>
       <c r="K4" t="s">
@@ -6176,15 +6176,15 @@
       </c>
       <c r="D5" s="4">
         <f>10*C18</f>
-        <v>81.199999999999889</v>
+        <v>127.59999999999998</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>1502.199999999998</v>
+        <v>2360.5999999999995</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
-        <v>36052.799999999952</v>
+        <v>56654.399999999987</v>
       </c>
       <c r="G5" s="4"/>
       <c r="K5" t="s">
@@ -6205,15 +6205,15 @@
       </c>
       <c r="D6" s="4">
         <f>40*C22</f>
-        <v>7.9219512195121844</v>
+        <v>12.448780487804875</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>24687.968780487772</v>
+        <v>38795.379512195112</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
-        <v>592511.2507317065</v>
+        <v>931089.10829268268</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -6231,15 +6231,15 @@
       </c>
       <c r="D7" s="4">
         <f>16*C22+C23*6</f>
-        <v>4.3570731707317014</v>
+        <v>6.8468292682926819</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>42272.32390243897</v>
+        <v>66427.937560975595</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
-        <v>1014535.7736585352</v>
+        <v>1594270.5014634142</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -6256,15 +6256,15 @@
       </c>
       <c r="D8" s="4">
         <f>2*C23</f>
-        <v>0.39609756097560922</v>
+        <v>0.62243902439024379</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>2206.2634146341434</v>
+        <v>3466.9853658536581</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
-        <v>52950.321951219441</v>
+        <v>83207.648780487798</v>
       </c>
       <c r="G8" s="4"/>
       <c r="K8" s="39" t="s">
@@ -6287,15 +6287,15 @@
       </c>
       <c r="D9" s="4">
         <f>10*C23</f>
-        <v>1.9804878048780461</v>
+        <v>3.1121951219512187</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>1079.3658536585351</v>
+        <v>1696.1463414634143</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
-        <v>25904.780487804841</v>
+        <v>40707.512195121941</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -6312,15 +6312,15 @@
       </c>
       <c r="D10" s="4">
         <f>4*C23</f>
-        <v>0.79219512195121844</v>
+        <v>1.2448780487804876</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>1370.4975609756079</v>
+        <v>2153.6390243902433</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
-        <v>32891.941463414594</v>
+        <v>51687.33658536584</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -6331,11 +6331,11 @@
       <c r="D11" s="4"/>
       <c r="E11" s="27">
         <f>SUM(E3:E10)</f>
-        <v>133287.81951219495</v>
+        <v>209452.287804878</v>
       </c>
       <c r="F11" s="27">
         <f>E11*24</f>
-        <v>3198907.6682926789</v>
+        <v>5026854.9073170722</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="C18" s="24">
         <f>34*C22+7*C23</f>
-        <v>8.1199999999999886</v>
+        <v>12.759999999999998</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>39</v>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="I18">
         <f>C18/F18</f>
-        <v>27.999999999999961</v>
+        <v>43.999999999999993</v>
       </c>
       <c r="J18" s="27">
         <f>E18+G18+H18</f>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="I19" s="39">
         <f>I18/G19</f>
-        <v>2.5454545454545419</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I20" s="39">
         <f>I19*G19</f>
-        <v>27.999999999999961</v>
+        <v>43.999999999999993</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="C22" s="4">
         <f>C27</f>
-        <v>0.19804878048780461</v>
+        <v>0.31121951219512189</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>22</v>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I22">
         <f>C22/F22</f>
-        <v>0.11859208412443391</v>
+        <v>0.18635898933839634</v>
       </c>
       <c r="J22" s="27">
         <f>E22+G22+H22</f>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="C23" s="4">
         <f>C27</f>
-        <v>0.19804878048780461</v>
+        <v>0.31121951219512189</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>25</v>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="I23">
         <f>C23/F23</f>
-        <v>0.60014781966001396</v>
+        <v>0.94308943089430874</v>
       </c>
       <c r="J23" s="27">
         <f>E23+G23+H23</f>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="I24" s="39">
         <f>(I22+I23)/G24</f>
-        <v>0.71873990378444785</v>
+        <v>1.1294484202327051</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="I25" s="39">
         <f>I24*G24</f>
-        <v>0.71873990378444785</v>
+        <v>1.1294484202327051</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -6674,7 +6674,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="12">
-        <v>0.19804878048780461</v>
+        <v>0.31121951219512189</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="24">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="F27" s="24">
         <f>C27</f>
-        <v>0.19804878048780461</v>
+        <v>0.31121951219512189</v>
       </c>
       <c r="G27" s="24">
         <v>12500</v>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="I30">
         <f>C27/F30</f>
-        <v>4.9512195121951152E-2</v>
+        <v>7.7804878048780474E-2</v>
       </c>
       <c r="J30" s="27">
         <f>E30+H30+G30</f>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="I31" s="39">
         <f>(I30)/G31</f>
-        <v>4.9512195121951152E-2</v>
+        <v>7.7804878048780474E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="I32" s="39">
         <f>I31*G31</f>
-        <v>4.9512195121951152E-2</v>
+        <v>7.7804878048780474E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="C35" s="24">
         <f>24*C27</f>
-        <v>4.7531707317073106</v>
+        <v>7.4692682926829255</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="C36" s="27">
         <f>(C34-J27)*C27</f>
-        <v>12691.792113170719</v>
+        <v>19944.244749268295</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="C37" s="27">
         <f>C36*24</f>
-        <v>304603.01071609725</v>
+        <v>478661.87398243905</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="C44" s="41">
         <f>(C43-J30)*C27</f>
-        <v>14874.487722926813</v>
+        <v>23374.194993170735</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="C45" s="41">
         <f>C44*24</f>
-        <v>356987.70535024349</v>
+        <v>560980.67983609764</v>
       </c>
     </row>
   </sheetData>
@@ -6988,8 +6988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7055,15 +7055,15 @@
       </c>
       <c r="D3" s="4">
         <f>20*C18</f>
-        <v>162.39999999999978</v>
+        <v>232.00000000000003</v>
       </c>
       <c r="E3" s="11">
         <f>D3*C3</f>
-        <v>1705.1999999999978</v>
+        <v>2436.0000000000005</v>
       </c>
       <c r="F3" s="11">
         <f>E3*24</f>
-        <v>40924.799999999945</v>
+        <v>58464.000000000015</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -7076,19 +7076,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="12">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="D4" s="4">
         <f>8*C18</f>
-        <v>64.959999999999908</v>
+        <v>92.800000000000011</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" ref="E4:E10" si="0">D4*C4</f>
-        <v>71455.999999999898</v>
+        <v>83520.000000000015</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" ref="F4:F10" si="1">E4*24</f>
-        <v>1714943.9999999977</v>
+        <v>2004480.0000000005</v>
       </c>
       <c r="G4" s="4"/>
       <c r="K4" t="s">
@@ -7108,15 +7108,15 @@
       </c>
       <c r="D5" s="4">
         <f>10*C18</f>
-        <v>81.199999999999889</v>
+        <v>116.00000000000001</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>1502.199999999998</v>
+        <v>2146.0000000000005</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
-        <v>36052.799999999952</v>
+        <v>51504.000000000015</v>
       </c>
       <c r="G5" s="4"/>
       <c r="K5" t="s">
@@ -7137,15 +7137,15 @@
       </c>
       <c r="D6" s="4">
         <f>40*C22</f>
-        <v>7.9219512195121844</v>
+        <v>11.317073170731708</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>24687.968780487772</v>
+        <v>35268.526829268296</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
-        <v>592511.2507317065</v>
+        <v>846444.64390243916</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -7163,15 +7163,15 @@
       </c>
       <c r="D7" s="4">
         <f>16*C22+C23*6</f>
-        <v>4.3570731707317014</v>
+        <v>6.2243902439024392</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>42272.32390243897</v>
+        <v>60389.034146341466</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
-        <v>1014535.7736585352</v>
+        <v>1449336.8195121952</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -7188,15 +7188,15 @@
       </c>
       <c r="D8" s="4">
         <f>2*C23</f>
-        <v>0.39609756097560922</v>
+        <v>0.56585365853658542</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>2206.2634146341434</v>
+        <v>3151.8048780487807</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
-        <v>52950.321951219441</v>
+        <v>75643.317073170736</v>
       </c>
       <c r="G8" s="4"/>
       <c r="K8" s="39" t="s">
@@ -7219,15 +7219,15 @@
       </c>
       <c r="D9" s="4">
         <f>10*C23</f>
-        <v>1.9804878048780461</v>
+        <v>2.8292682926829271</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>1079.3658536585351</v>
+        <v>1541.9512195121954</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
-        <v>25904.780487804841</v>
+        <v>37006.829268292691</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -7244,15 +7244,15 @@
       </c>
       <c r="D10" s="4">
         <f>4*C23</f>
-        <v>0.79219512195121844</v>
+        <v>1.1317073170731708</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>1370.4975609756079</v>
+        <v>1957.8536585365855</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
-        <v>32891.941463414594</v>
+        <v>46988.487804878052</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -7263,11 +7263,11 @@
       <c r="D11" s="4"/>
       <c r="E11" s="27">
         <f>SUM(E3:E10)</f>
-        <v>146279.8195121949</v>
+        <v>190411.17073170736</v>
       </c>
       <c r="F11" s="27">
         <f>SUM(F3:F10)</f>
-        <v>3510715.6682926784</v>
+        <v>4569868.0975609766</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -7365,14 +7365,14 @@
       </c>
       <c r="C18" s="24">
         <f>34*C22+7*C23</f>
-        <v>8.1199999999999886</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="24">
         <f>20*C3+8*C4+10*C5</f>
-        <v>9195</v>
+        <v>7595</v>
       </c>
       <c r="F18" s="24">
         <v>0.28999999999999998</v>
@@ -7386,11 +7386,11 @@
       </c>
       <c r="I18">
         <f>C18/F18</f>
-        <v>27.999999999999961</v>
+        <v>40.000000000000007</v>
       </c>
       <c r="J18" s="27">
         <f>E18+G18+H18</f>
-        <v>11582.291999999999</v>
+        <v>9982.2919999999995</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="4"/>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I19" s="39">
         <f>I18/G19</f>
-        <v>2.7999999999999963</v>
+        <v>4.0000000000000009</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="I20" s="39">
         <f>I19*G19</f>
-        <v>27.999999999999964</v>
+        <v>40.000000000000007</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -7466,14 +7466,14 @@
       </c>
       <c r="C22" s="4">
         <f>C27</f>
-        <v>0.19804878048780461</v>
+        <v>0.28292682926829271</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="4">
         <f>40*C6+16*C7+34*J18</f>
-        <v>673685.92799999996</v>
+        <v>619285.92799999996</v>
       </c>
       <c r="F22" s="4">
         <v>1.67</v>
@@ -7487,11 +7487,11 @@
       </c>
       <c r="I22">
         <f>C22/F22</f>
-        <v>0.11859208412443391</v>
+        <v>0.16941726303490581</v>
       </c>
       <c r="J22" s="27">
         <f>E22+G22+H22</f>
-        <v>674107.90799999994</v>
+        <v>619707.90799999994</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="4"/>
@@ -7507,14 +7507,14 @@
       </c>
       <c r="C23" s="4">
         <f>C27</f>
-        <v>0.19804878048780461</v>
+        <v>0.28292682926829271</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="4">
         <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
-        <v>162798.04399999999</v>
+        <v>151598.04399999999</v>
       </c>
       <c r="F23" s="4">
         <v>0.33</v>
@@ -7528,11 +7528,11 @@
       </c>
       <c r="I23">
         <f>C23/F23</f>
-        <v>0.60014781966001396</v>
+        <v>0.85735402808573546</v>
       </c>
       <c r="J23" s="27">
         <f>E23+G23+H23</f>
-        <v>164907.92000000001</v>
+        <v>153707.92000000001</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="4"/>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="I24" s="39">
         <f>(I22+I23)/G24</f>
-        <v>0.71873990378444785</v>
+        <v>1.0267712911206412</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="I25" s="39">
         <f>I24*G24</f>
-        <v>0.71873990378444785</v>
+        <v>1.0267712911206412</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -7606,14 +7606,14 @@
         <v>4</v>
       </c>
       <c r="C27" s="12">
-        <v>0.19804878048780461</v>
+        <v>0.28292682926829271</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="24">
         <f>J22+J23</f>
-        <v>839015.82799999998</v>
+        <v>773415.82799999998</v>
       </c>
       <c r="F27" s="24">
         <v>0.24</v>
@@ -7627,11 +7627,11 @@
       </c>
       <c r="I27">
         <f>C27/F27</f>
-        <v>0.82520325203251921</v>
+        <v>1.1788617886178863</v>
       </c>
       <c r="J27" s="27">
         <f>E27+G27+H27</f>
-        <v>842820.848</v>
+        <v>777220.848</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I28" s="39">
         <f>I27/G28</f>
-        <v>0.82520325203251921</v>
+        <v>1.1788617886178863</v>
       </c>
       <c r="K28" t="s">
         <v>127</v>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="I29" s="39">
         <f>I28*G28</f>
-        <v>0.82520325203251921</v>
+        <v>1.1788617886178863</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="E31" s="24">
         <f>J27</f>
-        <v>842820.848</v>
+        <v>777220.848</v>
       </c>
       <c r="F31" s="24">
         <v>4</v>
@@ -7724,11 +7724,11 @@
       </c>
       <c r="I31">
         <f>C27/F31</f>
-        <v>4.9512195121951152E-2</v>
+        <v>7.0731707317073178E-2</v>
       </c>
       <c r="J31" s="27">
         <f>E31+G31+H31</f>
-        <v>844374.848</v>
+        <v>778774.848</v>
       </c>
       <c r="K31" t="s">
         <v>126</v>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="I32" s="39">
         <f>(I31)/G32</f>
-        <v>4.9512195121951152E-2</v>
+        <v>7.0731707317073178E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="I33" s="39">
         <f>I32*G32</f>
-        <v>4.9512195121951152E-2</v>
+        <v>7.0731707317073178E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="C36" s="24">
         <f>24*C27</f>
-        <v>4.7531707317073106</v>
+        <v>6.7902439024390251</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="C37" s="27">
         <f>(C35-J27)*C27</f>
-        <v>1421.8222985365837</v>
+        <v>20591.174712195123</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="C38" s="27">
         <f>C37*24</f>
-        <v>34123.73516487801</v>
+        <v>494188.19309268298</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="C45" s="41">
         <f>(C44-J31)*C27</f>
-        <v>3604.5179082926784</v>
+        <v>23709.31129756098</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="C46" s="41">
         <f>C45*24</f>
-        <v>86508.429799024278</v>
+        <v>569023.47114146349</v>
       </c>
     </row>
   </sheetData>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All of them" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="133">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -331,9 +331,6 @@
     <t>at most q4. This way we do not spend too much in investigation, at the expense of having some idle buildings.</t>
   </si>
   <si>
-    <t>NEEDS PER BFR</t>
-  </si>
-  <si>
     <t>REQUIRED HOURS</t>
   </si>
   <si>
@@ -422,12 +419,27 @@
   </si>
   <si>
     <t>daily units</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>REQUIRED DAILY</t>
+  </si>
+  <si>
+    <t>NEEDS PER HOUR</t>
+  </si>
+  <si>
+    <t>NEEDS PER DAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -657,11 +669,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -689,7 +702,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -703,10 +715,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1153,7 +1168,7 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="4"/>
@@ -1387,7 +1402,7 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="4"/>
@@ -1531,7 +1546,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="4"/>
@@ -1705,7 +1720,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="4"/>
@@ -1789,7 +1804,7 @@
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="4"/>
@@ -2157,7 +2172,7 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4">
@@ -2195,7 +2210,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4">
@@ -2257,7 +2272,7 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
@@ -2319,7 +2334,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="4">
@@ -2381,7 +2396,7 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="4">
@@ -2745,7 +2760,7 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4">
@@ -2783,7 +2798,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4">
@@ -2845,7 +2860,7 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
@@ -2907,7 +2922,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="4">
@@ -2969,7 +2984,7 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="4">
@@ -3317,7 +3332,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4">
@@ -3354,7 +3369,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4">
@@ -3413,7 +3428,7 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
@@ -3472,7 +3487,7 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="4">
@@ -3531,7 +3546,7 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="24">
@@ -3864,10 +3879,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3881,7 +3896,7 @@
       <c r="A24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="31">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
@@ -3926,7 +3941,7 @@
       <c r="A25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="31">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
@@ -3968,10 +3983,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="31">
         <f>IF(B28&gt;0,B28-1,0)</f>
         <v>3</v>
       </c>
@@ -4013,10 +4028,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="31">
         <f>IF(B38&gt;0,B38-1,0)</f>
         <v>4</v>
       </c>
@@ -4055,10 +4070,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="31">
         <f>IF(B38&gt;0,B38-1,0)</f>
         <v>4</v>
       </c>
@@ -4099,7 +4114,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
-      <c r="B29" s="32"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -4121,10 +4136,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="29"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -4137,10 +4152,10 @@
       <c r="N30" s="21"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="31">
         <f>IF(B28&gt;0,B28-1,0)</f>
         <v>3</v>
       </c>
@@ -4183,10 +4198,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="31">
         <f>IF(B28&gt;0,B28-1,0)</f>
         <v>3</v>
       </c>
@@ -4230,7 +4245,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
-      <c r="B33" s="32"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -4252,10 +4267,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -4271,7 +4286,7 @@
       <c r="A35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="31">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
@@ -4315,7 +4330,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
-      <c r="B36" s="32"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -4337,10 +4352,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -4352,7 +4367,7 @@
       <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="12">
@@ -5079,7 +5094,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="4"/>
@@ -5091,7 +5106,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4">
@@ -5124,7 +5139,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="4">
@@ -5157,7 +5172,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="4">
@@ -5212,7 +5227,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4"/>
@@ -5224,7 +5239,7 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="4">
@@ -5257,7 +5272,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="4">
@@ -5312,7 +5327,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="4"/>
@@ -5324,7 +5339,7 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="35" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="4">
@@ -5357,7 +5372,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="4">
@@ -5412,7 +5427,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="4"/>
@@ -5424,7 +5439,7 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="4">
@@ -5632,8 +5647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5641,7 +5656,7 @@
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
@@ -5665,25 +5680,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>0.2</v>
       </c>
     </row>
@@ -5700,17 +5718,21 @@
       </c>
       <c r="D3" s="4">
         <f>20*C13</f>
-        <v>301.59999999999997</v>
-      </c>
-      <c r="E3" s="11">
+        <v>312.5</v>
+      </c>
+      <c r="E3">
+        <f>D3*24</f>
+        <v>7500</v>
+      </c>
+      <c r="F3" s="41">
         <f>D3*C3</f>
-        <v>3166.7999999999997</v>
-      </c>
-      <c r="F3" s="11">
-        <f>E3*24</f>
-        <v>76003.199999999997</v>
-      </c>
-      <c r="G3" s="4"/>
+        <v>3281.25</v>
+      </c>
+      <c r="G3" s="41">
+        <f>F3*24</f>
+        <v>78750</v>
+      </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5725,18 +5747,22 @@
       </c>
       <c r="D4" s="4">
         <f>8*C13</f>
-        <v>120.63999999999999</v>
-      </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4:E5" si="0">D4*C4</f>
-        <v>108575.99999999999</v>
-      </c>
-      <c r="F4" s="11">
-        <f t="shared" ref="F4:F5" si="1">E4*24</f>
-        <v>2605823.9999999995</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="K4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="0">D4*24</f>
+        <v>3000</v>
+      </c>
+      <c r="F4" s="41">
+        <f>D4*C4</f>
+        <v>112500</v>
+      </c>
+      <c r="G4" s="41">
+        <f t="shared" ref="G4:G5" si="1">F4*24</f>
+        <v>2700000</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="L4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5753,43 +5779,56 @@
       </c>
       <c r="D5" s="4">
         <f>10*C13</f>
-        <v>150.79999999999998</v>
-      </c>
-      <c r="E5" s="11">
+        <v>156.25</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>2789.7999999999997</v>
-      </c>
-      <c r="F5" s="11">
+        <v>3750</v>
+      </c>
+      <c r="F5" s="41">
+        <f>D5*C5</f>
+        <v>2890.625</v>
+      </c>
+      <c r="G5" s="41">
         <f t="shared" si="1"/>
-        <v>66955.199999999997</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="K5" t="s">
+        <v>69375</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="L5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="27">
-        <f>SUM(E3:E5)</f>
-        <v>114532.59999999999</v>
-      </c>
-      <c r="F6" s="27">
-        <f>SUM(F3:F5)</f>
-        <v>2748782.4</v>
-      </c>
-      <c r="G6" s="4"/>
+      <c r="F6" s="41">
+        <f>(G13+H13)*C13</f>
+        <v>37301.437500000007</v>
+      </c>
+      <c r="G6" s="41">
+        <f>F6*24</f>
+        <v>895234.50000000023</v>
+      </c>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="42">
+        <f>SUM(F3:F6)</f>
+        <v>155973.3125</v>
+      </c>
+      <c r="G7" s="42">
+        <f>SUM(G3:G6)</f>
+        <v>3743359.5</v>
+      </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -5821,7 +5860,7 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>95</v>
@@ -5842,7 +5881,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>55</v>
@@ -5852,10 +5891,10 @@
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -5875,9 +5914,9 @@
         <v>3</v>
       </c>
       <c r="C13" s="12">
-        <v>15.079999999999998</v>
-      </c>
-      <c r="D13" s="28" t="s">
+        <v>15.625</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="24">
@@ -5891,14 +5930,14 @@
         <v>1989.41</v>
       </c>
       <c r="H13" s="24">
-        <f>$I$2*G13</f>
+        <f>$J$2*G13</f>
         <v>397.88200000000006</v>
       </c>
       <c r="I13">
         <f>C13/F13</f>
-        <v>52</v>
-      </c>
-      <c r="J13" s="27">
+        <v>53.879310344827587</v>
+      </c>
+      <c r="J13" s="42">
         <f>E13+G13+H13</f>
         <v>9982.2919999999995</v>
       </c>
@@ -5910,24 +5949,24 @@
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="39">
+        <v>13</v>
+      </c>
+      <c r="H14" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="40">
-        <v>13</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="39">
+      <c r="I14" s="38">
         <f>I13/G14</f>
-        <v>4</v>
+        <v>4.1445623342175066</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -5938,12 +5977,12 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="H15" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="39">
+      <c r="H15" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="38">
         <f>I14*G14</f>
-        <v>52</v>
+        <v>53.879310344827587</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -5956,10 +5995,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="12">
-        <v>11700</v>
+        <v>11100</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -5967,11 +6006,11 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="24">
         <f>C13*24</f>
-        <v>361.91999999999996</v>
+        <v>375</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -5979,11 +6018,11 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="27">
+        <v>106</v>
+      </c>
+      <c r="C19" s="42">
         <f>(C17-J13)*C13</f>
-        <v>25903.036640000006</v>
+        <v>17464.187500000007</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -5991,11 +6030,11 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="27">
+        <v>107</v>
+      </c>
+      <c r="C20" s="42">
         <f>C19*24</f>
-        <v>621672.87936000014</v>
+        <v>419140.50000000017</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -6055,8 +6094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6088,25 +6127,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>0.2</v>
       </c>
     </row>
@@ -6125,15 +6167,19 @@
         <f>20*C18</f>
         <v>255.19999999999996</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3">
+        <f>D3*24</f>
+        <v>6124.7999999999993</v>
+      </c>
+      <c r="F3" s="41">
         <f>D3*C3</f>
         <v>2679.5999999999995</v>
       </c>
-      <c r="F3" s="11">
-        <f>E3*24</f>
+      <c r="G3" s="41">
+        <f>F3*24</f>
         <v>64310.399999999987</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6150,16 +6196,20 @@
         <f>8*C18</f>
         <v>102.07999999999998</v>
       </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4:E10" si="0">D4*C4</f>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="0">D4*24</f>
+        <v>2449.9199999999996</v>
+      </c>
+      <c r="F4" s="41">
+        <f>D4*C4</f>
         <v>91871.999999999985</v>
       </c>
-      <c r="F4" s="11">
-        <f t="shared" ref="F4:F10" si="1">E4*24</f>
+      <c r="G4" s="41">
+        <f t="shared" ref="G4:G10" si="1">F4*24</f>
         <v>2204927.9999999995</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="K4" t="s">
+      <c r="H4" s="4"/>
+      <c r="L4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6178,16 +6228,20 @@
         <f>10*C18</f>
         <v>127.59999999999998</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5">
         <f t="shared" si="0"/>
+        <v>3062.3999999999996</v>
+      </c>
+      <c r="F5" s="41">
+        <f>D5*C5</f>
         <v>2360.5999999999995</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G5" s="41">
         <f t="shared" si="1"/>
         <v>56654.399999999987</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="K5" t="s">
+      <c r="H5" s="4"/>
+      <c r="L5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6207,15 +6261,19 @@
         <f>40*C22</f>
         <v>12.448780487804875</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6">
         <f t="shared" si="0"/>
+        <v>298.770731707317</v>
+      </c>
+      <c r="F6" s="41">
+        <f>D6*C6</f>
         <v>38795.379512195112</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="41">
         <f t="shared" si="1"/>
         <v>931089.10829268268</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -6233,15 +6291,19 @@
         <f>16*C22+C23*6</f>
         <v>6.8468292682926819</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7">
         <f t="shared" si="0"/>
+        <v>164.32390243902438</v>
+      </c>
+      <c r="F7" s="41">
+        <f>D7*C7</f>
         <v>66427.937560975595</v>
       </c>
-      <c r="F7" s="11">
+      <c r="G7" s="41">
         <f t="shared" si="1"/>
         <v>1594270.5014634142</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
@@ -6258,20 +6320,24 @@
         <f>2*C23</f>
         <v>0.62243902439024379</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8">
         <f t="shared" si="0"/>
+        <v>14.938536585365851</v>
+      </c>
+      <c r="F8" s="41">
+        <f>D8*C8</f>
         <v>3466.9853658536581</v>
       </c>
-      <c r="F8" s="11">
+      <c r="G8" s="41">
         <f t="shared" si="1"/>
         <v>83207.648780487798</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="K8" s="39" t="s">
+      <c r="H8" s="4"/>
+      <c r="L8" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s">
         <v>103</v>
-      </c>
-      <c r="L8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6289,15 +6355,19 @@
         <f>10*C23</f>
         <v>3.1121951219512187</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9">
         <f t="shared" si="0"/>
+        <v>74.692682926829249</v>
+      </c>
+      <c r="F9" s="41">
+        <f>D9*C9</f>
         <v>1696.1463414634143</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="41">
         <f t="shared" si="1"/>
         <v>40707.512195121941</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
@@ -6314,30 +6384,34 @@
         <f>4*C23</f>
         <v>1.2448780487804876</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10">
         <f t="shared" si="0"/>
+        <v>29.877073170731702</v>
+      </c>
+      <c r="F10" s="41">
+        <f>D10*C10</f>
         <v>2153.6390243902433</v>
       </c>
-      <c r="F10" s="11">
+      <c r="G10" s="41">
         <f t="shared" si="1"/>
         <v>51687.33658536584</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="27">
-        <f>SUM(E3:E10)</f>
+      <c r="F11" s="42">
+        <f>SUM(F3:F10)</f>
         <v>209452.287804878</v>
       </c>
-      <c r="F11" s="27">
-        <f>E11*24</f>
+      <c r="G11" s="42">
+        <f>F11*24</f>
         <v>5026854.9073170722</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -6377,10 +6451,10 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>4</v>
@@ -6389,7 +6463,7 @@
         <v>84</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>7</v>
@@ -6398,7 +6472,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>55</v>
@@ -6408,10 +6482,10 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -6435,7 +6509,7 @@
         <f>34*C22+7*C23</f>
         <v>12.759999999999998</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="24">
@@ -6449,14 +6523,14 @@
         <v>1989.41</v>
       </c>
       <c r="H18" s="24">
-        <f>$I$2*G18</f>
+        <f>$J$2*G18</f>
         <v>397.88200000000006</v>
       </c>
       <c r="I18">
         <f>C18/F18</f>
         <v>43.999999999999993</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="42">
         <f>E18+G18+H18</f>
         <v>9982.2919999999995</v>
       </c>
@@ -6468,18 +6542,18 @@
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="28"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="39">
+        <v>11</v>
+      </c>
+      <c r="H19" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="40">
-        <v>11</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="39">
+      <c r="I19" s="38">
         <f>I18/G19</f>
         <v>3.9999999999999996</v>
       </c>
@@ -6492,14 +6566,14 @@
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="28"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="39">
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="38">
         <f>I19*G19</f>
         <v>43.999999999999993</v>
       </c>
@@ -6509,10 +6583,10 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -6550,14 +6624,14 @@
         <v>351.65</v>
       </c>
       <c r="H22" s="4">
-        <f>$I$2*G22</f>
+        <f>$J$2*G22</f>
         <v>70.33</v>
       </c>
       <c r="I22">
         <f>C22/F22</f>
         <v>0.18635898933839634</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="42">
         <f>E22+G22+H22</f>
         <v>619707.90799999994</v>
       </c>
@@ -6591,14 +6665,14 @@
         <v>1758.23</v>
       </c>
       <c r="H23" s="4">
-        <f>$I$2*G23</f>
+        <f>$J$2*G23</f>
         <v>351.64600000000002</v>
       </c>
       <c r="I23">
         <f>C23/F23</f>
         <v>0.94308943089430874</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="42">
         <f>E23+G23+H23</f>
         <v>153707.92000000001</v>
       </c>
@@ -6610,18 +6684,18 @@
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="28"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="39">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="40">
-        <v>1</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="39">
+      <c r="I24" s="38">
         <f>(I22+I23)/G24</f>
         <v>1.1294484202327051</v>
       </c>
@@ -6634,14 +6708,14 @@
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="28"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="39">
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="38">
         <f>I24*G24</f>
         <v>1.1294484202327051</v>
       </c>
@@ -6651,11 +6725,11 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -6668,7 +6742,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="12">
         <v>4</v>
@@ -6676,7 +6750,7 @@
       <c r="C27" s="12">
         <v>0.31121951219512189</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="24">
         <f>J22+J23</f>
         <v>773415.82799999998</v>
@@ -6693,12 +6767,12 @@
         <f>C27/F27</f>
         <v>1</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="42">
         <f>E27+G27+H27</f>
         <v>785915.82799999998</v>
       </c>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -6711,18 +6785,18 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -6735,14 +6809,14 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="12">
         <v>10</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="28" t="s">
-        <v>118</v>
+      <c r="D30" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="E30" s="24">
         <f>J27</f>
@@ -6751,24 +6825,24 @@
       <c r="F30" s="24">
         <v>4</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="40">
         <f>518*B30*(128/(2^(B30-1)))</f>
         <v>1295</v>
       </c>
       <c r="H30" s="24">
-        <f>G30*I2</f>
+        <f>G30*J2</f>
         <v>259</v>
       </c>
       <c r="I30">
         <f>C27/F30</f>
         <v>7.7804878048780474E-2</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="42">
         <f>E30+H30+G30</f>
         <v>787469.82799999998</v>
       </c>
       <c r="K30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -6777,16 +6851,16 @@
       <c r="C31" s="24"/>
       <c r="D31" s="26"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="39">
+        <v>1</v>
+      </c>
+      <c r="H31" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="40">
-        <v>1</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="39">
+      <c r="I31" s="38">
         <f>(I30)/G31</f>
         <v>7.7804878048780474E-2</v>
       </c>
@@ -6798,10 +6872,10 @@
       <c r="D32" s="26"/>
       <c r="E32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="39">
+      <c r="H32" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="38">
         <f>I31*G31</f>
         <v>7.7804878048780474E-2</v>
       </c>
@@ -6809,7 +6883,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="26"/>
@@ -6822,11 +6896,11 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="12">
-        <f>790000+15000*B27</f>
-        <v>850000</v>
+        <f>780000+10000*B27</f>
+        <v>820000</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -6835,7 +6909,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="24">
         <f>24*C27</f>
@@ -6848,11 +6922,11 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="27">
+        <v>106</v>
+      </c>
+      <c r="C36" s="42">
         <f>(C34-J27)*C27</f>
-        <v>19944.244749268295</v>
+        <v>10607.659383414639</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -6861,11 +6935,11 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="27">
+        <v>107</v>
+      </c>
+      <c r="C37" s="42">
         <f>C36*24</f>
-        <v>478661.87398243905</v>
+        <v>254583.82520195132</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -6880,7 +6954,7 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
@@ -6889,10 +6963,10 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="12">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -6900,7 +6974,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="24">
         <v>2800</v>
@@ -6911,7 +6985,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="24">
         <f>(0.5)^(B27+1)</f>
@@ -6922,29 +6996,29 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1">
         <f>C40*C41*(1-C42)</f>
-        <v>862575</v>
+        <v>832737.5</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="41">
+        <v>114</v>
+      </c>
+      <c r="C44" s="43">
         <f>(C43-J30)*C27</f>
-        <v>23374.194993170735</v>
+        <v>14088.182798048785</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="41">
+        <v>115</v>
+      </c>
+      <c r="C45" s="43">
         <f>C44*24</f>
-        <v>560980.67983609764</v>
+        <v>338116.38715317083</v>
       </c>
     </row>
   </sheetData>
@@ -6988,8 +7062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7020,25 +7094,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>0.2</v>
       </c>
     </row>
@@ -7057,15 +7134,19 @@
         <f>20*C18</f>
         <v>232.00000000000003</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3">
+        <f>D3*24</f>
+        <v>5568.0000000000009</v>
+      </c>
+      <c r="F3" s="41">
         <f>D3*C3</f>
         <v>2436.0000000000005</v>
       </c>
-      <c r="F3" s="11">
-        <f>E3*24</f>
+      <c r="G3" s="41">
+        <f>F3*24</f>
         <v>58464.000000000015</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -7082,16 +7163,20 @@
         <f>8*C18</f>
         <v>92.800000000000011</v>
       </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4:E10" si="0">D4*C4</f>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="0">D4*24</f>
+        <v>2227.2000000000003</v>
+      </c>
+      <c r="F4" s="41">
+        <f>D4*C4</f>
         <v>83520.000000000015</v>
       </c>
-      <c r="F4" s="11">
-        <f t="shared" ref="F4:F10" si="1">E4*24</f>
+      <c r="G4" s="41">
+        <f t="shared" ref="G4:G10" si="1">F4*24</f>
         <v>2004480.0000000005</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="K4" t="s">
+      <c r="H4" s="4"/>
+      <c r="L4" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7110,16 +7195,20 @@
         <f>10*C18</f>
         <v>116.00000000000001</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5">
         <f t="shared" si="0"/>
+        <v>2784.0000000000005</v>
+      </c>
+      <c r="F5" s="41">
+        <f>D5*C5</f>
         <v>2146.0000000000005</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G5" s="41">
         <f t="shared" si="1"/>
         <v>51504.000000000015</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="K5" t="s">
+      <c r="H5" s="4"/>
+      <c r="L5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7139,15 +7228,19 @@
         <f>40*C22</f>
         <v>11.317073170731708</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6">
         <f t="shared" si="0"/>
+        <v>271.60975609756099</v>
+      </c>
+      <c r="F6" s="41">
+        <f>D6*C6</f>
         <v>35268.526829268296</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="41">
         <f t="shared" si="1"/>
         <v>846444.64390243916</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -7165,15 +7258,19 @@
         <f>16*C22+C23*6</f>
         <v>6.2243902439024392</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7">
         <f t="shared" si="0"/>
+        <v>149.38536585365853</v>
+      </c>
+      <c r="F7" s="41">
+        <f>D7*C7</f>
         <v>60389.034146341466</v>
       </c>
-      <c r="F7" s="11">
+      <c r="G7" s="41">
         <f t="shared" si="1"/>
         <v>1449336.8195121952</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
@@ -7190,20 +7287,24 @@
         <f>2*C23</f>
         <v>0.56585365853658542</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8">
         <f t="shared" si="0"/>
+        <v>13.58048780487805</v>
+      </c>
+      <c r="F8" s="41">
+        <f>D8*C8</f>
         <v>3151.8048780487807</v>
       </c>
-      <c r="F8" s="11">
+      <c r="G8" s="41">
         <f t="shared" si="1"/>
         <v>75643.317073170736</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="K8" s="39" t="s">
+      <c r="H8" s="4"/>
+      <c r="L8" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s">
         <v>103</v>
-      </c>
-      <c r="L8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -7221,15 +7322,19 @@
         <f>10*C23</f>
         <v>2.8292682926829271</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9">
         <f t="shared" si="0"/>
+        <v>67.902439024390247</v>
+      </c>
+      <c r="F9" s="41">
+        <f>D9*C9</f>
         <v>1541.9512195121954</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="41">
         <f t="shared" si="1"/>
         <v>37006.829268292691</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
@@ -7246,30 +7351,34 @@
         <f>4*C23</f>
         <v>1.1317073170731708</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10">
         <f t="shared" si="0"/>
+        <v>27.1609756097561</v>
+      </c>
+      <c r="F10" s="41">
+        <f>D10*C10</f>
         <v>1957.8536585365855</v>
       </c>
-      <c r="F10" s="11">
+      <c r="G10" s="41">
         <f t="shared" si="1"/>
         <v>46988.487804878052</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="27">
-        <f>SUM(E3:E10)</f>
+      <c r="F11" s="42">
+        <f>SUM(F3:F10)</f>
         <v>190411.17073170736</v>
       </c>
-      <c r="F11" s="27">
-        <f>SUM(F3:F10)</f>
+      <c r="G11" s="42">
+        <f>SUM(G3:G10)</f>
         <v>4569868.0975609766</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -7309,10 +7418,10 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>4</v>
@@ -7321,7 +7430,7 @@
         <v>84</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>7</v>
@@ -7330,7 +7439,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>55</v>
@@ -7340,10 +7449,10 @@
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -7367,7 +7476,7 @@
         <f>34*C22+7*C23</f>
         <v>11.600000000000001</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="24">
@@ -7381,14 +7490,14 @@
         <v>1989.41</v>
       </c>
       <c r="H18" s="24">
-        <f>$I$2*G18</f>
+        <f>$J$2*G18</f>
         <v>397.88200000000006</v>
       </c>
       <c r="I18">
         <f>C18/F18</f>
         <v>40.000000000000007</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="42">
         <f>E18+G18+H18</f>
         <v>9982.2919999999995</v>
       </c>
@@ -7400,18 +7509,18 @@
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="28"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="39">
+        <v>10</v>
+      </c>
+      <c r="H19" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="40">
-        <v>10</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="39">
+      <c r="I19" s="38">
         <f>I18/G19</f>
         <v>4.0000000000000009</v>
       </c>
@@ -7424,14 +7533,14 @@
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="28"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="39">
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="38">
         <f>I19*G19</f>
         <v>40.000000000000007</v>
       </c>
@@ -7441,10 +7550,10 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -7482,14 +7591,14 @@
         <v>351.65</v>
       </c>
       <c r="H22" s="4">
-        <f>$I$2*G22</f>
+        <f>$J$2*G22</f>
         <v>70.33</v>
       </c>
       <c r="I22">
         <f>C22/F22</f>
         <v>0.16941726303490581</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="42">
         <f>E22+G22+H22</f>
         <v>619707.90799999994</v>
       </c>
@@ -7523,14 +7632,14 @@
         <v>1758.23</v>
       </c>
       <c r="H23" s="4">
-        <f>$I$2*G23</f>
+        <f>$J$2*G23</f>
         <v>351.64600000000002</v>
       </c>
       <c r="I23">
         <f>C23/F23</f>
         <v>0.85735402808573546</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="42">
         <f>E23+G23+H23</f>
         <v>153707.92000000001</v>
       </c>
@@ -7542,18 +7651,18 @@
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="28"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="39">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="40">
-        <v>1</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="39">
+      <c r="I24" s="38">
         <f>(I22+I23)/G24</f>
         <v>1.0267712911206412</v>
       </c>
@@ -7566,14 +7675,14 @@
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="28"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="39">
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="38">
         <f>I24*G24</f>
         <v>1.0267712911206412</v>
       </c>
@@ -7583,11 +7692,11 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -7608,7 +7717,7 @@
       <c r="C27" s="12">
         <v>0.28292682926829271</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="24">
@@ -7622,14 +7731,14 @@
         <v>3170.85</v>
       </c>
       <c r="H27" s="24">
-        <f>$I$2*G27</f>
+        <f>$J$2*G27</f>
         <v>634.17000000000007</v>
       </c>
       <c r="I27">
         <f>C27/F27</f>
         <v>1.1788617886178863</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="42">
         <f>E27+G27+H27</f>
         <v>777220.848</v>
       </c>
@@ -7642,21 +7751,21 @@
       <c r="C28" s="24"/>
       <c r="D28" s="26"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="39">
+        <v>1</v>
+      </c>
+      <c r="H28" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="40">
-        <v>1</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="39">
+      <c r="I28" s="38">
         <f>I27/G28</f>
         <v>1.1788617886178863</v>
       </c>
       <c r="K28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -7669,10 +7778,10 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" s="39">
+      <c r="H29" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="38">
         <f>I28*G28</f>
         <v>1.1788617886178863</v>
       </c>
@@ -7681,11 +7790,11 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -7698,14 +7807,14 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" s="12">
         <v>10</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="28" t="s">
-        <v>118</v>
+      <c r="D31" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="E31" s="24">
         <f>J27</f>
@@ -7714,24 +7823,24 @@
       <c r="F31" s="24">
         <v>4</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="40">
         <f>518*B31*(128/(2^(B31-1)))</f>
         <v>1295</v>
       </c>
       <c r="H31" s="24">
-        <f>G31*I2</f>
+        <f>G31*J2</f>
         <v>259</v>
       </c>
       <c r="I31">
         <f>C27/F31</f>
         <v>7.0731707317073178E-2</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="42">
         <f>E31+G31+H31</f>
         <v>778774.848</v>
       </c>
       <c r="K31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -7740,16 +7849,16 @@
       <c r="C32" s="24"/>
       <c r="D32" s="26"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="39">
+        <v>1</v>
+      </c>
+      <c r="H32" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="40">
-        <v>1</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" s="39">
+      <c r="I32" s="38">
         <f>(I31)/G32</f>
         <v>7.0731707317073178E-2</v>
       </c>
@@ -7761,10 +7870,10 @@
       <c r="D33" s="26"/>
       <c r="E33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I33" s="39">
+      <c r="H33" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="38">
         <f>I32*G32</f>
         <v>7.0731707317073178E-2</v>
       </c>
@@ -7772,7 +7881,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="26"/>
@@ -7785,7 +7894,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="12">
         <f>790000+15000*B27</f>
@@ -7798,7 +7907,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="24">
         <f>24*C27</f>
@@ -7811,9 +7920,9 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="27">
+        <v>106</v>
+      </c>
+      <c r="C37" s="42">
         <f>(C35-J27)*C27</f>
         <v>20591.174712195123</v>
       </c>
@@ -7824,9 +7933,9 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="27">
+        <v>107</v>
+      </c>
+      <c r="C38" s="42">
         <f>C37*24</f>
         <v>494188.19309268298</v>
       </c>
@@ -7843,7 +7952,7 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
@@ -7852,10 +7961,10 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="12">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -7863,7 +7972,7 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C42" s="24">
         <v>2800</v>
@@ -7874,7 +7983,7 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="24">
         <f>(0.5)^(B27+1)</f>
@@ -7885,29 +7994,29 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="1">
         <f>C41*C42*(1-C43)</f>
-        <v>862575</v>
+        <v>832737.5</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="41">
+        <v>114</v>
+      </c>
+      <c r="C45" s="43">
         <f>(C44-J31)*C27</f>
-        <v>23709.31129756098</v>
+        <v>15267.482029268294</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="41">
+        <v>115</v>
+      </c>
+      <c r="C46" s="43">
         <f>C45*24</f>
-        <v>569023.47114146349</v>
+        <v>366419.56870243908</v>
       </c>
     </row>
   </sheetData>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Documents\SimCompanies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Documents\GitHub\SimCompanies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -438,7 +438,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -672,7 +672,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -716,9 +716,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -4872,8 +4872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H40" sqref="A17:H40"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5648,7 +5648,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5702,7 +5702,8 @@
         <v>9</v>
       </c>
       <c r="J2" s="14">
-        <v>0.2</v>
+        <f>I15/170</f>
+        <v>0.32941176470588235</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5714,23 +5715,23 @@
         <v>2</v>
       </c>
       <c r="C3" s="12">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="D3" s="4">
         <f>20*C13</f>
-        <v>312.5</v>
+        <v>324.79999999999995</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>7500</v>
+        <v>7795.1999999999989</v>
       </c>
       <c r="F3" s="41">
         <f>D3*C3</f>
-        <v>3281.25</v>
+        <v>3540.3199999999997</v>
       </c>
       <c r="G3" s="41">
         <f>F3*24</f>
-        <v>78750</v>
+        <v>84967.679999999993</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -5743,23 +5744,23 @@
         <v>2</v>
       </c>
       <c r="C4" s="12">
-        <v>900</v>
+        <v>820</v>
       </c>
       <c r="D4" s="4">
         <f>8*C13</f>
-        <v>125</v>
+        <v>129.91999999999999</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E5" si="0">D4*24</f>
-        <v>3000</v>
+        <v>3118.08</v>
       </c>
       <c r="F4" s="41">
         <f>D4*C4</f>
-        <v>112500</v>
+        <v>106534.39999999999</v>
       </c>
       <c r="G4" s="41">
         <f t="shared" ref="G4:G5" si="1">F4*24</f>
-        <v>2700000</v>
+        <v>2556825.5999999996</v>
       </c>
       <c r="H4" s="4"/>
       <c r="L4" t="s">
@@ -5775,23 +5776,23 @@
         <v>2</v>
       </c>
       <c r="C5" s="12">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4">
         <f>10*C13</f>
-        <v>156.25</v>
+        <v>162.39999999999998</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>3897.5999999999995</v>
       </c>
       <c r="F5" s="41">
         <f>D5*C5</f>
-        <v>2890.625</v>
+        <v>3085.5999999999995</v>
       </c>
       <c r="G5" s="41">
         <f t="shared" si="1"/>
-        <v>69375</v>
+        <v>74054.399999999994</v>
       </c>
       <c r="H5" s="4"/>
       <c r="L5" t="s">
@@ -5807,11 +5808,11 @@
       <c r="D6" s="4"/>
       <c r="F6" s="41">
         <f>(G13+H13)*C13</f>
-        <v>37301.437500000007</v>
+        <v>42950.659755294117</v>
       </c>
       <c r="G6" s="41">
         <f>F6*24</f>
-        <v>895234.50000000023</v>
+        <v>1030815.8341270587</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -5822,11 +5823,11 @@
       <c r="D7" s="4"/>
       <c r="F7" s="42">
         <f>SUM(F3:F6)</f>
-        <v>155973.3125</v>
+        <v>156110.97975529413</v>
       </c>
       <c r="G7" s="42">
         <f>SUM(G3:G6)</f>
-        <v>3743359.5</v>
+        <v>3746663.5141270584</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -5914,14 +5915,14 @@
         <v>3</v>
       </c>
       <c r="C13" s="12">
-        <v>15.625</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="24">
         <f>20*C3+8*C4+10*C5</f>
-        <v>7595</v>
+        <v>6968</v>
       </c>
       <c r="F13" s="24">
         <v>0.28999999999999998</v>
@@ -5931,15 +5932,15 @@
       </c>
       <c r="H13" s="24">
         <f>$J$2*G13</f>
-        <v>397.88200000000006</v>
+        <v>655.33505882352938</v>
       </c>
       <c r="I13">
         <f>C13/F13</f>
-        <v>53.879310344827587</v>
+        <v>56</v>
       </c>
       <c r="J13" s="42">
         <f>E13+G13+H13</f>
-        <v>9982.2919999999995</v>
+        <v>9612.7450588235297</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="4"/>
@@ -5962,7 +5963,7 @@
       </c>
       <c r="I14" s="38">
         <f>I13/G14</f>
-        <v>4.1445623342175066</v>
+        <v>4.3076923076923075</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24" t="s">
@@ -5982,7 +5983,7 @@
       </c>
       <c r="I15" s="38">
         <f>I14*G14</f>
-        <v>53.879310344827587</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -5998,7 +5999,7 @@
         <v>105</v>
       </c>
       <c r="C17" s="12">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -6010,7 +6011,7 @@
       </c>
       <c r="C18" s="24">
         <f>C13*24</f>
-        <v>375</v>
+        <v>389.76</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -6022,7 +6023,7 @@
       </c>
       <c r="C19" s="42">
         <f>(C17-J13)*C13</f>
-        <v>17464.187500000007</v>
+        <v>16033.020244705876</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -6034,7 +6035,7 @@
       </c>
       <c r="C20" s="42">
         <f>C19*24</f>
-        <v>419140.50000000017</v>
+        <v>384792.48587294103</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -6095,7 +6096,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6149,7 +6150,8 @@
         <v>9</v>
       </c>
       <c r="J2" s="14">
-        <v>0.2</v>
+        <f>SUM(I20,I25,I32)/170</f>
+        <v>0.26592501940165575</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6172,7 +6174,7 @@
         <v>6124.7999999999993</v>
       </c>
       <c r="F3" s="41">
-        <f>D3*C3</f>
+        <f t="shared" ref="F3:F10" si="0">D3*C3</f>
         <v>2679.5999999999995</v>
       </c>
       <c r="G3" s="41">
@@ -6197,15 +6199,15 @@
         <v>102.07999999999998</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E10" si="0">D4*24</f>
+        <f t="shared" ref="E4:E10" si="1">D4*24</f>
         <v>2449.9199999999996</v>
       </c>
       <c r="F4" s="41">
-        <f>D4*C4</f>
+        <f t="shared" si="0"/>
         <v>91871.999999999985</v>
       </c>
       <c r="G4" s="41">
-        <f t="shared" ref="G4:G10" si="1">F4*24</f>
+        <f t="shared" ref="G4:G10" si="2">F4*24</f>
         <v>2204927.9999999995</v>
       </c>
       <c r="H4" s="4"/>
@@ -6229,15 +6231,15 @@
         <v>127.59999999999998</v>
       </c>
       <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3062.3999999999996</v>
+      </c>
+      <c r="F5" s="41">
         <f t="shared" si="0"/>
-        <v>3062.3999999999996</v>
-      </c>
-      <c r="F5" s="41">
-        <f>D5*C5</f>
         <v>2360.5999999999995</v>
       </c>
       <c r="G5" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56654.399999999987</v>
       </c>
       <c r="H5" s="4"/>
@@ -6262,15 +6264,15 @@
         <v>12.448780487804875</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>298.770731707317</v>
+      </c>
+      <c r="F6" s="41">
         <f t="shared" si="0"/>
-        <v>298.770731707317</v>
-      </c>
-      <c r="F6" s="41">
-        <f>D6*C6</f>
         <v>38795.379512195112</v>
       </c>
       <c r="G6" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>931089.10829268268</v>
       </c>
       <c r="H6" s="4"/>
@@ -6292,15 +6294,15 @@
         <v>6.8468292682926819</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>164.32390243902438</v>
+      </c>
+      <c r="F7" s="41">
         <f t="shared" si="0"/>
-        <v>164.32390243902438</v>
-      </c>
-      <c r="F7" s="41">
-        <f>D7*C7</f>
         <v>66427.937560975595</v>
       </c>
       <c r="G7" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1594270.5014634142</v>
       </c>
       <c r="H7" s="4"/>
@@ -6321,15 +6323,15 @@
         <v>0.62243902439024379</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>14.938536585365851</v>
+      </c>
+      <c r="F8" s="41">
         <f t="shared" si="0"/>
-        <v>14.938536585365851</v>
-      </c>
-      <c r="F8" s="41">
-        <f>D8*C8</f>
         <v>3466.9853658536581</v>
       </c>
       <c r="G8" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83207.648780487798</v>
       </c>
       <c r="H8" s="4"/>
@@ -6356,15 +6358,15 @@
         <v>3.1121951219512187</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>74.692682926829249</v>
+      </c>
+      <c r="F9" s="41">
         <f t="shared" si="0"/>
-        <v>74.692682926829249</v>
-      </c>
-      <c r="F9" s="41">
-        <f>D9*C9</f>
         <v>1696.1463414634143</v>
       </c>
       <c r="G9" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40707.512195121941</v>
       </c>
       <c r="H9" s="4"/>
@@ -6385,15 +6387,15 @@
         <v>1.2448780487804876</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>29.877073170731702</v>
+      </c>
+      <c r="F10" s="41">
         <f t="shared" si="0"/>
-        <v>29.877073170731702</v>
-      </c>
-      <c r="F10" s="41">
-        <f>D10*C10</f>
         <v>2153.6390243902433</v>
       </c>
       <c r="G10" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51687.33658536584</v>
       </c>
       <c r="H10" s="4"/>
@@ -6524,7 +6526,7 @@
       </c>
       <c r="H18" s="24">
         <f>$J$2*G18</f>
-        <v>397.88200000000006</v>
+        <v>529.03389284784794</v>
       </c>
       <c r="I18">
         <f>C18/F18</f>
@@ -6532,7 +6534,7 @@
       </c>
       <c r="J18" s="42">
         <f>E18+G18+H18</f>
-        <v>9982.2919999999995</v>
+        <v>10113.443892847848</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="4"/>
@@ -6615,7 +6617,7 @@
       </c>
       <c r="E22" s="4">
         <f>40*C6+16*C7+34*J18</f>
-        <v>619285.92799999996</v>
+        <v>623745.09235682688</v>
       </c>
       <c r="F22" s="4">
         <v>1.67</v>
@@ -6625,7 +6627,7 @@
       </c>
       <c r="H22" s="4">
         <f>$J$2*G22</f>
-        <v>70.33</v>
+        <v>93.512533072592234</v>
       </c>
       <c r="I22">
         <f>C22/F22</f>
@@ -6633,7 +6635,7 @@
       </c>
       <c r="J22" s="42">
         <f>E22+G22+H22</f>
-        <v>619707.90799999994</v>
+        <v>624190.25488989952</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="4"/>
@@ -6656,7 +6658,7 @@
       </c>
       <c r="E23" s="4">
         <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
-        <v>151598.04399999999</v>
+        <v>152516.10724993492</v>
       </c>
       <c r="F23" s="4">
         <v>0.33</v>
@@ -6666,7 +6668,7 @@
       </c>
       <c r="H23" s="4">
         <f>$J$2*G23</f>
-        <v>351.64600000000002</v>
+        <v>467.55734686257318</v>
       </c>
       <c r="I23">
         <f>C23/F23</f>
@@ -6674,7 +6676,7 @@
       </c>
       <c r="J23" s="42">
         <f>E23+G23+H23</f>
-        <v>153707.92000000001</v>
+        <v>154741.8945967975</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="4"/>
@@ -6753,7 +6755,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="24">
         <f>J22+J23</f>
-        <v>773415.82799999998</v>
+        <v>778932.14948669705</v>
       </c>
       <c r="F27" s="24">
         <f>C27</f>
@@ -6769,7 +6771,7 @@
       </c>
       <c r="J27" s="42">
         <f>E27+G27+H27</f>
-        <v>785915.82799999998</v>
+        <v>791432.14948669705</v>
       </c>
       <c r="K27" t="s">
         <v>120</v>
@@ -6820,7 +6822,7 @@
       </c>
       <c r="E30" s="24">
         <f>J27</f>
-        <v>785915.82799999998</v>
+        <v>791432.14948669705</v>
       </c>
       <c r="F30" s="24">
         <v>4</v>
@@ -6831,7 +6833,7 @@
       </c>
       <c r="H30" s="24">
         <f>G30*J2</f>
-        <v>259</v>
+        <v>344.37290012514421</v>
       </c>
       <c r="I30">
         <f>C27/F30</f>
@@ -6839,7 +6841,7 @@
       </c>
       <c r="J30" s="42">
         <f>E30+H30+G30</f>
-        <v>787469.82799999998</v>
+        <v>793071.52238682215</v>
       </c>
       <c r="K30" t="s">
         <v>121</v>
@@ -6926,7 +6928,7 @@
       </c>
       <c r="C36" s="42">
         <f>(C34-J27)*C27</f>
-        <v>10607.659383414639</v>
+        <v>8890.8725012133073</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -6939,7 +6941,7 @@
       </c>
       <c r="C37" s="42">
         <f>C36*24</f>
-        <v>254583.82520195132</v>
+        <v>213380.94002911937</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -7009,7 +7011,7 @@
       </c>
       <c r="C44" s="43">
         <f>(C43-J30)*C27</f>
-        <v>14088.182798048785</v>
+        <v>12344.826203515835</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -7018,7 +7020,7 @@
       </c>
       <c r="C45" s="43">
         <f>C44*24</f>
-        <v>338116.38715317083</v>
+        <v>296275.82888438005</v>
       </c>
     </row>
   </sheetData>
@@ -7062,8 +7064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7116,7 +7118,8 @@
         <v>9</v>
       </c>
       <c r="J2" s="14">
-        <v>0.2</v>
+        <f>SUM(I20,I25,I29,I33)/170</f>
+        <v>0.24868449874738591</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -7139,7 +7142,7 @@
         <v>5568.0000000000009</v>
       </c>
       <c r="F3" s="41">
-        <f>D3*C3</f>
+        <f t="shared" ref="F3:F10" si="0">D3*C3</f>
         <v>2436.0000000000005</v>
       </c>
       <c r="G3" s="41">
@@ -7164,15 +7167,15 @@
         <v>92.800000000000011</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E10" si="0">D4*24</f>
+        <f t="shared" ref="E4:E10" si="1">D4*24</f>
         <v>2227.2000000000003</v>
       </c>
       <c r="F4" s="41">
-        <f>D4*C4</f>
+        <f t="shared" si="0"/>
         <v>83520.000000000015</v>
       </c>
       <c r="G4" s="41">
-        <f t="shared" ref="G4:G10" si="1">F4*24</f>
+        <f t="shared" ref="G4:G10" si="2">F4*24</f>
         <v>2004480.0000000005</v>
       </c>
       <c r="H4" s="4"/>
@@ -7196,15 +7199,15 @@
         <v>116.00000000000001</v>
       </c>
       <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2784.0000000000005</v>
+      </c>
+      <c r="F5" s="41">
         <f t="shared" si="0"/>
-        <v>2784.0000000000005</v>
-      </c>
-      <c r="F5" s="41">
-        <f>D5*C5</f>
         <v>2146.0000000000005</v>
       </c>
       <c r="G5" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51504.000000000015</v>
       </c>
       <c r="H5" s="4"/>
@@ -7229,15 +7232,15 @@
         <v>11.317073170731708</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>271.60975609756099</v>
+      </c>
+      <c r="F6" s="41">
         <f t="shared" si="0"/>
-        <v>271.60975609756099</v>
-      </c>
-      <c r="F6" s="41">
-        <f>D6*C6</f>
         <v>35268.526829268296</v>
       </c>
       <c r="G6" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>846444.64390243916</v>
       </c>
       <c r="H6" s="4"/>
@@ -7259,15 +7262,15 @@
         <v>6.2243902439024392</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>149.38536585365853</v>
+      </c>
+      <c r="F7" s="41">
         <f t="shared" si="0"/>
-        <v>149.38536585365853</v>
-      </c>
-      <c r="F7" s="41">
-        <f>D7*C7</f>
         <v>60389.034146341466</v>
       </c>
       <c r="G7" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1449336.8195121952</v>
       </c>
       <c r="H7" s="4"/>
@@ -7288,15 +7291,15 @@
         <v>0.56585365853658542</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>13.58048780487805</v>
+      </c>
+      <c r="F8" s="41">
         <f t="shared" si="0"/>
-        <v>13.58048780487805</v>
-      </c>
-      <c r="F8" s="41">
-        <f>D8*C8</f>
         <v>3151.8048780487807</v>
       </c>
       <c r="G8" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75643.317073170736</v>
       </c>
       <c r="H8" s="4"/>
@@ -7323,15 +7326,15 @@
         <v>2.8292682926829271</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>67.902439024390247</v>
+      </c>
+      <c r="F9" s="41">
         <f t="shared" si="0"/>
-        <v>67.902439024390247</v>
-      </c>
-      <c r="F9" s="41">
-        <f>D9*C9</f>
         <v>1541.9512195121954</v>
       </c>
       <c r="G9" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37006.829268292691</v>
       </c>
       <c r="H9" s="4"/>
@@ -7352,15 +7355,15 @@
         <v>1.1317073170731708</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>27.1609756097561</v>
+      </c>
+      <c r="F10" s="41">
         <f t="shared" si="0"/>
-        <v>27.1609756097561</v>
-      </c>
-      <c r="F10" s="41">
-        <f>D10*C10</f>
         <v>1957.8536585365855</v>
       </c>
       <c r="G10" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46988.487804878052</v>
       </c>
       <c r="H10" s="4"/>
@@ -7491,7 +7494,7 @@
       </c>
       <c r="H18" s="24">
         <f>$J$2*G18</f>
-        <v>397.88200000000006</v>
+        <v>494.73542865303699</v>
       </c>
       <c r="I18">
         <f>C18/F18</f>
@@ -7499,7 +7502,7 @@
       </c>
       <c r="J18" s="42">
         <f>E18+G18+H18</f>
-        <v>9982.2919999999995</v>
+        <v>10079.145428653037</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="4"/>
@@ -7582,7 +7585,7 @@
       </c>
       <c r="E22" s="4">
         <f>40*C6+16*C7+34*J18</f>
-        <v>619285.92799999996</v>
+        <v>622578.94457420334</v>
       </c>
       <c r="F22" s="4">
         <v>1.67</v>
@@ -7592,7 +7595,7 @@
       </c>
       <c r="H22" s="4">
         <f>$J$2*G22</f>
-        <v>70.33</v>
+        <v>87.449903984518244</v>
       </c>
       <c r="I22">
         <f>C22/F22</f>
@@ -7600,7 +7603,7 @@
       </c>
       <c r="J22" s="42">
         <f>E22+G22+H22</f>
-        <v>619707.90799999994</v>
+        <v>623018.04447818792</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="4"/>
@@ -7623,7 +7626,7 @@
       </c>
       <c r="E23" s="4">
         <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
-        <v>151598.04399999999</v>
+        <v>152276.01800057126</v>
       </c>
       <c r="F23" s="4">
         <v>0.33</v>
@@ -7633,7 +7636,7 @@
       </c>
       <c r="H23" s="4">
         <f>$J$2*G23</f>
-        <v>351.64600000000002</v>
+        <v>437.2445462326163</v>
       </c>
       <c r="I23">
         <f>C23/F23</f>
@@ -7641,7 +7644,7 @@
       </c>
       <c r="J23" s="42">
         <f>E23+G23+H23</f>
-        <v>153707.92000000001</v>
+        <v>154471.4925468039</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="4"/>
@@ -7722,7 +7725,7 @@
       </c>
       <c r="E27" s="24">
         <f>J22+J23</f>
-        <v>773415.82799999998</v>
+        <v>777489.53702499182</v>
       </c>
       <c r="F27" s="24">
         <v>0.24</v>
@@ -7732,7 +7735,7 @@
       </c>
       <c r="H27" s="24">
         <f>$J$2*G27</f>
-        <v>634.17000000000007</v>
+        <v>788.54124285314856</v>
       </c>
       <c r="I27">
         <f>C27/F27</f>
@@ -7740,7 +7743,7 @@
       </c>
       <c r="J27" s="42">
         <f>E27+G27+H27</f>
-        <v>777220.848</v>
+        <v>781448.92826784495</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -7818,7 +7821,7 @@
       </c>
       <c r="E31" s="24">
         <f>J27</f>
-        <v>777220.848</v>
+        <v>781448.92826784495</v>
       </c>
       <c r="F31" s="24">
         <v>4</v>
@@ -7829,7 +7832,7 @@
       </c>
       <c r="H31" s="24">
         <f>G31*J2</f>
-        <v>259</v>
+        <v>322.04642587786475</v>
       </c>
       <c r="I31">
         <f>C27/F31</f>
@@ -7837,7 +7840,7 @@
       </c>
       <c r="J31" s="42">
         <f>E31+G31+H31</f>
-        <v>778774.848</v>
+        <v>783065.97469372279</v>
       </c>
       <c r="K31" t="s">
         <v>125</v>
@@ -7924,7 +7927,7 @@
       </c>
       <c r="C37" s="42">
         <f>(C35-J27)*C27</f>
-        <v>20591.174712195123</v>
+        <v>19394.937368121919</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -7937,7 +7940,7 @@
       </c>
       <c r="C38" s="42">
         <f>C37*24</f>
-        <v>494188.19309268298</v>
+        <v>465478.49683492607</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -8007,7 +8010,7 @@
       </c>
       <c r="C45" s="43">
         <f>(C44-J31)*C27</f>
-        <v>15267.482029268294</v>
+        <v>14053.407159824774</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -8016,7 +8019,7 @@
       </c>
       <c r="C46" s="43">
         <f>C45*24</f>
-        <v>366419.56870243908</v>
+        <v>337281.77183579456</v>
       </c>
     </row>
   </sheetData>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -20,7 +20,8 @@
     <sheet name="SORs" sheetId="5" r:id="rId6"/>
     <sheet name="Rocket production" sheetId="13" r:id="rId7"/>
     <sheet name="Production Plans second stage" sheetId="15" r:id="rId8"/>
-    <sheet name="Production Plans final stage" sheetId="14" r:id="rId9"/>
+    <sheet name="Production Plans third stage" sheetId="16" r:id="rId9"/>
+    <sheet name="Production Plans final stage" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="146">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -394,12 +395,6 @@
     <t>BFR with VIF rent</t>
   </si>
   <si>
-    <t>For the first stage we only pretend to sell BFRs</t>
-  </si>
-  <si>
-    <t>For the second stage we pretend to build a high q launchpad and sell ASR</t>
-  </si>
-  <si>
     <t>REQUIRED CASH PER HOUR</t>
   </si>
   <si>
@@ -409,12 +404,6 @@
     <t>PRODUCED UNITS PER HOUR</t>
   </si>
   <si>
-    <t>Assuming we will prefer to launch our BFRs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assuming we can produce our own high quality BFRs. </t>
-  </si>
-  <si>
     <t>UNITS PER HOUR PER LEVEL</t>
   </si>
   <si>
@@ -431,13 +420,65 @@
   </si>
   <si>
     <t>NEEDS PER DAY</t>
+  </si>
+  <si>
+    <t>We will launch our own BFRs on our own Launchpads</t>
+  </si>
+  <si>
+    <t>We will produce our own high q BFRs</t>
+  </si>
+  <si>
+    <t>We will pay someone to build our BFRs</t>
+  </si>
+  <si>
+    <t>We will launch our own BFRs</t>
+  </si>
+  <si>
+    <t>BFR costs of launching:</t>
+  </si>
+  <si>
+    <t>AMOUNT RECEIVED AFTER COMMISION</t>
+  </si>
+  <si>
+    <t>(Assuming our partner is SOR06TURK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No commision ratio </t>
+  </si>
+  <si>
+    <t>Cost per ASR</t>
+  </si>
+  <si>
+    <t>Real cost if launched by me</t>
+  </si>
+  <si>
+    <t>Cost of launching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio with commision </t>
+  </si>
+  <si>
+    <t>Real probability of failure</t>
+  </si>
+  <si>
+    <t>Paid probability of failure</t>
+  </si>
+  <si>
+    <t>For this to be profitable we should have a lvl 10 launchpad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Or we should pay the rent of it. </t>
+  </si>
+  <si>
+    <t>We will also pay someoune to launch our BFRs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -674,7 +715,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -719,6 +760,7 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -1946,6 +1988,1005 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="14">
+        <f>SUM(I20,I25,I29,I33)/170</f>
+        <v>0.27353579796703847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4">
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>10.5</v>
+      </c>
+      <c r="D3" s="4">
+        <f>20*C18</f>
+        <v>255.184</v>
+      </c>
+      <c r="E3">
+        <f>D3*24</f>
+        <v>6124.4160000000002</v>
+      </c>
+      <c r="F3" s="41">
+        <f t="shared" ref="F3:F10" si="0">D3*C3</f>
+        <v>2679.4319999999998</v>
+      </c>
+      <c r="G3" s="41">
+        <f>F3*24</f>
+        <v>64306.367999999995</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4">
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>900</v>
+      </c>
+      <c r="D4" s="4">
+        <f>8*C18</f>
+        <v>102.0736</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="1">D4*24</f>
+        <v>2449.7664</v>
+      </c>
+      <c r="F4" s="41">
+        <f t="shared" si="0"/>
+        <v>91866.240000000005</v>
+      </c>
+      <c r="G4" s="41">
+        <f t="shared" ref="G4:G10" si="2">F4*24</f>
+        <v>2204789.7600000002</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <f>IF(B18&gt;0,B18-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>18.5</v>
+      </c>
+      <c r="D5" s="4">
+        <f>10*C18</f>
+        <v>127.592</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3062.2080000000001</v>
+      </c>
+      <c r="F5" s="41">
+        <f t="shared" si="0"/>
+        <v>2360.4519999999998</v>
+      </c>
+      <c r="G5" s="41">
+        <f t="shared" si="2"/>
+        <v>56650.847999999998</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24">
+        <f>IF(B22&gt;0,B22-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <f>3180*0.98</f>
+        <v>3116.4</v>
+      </c>
+      <c r="D6" s="4">
+        <f>40*C22</f>
+        <v>12.447999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>298.75199999999995</v>
+      </c>
+      <c r="F6" s="41">
+        <f t="shared" si="0"/>
+        <v>38792.947199999995</v>
+      </c>
+      <c r="G6" s="41">
+        <f t="shared" si="2"/>
+        <v>931030.73279999988</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
+        <f>9900*0.98</f>
+        <v>9702</v>
+      </c>
+      <c r="D7" s="4">
+        <f>16*C22+C23*6</f>
+        <v>6.8463999999999992</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>164.31359999999998</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" si="0"/>
+        <v>66423.772799999992</v>
+      </c>
+      <c r="G7" s="41">
+        <f t="shared" si="2"/>
+        <v>1594170.5471999999</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>5570</v>
+      </c>
+      <c r="D8" s="4">
+        <f>2*C23</f>
+        <v>0.62239999999999995</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>14.9376</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" si="0"/>
+        <v>3466.7679999999996</v>
+      </c>
+      <c r="G8" s="41">
+        <f t="shared" si="2"/>
+        <v>83202.431999999986</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="L8" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>545</v>
+      </c>
+      <c r="D9" s="4">
+        <f>10*C23</f>
+        <v>3.1119999999999997</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>74.687999999999988</v>
+      </c>
+      <c r="F9" s="41">
+        <f t="shared" si="0"/>
+        <v>1696.0399999999997</v>
+      </c>
+      <c r="G9" s="41">
+        <f t="shared" si="2"/>
+        <v>40704.959999999992</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="24">
+        <f>IF(B23&gt;0,B23-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1730</v>
+      </c>
+      <c r="D10" s="4">
+        <f>4*C23</f>
+        <v>1.2447999999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>29.8752</v>
+      </c>
+      <c r="F10" s="41">
+        <f t="shared" si="0"/>
+        <v>2153.5039999999999</v>
+      </c>
+      <c r="G10" s="41">
+        <f t="shared" si="2"/>
+        <v>51684.095999999998</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="F11" s="42">
+        <f>SUM(F3:F10)</f>
+        <v>209439.15599999999</v>
+      </c>
+      <c r="G11" s="42">
+        <f>SUM(G3:G10)</f>
+        <v>5026539.743999999</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="24">
+        <f>IF(B22&gt;0,B22-1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="24">
+        <f>34*C22+7*C23</f>
+        <v>12.7592</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="24">
+        <f>20*C3+8*C4+10*C5</f>
+        <v>7595</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1989.41</v>
+      </c>
+      <c r="H18" s="24">
+        <f>$J$2*G18</f>
+        <v>544.174851833606</v>
+      </c>
+      <c r="I18">
+        <f>C18/F18</f>
+        <v>43.997241379310346</v>
+      </c>
+      <c r="J18" s="42">
+        <f>E18+G18+H18</f>
+        <v>10128.584851833606</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="39">
+        <v>10</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="38">
+        <f>I18/G19</f>
+        <v>4.3997241379310346</v>
+      </c>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="38">
+        <f>I19*G19</f>
+        <v>43.997241379310346</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="24">
+        <f>IF(B27&gt;0,B27-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <f>C27</f>
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4">
+        <f>40*C6+16*C7+34*J18</f>
+        <v>624259.88496234268</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="G22" s="4">
+        <v>351.65</v>
+      </c>
+      <c r="H22" s="4">
+        <f>$J$2*G22</f>
+        <v>96.188863355109078</v>
+      </c>
+      <c r="I22">
+        <f>C22/F22</f>
+        <v>0.18634730538922156</v>
+      </c>
+      <c r="J22" s="42">
+        <f>E22+G22+H22</f>
+        <v>624707.72382569779</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="24">
+        <f>IF(B27&gt;0,B27-1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="4">
+        <f>C27</f>
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4">
+        <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
+        <v>152622.09396283524</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1758.23</v>
+      </c>
+      <c r="H23" s="4">
+        <f>$J$2*G23</f>
+        <v>480.93884605958607</v>
+      </c>
+      <c r="I23">
+        <f>C23/F23</f>
+        <v>0.94303030303030289</v>
+      </c>
+      <c r="J23" s="42">
+        <f>E23+G23+H23</f>
+        <v>154861.26280889483</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="39">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="38">
+        <f>(I22+I23)/G24</f>
+        <v>1.1293776084195244</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="38">
+        <f>I24*G24</f>
+        <v>1.1293776084195244</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="12">
+        <v>4</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="24">
+        <f>J22+J23</f>
+        <v>779568.98663459264</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="G27" s="24">
+        <v>3170.85</v>
+      </c>
+      <c r="H27" s="24">
+        <f>$J$2*G27</f>
+        <v>867.34098498378387</v>
+      </c>
+      <c r="I27">
+        <f>C27/F27</f>
+        <v>1.2966666666666666</v>
+      </c>
+      <c r="J27" s="42">
+        <f>E27+G27+H27</f>
+        <v>783607.17761957645</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="39">
+        <v>1</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="38">
+        <f>I27/G28</f>
+        <v>1.2966666666666666</v>
+      </c>
+      <c r="K28" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" s="38">
+        <f>I28*G28</f>
+        <v>1.2966666666666666</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="12">
+        <v>10</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="24">
+        <f>J27</f>
+        <v>783607.17761957645</v>
+      </c>
+      <c r="F31" s="24">
+        <v>4</v>
+      </c>
+      <c r="G31" s="40">
+        <f>518*B31*(128/(2^(B31-1)))</f>
+        <v>1295</v>
+      </c>
+      <c r="H31" s="24">
+        <f>G31*J2</f>
+        <v>354.22885836731484</v>
+      </c>
+      <c r="I31">
+        <f>C27/F31</f>
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="J31" s="42">
+        <f>E31+G31+H31</f>
+        <v>785256.40647794376</v>
+      </c>
+      <c r="K31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="39">
+        <v>1</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="38">
+        <f>(I31)/G32</f>
+        <v>7.7799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="38">
+        <f>I32*G32</f>
+        <v>7.7799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="12">
+        <f>790000+15000*B27</f>
+        <v>850000</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="24">
+        <f>24*C27</f>
+        <v>7.4687999999999999</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="42">
+        <f>(C35-J27)*C27</f>
+        <v>20661.446324787805</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="42">
+        <f>C37*24</f>
+        <v>495874.71179490734</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="12">
+        <v>307</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="24">
+        <v>2800</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="24">
+        <f>(0.5)^(B27+1)</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="1">
+        <f>C41*C42*(1-C43)</f>
+        <v>832737.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="43">
+        <f>(C44-J31)*C27</f>
+        <v>14776.1163040639</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="43">
+        <f>C45*24</f>
+        <v>354626.79129753361</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M16:M17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7B01C992-87E0-4469-A5D5-96D18C7DB011}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7B01C992-87E0-4469-A5D5-96D18C7DB011}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M16:M17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K41"/>
@@ -5648,7 +6689,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5686,16 +6727,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="13" t="s">
@@ -5801,7 +6842,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6007,7 +7048,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18" s="24">
         <f>C13*24</f>
@@ -6093,10 +7134,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6106,11 +7147,11 @@
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
     <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6134,24 +7175,24 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="14">
-        <f>SUM(I20,I25,I32)/170</f>
-        <v>0.26592501940165575</v>
+        <f>SUM(I20,I25)/170</f>
+        <v>0.30166743596412232</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6163,23 +7204,23 @@
         <v>1</v>
       </c>
       <c r="C3" s="12">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="D3" s="4">
         <f>20*C18</f>
-        <v>255.19999999999996</v>
+        <v>289.99999999999994</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>6124.7999999999993</v>
+        <v>6959.9999999999982</v>
       </c>
       <c r="F3" s="41">
         <f t="shared" ref="F3:F10" si="0">D3*C3</f>
-        <v>2679.5999999999995</v>
+        <v>3160.9999999999995</v>
       </c>
       <c r="G3" s="41">
         <f>F3*24</f>
-        <v>64310.399999999987</v>
+        <v>75863.999999999985</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -6192,23 +7233,23 @@
         <v>1</v>
       </c>
       <c r="C4" s="12">
-        <v>900</v>
+        <v>820</v>
       </c>
       <c r="D4" s="4">
         <f>8*C18</f>
-        <v>102.07999999999998</v>
+        <v>115.99999999999997</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E10" si="1">D4*24</f>
-        <v>2449.9199999999996</v>
+        <v>2783.9999999999991</v>
       </c>
       <c r="F4" s="41">
         <f t="shared" si="0"/>
-        <v>91871.999999999985</v>
+        <v>95119.999999999971</v>
       </c>
       <c r="G4" s="41">
         <f t="shared" ref="G4:G10" si="2">F4*24</f>
-        <v>2204927.9999999995</v>
+        <v>2282879.9999999991</v>
       </c>
       <c r="H4" s="4"/>
       <c r="L4" t="s">
@@ -6224,23 +7265,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="12">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4">
         <f>10*C18</f>
-        <v>127.59999999999998</v>
+        <v>144.99999999999997</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>3062.3999999999996</v>
+        <v>3479.9999999999991</v>
       </c>
       <c r="F5" s="41">
         <f t="shared" si="0"/>
-        <v>2360.5999999999995</v>
+        <v>2754.9999999999995</v>
       </c>
       <c r="G5" s="41">
         <f t="shared" si="2"/>
-        <v>56654.399999999987</v>
+        <v>66119.999999999985</v>
       </c>
       <c r="H5" s="4"/>
       <c r="L5" t="s">
@@ -6256,24 +7297,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="12">
-        <f>3180*0.98</f>
-        <v>3116.4</v>
+        <v>2700</v>
       </c>
       <c r="D6" s="4">
         <f>40*C22</f>
-        <v>12.448780487804875</v>
+        <v>14.146341463414631</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>298.770731707317</v>
+        <v>339.51219512195115</v>
       </c>
       <c r="F6" s="41">
         <f t="shared" si="0"/>
-        <v>38795.379512195112</v>
+        <v>38195.121951219502</v>
       </c>
       <c r="G6" s="41">
         <f t="shared" si="2"/>
-        <v>931089.10829268268</v>
+        <v>916682.92682926799</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -6286,24 +7326,23 @@
         <v>2</v>
       </c>
       <c r="C7" s="12">
-        <f>9900*0.98</f>
-        <v>9702</v>
+        <v>8800</v>
       </c>
       <c r="D7" s="4">
         <f>16*C22+C23*6</f>
-        <v>6.8468292682926819</v>
+        <v>7.7804878048780477</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>164.32390243902438</v>
+        <v>186.73170731707313</v>
       </c>
       <c r="F7" s="41">
         <f t="shared" si="0"/>
-        <v>66427.937560975595</v>
+        <v>68468.292682926825</v>
       </c>
       <c r="G7" s="41">
         <f t="shared" si="2"/>
-        <v>1594270.5014634142</v>
+        <v>1643239.0243902439</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -6320,19 +7359,19 @@
       </c>
       <c r="D8" s="4">
         <f>2*C23</f>
-        <v>0.62243902439024379</v>
+        <v>0.70731707317073156</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>14.938536585365851</v>
+        <v>16.975609756097558</v>
       </c>
       <c r="F8" s="41">
         <f t="shared" si="0"/>
-        <v>3466.9853658536581</v>
+        <v>3939.7560975609749</v>
       </c>
       <c r="G8" s="41">
         <f t="shared" si="2"/>
-        <v>83207.648780487798</v>
+        <v>94554.146341463405</v>
       </c>
       <c r="H8" s="4"/>
       <c r="L8" s="38" t="s">
@@ -6355,19 +7394,19 @@
       </c>
       <c r="D9" s="4">
         <f>10*C23</f>
-        <v>3.1121951219512187</v>
+        <v>3.5365853658536577</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>74.692682926829249</v>
+        <v>84.878048780487788</v>
       </c>
       <c r="F9" s="41">
         <f t="shared" si="0"/>
-        <v>1696.1463414634143</v>
+        <v>1927.4390243902435</v>
       </c>
       <c r="G9" s="41">
         <f t="shared" si="2"/>
-        <v>40707.512195121941</v>
+        <v>46258.536585365844</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -6384,19 +7423,19 @@
       </c>
       <c r="D10" s="4">
         <f>4*C23</f>
-        <v>1.2448780487804876</v>
+        <v>1.4146341463414631</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>29.877073170731702</v>
+        <v>33.951219512195117</v>
       </c>
       <c r="F10" s="41">
         <f t="shared" si="0"/>
-        <v>2153.6390243902433</v>
+        <v>2447.3170731707314</v>
       </c>
       <c r="G10" s="41">
         <f t="shared" si="2"/>
-        <v>51687.33658536584</v>
+        <v>58735.609756097554</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -6407,11 +7446,11 @@
       <c r="D11" s="4"/>
       <c r="F11" s="42">
         <f>SUM(F3:F10)</f>
-        <v>209452.287804878</v>
+        <v>216013.92682926828</v>
       </c>
       <c r="G11" s="42">
         <f>F11*24</f>
-        <v>5026854.9073170722</v>
+        <v>5184334.2439024393</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -6456,7 +7495,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>4</v>
@@ -6465,7 +7504,7 @@
         <v>84</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>7</v>
@@ -6509,14 +7548,14 @@
       </c>
       <c r="C18" s="24">
         <f>34*C22+7*C23</f>
-        <v>12.759999999999998</v>
+        <v>14.499999999999996</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="24">
         <f>20*C3+8*C4+10*C5</f>
-        <v>7595</v>
+        <v>6968</v>
       </c>
       <c r="F18" s="24">
         <v>0.28999999999999998</v>
@@ -6526,15 +7565,15 @@
       </c>
       <c r="H18" s="24">
         <f>$J$2*G18</f>
-        <v>529.03389284784794</v>
+        <v>600.14021378138466</v>
       </c>
       <c r="I18">
         <f>C18/F18</f>
-        <v>43.999999999999993</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="J18" s="42">
         <f>E18+G18+H18</f>
-        <v>10113.443892847848</v>
+        <v>9557.5502137813837</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="4"/>
@@ -6550,14 +7589,14 @@
         <v>101</v>
       </c>
       <c r="G19" s="39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>102</v>
       </c>
       <c r="I19" s="38">
         <f>I18/G19</f>
-        <v>3.9999999999999996</v>
+        <v>4.1666666666666661</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -6577,7 +7616,7 @@
       </c>
       <c r="I20" s="38">
         <f>I19*G19</f>
-        <v>43.999999999999993</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -6610,14 +7649,14 @@
       </c>
       <c r="C22" s="4">
         <f>C27</f>
-        <v>0.31121951219512189</v>
+        <v>0.35365853658536578</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="4">
         <f>40*C6+16*C7+34*J18</f>
-        <v>623745.09235682688</v>
+        <v>573756.70726856706</v>
       </c>
       <c r="F22" s="4">
         <v>1.67</v>
@@ -6627,15 +7666,15 @@
       </c>
       <c r="H22" s="4">
         <f>$J$2*G22</f>
-        <v>93.512533072592234</v>
+        <v>106.08135385678361</v>
       </c>
       <c r="I22">
         <f>C22/F22</f>
-        <v>0.18635898933839634</v>
+        <v>0.2117715787936322</v>
       </c>
       <c r="J22" s="42">
         <f>E22+G22+H22</f>
-        <v>624190.25488989952</v>
+        <v>574214.43862242391</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="4"/>
@@ -6651,14 +7690,14 @@
       </c>
       <c r="C23" s="4">
         <f>C27</f>
-        <v>0.31121951219512189</v>
+        <v>0.35365853658536578</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="4">
         <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
-        <v>152516.10724993492</v>
+        <v>143212.8514964697</v>
       </c>
       <c r="F23" s="4">
         <v>0.33</v>
@@ -6668,15 +7707,15 @@
       </c>
       <c r="H23" s="4">
         <f>$J$2*G23</f>
-        <v>467.55734686257318</v>
+        <v>530.40073593519878</v>
       </c>
       <c r="I23">
         <f>C23/F23</f>
-        <v>0.94308943089430874</v>
+        <v>1.0716925351071689</v>
       </c>
       <c r="J23" s="42">
         <f>E23+G23+H23</f>
-        <v>154741.8945967975</v>
+        <v>145501.4822324049</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="4"/>
@@ -6699,7 +7738,7 @@
       </c>
       <c r="I24" s="38">
         <f>(I22+I23)/G24</f>
-        <v>1.1294484202327051</v>
+        <v>1.2834641139008012</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -6719,7 +7758,7 @@
       </c>
       <c r="I25" s="38">
         <f>I24*G24</f>
-        <v>1.1294484202327051</v>
+        <v>1.2834641139008012</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -6750,16 +7789,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="12">
-        <v>0.31121951219512189</v>
+        <v>0.35365853658536578</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="24">
         <f>J22+J23</f>
-        <v>778932.14948669705</v>
+        <v>719715.92085482879</v>
       </c>
       <c r="F27" s="24">
         <f>C27</f>
-        <v>0.31121951219512189</v>
+        <v>0.35365853658536578</v>
       </c>
       <c r="G27" s="24">
         <v>12500</v>
@@ -6771,10 +7810,10 @@
       </c>
       <c r="J27" s="42">
         <f>E27+G27+H27</f>
-        <v>791432.14948669705</v>
+        <v>732215.92085482879</v>
       </c>
       <c r="K27" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -6794,233 +7833,400 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="A29" s="24"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="12">
-        <v>10</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="24">
-        <f>J27</f>
-        <v>791432.14948669705</v>
-      </c>
-      <c r="F30" s="24">
-        <v>4</v>
-      </c>
-      <c r="G30" s="40">
-        <f>518*B30*(128/(2^(B30-1)))</f>
-        <v>1295</v>
-      </c>
-      <c r="H30" s="24">
-        <f>G30*J2</f>
-        <v>344.37290012514421</v>
-      </c>
-      <c r="I30">
-        <f>C27/F30</f>
-        <v>7.7804878048780474E-2</v>
-      </c>
-      <c r="J30" s="42">
-        <f>E30+H30+G30</f>
-        <v>793071.52238682215</v>
-      </c>
-      <c r="K30" t="s">
-        <v>121</v>
-      </c>
+      <c r="A30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="39">
-        <v>1</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="38">
-        <f>(I30)/G31</f>
-        <v>7.7804878048780474E-2</v>
-      </c>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="38">
-        <f>I31*G31</f>
-        <v>7.7804878048780474E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
-      <c r="B33" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="24"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="12">
-        <f>780000+10000*B27</f>
-        <v>820000</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C34" s="24"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="24">
-        <f>24*C27</f>
-        <v>7.4692682926829255</v>
+        <v>105</v>
+      </c>
+      <c r="C35" s="12">
+        <v>780000</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="42">
-        <f>(C34-J27)*C27</f>
-        <v>8890.8725012133073</v>
+        <v>124</v>
+      </c>
+      <c r="C36" s="24">
+        <f>24*C27</f>
+        <v>8.4878048780487791</v>
       </c>
       <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" t="s">
+        <v>135</v>
+      </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="42">
+        <f>(C35-J27)*C27</f>
+        <v>16899.247502560549</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" t="s">
+        <v>139</v>
+      </c>
+      <c r="K37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="42">
-        <f>C36*24</f>
-        <v>213380.94002911937</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="C38" s="42">
+        <f>C37*24</f>
+        <v>405581.94006145315</v>
+      </c>
       <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24" t="s">
+      <c r="E38" s="24">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2426</v>
+      </c>
+      <c r="G38" s="44">
+        <f>$J$27/2800/F52</f>
+        <v>301.82024767305393</v>
+      </c>
+      <c r="H38" s="44">
+        <f>$J$27/2800/G52</f>
+        <v>298.86364116523629</v>
+      </c>
+      <c r="I38">
+        <f>(G38-H38)*$C$42</f>
+        <v>8278.4982218893892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="E39" s="24">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>2604</v>
+      </c>
+      <c r="G39" s="44">
+        <f>$J$27/2800/F53</f>
+        <v>281.18890969847496</v>
+      </c>
+      <c r="H39" s="44">
+        <f>$J$27/2800/G53</f>
+        <v>278.93939842088719</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:I42" si="3">(G39-H39)*$C$42</f>
+        <v>6298.6315772457601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24" t="s">
+      <c r="C40" s="24"/>
+      <c r="E40" s="24">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>2699</v>
+      </c>
+      <c r="G40" s="44">
+        <f>$J$27/2800/F54</f>
+        <v>271.29156015369722</v>
+      </c>
+      <c r="H40" s="44">
+        <f>$J$27/2800/G54</f>
+        <v>269.94135331053599</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>3780.5791608514483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="12">
-        <v>307</v>
-      </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24" t="s">
+      <c r="C41" s="12">
+        <v>282</v>
+      </c>
+      <c r="E41" s="24">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>2742</v>
+      </c>
+      <c r="G41" s="44">
+        <f>$J$27/2800/F55</f>
+        <v>267.03717026069614</v>
+      </c>
+      <c r="H41" s="44">
+        <f>$J$27/2800/G55</f>
+        <v>265.65656992465443</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>3865.6809409167863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C42" s="24">
         <v>2800</v>
       </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24" t="s">
+      <c r="E42" s="24">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>2765</v>
+      </c>
+      <c r="G42" s="44">
+        <f>$J$27/2800/F56</f>
+        <v>264.81588457679163</v>
+      </c>
+      <c r="H42" s="44">
+        <f>$J$27/2800/G56</f>
+        <v>263.56478590949968</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>3503.0762684174761</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="24">
-        <f>(0.5)^(B27+1)</f>
+      <c r="C43" s="24">
+        <f>LOOKUP(B27,E38:E42,F45:F49)</f>
+        <v>3.6071428571428532E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="1">
+        <f>C42*C41*(1-C43)</f>
+        <v>761118</v>
+      </c>
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="43">
+        <f>(C44-J27)*C27</f>
+        <v>10221.467014755672</v>
+      </c>
+      <c r="E45" s="24">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f>1-F52</f>
+        <v>0.13357142857142856</v>
+      </c>
+      <c r="G45">
+        <f>1-G52</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="43">
+        <f>C45*24</f>
+        <v>245315.20835413612</v>
+      </c>
+      <c r="E46" s="24">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <f>1-F53</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="G46">
+        <f>1-G53</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E47" s="24">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <f>1-F54</f>
+        <v>3.6071428571428532E-2</v>
+      </c>
+      <c r="G47">
+        <f>1-G54</f>
         <v>3.125E-2</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="1">
-        <f>C40*C41*(1-C42)</f>
-        <v>832737.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="43">
-        <f>(C43-J30)*C27</f>
-        <v>12344.826203515835</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="43">
-        <f>C44*24</f>
-        <v>296275.82888438005</v>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E48" s="24">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <f>1-F55</f>
+        <v>2.0714285714285685E-2</v>
+      </c>
+      <c r="G48">
+        <f>1-G55</f>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="24">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <f>1-F56</f>
+        <v>1.2499999999999956E-2</v>
+      </c>
+      <c r="G49">
+        <f>1-G56</f>
+        <v>7.8125E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="24">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <f>F38/2800</f>
+        <v>0.86642857142857144</v>
+      </c>
+      <c r="G52">
+        <f>1- (0.5)^(E38+1)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="24">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <f>F39/2800</f>
+        <v>0.93</v>
+      </c>
+      <c r="G53">
+        <f>1- (0.5)^(E39+1)</f>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="24">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <f>F40/2800</f>
+        <v>0.96392857142857147</v>
+      </c>
+      <c r="G54">
+        <f>1- (0.5)^(E40+1)</f>
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E55" s="24">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <f>F41/2800</f>
+        <v>0.97928571428571431</v>
+      </c>
+      <c r="G55">
+        <f>1- (0.5)^(E41+1)</f>
+        <v>0.984375</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E56" s="24">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <f>F42/2800</f>
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="G56">
+        <f>1- (0.5)^(E42+1)</f>
+        <v>0.9921875</v>
       </c>
     </row>
   </sheetData>
@@ -7062,22 +8268,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
     <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7102,24 +8309,24 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="14">
-        <f>SUM(I20,I25,I29,I33)/170</f>
-        <v>0.24868449874738591</v>
+        <f>SUM(I20,I25,I32)/170</f>
+        <v>0.26590834698664634</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -7135,19 +8342,19 @@
       </c>
       <c r="D3" s="4">
         <f>20*C18</f>
-        <v>232.00000000000003</v>
+        <v>255.184</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>5568.0000000000009</v>
+        <v>6124.4160000000002</v>
       </c>
       <c r="F3" s="41">
         <f t="shared" ref="F3:F10" si="0">D3*C3</f>
-        <v>2436.0000000000005</v>
+        <v>2679.4319999999998</v>
       </c>
       <c r="G3" s="41">
         <f>F3*24</f>
-        <v>58464.000000000015</v>
+        <v>64306.367999999995</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -7164,19 +8371,19 @@
       </c>
       <c r="D4" s="4">
         <f>8*C18</f>
-        <v>92.800000000000011</v>
+        <v>102.0736</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E10" si="1">D4*24</f>
-        <v>2227.2000000000003</v>
+        <v>2449.7664</v>
       </c>
       <c r="F4" s="41">
         <f t="shared" si="0"/>
-        <v>83520.000000000015</v>
+        <v>91866.240000000005</v>
       </c>
       <c r="G4" s="41">
         <f t="shared" ref="G4:G10" si="2">F4*24</f>
-        <v>2004480.0000000005</v>
+        <v>2204789.7600000002</v>
       </c>
       <c r="H4" s="4"/>
       <c r="L4" t="s">
@@ -7196,19 +8403,19 @@
       </c>
       <c r="D5" s="4">
         <f>10*C18</f>
-        <v>116.00000000000001</v>
+        <v>127.592</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>2784.0000000000005</v>
+        <v>3062.2080000000001</v>
       </c>
       <c r="F5" s="41">
         <f t="shared" si="0"/>
-        <v>2146.0000000000005</v>
+        <v>2360.4519999999998</v>
       </c>
       <c r="G5" s="41">
         <f t="shared" si="2"/>
-        <v>51504.000000000015</v>
+        <v>56650.847999999998</v>
       </c>
       <c r="H5" s="4"/>
       <c r="L5" t="s">
@@ -7229,19 +8436,19 @@
       </c>
       <c r="D6" s="4">
         <f>40*C22</f>
-        <v>11.317073170731708</v>
+        <v>12.447999999999999</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>271.60975609756099</v>
+        <v>298.75199999999995</v>
       </c>
       <c r="F6" s="41">
         <f t="shared" si="0"/>
-        <v>35268.526829268296</v>
+        <v>38792.947199999995</v>
       </c>
       <c r="G6" s="41">
         <f t="shared" si="2"/>
-        <v>846444.64390243916</v>
+        <v>931030.73279999988</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -7259,19 +8466,19 @@
       </c>
       <c r="D7" s="4">
         <f>16*C22+C23*6</f>
-        <v>6.2243902439024392</v>
+        <v>6.8463999999999992</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>149.38536585365853</v>
+        <v>164.31359999999998</v>
       </c>
       <c r="F7" s="41">
         <f t="shared" si="0"/>
-        <v>60389.034146341466</v>
+        <v>66423.772799999992</v>
       </c>
       <c r="G7" s="41">
         <f t="shared" si="2"/>
-        <v>1449336.8195121952</v>
+        <v>1594170.5471999999</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -7288,19 +8495,19 @@
       </c>
       <c r="D8" s="4">
         <f>2*C23</f>
-        <v>0.56585365853658542</v>
+        <v>0.62239999999999995</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>13.58048780487805</v>
+        <v>14.9376</v>
       </c>
       <c r="F8" s="41">
         <f t="shared" si="0"/>
-        <v>3151.8048780487807</v>
+        <v>3466.7679999999996</v>
       </c>
       <c r="G8" s="41">
         <f t="shared" si="2"/>
-        <v>75643.317073170736</v>
+        <v>83202.431999999986</v>
       </c>
       <c r="H8" s="4"/>
       <c r="L8" s="38" t="s">
@@ -7323,19 +8530,19 @@
       </c>
       <c r="D9" s="4">
         <f>10*C23</f>
-        <v>2.8292682926829271</v>
+        <v>3.1119999999999997</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>67.902439024390247</v>
+        <v>74.687999999999988</v>
       </c>
       <c r="F9" s="41">
         <f t="shared" si="0"/>
-        <v>1541.9512195121954</v>
+        <v>1696.0399999999997</v>
       </c>
       <c r="G9" s="41">
         <f t="shared" si="2"/>
-        <v>37006.829268292691</v>
+        <v>40704.959999999992</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -7352,19 +8559,19 @@
       </c>
       <c r="D10" s="4">
         <f>4*C23</f>
-        <v>1.1317073170731708</v>
+        <v>1.2447999999999999</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>27.1609756097561</v>
+        <v>29.8752</v>
       </c>
       <c r="F10" s="41">
         <f t="shared" si="0"/>
-        <v>1957.8536585365855</v>
+        <v>2153.5039999999999</v>
       </c>
       <c r="G10" s="41">
         <f t="shared" si="2"/>
-        <v>46988.487804878052</v>
+        <v>51684.095999999998</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -7375,11 +8582,11 @@
       <c r="D11" s="4"/>
       <c r="F11" s="42">
         <f>SUM(F3:F10)</f>
-        <v>190411.17073170736</v>
+        <v>209439.15599999999</v>
       </c>
       <c r="G11" s="42">
-        <f>SUM(G3:G10)</f>
-        <v>4569868.0975609766</v>
+        <f>F11*24</f>
+        <v>5026539.7439999999</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -7424,7 +8631,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>4</v>
@@ -7433,7 +8640,7 @@
         <v>84</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>7</v>
@@ -7477,7 +8684,7 @@
       </c>
       <c r="C18" s="24">
         <f>34*C22+7*C23</f>
-        <v>11.600000000000001</v>
+        <v>12.7592</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>39</v>
@@ -7494,15 +8701,15 @@
       </c>
       <c r="H18" s="24">
         <f>$J$2*G18</f>
-        <v>494.73542865303699</v>
+        <v>529.00072457870408</v>
       </c>
       <c r="I18">
         <f>C18/F18</f>
-        <v>40.000000000000007</v>
+        <v>43.997241379310346</v>
       </c>
       <c r="J18" s="42">
         <f>E18+G18+H18</f>
-        <v>10079.145428653037</v>
+        <v>10113.410724578704</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="4"/>
@@ -7518,14 +8725,14 @@
         <v>101</v>
       </c>
       <c r="G19" s="39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>102</v>
       </c>
       <c r="I19" s="38">
         <f>I18/G19</f>
-        <v>4.0000000000000009</v>
+        <v>3.9997492163009407</v>
       </c>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -7545,7 +8752,7 @@
       </c>
       <c r="I20" s="38">
         <f>I19*G19</f>
-        <v>40.000000000000007</v>
+        <v>43.997241379310346</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -7578,14 +8785,14 @@
       </c>
       <c r="C22" s="4">
         <f>C27</f>
-        <v>0.28292682926829271</v>
+        <v>0.31119999999999998</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="4">
         <f>40*C6+16*C7+34*J18</f>
-        <v>622578.94457420334</v>
+        <v>623743.96463567601</v>
       </c>
       <c r="F22" s="4">
         <v>1.67</v>
@@ -7595,15 +8802,15 @@
       </c>
       <c r="H22" s="4">
         <f>$J$2*G22</f>
-        <v>87.449903984518244</v>
+        <v>93.506670217854179</v>
       </c>
       <c r="I22">
         <f>C22/F22</f>
-        <v>0.16941726303490581</v>
+        <v>0.18634730538922156</v>
       </c>
       <c r="J22" s="42">
         <f>E22+G22+H22</f>
-        <v>623018.04447818792</v>
+        <v>624189.12130589387</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="4"/>
@@ -7619,14 +8826,14 @@
       </c>
       <c r="C23" s="4">
         <f>C27</f>
-        <v>0.28292682926829271</v>
+        <v>0.31119999999999998</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="4">
         <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
-        <v>152276.01800057126</v>
+        <v>152515.87507205093</v>
       </c>
       <c r="F23" s="4">
         <v>0.33</v>
@@ -7636,15 +8843,15 @@
       </c>
       <c r="H23" s="4">
         <f>$J$2*G23</f>
-        <v>437.2445462326163</v>
+        <v>467.52803292233119</v>
       </c>
       <c r="I23">
         <f>C23/F23</f>
-        <v>0.85735402808573546</v>
+        <v>0.94303030303030289</v>
       </c>
       <c r="J23" s="42">
         <f>E23+G23+H23</f>
-        <v>154471.4925468039</v>
+        <v>154741.63310497327</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="4"/>
@@ -7667,7 +8874,7 @@
       </c>
       <c r="I24" s="38">
         <f>(I22+I23)/G24</f>
-        <v>1.0267712911206412</v>
+        <v>1.1293776084195244</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -7687,7 +8894,7 @@
       </c>
       <c r="I25" s="38">
         <f>I24*G24</f>
-        <v>1.0267712911206412</v>
+        <v>1.1293776084195244</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -7712,38 +8919,37 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="B27" s="12">
         <v>4</v>
       </c>
       <c r="C27" s="12">
-        <v>0.28292682926829271</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>48</v>
-      </c>
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="D27" s="27"/>
       <c r="E27" s="24">
         <f>J22+J23</f>
-        <v>777489.53702499182</v>
+        <v>778930.75441086711</v>
       </c>
       <c r="F27" s="24">
-        <v>0.24</v>
+        <f>C27</f>
+        <v>0.31119999999999998</v>
       </c>
       <c r="G27" s="24">
-        <v>3170.85</v>
-      </c>
-      <c r="H27" s="24">
-        <f>$J$2*G27</f>
-        <v>788.54124285314856</v>
-      </c>
+        <v>12500</v>
+      </c>
+      <c r="H27" s="24"/>
       <c r="I27">
         <f>C27/F27</f>
-        <v>1.1788617886178863</v>
+        <v>1</v>
       </c>
       <c r="J27" s="42">
         <f>E27+G27+H27</f>
-        <v>781448.92826784495</v>
+        <v>791430.75441086711</v>
+      </c>
+      <c r="K27" t="s">
+        <v>131</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -7754,96 +8960,92 @@
       <c r="C28" s="24"/>
       <c r="D28" s="26"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="39">
-        <v>1</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="38">
-        <f>I27/G28</f>
-        <v>1.1788617886178863</v>
-      </c>
-      <c r="K28" t="s">
-        <v>126</v>
-      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="38">
-        <f>I28*G28</f>
-        <v>1.1788617886178863</v>
-      </c>
+      <c r="A29" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="A30" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="12">
+        <v>8</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="24">
+        <f>J27</f>
+        <v>791430.75441086711</v>
+      </c>
+      <c r="F30" s="24">
+        <v>4</v>
+      </c>
+      <c r="G30" s="40">
+        <f>518*B30*(128/(2^(B30-1)))</f>
+        <v>4144</v>
+      </c>
+      <c r="H30" s="24">
+        <f>G30*J2</f>
+        <v>1101.9241899126623</v>
+      </c>
+      <c r="I30">
+        <f>C27/F30</f>
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="J30" s="42">
+        <f>E30+H30+G30</f>
+        <v>796676.67860077973</v>
+      </c>
+      <c r="K30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="12">
-        <v>10</v>
-      </c>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="24">
-        <f>J27</f>
-        <v>781448.92826784495</v>
-      </c>
-      <c r="F31" s="24">
-        <v>4</v>
-      </c>
-      <c r="G31" s="40">
-        <f>518*B31*(128/(2^(B31-1)))</f>
-        <v>1295</v>
-      </c>
-      <c r="H31" s="24">
-        <f>G31*J2</f>
-        <v>322.04642587786475</v>
-      </c>
-      <c r="I31">
-        <f>C27/F31</f>
-        <v>7.0731707317073178E-2</v>
-      </c>
-      <c r="J31" s="42">
-        <f>E31+G31+H31</f>
-        <v>783065.97469372279</v>
-      </c>
-      <c r="K31" t="s">
-        <v>125</v>
+      <c r="D31" s="26"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="39">
+        <v>1</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="38">
+        <f>(I30)/G31</f>
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -7852,56 +9054,49 @@
       <c r="C32" s="24"/>
       <c r="D32" s="26"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="39">
-        <v>1</v>
-      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="38" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I32" s="38">
-        <f>(I31)/G32</f>
-        <v>7.0731707317073178E-2</v>
+        <f>I31*G31</f>
+        <v>7.7799999999999994E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+      <c r="B33" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C33" s="24"/>
       <c r="D33" s="26"/>
       <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="38">
-        <f>I32*G32</f>
-        <v>7.0731707317073178E-2</v>
-      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="24"/>
+        <v>105</v>
+      </c>
+      <c r="C34" s="12">
+        <f>780000+10000*B27</f>
+        <v>820000</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="12">
-        <f>790000+15000*B27</f>
-        <v>850000</v>
+        <v>124</v>
+      </c>
+      <c r="C35" s="24">
+        <f>24*C27</f>
+        <v>7.4687999999999999</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -7910,11 +9105,11 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="24">
-        <f>24*C27</f>
-        <v>6.7902439024390251</v>
+        <v>106</v>
+      </c>
+      <c r="C36" s="42">
+        <f>(C34-J27)*C27</f>
+        <v>8890.749227338154</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -7923,31 +9118,27 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" s="42">
-        <f>(C35-J27)*C27</f>
-        <v>19394.937368121919</v>
+        <f>C36*24</f>
+        <v>213377.9814561157</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
-      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
-      <c r="B38" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="42">
-        <f>C37*24</f>
-        <v>465478.49683492607</v>
-      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
+      <c r="B39" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -7955,19 +9146,21 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="24"/>
+        <v>105</v>
+      </c>
+      <c r="C40" s="12">
+        <v>307</v>
+      </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="12">
-        <v>307</v>
+        <v>111</v>
+      </c>
+      <c r="C41" s="24">
+        <v>2800</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -7975,51 +9168,40 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C42" s="24">
-        <v>2800</v>
+        <f>(0.5)^(B27+1)</f>
+        <v>3.125E-2</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
       <c r="B43" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="24">
-        <f>(0.5)^(B27+1)</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+        <v>113</v>
+      </c>
+      <c r="C43" s="1">
+        <f>C40*C41*(1-C42)</f>
+        <v>832737.5</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="1">
-        <f>C41*C42*(1-C43)</f>
-        <v>832737.5</v>
+        <v>114</v>
+      </c>
+      <c r="C44" s="43">
+        <f>(C43-J30)*C27</f>
+        <v>11222.127619437346</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C45" s="43">
-        <f>(C44-J31)*C27</f>
-        <v>14053.407159824774</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="43">
-        <f>C45*24</f>
-        <v>337281.77183579456</v>
+        <f>C44*24</f>
+        <v>269331.06286649627</v>
       </c>
     </row>
   </sheetData>
@@ -8032,7 +9214,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7B01C992-87E0-4469-A5D5-96D18C7DB011}</x14:id>
+          <x14:id>{411ED40A-525F-48C3-BFFB-1C35E3AD0A01}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8043,7 +9225,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7B01C992-87E0-4469-A5D5-96D18C7DB011}">
+          <x14:cfRule type="dataBar" id="{411ED40A-525F-48C3-BFFB-1C35E3AD0A01}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Documents\GitHub\SimCompanies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Documents\SimCompanies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -478,8 +478,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -713,7 +713,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -757,10 +757,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -6689,7 +6689,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7943,11 +7943,11 @@
         <v>2426</v>
       </c>
       <c r="G38" s="44">
-        <f>$J$27/2800/F52</f>
+        <f t="shared" ref="G38:H42" si="3">$J$27/2800/F52</f>
         <v>301.82024767305393</v>
       </c>
       <c r="H38" s="44">
-        <f>$J$27/2800/G52</f>
+        <f t="shared" si="3"/>
         <v>298.86364116523629</v>
       </c>
       <c r="I38">
@@ -7965,15 +7965,15 @@
         <v>2604</v>
       </c>
       <c r="G39" s="44">
-        <f>$J$27/2800/F53</f>
+        <f t="shared" si="3"/>
         <v>281.18890969847496</v>
       </c>
       <c r="H39" s="44">
-        <f>$J$27/2800/G53</f>
+        <f t="shared" si="3"/>
         <v>278.93939842088719</v>
       </c>
       <c r="I39">
-        <f t="shared" ref="I39:I42" si="3">(G39-H39)*$C$42</f>
+        <f t="shared" ref="I39:I42" si="4">(G39-H39)*$C$42</f>
         <v>6298.6315772457601</v>
       </c>
     </row>
@@ -7989,15 +7989,15 @@
         <v>2699</v>
       </c>
       <c r="G40" s="44">
-        <f>$J$27/2800/F54</f>
+        <f t="shared" si="3"/>
         <v>271.29156015369722</v>
       </c>
       <c r="H40" s="44">
-        <f>$J$27/2800/G54</f>
+        <f t="shared" si="3"/>
         <v>269.94135331053599</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3780.5791608514483</v>
       </c>
     </row>
@@ -8015,15 +8015,15 @@
         <v>2742</v>
       </c>
       <c r="G41" s="44">
-        <f>$J$27/2800/F55</f>
+        <f t="shared" si="3"/>
         <v>267.03717026069614</v>
       </c>
       <c r="H41" s="44">
-        <f>$J$27/2800/G55</f>
+        <f t="shared" si="3"/>
         <v>265.65656992465443</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3865.6809409167863</v>
       </c>
     </row>
@@ -8041,15 +8041,15 @@
         <v>2765</v>
       </c>
       <c r="G42" s="44">
-        <f>$J$27/2800/F56</f>
+        <f t="shared" si="3"/>
         <v>264.81588457679163</v>
       </c>
       <c r="H42" s="44">
-        <f>$J$27/2800/G56</f>
+        <f t="shared" si="3"/>
         <v>263.56478590949968</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3503.0762684174761</v>
       </c>
     </row>
@@ -8089,11 +8089,11 @@
         <v>2</v>
       </c>
       <c r="F45">
-        <f>1-F52</f>
+        <f t="shared" ref="F45:G49" si="5">1-F52</f>
         <v>0.13357142857142856</v>
       </c>
       <c r="G45">
-        <f>1-G52</f>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
     </row>
@@ -8109,11 +8109,11 @@
         <v>3</v>
       </c>
       <c r="F46">
-        <f>1-F53</f>
+        <f t="shared" si="5"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="G46">
-        <f>1-G53</f>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -8122,11 +8122,11 @@
         <v>4</v>
       </c>
       <c r="F47">
-        <f>1-F54</f>
+        <f t="shared" si="5"/>
         <v>3.6071428571428532E-2</v>
       </c>
       <c r="G47">
-        <f>1-G54</f>
+        <f t="shared" si="5"/>
         <v>3.125E-2</v>
       </c>
     </row>
@@ -8135,11 +8135,11 @@
         <v>5</v>
       </c>
       <c r="F48">
-        <f>1-F55</f>
+        <f t="shared" si="5"/>
         <v>2.0714285714285685E-2</v>
       </c>
       <c r="G48">
-        <f>1-G55</f>
+        <f t="shared" si="5"/>
         <v>1.5625E-2</v>
       </c>
     </row>
@@ -8148,11 +8148,11 @@
         <v>6</v>
       </c>
       <c r="F49">
-        <f>1-F56</f>
+        <f t="shared" si="5"/>
         <v>1.2499999999999956E-2</v>
       </c>
       <c r="G49">
-        <f>1-G56</f>
+        <f t="shared" si="5"/>
         <v>7.8125E-3</v>
       </c>
     </row>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All of them" sheetId="12" r:id="rId1"/>
@@ -23,6 +23,38 @@
     <sheet name="Production Plans third stage" sheetId="16" r:id="rId9"/>
     <sheet name="Production Plans final stage" sheetId="14" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Rocket production'!$C$13</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Rocket production'!$B$31</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Rocket production'!$C$20</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">0.02</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="152">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -471,6 +503,24 @@
   </si>
   <si>
     <t>We will also pay someoune to launch our BFRs</t>
+  </si>
+  <si>
+    <t>Propulsion factory building price</t>
+  </si>
+  <si>
+    <t>Total buildings price</t>
+  </si>
+  <si>
+    <t>COO skill</t>
+  </si>
+  <si>
+    <t>Adjusted adm. Overhead</t>
+  </si>
+  <si>
+    <t>COO discount overhead</t>
+  </si>
+  <si>
+    <t>earnings / buildings value</t>
   </si>
 </sst>
 </file>
@@ -715,7 +765,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -761,6 +811,8 @@
     <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -4734,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6686,10 +6738,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6702,7 +6754,7 @@
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6739,12 +6791,12 @@
         <v>121</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14">
-        <f>I15/170</f>
-        <v>0.32941176470588235</v>
+      <c r="J2" s="4">
+        <f>I13/170</f>
+        <v>0.38240000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6756,25 +6808,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="12">
-        <v>10.9</v>
+        <v>10.5</v>
       </c>
       <c r="D3" s="4">
         <f>20*C13</f>
-        <v>324.79999999999995</v>
+        <v>377.04640000000006</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>7795.1999999999989</v>
+        <v>9049.1136000000006</v>
       </c>
       <c r="F3" s="41">
         <f>D3*C3</f>
-        <v>3540.3199999999997</v>
+        <v>3958.9872000000005</v>
       </c>
       <c r="G3" s="41">
         <f>F3*24</f>
-        <v>84967.679999999993</v>
+        <v>95015.692800000019</v>
       </c>
       <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="12">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6785,25 +6843,32 @@
         <v>2</v>
       </c>
       <c r="C4" s="12">
-        <v>820</v>
+        <v>890</v>
       </c>
       <c r="D4" s="4">
         <f>8*C13</f>
-        <v>129.91999999999999</v>
+        <v>150.81856000000002</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E5" si="0">D4*24</f>
-        <v>3118.08</v>
+        <v>3619.6454400000002</v>
       </c>
       <c r="F4" s="41">
         <f>D4*C4</f>
-        <v>106534.39999999999</v>
+        <v>134228.51840000003</v>
       </c>
       <c r="G4" s="41">
         <f t="shared" ref="G4:G5" si="1">F4*24</f>
-        <v>2556825.5999999996</v>
+        <v>3221484.4416000005</v>
       </c>
       <c r="H4" s="4"/>
+      <c r="I4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <f>J3*J2/100</f>
+        <v>5.3536000000000007E-2</v>
+      </c>
       <c r="L4" t="s">
         <v>97</v>
       </c>
@@ -6817,25 +6882,32 @@
         <v>2</v>
       </c>
       <c r="C5" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4">
         <f>10*C13</f>
-        <v>162.39999999999998</v>
+        <v>188.52320000000003</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>3897.5999999999995</v>
+        <v>4524.5568000000003</v>
       </c>
       <c r="F5" s="41">
         <f>D5*C5</f>
-        <v>3085.5999999999995</v>
+        <v>3393.4176000000007</v>
       </c>
       <c r="G5" s="41">
         <f t="shared" si="1"/>
-        <v>74054.399999999994</v>
+        <v>81442.022400000016</v>
       </c>
       <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="4">
+        <f>J2-J4</f>
+        <v>0.32886400000000005</v>
+      </c>
       <c r="L5" t="s">
         <v>98</v>
       </c>
@@ -6849,11 +6921,11 @@
       <c r="D6" s="4"/>
       <c r="F6" s="41">
         <f>(G13+H13)*C13</f>
-        <v>42950.659755294117</v>
+        <v>49839.036255390165</v>
       </c>
       <c r="G6" s="41">
         <f>F6*24</f>
-        <v>1030815.8341270587</v>
+        <v>1196136.8701293641</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -6864,11 +6936,11 @@
       <c r="D7" s="4"/>
       <c r="F7" s="42">
         <f>SUM(F3:F6)</f>
-        <v>156110.97975529413</v>
+        <v>191419.95945539017</v>
       </c>
       <c r="G7" s="42">
         <f>SUM(G3:G6)</f>
-        <v>3746663.5141270584</v>
+        <v>4594079.0269293645</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -6956,14 +7028,14 @@
         <v>3</v>
       </c>
       <c r="C13" s="12">
-        <v>16.239999999999998</v>
+        <v>18.852320000000002</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="24">
         <f>20*C3+8*C4+10*C5</f>
-        <v>6968</v>
+        <v>7510</v>
       </c>
       <c r="F13" s="24">
         <v>0.28999999999999998</v>
@@ -6972,16 +7044,16 @@
         <v>1989.41</v>
       </c>
       <c r="H13" s="24">
-        <f>$J$2*G13</f>
-        <v>655.33505882352938</v>
+        <f>$J$5*G13</f>
+        <v>654.24533024000016</v>
       </c>
       <c r="I13">
         <f>C13/F13</f>
-        <v>56</v>
+        <v>65.00800000000001</v>
       </c>
       <c r="J13" s="42">
         <f>E13+G13+H13</f>
-        <v>9612.7450588235297</v>
+        <v>10153.655330240001</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="4"/>
@@ -7004,7 +7076,7 @@
       </c>
       <c r="I14" s="38">
         <f>I13/G14</f>
-        <v>4.3076923076923075</v>
+        <v>5.0006153846153856</v>
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="24" t="s">
@@ -7024,7 +7096,7 @@
       </c>
       <c r="I15" s="38">
         <f>I14*G14</f>
-        <v>56</v>
+        <v>65.00800000000001</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -7040,7 +7112,7 @@
         <v>105</v>
       </c>
       <c r="C17" s="12">
-        <v>10600</v>
+        <v>11300</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -7052,7 +7124,7 @@
       </c>
       <c r="C18" s="24">
         <f>C13*24</f>
-        <v>389.76</v>
+        <v>452.45568000000003</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -7064,7 +7136,7 @@
       </c>
       <c r="C19" s="42">
         <f>(C17-J13)*C13</f>
-        <v>16033.020244705876</v>
+        <v>21611.256544609834</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -7076,7 +7148,7 @@
       </c>
       <c r="C20" s="42">
         <f>C19*24</f>
-        <v>384792.48587294103</v>
+        <v>518670.15707063605</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -7094,6 +7166,32 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="45">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="46">
+        <f>((I14+1)*I14/2+1)*B29*G14</f>
+        <v>21844620.258461546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="21">
+        <f>C20/B30</f>
+        <v>2.3743610597658633E-2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M11:M12">
@@ -7136,7 +7234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Documents\SimCompanies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Documents\GitHub\SimCompanies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="All of them" sheetId="12" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="159">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -352,9 +352,6 @@
     <t>AEROSPACE FACTORY</t>
   </si>
   <si>
-    <t>PRODUCED UNITS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attitude control </t>
   </si>
   <si>
@@ -421,9 +418,6 @@
     <t>1 BFR</t>
   </si>
   <si>
-    <t xml:space="preserve">Launchpad level: </t>
-  </si>
-  <si>
     <t>BFR with VIF rent</t>
   </si>
   <si>
@@ -454,9 +448,6 @@
     <t>NEEDS PER DAY</t>
   </si>
   <si>
-    <t>We will launch our own BFRs on our own Launchpads</t>
-  </si>
-  <si>
     <t>We will produce our own high q BFRs</t>
   </si>
   <si>
@@ -521,6 +512,36 @@
   </si>
   <si>
     <t>earnings / buildings value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(only changes through economy situation; recession/normal/boom) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCED UNITS per hour </t>
+  </si>
+  <si>
+    <t>Required amount of money required to build the propulsion factories up to the production desired</t>
+  </si>
+  <si>
+    <t>(Launchpad lvl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launchpad </t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color codes: </t>
+  </si>
+  <si>
+    <t>changes constantly, adjusted manually is permited and suggested</t>
+  </si>
+  <si>
+    <t>Is not common to change, but it changes. Does not depend on the person, it is given by the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial results or final results </t>
   </si>
 </sst>
 </file>
@@ -528,10 +549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,15 +590,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,8 +658,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -657,32 +677,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -763,9 +757,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -783,15 +777,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -806,13 +798,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -1239,7 +1237,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1256,13 +1254,13 @@
       <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="22" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="4"/>
@@ -1275,13 +1273,13 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="4">
@@ -1305,13 +1303,13 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="4">
@@ -1335,13 +1333,13 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="22">
         <v>1</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D26" s="4">
@@ -1365,13 +1363,13 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="4">
@@ -1395,13 +1393,13 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="4">
         <v>20</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="4">
@@ -1425,13 +1423,13 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="4">
         <v>100</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="4">
@@ -1455,13 +1453,13 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="4">
         <v>100</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="4">
@@ -1485,7 +1483,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1496,7 +1494,7 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="4"/>
@@ -1509,13 +1507,13 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="4">
@@ -1539,13 +1537,13 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="4">
@@ -1569,13 +1567,13 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="4">
@@ -1599,13 +1597,13 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="4">
         <v>10</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="4">
@@ -1629,7 +1627,7 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1640,7 +1638,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="4"/>
@@ -1653,13 +1651,13 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="4">
@@ -1683,13 +1681,13 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="4">
@@ -1713,13 +1711,13 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="4">
@@ -1743,13 +1741,13 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="4">
         <v>1</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="4">
@@ -1773,13 +1771,13 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="4">
         <v>2</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D43" s="4">
@@ -1803,7 +1801,7 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1814,7 +1812,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="4"/>
@@ -1827,13 +1825,13 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="4">
         <v>20</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="4">
@@ -1857,13 +1855,13 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="4">
         <v>2000</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="4">
@@ -1887,7 +1885,7 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1898,7 +1896,7 @@
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="4"/>
@@ -1911,13 +1909,13 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="4">
         <v>2000</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="4">
@@ -1941,13 +1939,13 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="4">
         <v>1000</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="4">
@@ -1971,13 +1969,13 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="22">
         <v>100</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="24" t="s">
         <v>69</v>
       </c>
       <c r="D52" s="4">
@@ -2001,7 +1999,7 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2044,21 +2042,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2075,31 +2074,31 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>100</v>
+      <c r="B2" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14">
-        <f>SUM(I20,I25,I29,I33)/170</f>
-        <v>0.27353579796703847</v>
+      <c r="J2" s="4">
+        <f>(I20+I25+I29+B31)/170</f>
+        <v>0.49757377187354962</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2111,25 +2110,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="12">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="D3" s="4">
         <f>20*C18</f>
-        <v>255.184</v>
+        <v>410</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>6124.4160000000002</v>
-      </c>
-      <c r="F3" s="41">
+        <v>9840</v>
+      </c>
+      <c r="F3" s="38">
         <f t="shared" ref="F3:F10" si="0">D3*C3</f>
-        <v>2679.4319999999998</v>
-      </c>
-      <c r="G3" s="41">
+        <v>4469</v>
+      </c>
+      <c r="G3" s="38">
         <f>F3*24</f>
-        <v>64306.367999999995</v>
+        <v>107256</v>
       </c>
       <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="12">
+        <v>26.75</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2140,27 +2145,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="12">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="D4" s="4">
         <f>8*C18</f>
-        <v>102.0736</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E10" si="1">D4*24</f>
-        <v>2449.7664</v>
-      </c>
-      <c r="F4" s="41">
+        <v>3936</v>
+      </c>
+      <c r="F4" s="38">
         <f t="shared" si="0"/>
-        <v>91866.240000000005</v>
-      </c>
-      <c r="G4" s="41">
+        <v>145960</v>
+      </c>
+      <c r="G4" s="38">
         <f t="shared" ref="G4:G10" si="2">F4*24</f>
-        <v>2204789.7600000002</v>
+        <v>3503040</v>
       </c>
       <c r="H4" s="4"/>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4">
+        <f>J3*J2/100</f>
+        <v>0.13310098397617451</v>
+      </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2172,94 +2184,99 @@
         <v>1</v>
       </c>
       <c r="C5" s="12">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4">
         <f>10*C18</f>
-        <v>127.592</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>3062.2080000000001</v>
-      </c>
-      <c r="F5" s="41">
+        <v>4920</v>
+      </c>
+      <c r="F5" s="38">
         <f t="shared" si="0"/>
-        <v>2360.4519999999998</v>
-      </c>
-      <c r="G5" s="41">
+        <v>3690</v>
+      </c>
+      <c r="G5" s="38">
         <f t="shared" si="2"/>
-        <v>56650.847999999998</v>
+        <v>88560</v>
       </c>
       <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="4">
+        <f>J2-J4</f>
+        <v>0.36447278789737514</v>
+      </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <f>IF(B22&gt;0,B22-1,0)</f>
         <v>2</v>
       </c>
       <c r="C6" s="12">
-        <f>3180*0.98</f>
-        <v>3116.4</v>
+        <v>2700</v>
       </c>
       <c r="D6" s="4">
         <f>40*C22</f>
-        <v>12.447999999999999</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>298.75199999999995</v>
-      </c>
-      <c r="F6" s="41">
+        <v>480</v>
+      </c>
+      <c r="F6" s="38">
         <f t="shared" si="0"/>
-        <v>38792.947199999995</v>
-      </c>
-      <c r="G6" s="41">
+        <v>54000</v>
+      </c>
+      <c r="G6" s="38">
         <f t="shared" si="2"/>
-        <v>931030.73279999988</v>
+        <v>1296000</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
       <c r="C7" s="12">
-        <f>9900*0.98</f>
-        <v>9702</v>
+        <v>8800</v>
       </c>
       <c r="D7" s="4">
         <f>16*C22+C23*6</f>
-        <v>6.8463999999999992</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>164.31359999999998</v>
-      </c>
-      <c r="F7" s="41">
+        <v>264</v>
+      </c>
+      <c r="F7" s="38">
         <f t="shared" si="0"/>
-        <v>66423.772799999992</v>
-      </c>
-      <c r="G7" s="41">
+        <v>96800</v>
+      </c>
+      <c r="G7" s="38">
         <f t="shared" si="2"/>
-        <v>1594170.5471999999</v>
+        <v>2323200</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
@@ -2268,33 +2285,33 @@
       </c>
       <c r="D8" s="4">
         <f>2*C23</f>
-        <v>0.62239999999999995</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>14.9376</v>
-      </c>
-      <c r="F8" s="41">
+        <v>24</v>
+      </c>
+      <c r="F8" s="38">
         <f t="shared" si="0"/>
-        <v>3466.7679999999996</v>
-      </c>
-      <c r="G8" s="41">
+        <v>5570</v>
+      </c>
+      <c r="G8" s="38">
         <f t="shared" si="2"/>
-        <v>83202.431999999986</v>
+        <v>133680</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="s">
         <v>102</v>
       </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
@@ -2303,27 +2320,27 @@
       </c>
       <c r="D9" s="4">
         <f>10*C23</f>
-        <v>3.1119999999999997</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>74.687999999999988</v>
-      </c>
-      <c r="F9" s="41">
+        <v>120</v>
+      </c>
+      <c r="F9" s="38">
         <f t="shared" si="0"/>
-        <v>1696.0399999999997</v>
-      </c>
-      <c r="G9" s="41">
+        <v>2725</v>
+      </c>
+      <c r="G9" s="38">
         <f t="shared" si="2"/>
-        <v>40704.959999999992</v>
+        <v>65400</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="24">
+      <c r="A10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
@@ -2332,19 +2349,19 @@
       </c>
       <c r="D10" s="4">
         <f>4*C23</f>
-        <v>1.2447999999999999</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>29.8752</v>
-      </c>
-      <c r="F10" s="41">
+        <v>48</v>
+      </c>
+      <c r="F10" s="38">
         <f t="shared" si="0"/>
-        <v>2153.5039999999999</v>
-      </c>
-      <c r="G10" s="41">
+        <v>3460</v>
+      </c>
+      <c r="G10" s="38">
         <f t="shared" si="2"/>
-        <v>51684.095999999998</v>
+        <v>83040</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -2353,13 +2370,13 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="F11" s="42">
+      <c r="F11" s="39">
         <f>SUM(F3:F10)</f>
-        <v>209439.15599999999</v>
-      </c>
-      <c r="G11" s="42">
+        <v>316674</v>
+      </c>
+      <c r="G11" s="39">
         <f>SUM(G3:G10)</f>
-        <v>5026539.743999999</v>
+        <v>7600176</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -2399,607 +2416,611 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="24" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="F16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="24" t="s">
+      <c r="I16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="24"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="5"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <f>IF(B22&gt;0,B22-1,0)</f>
         <v>2</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <f>34*C22+7*C23</f>
-        <v>12.7592</v>
-      </c>
-      <c r="D18" s="27" t="s">
+        <v>20.5</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <f>20*C3+8*C4+10*C5</f>
-        <v>7595</v>
-      </c>
-      <c r="F18" s="24">
+        <v>7518</v>
+      </c>
+      <c r="F18" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="45">
         <v>1989.41</v>
       </c>
-      <c r="H18" s="24">
-        <f>$J$2*G18</f>
-        <v>544.174851833606</v>
+      <c r="H18" s="22">
+        <f>$J$5*G18</f>
+        <v>725.08580897091713</v>
       </c>
       <c r="I18">
         <f>C18/F18</f>
-        <v>43.997241379310346</v>
-      </c>
-      <c r="J18" s="42">
+        <v>70.689655172413794</v>
+      </c>
+      <c r="J18" s="39">
         <f>E18+G18+H18</f>
-        <v>10128.584851833606</v>
-      </c>
-      <c r="K18" s="24"/>
+        <v>10232.495808970916</v>
+      </c>
+      <c r="K18" s="22"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="37" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="37">
+        <v>11</v>
+      </c>
+      <c r="H19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="39">
-        <v>10</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="38">
+      <c r="I19" s="36">
         <f>I18/G19</f>
-        <v>4.3997241379310346</v>
-      </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+        <v>6.4263322884012544</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="38">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="36">
         <f>I19*G19</f>
-        <v>43.997241379310346</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+        <v>70.689655172413794</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="22">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
       <c r="C22" s="4">
         <f>C27</f>
-        <v>0.31119999999999998</v>
-      </c>
-      <c r="D22" s="26" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="4">
         <f>40*C6+16*C7+34*J18</f>
-        <v>624259.88496234268</v>
+        <v>596704.85750501114</v>
       </c>
       <c r="F22" s="4">
         <v>1.67</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="45">
         <v>351.65</v>
       </c>
       <c r="H22" s="4">
-        <f>$J$2*G22</f>
-        <v>96.188863355109078</v>
+        <f>$J$5*G22</f>
+        <v>128.16685586411197</v>
       </c>
       <c r="I22">
         <f>C22/F22</f>
-        <v>0.18634730538922156</v>
-      </c>
-      <c r="J22" s="42">
+        <v>0.29940119760479045</v>
+      </c>
+      <c r="J22" s="39">
         <f>E22+G22+H22</f>
-        <v>624707.72382569779</v>
-      </c>
-      <c r="K22" s="24"/>
+        <v>597184.67436087527</v>
+      </c>
+      <c r="K22" s="22"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="22">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
       <c r="C23" s="4">
         <f>C27</f>
-        <v>0.31119999999999998</v>
-      </c>
-      <c r="D23" s="26" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="4">
         <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
-        <v>152622.09396283524</v>
+        <v>147937.4706627964</v>
       </c>
       <c r="F23" s="4">
         <v>0.33</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="45">
         <v>1758.23</v>
       </c>
       <c r="H23" s="4">
-        <f>$J$2*G23</f>
-        <v>480.93884605958607</v>
+        <f>$J$5*G23</f>
+        <v>640.82698986480193</v>
       </c>
       <c r="I23">
         <f>C23/F23</f>
-        <v>0.94303030303030289</v>
-      </c>
-      <c r="J23" s="42">
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="J23" s="39">
         <f>E23+G23+H23</f>
-        <v>154861.26280889483</v>
-      </c>
-      <c r="K23" s="24"/>
+        <v>150336.52765266123</v>
+      </c>
+      <c r="K23" s="22"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="37" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="37">
+        <v>1</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="39">
-        <v>1</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="38">
+      <c r="I24" s="36">
         <f>(I22+I23)/G24</f>
-        <v>1.1293776084195244</v>
-      </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+        <v>1.8145527127563055</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="38">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="36">
         <f>I24*G24</f>
-        <v>1.1293776084195244</v>
-      </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+        <v>1.8145527127563055</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="12">
         <v>4</v>
       </c>
       <c r="C27" s="12">
-        <v>0.31119999999999998</v>
-      </c>
-      <c r="D27" s="27" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="22">
         <f>J22+J23</f>
-        <v>779568.98663459264</v>
-      </c>
-      <c r="F27" s="24">
+        <v>747521.20201353647</v>
+      </c>
+      <c r="F27" s="22">
         <v>0.24</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="45">
         <v>3170.85</v>
       </c>
-      <c r="H27" s="24">
-        <f>$J$2*G27</f>
-        <v>867.34098498378387</v>
+      <c r="H27" s="22">
+        <f>$J$5*G27</f>
+        <v>1155.6885395043919</v>
       </c>
       <c r="I27">
         <f>C27/F27</f>
-        <v>1.2966666666666666</v>
-      </c>
-      <c r="J27" s="42">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="J27" s="39">
         <f>E27+G27+H27</f>
-        <v>783607.17761957645</v>
+        <v>751847.74055304087</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="26"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="37">
+        <v>1</v>
+      </c>
+      <c r="H28" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="39">
-        <v>1</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="38">
+      <c r="I28" s="36">
         <f>I27/G28</f>
-        <v>1.2966666666666666</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="26"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="38">
+      <c r="H29" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="36">
         <f>I28*G28</f>
-        <v>1.2966666666666666</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="A30" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>118</v>
+      <c r="A31" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="B31" s="12">
         <v>10</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="24">
+      <c r="C31" s="22"/>
+      <c r="D31" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="50">
         <f>J27</f>
-        <v>783607.17761957645</v>
-      </c>
-      <c r="F31" s="24">
+        <v>751847.74055304087</v>
+      </c>
+      <c r="F31" s="22">
+        <f>1/(128/(2^(B31-1)))</f>
         <v>4</v>
       </c>
-      <c r="G31" s="40">
-        <f>518*B31*(128/(2^(B31-1)))</f>
-        <v>1295</v>
-      </c>
-      <c r="H31" s="24">
-        <f>G31*J2</f>
-        <v>354.22885836731484</v>
+      <c r="G31" s="45">
+        <v>518</v>
+      </c>
+      <c r="H31" s="46">
+        <f>G31*J5</f>
+        <v>188.79690413084032</v>
       </c>
       <c r="I31">
-        <f>C27/F31</f>
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="J31" s="42">
-        <f>E31+G31+H31</f>
-        <v>785256.40647794376</v>
+        <f>C28/F31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="39">
+        <f>E31+(H31+G31)/F31</f>
+        <v>752024.43977907358</v>
       </c>
       <c r="K31" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="26"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="39">
+      <c r="F32" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="37">
         <v>1</v>
       </c>
-      <c r="H32" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I32" s="38">
-        <f>(I31)/G32</f>
-        <v>7.7799999999999994E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="26"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="38" t="s">
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="38">
-        <f>I32*G32</f>
-        <v>7.7799999999999994E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="26"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="24"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24" t="s">
-        <v>105</v>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="C35" s="12">
         <f>790000+15000*B27</f>
         <v>850000</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="24">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="22">
         <f>24*C27</f>
-        <v>7.4687999999999999</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="39">
+        <f>(C35-J27)*C27</f>
+        <v>49076.129723479564</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="42">
-        <f>(C35-J27)*C27</f>
-        <v>20661.446324787805</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="42">
+      <c r="C38" s="39">
         <f>C37*24</f>
-        <v>495874.71179490734</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24" t="s">
+        <v>1177827.1133635095</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="K40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="12">
+        <v>316</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="K41" s="48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="12">
-        <v>307</v>
-      </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24" t="s">
+      <c r="C42" s="22">
+        <v>2800</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="K42" s="49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="24">
-        <v>2800</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="24">
+      <c r="C43" s="22">
         <f>(0.5)^(B27+1)</f>
         <v>3.125E-2</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
-        <v>113</v>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="K43" s="47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="C44" s="1">
         <f>C41*C42*(1-C43)</f>
-        <v>832737.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
+        <v>857150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="40">
+        <f>(C44-J31)*C27</f>
+        <v>52562.780110463209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="43">
-        <f>(C44-J31)*C27</f>
-        <v>14776.1163040639</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="43">
+      <c r="C46" s="40">
         <f>C45*24</f>
-        <v>354626.79129753361</v>
+        <v>1261506.722651117</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3267,7 @@
       <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="22" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="4"/>
@@ -3265,13 +3286,13 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="4">
@@ -3303,13 +3324,13 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="4">
@@ -3365,13 +3386,13 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="4">
@@ -3427,13 +3448,13 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="4">
@@ -3489,13 +3510,13 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="4">
         <v>2000</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="4">
@@ -3834,7 +3855,7 @@
       <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="22" t="s">
         <v>55</v>
       </c>
       <c r="I22" s="4"/>
@@ -3853,13 +3874,13 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="4">
@@ -3891,13 +3912,13 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="4">
@@ -3953,13 +3974,13 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="4">
@@ -4015,13 +4036,13 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="4">
@@ -4077,13 +4098,13 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B34" s="4">
         <v>1000</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D34" s="4">
@@ -4408,7 +4429,7 @@
       <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="22" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4425,13 +4446,13 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="4">
@@ -4462,13 +4483,13 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="4">
@@ -4521,13 +4542,13 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="4">
@@ -4580,13 +4601,13 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="4">
         <v>2</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="4">
@@ -4639,13 +4660,13 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="22">
         <v>100</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="24" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="4">
@@ -4944,8 +4965,8 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -4964,18 +4985,18 @@
       <c r="H22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="22" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4989,14 +5010,14 @@
       <c r="A24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="29">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="4">
@@ -5025,7 +5046,7 @@
         <f>1/F24*40</f>
         <v>10.899182561307903</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="19">
         <f t="shared" ref="N24:N27" si="1">L24/$M$41</f>
         <v>6.5144391691523473E-2</v>
       </c>
@@ -5034,14 +5055,14 @@
       <c r="A25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="29">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>1</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="24" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="4">
@@ -5070,23 +5091,23 @@
         <f>1/F25*(16+6)</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="19">
         <f t="shared" si="1"/>
         <v>2.6298790925868024E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="29">
         <f>IF(B28&gt;0,B28-1,0)</f>
         <v>3</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="24" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="4">
@@ -5115,23 +5136,23 @@
         <f>1/F26*10</f>
         <v>0.74962518740629691</v>
       </c>
-      <c r="N26" s="21">
+      <c r="N26" s="19">
         <f t="shared" si="1"/>
         <v>4.4805081991733725E-3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="29">
         <f>IF(B38&gt;0,B38-1,0)</f>
         <v>4</v>
       </c>
       <c r="C27" s="4">
         <v>100</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="4">
@@ -5157,23 +5178,23 @@
         <f>1/F27</f>
         <v>0.5988023952095809</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N27" s="19">
         <f t="shared" si="1"/>
         <v>3.5790406812558555E-3</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="29">
         <f>IF(B38&gt;0,B38-1,0)</f>
         <v>4</v>
       </c>
       <c r="C28" s="4">
         <v>100</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="4">
@@ -5200,14 +5221,14 @@
         <v>3.0303030303030303</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="21">
+      <c r="N28" s="19">
         <f>L28/$M$41</f>
         <v>1.8112114962719025E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -5223,16 +5244,16 @@
         <f>SUM(L24:L28)</f>
         <v>19.677913174226813</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="20">
         <f>M29/$M$41</f>
         <v>0.11761484646053975</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -5242,20 +5263,20 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="21"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="29">
         <f>IF(B28&gt;0,B28-1,0)</f>
         <v>3</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="4">
@@ -5285,23 +5306,23 @@
         <v>0.78125</v>
       </c>
       <c r="M31" s="4"/>
-      <c r="N31" s="21">
+      <c r="N31" s="19">
         <f t="shared" ref="N31:N32" si="3">L31/$M$41</f>
         <v>4.6695296388259986E-3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="29">
         <f>IF(B28&gt;0,B28-1,0)</f>
         <v>3</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="4">
@@ -5331,14 +5352,14 @@
         <v>1.3029315960912053</v>
       </c>
       <c r="M32" s="3"/>
-      <c r="N32" s="21">
+      <c r="N32" s="19">
         <f t="shared" si="3"/>
         <v>7.7876194627977567E-3</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -5354,16 +5375,16 @@
         <f>SUM(L31:L32)</f>
         <v>2.0841815960912053</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="20">
         <f t="shared" ref="N33:N39" si="4">M33/$M$41</f>
         <v>1.2457149101623755E-2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -5373,20 +5394,20 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="21"/>
+      <c r="N34" s="19"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="29">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="22">
         <v>1</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="4">
@@ -5416,14 +5437,14 @@
         <v>141.37931034482759</v>
       </c>
       <c r="M35" s="6"/>
-      <c r="N35" s="21">
+      <c r="N35" s="19">
         <f t="shared" ref="N35" si="5">L35/$M$41</f>
         <v>0.84502384636409789</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -5439,16 +5460,16 @@
         <f>SUM(L35)</f>
         <v>141.37931034482759</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="20">
         <f t="shared" si="4"/>
         <v>0.84502384636409789</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -5457,10 +5478,10 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="N37" s="21"/>
+      <c r="N37" s="19"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="28" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="12">
@@ -5469,7 +5490,7 @@
       <c r="C38" s="4">
         <v>2000</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="24" t="s">
         <v>48</v>
       </c>
       <c r="E38" s="4">
@@ -5496,7 +5517,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="M38" s="3"/>
-      <c r="N38" s="21">
+      <c r="N38" s="19">
         <f t="shared" ref="N38" si="6">L38/$M$41</f>
         <v>2.490415807373866E-2</v>
       </c>
@@ -5519,7 +5540,7 @@
         <f>SUM(L38)</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="N39" s="22">
+      <c r="N39" s="20">
         <f t="shared" si="4"/>
         <v>2.490415807373866E-2</v>
       </c>
@@ -5575,15 +5596,15 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="4" t="s">
         <v>88</v>
       </c>
@@ -5591,32 +5612,32 @@
         <f>346*0.985</f>
         <v>340.81</v>
       </c>
-      <c r="D45" s="20"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="4">
         <v>2800</v>
       </c>
-      <c r="D46" s="20"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="20"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="20"/>
+      <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -5625,12 +5646,12 @@
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="18">
+      <c r="A50" s="16">
         <v>0</v>
       </c>
       <c r="B50" s="4">
@@ -5638,10 +5659,10 @@
         <v>477134</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="20"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="A51" s="16">
         <v>1</v>
       </c>
       <c r="B51" s="4">
@@ -5652,10 +5673,10 @@
         <f>B51-B50</f>
         <v>238567</v>
       </c>
-      <c r="D51" s="20"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
+      <c r="A52" s="16">
         <v>2</v>
       </c>
       <c r="B52" s="4">
@@ -5666,13 +5687,13 @@
         <f t="shared" ref="C52:D60" si="8">B52-B51</f>
         <v>119283.5</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="18">
         <f>C52-C51</f>
         <v>-119283.5</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="18">
+      <c r="A53" s="16">
         <v>3</v>
       </c>
       <c r="B53" s="4">
@@ -5683,13 +5704,13 @@
         <f t="shared" si="8"/>
         <v>59641.75</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="18">
         <f t="shared" si="8"/>
         <v>-59641.75</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="A54" s="16">
         <v>4</v>
       </c>
       <c r="B54" s="4">
@@ -5700,13 +5721,13 @@
         <f t="shared" si="8"/>
         <v>29820.875</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="18">
         <f t="shared" si="8"/>
         <v>-29820.875</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="18">
+      <c r="A55" s="16">
         <v>5</v>
       </c>
       <c r="B55" s="4">
@@ -5717,13 +5738,13 @@
         <f t="shared" si="8"/>
         <v>14910.4375</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="18">
         <f t="shared" si="8"/>
         <v>-14910.4375</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="18">
+      <c r="A56" s="16">
         <v>6</v>
       </c>
       <c r="B56" s="4">
@@ -5734,13 +5755,13 @@
         <f t="shared" si="8"/>
         <v>7455.21875</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="18">
         <f t="shared" si="8"/>
         <v>-7455.21875</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="18">
+      <c r="A57" s="16">
         <v>7</v>
       </c>
       <c r="B57" s="4">
@@ -5751,13 +5772,13 @@
         <f t="shared" si="8"/>
         <v>3727.609375</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="18">
         <f t="shared" si="8"/>
         <v>-3727.609375</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
+      <c r="A58" s="16">
         <v>8</v>
       </c>
       <c r="B58" s="4">
@@ -5768,13 +5789,13 @@
         <f t="shared" si="8"/>
         <v>1863.8046875</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="18">
         <f t="shared" si="8"/>
         <v>-1863.8046875</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="18">
+      <c r="A59" s="16">
         <v>9</v>
       </c>
       <c r="B59" s="4">
@@ -5785,13 +5806,13 @@
         <f t="shared" si="8"/>
         <v>931.90234375</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <f t="shared" si="8"/>
         <v>-931.90234375</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
+      <c r="A60" s="17">
         <v>10</v>
       </c>
       <c r="B60" s="3">
@@ -5802,7 +5823,7 @@
         <f t="shared" si="8"/>
         <v>465.951171875</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="21">
         <f t="shared" si="8"/>
         <v>-465.951171875</v>
       </c>
@@ -6109,7 +6130,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -6176,7 +6197,7 @@
       <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="22" t="s">
         <v>55</v>
       </c>
       <c r="K22" t="s">
@@ -6187,7 +6208,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="4"/>
@@ -6199,13 +6220,13 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="4">
@@ -6232,13 +6253,13 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="4">
@@ -6265,13 +6286,13 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="4">
         <v>20</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="24" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="4">
@@ -6320,7 +6341,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4"/>
@@ -6332,13 +6353,13 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="4">
@@ -6365,13 +6386,13 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="30" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="4">
@@ -6399,7 +6420,7 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -6420,7 +6441,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="4"/>
@@ -6432,13 +6453,13 @@
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="33" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="4">
@@ -6465,13 +6486,13 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="4">
@@ -6520,7 +6541,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="4"/>
@@ -6532,13 +6553,13 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="34" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="4">
         <v>20</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="4">
@@ -6740,15 +6761,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -6772,31 +6793,31 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>100</v>
+      <c r="B2" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="22" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="4">
-        <f>I13/170</f>
-        <v>0.38240000000000007</v>
+        <f>I15/170</f>
+        <v>0.42596348884381346</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6808,30 +6829,34 @@
         <v>2</v>
       </c>
       <c r="C3" s="12">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="D3" s="4">
         <f>20*C13</f>
-        <v>377.04640000000006</v>
+        <v>420</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>9049.1136000000006</v>
-      </c>
-      <c r="F3" s="41">
+        <v>10080</v>
+      </c>
+      <c r="F3" s="38">
         <f>D3*C3</f>
-        <v>3958.9872000000005</v>
-      </c>
-      <c r="G3" s="41">
+        <v>4578</v>
+      </c>
+      <c r="G3" s="38">
         <f>F3*24</f>
-        <v>95015.692800000019</v>
+        <v>109872</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J3" s="12">
-        <v>14</v>
+        <v>26.75</v>
+      </c>
+      <c r="K3">
+        <f>18+(16+7+12)/4</f>
+        <v>26.75</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6847,30 +6872,30 @@
       </c>
       <c r="D4" s="4">
         <f>8*C13</f>
-        <v>150.81856000000002</v>
+        <v>168</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E5" si="0">D4*24</f>
-        <v>3619.6454400000002</v>
-      </c>
-      <c r="F4" s="41">
+        <v>4032</v>
+      </c>
+      <c r="F4" s="38">
         <f>D4*C4</f>
-        <v>134228.51840000003</v>
-      </c>
-      <c r="G4" s="41">
+        <v>149520</v>
+      </c>
+      <c r="G4" s="38">
         <f t="shared" ref="G4:G5" si="1">F4*24</f>
-        <v>3221484.4416000005</v>
+        <v>3588480</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J4">
         <f>J3*J2/100</f>
-        <v>5.3536000000000007E-2</v>
+        <v>0.11394523326572009</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6886,46 +6911,46 @@
       </c>
       <c r="D5" s="4">
         <f>10*C13</f>
-        <v>188.52320000000003</v>
+        <v>210</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4524.5568000000003</v>
-      </c>
-      <c r="F5" s="41">
+        <v>5040</v>
+      </c>
+      <c r="F5" s="38">
         <f>D5*C5</f>
-        <v>3393.4176000000007</v>
-      </c>
-      <c r="G5" s="41">
+        <v>3780</v>
+      </c>
+      <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>81442.022400000016</v>
+        <v>90720</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J5" s="4">
         <f>J2-J4</f>
-        <v>0.32886400000000005</v>
+        <v>0.31201825557809337</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>125</v>
+      <c r="A6" s="22" t="s">
+        <v>123</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="F6" s="41">
+      <c r="F6" s="38">
         <f>(G13+H13)*C13</f>
-        <v>49839.036255390165</v>
-      </c>
-      <c r="G6" s="41">
+        <v>63287.824594320489</v>
+      </c>
+      <c r="G6" s="38">
         <f>F6*24</f>
-        <v>1196136.8701293641</v>
+        <v>1518907.7902636917</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -6934,13 +6959,13 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="F7" s="42">
+      <c r="F7" s="39">
         <f>SUM(F3:F6)</f>
-        <v>191419.95945539017</v>
-      </c>
-      <c r="G7" s="42">
+        <v>221165.8245943205</v>
+      </c>
+      <c r="G7" s="39">
         <f>SUM(G3:G6)</f>
-        <v>4594079.0269293645</v>
+        <v>5307979.7902636919</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -6972,225 +6997,250 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="24" t="s">
+      <c r="I11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="24"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="12">
         <v>3</v>
       </c>
       <c r="C13" s="12">
-        <v>18.852320000000002</v>
-      </c>
-      <c r="D13" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <f>20*C3+8*C4+10*C5</f>
-        <v>7510</v>
-      </c>
-      <c r="F13" s="24">
+        <v>7518</v>
+      </c>
+      <c r="F13" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G13" s="24">
-        <v>1989.41</v>
-      </c>
-      <c r="H13" s="24">
+      <c r="G13" s="44">
+        <v>2297</v>
+      </c>
+      <c r="H13" s="22">
         <f>$J$5*G13</f>
-        <v>654.24533024000016</v>
+        <v>716.70593306288049</v>
       </c>
       <c r="I13">
         <f>C13/F13</f>
-        <v>65.00800000000001</v>
-      </c>
-      <c r="J13" s="42">
+        <v>72.413793103448285</v>
+      </c>
+      <c r="J13" s="39">
         <f>E13+G13+H13</f>
-        <v>10153.655330240001</v>
-      </c>
-      <c r="K13" s="24"/>
+        <v>10531.70593306288</v>
+      </c>
+      <c r="K13" s="22"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="37" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="37">
+        <v>14</v>
+      </c>
+      <c r="H14" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="39">
-        <v>13</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="38">
+      <c r="I14" s="36">
         <f>I13/G14</f>
-        <v>5.0006153846153856</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24" t="s">
-        <v>104</v>
+        <v>5.1724137931034493</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="H15" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="38">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="H15" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="36">
         <f>I14*G14</f>
-        <v>65.00800000000001</v>
+        <v>72.413793103448285</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="12">
+        <v>11800</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="22">
+        <f>C13*24</f>
+        <v>504</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="12">
-        <v>11300</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="24">
-        <f>C13*24</f>
-        <v>452.45568000000003</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24" t="s">
+      <c r="C19" s="39">
+        <f>(C17-J13)*C13</f>
+        <v>26634.175405679522</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="42">
-        <f>(C17-J13)*C13</f>
-        <v>21611.256544609834</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="42">
+      <c r="C20" s="39">
         <f>C19*24</f>
-        <v>518670.15707063605</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>639220.20973630855</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="45">
+        <v>143</v>
+      </c>
+      <c r="B29" s="42">
         <v>105000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="46">
+        <v>144</v>
+      </c>
+      <c r="B30" s="43">
         <f>((I14+1)*I14/2+1)*B29*G14</f>
-        <v>21844620.258461546</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24935814.506539837</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="21">
+        <v>148</v>
+      </c>
+      <c r="B31" s="19">
         <f>C20/B30</f>
-        <v>2.3743610597658633E-2</v>
+        <v>2.5634623227112244E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7234,8 +7284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7266,31 +7316,31 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>100</v>
+      <c r="B2" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14">
-        <f>SUM(I20,I25)/170</f>
-        <v>0.30166743596412232</v>
+      <c r="J2" s="4">
+        <f>(I20+I25)/170</f>
+        <v>0.42649534050100063</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -7306,21 +7356,27 @@
       </c>
       <c r="D3" s="4">
         <f>20*C18</f>
-        <v>289.99999999999994</v>
+        <v>410</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>6959.9999999999982</v>
-      </c>
-      <c r="F3" s="41">
+        <v>9840</v>
+      </c>
+      <c r="F3" s="38">
         <f t="shared" ref="F3:F10" si="0">D3*C3</f>
-        <v>3160.9999999999995</v>
-      </c>
-      <c r="G3" s="41">
+        <v>4469</v>
+      </c>
+      <c r="G3" s="38">
         <f>F3*24</f>
-        <v>75863.999999999985</v>
+        <v>107256</v>
       </c>
       <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="12">
+        <v>26.75</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -7331,27 +7387,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="12">
-        <v>820</v>
+        <v>890</v>
       </c>
       <c r="D4" s="4">
         <f>8*C18</f>
-        <v>115.99999999999997</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E10" si="1">D4*24</f>
-        <v>2783.9999999999991</v>
-      </c>
-      <c r="F4" s="41">
+        <v>3936</v>
+      </c>
+      <c r="F4" s="38">
         <f t="shared" si="0"/>
-        <v>95119.999999999971</v>
-      </c>
-      <c r="G4" s="41">
+        <v>145960</v>
+      </c>
+      <c r="G4" s="38">
         <f t="shared" ref="G4:G10" si="2">F4*24</f>
-        <v>2282879.9999999991</v>
+        <v>3503040</v>
       </c>
       <c r="H4" s="4"/>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4">
+        <f>J3*J2/100</f>
+        <v>0.11408750358401766</v>
+      </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -7363,34 +7426,41 @@
         <v>1</v>
       </c>
       <c r="C5" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4">
         <f>10*C18</f>
-        <v>144.99999999999997</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>3479.9999999999991</v>
-      </c>
-      <c r="F5" s="41">
+        <v>4920</v>
+      </c>
+      <c r="F5" s="38">
         <f t="shared" si="0"/>
-        <v>2754.9999999999995</v>
-      </c>
-      <c r="G5" s="41">
+        <v>3690</v>
+      </c>
+      <c r="G5" s="38">
         <f t="shared" si="2"/>
-        <v>66119.999999999985</v>
+        <v>88560</v>
       </c>
       <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="4">
+        <f>J2-J4</f>
+        <v>0.31240783691698298</v>
+      </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <f>IF(B22&gt;0,B22-1,0)</f>
         <v>2</v>
       </c>
@@ -7399,27 +7469,27 @@
       </c>
       <c r="D6" s="4">
         <f>40*C22</f>
-        <v>14.146341463414631</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>339.51219512195115</v>
-      </c>
-      <c r="F6" s="41">
+        <v>480</v>
+      </c>
+      <c r="F6" s="38">
         <f t="shared" si="0"/>
-        <v>38195.121951219502</v>
-      </c>
-      <c r="G6" s="41">
+        <v>54000</v>
+      </c>
+      <c r="G6" s="38">
         <f t="shared" si="2"/>
-        <v>916682.92682926799</v>
+        <v>1296000</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
@@ -7428,27 +7498,27 @@
       </c>
       <c r="D7" s="4">
         <f>16*C22+C23*6</f>
-        <v>7.7804878048780477</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>186.73170731707313</v>
-      </c>
-      <c r="F7" s="41">
+        <v>264</v>
+      </c>
+      <c r="F7" s="38">
         <f t="shared" si="0"/>
-        <v>68468.292682926825</v>
-      </c>
-      <c r="G7" s="41">
+        <v>96800</v>
+      </c>
+      <c r="G7" s="38">
         <f t="shared" si="2"/>
-        <v>1643239.0243902439</v>
+        <v>2323200</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
@@ -7457,33 +7527,33 @@
       </c>
       <c r="D8" s="4">
         <f>2*C23</f>
-        <v>0.70731707317073156</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>16.975609756097558</v>
-      </c>
-      <c r="F8" s="41">
+        <v>24</v>
+      </c>
+      <c r="F8" s="38">
         <f t="shared" si="0"/>
-        <v>3939.7560975609749</v>
-      </c>
-      <c r="G8" s="41">
+        <v>5570</v>
+      </c>
+      <c r="G8" s="38">
         <f t="shared" si="2"/>
-        <v>94554.146341463405</v>
+        <v>133680</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="s">
         <v>102</v>
       </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
@@ -7492,27 +7562,27 @@
       </c>
       <c r="D9" s="4">
         <f>10*C23</f>
-        <v>3.5365853658536577</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>84.878048780487788</v>
-      </c>
-      <c r="F9" s="41">
+        <v>120</v>
+      </c>
+      <c r="F9" s="38">
         <f t="shared" si="0"/>
-        <v>1927.4390243902435</v>
-      </c>
-      <c r="G9" s="41">
+        <v>2725</v>
+      </c>
+      <c r="G9" s="38">
         <f t="shared" si="2"/>
-        <v>46258.536585365844</v>
+        <v>65400</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="24">
+      <c r="A10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
@@ -7521,19 +7591,19 @@
       </c>
       <c r="D10" s="4">
         <f>4*C23</f>
-        <v>1.4146341463414631</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>33.951219512195117</v>
-      </c>
-      <c r="F10" s="41">
+        <v>48</v>
+      </c>
+      <c r="F10" s="38">
         <f t="shared" si="0"/>
-        <v>2447.3170731707314</v>
-      </c>
-      <c r="G10" s="41">
+        <v>3460</v>
+      </c>
+      <c r="G10" s="38">
         <f t="shared" si="2"/>
-        <v>58735.609756097554</v>
+        <v>83040</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -7542,13 +7612,13 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="F11" s="42">
+      <c r="F11" s="39">
         <f>SUM(F3:F10)</f>
-        <v>216013.92682926828</v>
-      </c>
-      <c r="G11" s="42">
+        <v>316674</v>
+      </c>
+      <c r="G11" s="39">
         <f>F11*24</f>
-        <v>5184334.2439024393</v>
+        <v>7600176</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -7588,602 +7658,613 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="24" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="F16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="24" t="s">
+      <c r="I16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="24"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="5"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <f>IF(B22&gt;0,B22-1,0)</f>
         <v>2</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <f>34*C22+7*C23</f>
-        <v>14.499999999999996</v>
-      </c>
-      <c r="D18" s="27" t="s">
+        <v>20.5</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <f>20*C3+8*C4+10*C5</f>
-        <v>6968</v>
-      </c>
-      <c r="F18" s="24">
+        <v>7518</v>
+      </c>
+      <c r="F18" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G18" s="24">
-        <v>1989.41</v>
-      </c>
-      <c r="H18" s="24">
-        <f>$J$2*G18</f>
-        <v>600.14021378138466</v>
+      <c r="G18" s="44">
+        <v>2300</v>
+      </c>
+      <c r="H18" s="22">
+        <f>$J$5*G18</f>
+        <v>718.53802490906082</v>
       </c>
       <c r="I18">
         <f>C18/F18</f>
-        <v>49.999999999999993</v>
-      </c>
-      <c r="J18" s="42">
+        <v>70.689655172413794</v>
+      </c>
+      <c r="J18" s="39">
         <f>E18+G18+H18</f>
-        <v>9557.5502137813837</v>
-      </c>
-      <c r="K18" s="24"/>
+        <v>10536.538024909061</v>
+      </c>
+      <c r="K18" s="22"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="37" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="37">
+        <v>13</v>
+      </c>
+      <c r="H19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="39">
-        <v>12</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="38">
+      <c r="I19" s="36">
         <f>I18/G19</f>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+        <v>5.4376657824933687</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="38">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="36">
         <f>I19*G19</f>
-        <v>49.999999999999993</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+        <v>70.689655172413794</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="22">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
       <c r="C22" s="4">
         <f>C27</f>
-        <v>0.35365853658536578</v>
-      </c>
-      <c r="D22" s="26" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="4">
         <f>40*C6+16*C7+34*J18</f>
-        <v>573756.70726856706</v>
+        <v>607042.29284690809</v>
       </c>
       <c r="F22" s="4">
         <v>1.67</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="44">
         <v>351.65</v>
       </c>
       <c r="H22" s="4">
-        <f>$J$2*G22</f>
-        <v>106.08135385678361</v>
+        <f>$J$5*G22</f>
+        <v>109.85821585185705</v>
       </c>
       <c r="I22">
         <f>C22/F22</f>
-        <v>0.2117715787936322</v>
-      </c>
-      <c r="J22" s="42">
+        <v>0.29940119760479045</v>
+      </c>
+      <c r="J22" s="39">
         <f>E22+G22+H22</f>
-        <v>574214.43862242391</v>
-      </c>
-      <c r="K22" s="24"/>
+        <v>607503.80106275994</v>
+      </c>
+      <c r="K22" s="22"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="22">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
       <c r="C23" s="4">
         <f>C27</f>
-        <v>0.35365853658536578</v>
-      </c>
-      <c r="D23" s="26" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="4">
         <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
-        <v>143212.8514964697</v>
+        <v>150065.76617436344</v>
       </c>
       <c r="F23" s="4">
         <v>0.33</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="44">
         <v>1758.23</v>
       </c>
       <c r="H23" s="4">
-        <f>$J$2*G23</f>
-        <v>530.40073593519878</v>
+        <f>$J$5*G23</f>
+        <v>549.28483110254695</v>
       </c>
       <c r="I23">
         <f>C23/F23</f>
-        <v>1.0716925351071689</v>
-      </c>
-      <c r="J23" s="42">
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="J23" s="39">
         <f>E23+G23+H23</f>
-        <v>145501.4822324049</v>
-      </c>
-      <c r="K23" s="24"/>
+        <v>152373.28100546601</v>
+      </c>
+      <c r="K23" s="22"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="37" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="37">
+        <v>1</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="39">
-        <v>1</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="38">
+      <c r="I24" s="36">
         <f>(I22+I23)/G24</f>
-        <v>1.2834641139008012</v>
-      </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+        <v>1.8145527127563055</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="38">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="36">
         <f>I24*G24</f>
-        <v>1.2834641139008012</v>
-      </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+        <v>1.8145527127563055</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>119</v>
+      <c r="A27" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="B27" s="12">
         <v>4</v>
       </c>
       <c r="C27" s="12">
-        <v>0.35365853658536578</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="22">
         <f>J22+J23</f>
-        <v>719715.92085482879</v>
-      </c>
-      <c r="F27" s="24">
+        <v>759877.08206822595</v>
+      </c>
+      <c r="F27" s="22">
         <f>C27</f>
-        <v>0.35365853658536578</v>
-      </c>
-      <c r="G27" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="22">
         <v>12500</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="22"/>
       <c r="I27">
         <f>C27/F27</f>
         <v>1</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="39">
         <f>E27+G27+H27</f>
-        <v>732215.92085482879</v>
+        <v>772377.08206822595</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="26"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="D29" s="26"/>
+      <c r="A29" s="22"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+      <c r="A30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="22"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="A32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="12">
+        <v>850000</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="22">
+        <f>24*C27</f>
+        <v>12</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="12">
-        <v>780000</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="24">
-        <f>24*C27</f>
-        <v>8.4878048780487791</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="C37" s="39">
+        <f>(C35-J27)*C27</f>
+        <v>38811.458965887025</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" t="s">
         <v>135</v>
       </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24" t="s">
+      <c r="I37" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="42">
-        <f>(C35-J27)*C27</f>
-        <v>16899.247502560549</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" t="s">
-        <v>138</v>
-      </c>
-      <c r="I37" t="s">
-        <v>139</v>
-      </c>
-      <c r="K37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="42">
+      <c r="C38" s="39">
         <f>C37*24</f>
-        <v>405581.94006145315</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24">
+        <v>931475.01518128859</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="48">
         <v>2426</v>
       </c>
-      <c r="G38" s="44">
+      <c r="G38" s="41">
         <f t="shared" ref="G38:H42" si="3">$J$27/2800/F52</f>
-        <v>301.82024767305393</v>
-      </c>
-      <c r="H38" s="44">
+        <v>318.37472467775183</v>
+      </c>
+      <c r="H38" s="41">
         <f t="shared" si="3"/>
-        <v>298.86364116523629</v>
+        <v>315.25595186458202</v>
       </c>
       <c r="I38">
         <f>(G38-H38)*$C$42</f>
-        <v>8278.4982218893892</v>
+        <v>8732.5638768754743</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="E39" s="24">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="E39" s="22">
         <v>3</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="48">
         <v>2604</v>
       </c>
-      <c r="G39" s="44">
+      <c r="G39" s="41">
         <f t="shared" si="3"/>
-        <v>281.18890969847496</v>
-      </c>
-      <c r="H39" s="44">
+        <v>296.61178266828949</v>
+      </c>
+      <c r="H39" s="41">
         <f t="shared" si="3"/>
-        <v>278.93939842088719</v>
+        <v>294.2388884069432</v>
       </c>
       <c r="I39">
         <f t="shared" ref="I39:I42" si="4">(G39-H39)*$C$42</f>
-        <v>6298.6315772457601</v>
+        <v>6644.1039317696095</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="E40" s="24">
+      <c r="B40" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="E40" s="22">
         <v>4</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="48">
         <v>2699</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="41">
         <f t="shared" si="3"/>
-        <v>271.29156015369722</v>
-      </c>
-      <c r="H40" s="44">
+        <v>286.17157542357387</v>
+      </c>
+      <c r="H40" s="41">
         <f t="shared" si="3"/>
-        <v>269.94135331053599</v>
+        <v>284.74731136155793</v>
       </c>
       <c r="I40">
         <f t="shared" si="4"/>
-        <v>3780.5791608514483</v>
+        <v>3987.9393736446218</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
-        <v>105</v>
+      <c r="B41" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="C41" s="12">
-        <v>282</v>
-      </c>
-      <c r="E41" s="24">
+        <v>316</v>
+      </c>
+      <c r="E41" s="22">
         <v>5</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="48">
         <v>2742</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="41">
         <f t="shared" si="3"/>
-        <v>267.03717026069614</v>
-      </c>
-      <c r="H41" s="44">
+        <v>281.68383736988545</v>
+      </c>
+      <c r="H41" s="41">
         <f t="shared" si="3"/>
-        <v>265.65656992465443</v>
+        <v>280.22751276851733</v>
       </c>
       <c r="I41">
         <f t="shared" si="4"/>
-        <v>3865.6809409167863</v>
+        <v>4077.7088838307463</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="24">
+      <c r="B42" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="22">
         <v>2800</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="22">
         <v>6</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="48">
         <v>2765</v>
       </c>
-      <c r="G42" s="44">
+      <c r="G42" s="41">
         <f t="shared" si="3"/>
-        <v>264.81588457679163</v>
-      </c>
-      <c r="H42" s="44">
+        <v>279.34071684203468</v>
+      </c>
+      <c r="H42" s="41">
         <f t="shared" si="3"/>
-        <v>263.56478590949968</v>
+        <v>278.02099691994636</v>
       </c>
       <c r="I42">
         <f t="shared" si="4"/>
-        <v>3503.0762684174761</v>
+        <v>3695.2157818473097</v>
+      </c>
+      <c r="K42" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="24">
+      <c r="B43" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="22">
         <f>LOOKUP(B27,E38:E42,F45:F49)</f>
         <v>3.6071428571428532E-2</v>
       </c>
+      <c r="K43" s="48" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
-        <v>113</v>
+      <c r="B44" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="C44" s="1">
         <f>C42*C41*(1-C43)</f>
-        <v>761118</v>
+        <v>852884</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G44" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="K44" s="49" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="43">
+      <c r="B45" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="40">
         <f>(C44-J27)*C27</f>
-        <v>10221.467014755672</v>
-      </c>
-      <c r="E45" s="24">
+        <v>40253.458965887025</v>
+      </c>
+      <c r="E45" s="22">
         <v>2</v>
       </c>
       <c r="F45">
@@ -8194,16 +8275,19 @@
         <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
+      <c r="K45" s="47" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="43">
+      <c r="B46" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="40">
         <f>C45*24</f>
-        <v>245315.20835413612</v>
-      </c>
-      <c r="E46" s="24">
+        <v>966083.01518128859</v>
+      </c>
+      <c r="E46" s="22">
         <v>3</v>
       </c>
       <c r="F46">
@@ -8216,7 +8300,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E47" s="24">
+      <c r="E47" s="22">
         <v>4</v>
       </c>
       <c r="F47">
@@ -8229,7 +8313,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E48" s="24">
+      <c r="E48" s="22">
         <v>5</v>
       </c>
       <c r="F48">
@@ -8242,7 +8326,7 @@
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="24">
+      <c r="E49" s="22">
         <v>6</v>
       </c>
       <c r="F49">
@@ -8256,14 +8340,14 @@
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="24">
+      <c r="E52" s="22">
         <v>2</v>
       </c>
       <c r="F52">
@@ -8276,7 +8360,7 @@
       </c>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="24">
+      <c r="E53" s="22">
         <v>3</v>
       </c>
       <c r="F53">
@@ -8289,7 +8373,7 @@
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="24">
+      <c r="E54" s="22">
         <v>4</v>
       </c>
       <c r="F54">
@@ -8302,7 +8386,7 @@
       </c>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="24">
+      <c r="E55" s="22">
         <v>5</v>
       </c>
       <c r="F55">
@@ -8315,7 +8399,7 @@
       </c>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="24">
+      <c r="E56" s="22">
         <v>6</v>
       </c>
       <c r="F56">
@@ -8368,8 +8452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8380,10 +8464,10 @@
     <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
     <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8400,31 +8484,31 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>100</v>
+      <c r="B2" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14">
-        <f>SUM(I20,I25,I32)/170</f>
-        <v>0.26590834698664634</v>
+      <c r="J2" s="4">
+        <f>(I20+I25+B30)/170</f>
+        <v>0.48531886991276529</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8436,25 +8520,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="12">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
       <c r="D3" s="4">
         <f>20*C18</f>
-        <v>255.184</v>
+        <v>410</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>6124.4160000000002</v>
-      </c>
-      <c r="F3" s="41">
+        <v>9840</v>
+      </c>
+      <c r="F3" s="38">
         <f t="shared" ref="F3:F10" si="0">D3*C3</f>
-        <v>2679.4319999999998</v>
-      </c>
-      <c r="G3" s="41">
+        <v>4469</v>
+      </c>
+      <c r="G3" s="38">
         <f>F3*24</f>
-        <v>64306.367999999995</v>
+        <v>107256</v>
       </c>
       <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="12">
+        <v>26.75</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -8465,27 +8555,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="12">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="D4" s="4">
         <f>8*C18</f>
-        <v>102.0736</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E10" si="1">D4*24</f>
-        <v>2449.7664</v>
-      </c>
-      <c r="F4" s="41">
+        <v>3936</v>
+      </c>
+      <c r="F4" s="38">
         <f t="shared" si="0"/>
-        <v>91866.240000000005</v>
-      </c>
-      <c r="G4" s="41">
+        <v>145960</v>
+      </c>
+      <c r="G4" s="38">
         <f t="shared" ref="G4:G10" si="2">F4*24</f>
-        <v>2204789.7600000002</v>
+        <v>3503040</v>
       </c>
       <c r="H4" s="4"/>
+      <c r="I4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4">
+        <f>J3*J2/100</f>
+        <v>0.12982279770166472</v>
+      </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -8497,94 +8594,99 @@
         <v>1</v>
       </c>
       <c r="C5" s="12">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4">
         <f>10*C18</f>
-        <v>127.592</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>3062.2080000000001</v>
-      </c>
-      <c r="F5" s="41">
+        <v>4920</v>
+      </c>
+      <c r="F5" s="38">
         <f t="shared" si="0"/>
-        <v>2360.4519999999998</v>
-      </c>
-      <c r="G5" s="41">
+        <v>3690</v>
+      </c>
+      <c r="G5" s="38">
         <f t="shared" si="2"/>
-        <v>56650.847999999998</v>
+        <v>88560</v>
       </c>
       <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J5" s="4">
+        <f>J2-J4</f>
+        <v>0.35549607221110058</v>
+      </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <f>IF(B22&gt;0,B22-1,0)</f>
         <v>2</v>
       </c>
       <c r="C6" s="12">
-        <f>3180*0.98</f>
-        <v>3116.4</v>
+        <v>2700</v>
       </c>
       <c r="D6" s="4">
         <f>40*C22</f>
-        <v>12.447999999999999</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>298.75199999999995</v>
-      </c>
-      <c r="F6" s="41">
+        <v>480</v>
+      </c>
+      <c r="F6" s="38">
         <f t="shared" si="0"/>
-        <v>38792.947199999995</v>
-      </c>
-      <c r="G6" s="41">
+        <v>54000</v>
+      </c>
+      <c r="G6" s="38">
         <f t="shared" si="2"/>
-        <v>931030.73279999988</v>
+        <v>1296000</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
       <c r="C7" s="12">
-        <f>9900*0.98</f>
-        <v>9702</v>
+        <v>8800</v>
       </c>
       <c r="D7" s="4">
         <f>16*C22+C23*6</f>
-        <v>6.8463999999999992</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>164.31359999999998</v>
-      </c>
-      <c r="F7" s="41">
+        <v>264</v>
+      </c>
+      <c r="F7" s="38">
         <f t="shared" si="0"/>
-        <v>66423.772799999992</v>
-      </c>
-      <c r="G7" s="41">
+        <v>96800</v>
+      </c>
+      <c r="G7" s="38">
         <f t="shared" si="2"/>
-        <v>1594170.5471999999</v>
+        <v>2323200</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
@@ -8593,33 +8695,33 @@
       </c>
       <c r="D8" s="4">
         <f>2*C23</f>
-        <v>0.62239999999999995</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>14.9376</v>
-      </c>
-      <c r="F8" s="41">
+        <v>24</v>
+      </c>
+      <c r="F8" s="38">
         <f t="shared" si="0"/>
-        <v>3466.7679999999996</v>
-      </c>
-      <c r="G8" s="41">
+        <v>5570</v>
+      </c>
+      <c r="G8" s="38">
         <f t="shared" si="2"/>
-        <v>83202.431999999986</v>
+        <v>133680</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="s">
         <v>102</v>
       </c>
-      <c r="M8" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
@@ -8628,27 +8730,27 @@
       </c>
       <c r="D9" s="4">
         <f>10*C23</f>
-        <v>3.1119999999999997</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>74.687999999999988</v>
-      </c>
-      <c r="F9" s="41">
+        <v>120</v>
+      </c>
+      <c r="F9" s="38">
         <f t="shared" si="0"/>
-        <v>1696.0399999999997</v>
-      </c>
-      <c r="G9" s="41">
+        <v>2725</v>
+      </c>
+      <c r="G9" s="38">
         <f t="shared" si="2"/>
-        <v>40704.959999999992</v>
+        <v>65400</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="24">
+      <c r="A10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="22">
         <f>IF(B23&gt;0,B23-1,0)</f>
         <v>2</v>
       </c>
@@ -8657,19 +8759,19 @@
       </c>
       <c r="D10" s="4">
         <f>4*C23</f>
-        <v>1.2447999999999999</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>29.8752</v>
-      </c>
-      <c r="F10" s="41">
+        <v>48</v>
+      </c>
+      <c r="F10" s="38">
         <f t="shared" si="0"/>
-        <v>2153.5039999999999</v>
-      </c>
-      <c r="G10" s="41">
+        <v>3460</v>
+      </c>
+      <c r="G10" s="38">
         <f t="shared" si="2"/>
-        <v>51684.095999999998</v>
+        <v>83040</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -8678,13 +8780,13 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="F11" s="42">
+      <c r="F11" s="39">
         <f>SUM(F3:F10)</f>
-        <v>209439.15599999999</v>
-      </c>
-      <c r="G11" s="42">
+        <v>316674</v>
+      </c>
+      <c r="G11" s="39">
         <f>F11*24</f>
-        <v>5026539.7439999999</v>
+        <v>7600176</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -8724,582 +8826,585 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="24" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="24" t="s">
+      <c r="F16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="24" t="s">
+      <c r="I16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="24"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="5"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <f>IF(B22&gt;0,B22-1,0)</f>
         <v>2</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <f>34*C22+7*C23</f>
-        <v>12.7592</v>
-      </c>
-      <c r="D18" s="27" t="s">
+        <v>20.5</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="22">
         <f>20*C3+8*C4+10*C5</f>
-        <v>7595</v>
-      </c>
-      <c r="F18" s="24">
+        <v>7518</v>
+      </c>
+      <c r="F18" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G18" s="24">
-        <v>1989.41</v>
-      </c>
-      <c r="H18" s="24">
-        <f>$J$2*G18</f>
-        <v>529.00072457870408</v>
+      <c r="G18" s="44">
+        <v>2300</v>
+      </c>
+      <c r="H18" s="22">
+        <f>$J$5*G18</f>
+        <v>817.64096608553132</v>
       </c>
       <c r="I18">
         <f>C18/F18</f>
-        <v>43.997241379310346</v>
-      </c>
-      <c r="J18" s="42">
+        <v>70.689655172413794</v>
+      </c>
+      <c r="J18" s="39">
         <f>E18+G18+H18</f>
-        <v>10113.410724578704</v>
-      </c>
-      <c r="K18" s="24"/>
+        <v>10635.640966085532</v>
+      </c>
+      <c r="K18" s="22"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="37" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="37">
+        <v>12</v>
+      </c>
+      <c r="H19" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="39">
-        <v>11</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="38">
+      <c r="I19" s="36">
         <f>I18/G19</f>
-        <v>3.9997492163009407</v>
-      </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+        <v>5.8908045977011492</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="38">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="36">
         <f>I19*G19</f>
-        <v>43.997241379310346</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+        <v>70.689655172413794</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="22">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
       <c r="C22" s="4">
         <f>C27</f>
-        <v>0.31119999999999998</v>
-      </c>
-      <c r="D22" s="26" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="4">
         <f>40*C6+16*C7+34*J18</f>
-        <v>623743.96463567601</v>
+        <v>610411.79284690809</v>
       </c>
       <c r="F22" s="4">
         <v>1.67</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="44">
         <v>351.65</v>
       </c>
       <c r="H22" s="4">
-        <f>$J$2*G22</f>
-        <v>93.506670217854179</v>
+        <f>$J$5*G22</f>
+        <v>125.01019379303351</v>
       </c>
       <c r="I22">
         <f>C22/F22</f>
-        <v>0.18634730538922156</v>
-      </c>
-      <c r="J22" s="42">
+        <v>0.29940119760479045</v>
+      </c>
+      <c r="J22" s="39">
         <f>E22+G22+H22</f>
-        <v>624189.12130589387</v>
-      </c>
-      <c r="K22" s="24"/>
+        <v>610888.4530407011</v>
+      </c>
+      <c r="K22" s="22"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="22">
         <f>IF(B27&gt;0,B27-1,0)</f>
         <v>3</v>
       </c>
       <c r="C23" s="4">
         <f>C27</f>
-        <v>0.31119999999999998</v>
-      </c>
-      <c r="D23" s="26" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="4">
         <f>2*C8+10*C9+4*C10+6*C7+7*J18</f>
-        <v>152515.87507205093</v>
+        <v>150759.48676259874</v>
       </c>
       <c r="F23" s="4">
         <v>0.33</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="44">
         <v>1758.23</v>
       </c>
       <c r="H23" s="4">
-        <f>$J$2*G23</f>
-        <v>467.52803292233119</v>
+        <f>$J$5*G23</f>
+        <v>625.04385904372339</v>
       </c>
       <c r="I23">
         <f>C23/F23</f>
-        <v>0.94303030303030289</v>
-      </c>
-      <c r="J23" s="42">
+        <v>1.5151515151515151</v>
+      </c>
+      <c r="J23" s="39">
         <f>E23+G23+H23</f>
-        <v>154741.63310497327</v>
-      </c>
-      <c r="K23" s="24"/>
+        <v>153142.76062164246</v>
+      </c>
+      <c r="K23" s="22"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="37" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="37">
+        <v>1</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="39">
-        <v>1</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="38">
+      <c r="I24" s="36">
         <f>(I22+I23)/G24</f>
-        <v>1.1293776084195244</v>
-      </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+        <v>1.8145527127563055</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="38">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="36">
         <f>I24*G24</f>
-        <v>1.1293776084195244</v>
-      </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+        <v>1.8145527127563055</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>119</v>
+      <c r="A27" s="22" t="s">
+        <v>117</v>
       </c>
       <c r="B27" s="12">
         <v>4</v>
       </c>
       <c r="C27" s="12">
-        <v>0.31119999999999998</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="22">
         <f>J22+J23</f>
-        <v>778930.75441086711</v>
-      </c>
-      <c r="F27" s="24">
+        <v>764031.21366234357</v>
+      </c>
+      <c r="F27" s="22">
         <f>C27</f>
-        <v>0.31119999999999998</v>
-      </c>
-      <c r="G27" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="44">
         <v>12500</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="22"/>
       <c r="I27">
         <f>C27/F27</f>
         <v>1</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="39">
         <f>E27+G27+H27</f>
-        <v>791430.75441086711</v>
+        <v>776531.21366234357</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="26"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="J29" s="24"/>
+      <c r="A29" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>118</v>
+      <c r="A30" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="B30" s="12">
-        <v>8</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="24">
+        <v>10</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="22">
         <f>J27</f>
-        <v>791430.75441086711</v>
-      </c>
-      <c r="F30" s="24">
+        <v>776531.21366234357</v>
+      </c>
+      <c r="F30" s="22">
+        <f>1/(128/(2^(B30-1)))</f>
         <v>4</v>
       </c>
-      <c r="G30" s="40">
-        <f>518*B30*(128/(2^(B30-1)))</f>
-        <v>4144</v>
-      </c>
-      <c r="H30" s="24">
-        <f>G30*J2</f>
-        <v>1101.9241899126623</v>
+      <c r="G30" s="45">
+        <v>518</v>
+      </c>
+      <c r="H30" s="46">
+        <f>G30*J5</f>
+        <v>184.1469654053501</v>
       </c>
       <c r="I30">
         <f>C27/F30</f>
-        <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="J30" s="42">
-        <f>E30+H30+G30</f>
-        <v>796676.67860077973</v>
+        <v>0.125</v>
+      </c>
+      <c r="J30" s="39">
+        <f>E30+(H30+G30)/F30</f>
+        <v>776706.75040369492</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="26"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="39">
+      <c r="F31" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="37">
         <v>1</v>
       </c>
-      <c r="H31" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="38">
-        <f>(I30)/G31</f>
-        <v>7.7799999999999994E-2</v>
-      </c>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
       <c r="L31" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="26"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="38">
-        <f>I31*G31</f>
-        <v>7.7799999999999994E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="24"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24" t="s">
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="12">
+        <v>850000</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="22">
+        <f>24*C27</f>
+        <v>12</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="12">
-        <f>780000+10000*B27</f>
-        <v>820000</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="24">
-        <f>24*C27</f>
-        <v>7.4687999999999999</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24" t="s">
+      <c r="C36" s="39">
+        <f>(C34-J27)*C27</f>
+        <v>36734.393168828217</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="I36" s="1"/>
+      <c r="K36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="42">
-        <f>(C34-J27)*C27</f>
-        <v>8890.749227338154</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="42">
+      <c r="C37" s="39">
         <f>C36*24</f>
-        <v>213377.9814561157</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24" t="s">
+        <v>881625.43605187722</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="K37" s="48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="K38" s="49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="K39" s="47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="12">
+        <v>316</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="12">
-        <v>307</v>
-      </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24" t="s">
+      <c r="C41" s="22">
+        <v>2800</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="24">
-        <v>2800</v>
-      </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="24">
+      <c r="C42" s="22">
         <f>(0.5)^(B27+1)</f>
         <v>3.125E-2</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
-        <v>113</v>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="C43" s="1">
         <f>C40*C41*(1-C42)</f>
-        <v>832737.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="24" t="s">
+        <v>857150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="40">
+        <f>(C43-J30)*C27</f>
+        <v>40221.624798152538</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="43">
-        <f>(C43-J30)*C27</f>
-        <v>11222.127619437346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="43">
+      <c r="C45" s="40">
         <f>C44*24</f>
-        <v>269331.06286649627</v>
+        <v>965318.9951556609</v>
       </c>
     </row>
   </sheetData>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Documents\GitHub\SimCompanies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Documents\SimCompanies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All of them" sheetId="12" r:id="rId1"/>
@@ -30,20 +30,20 @@
     <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Rocket production'!$B$31</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Rocket production'!$C$21</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">'Rocket production'!$C$20</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Rocket production'!$B$31</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="6" hidden="1">0.02</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">500000</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="161">
   <si>
     <t>Carbon composite</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t xml:space="preserve">Partial results or final results </t>
+  </si>
+  <si>
+    <t>gross profit</t>
+  </si>
+  <si>
+    <t>Labor</t>
   </si>
 </sst>
 </file>
@@ -549,8 +555,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -757,7 +763,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -798,19 +804,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -2042,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -6759,10 +6765,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6817,7 +6823,7 @@
       </c>
       <c r="J2" s="4">
         <f>I15/170</f>
-        <v>0.42596348884381346</v>
+        <v>0.40567951318458423</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6833,26 +6839,26 @@
       </c>
       <c r="D3" s="4">
         <f>20*C13</f>
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>10080</v>
+        <v>9600</v>
       </c>
       <c r="F3" s="38">
         <f>D3*C3</f>
-        <v>4578</v>
+        <v>4360</v>
       </c>
       <c r="G3" s="38">
         <f>F3*24</f>
-        <v>109872</v>
+        <v>104640</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
         <v>145</v>
       </c>
       <c r="J3" s="12">
-        <v>26.75</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <f>18+(16+7+12)/4</f>
@@ -6872,19 +6878,19 @@
       </c>
       <c r="D4" s="4">
         <f>8*C13</f>
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E5" si="0">D4*24</f>
-        <v>4032</v>
+        <v>3840</v>
       </c>
       <c r="F4" s="38">
         <f>D4*C4</f>
-        <v>149520</v>
+        <v>142400</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" ref="G4:G5" si="1">F4*24</f>
-        <v>3588480</v>
+        <v>3417600</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" t="s">
@@ -6892,7 +6898,7 @@
       </c>
       <c r="J4">
         <f>J3*J2/100</f>
-        <v>0.11394523326572009</v>
+        <v>0.1054766734279919</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -6911,19 +6917,19 @@
       </c>
       <c r="D5" s="4">
         <f>10*C13</f>
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>5040</v>
+        <v>4800</v>
       </c>
       <c r="F5" s="38">
         <f>D5*C5</f>
-        <v>3780</v>
+        <v>3600</v>
       </c>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>90720</v>
+        <v>86400</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
@@ -6931,7 +6937,7 @@
       </c>
       <c r="J5" s="4">
         <f>J2-J4</f>
-        <v>0.31201825557809337</v>
+        <v>0.30020283975659234</v>
       </c>
       <c r="L5" t="s">
         <v>97</v>
@@ -6939,33 +6945,35 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="F6" s="38">
         <f>(G13+H13)*C13</f>
-        <v>63287.824594320489</v>
+        <v>57755.010141987834</v>
       </c>
       <c r="G6" s="38">
         <f>F6*24</f>
-        <v>1518907.7902636917</v>
+        <v>1386120.2434077081</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="F7" s="39">
         <f>SUM(F3:F6)</f>
-        <v>221165.8245943205</v>
+        <v>208115.01014198782</v>
       </c>
       <c r="G7" s="39">
         <f>SUM(G3:G6)</f>
-        <v>5307979.7902636919</v>
+        <v>4994760.2434077077</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -7055,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>39</v>
@@ -7068,19 +7076,19 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G13" s="44">
-        <v>2297</v>
+        <v>2221</v>
       </c>
       <c r="H13" s="22">
         <f>$J$5*G13</f>
-        <v>716.70593306288049</v>
+        <v>666.7505070993916</v>
       </c>
       <c r="I13">
         <f>C13/F13</f>
-        <v>72.413793103448285</v>
+        <v>68.965517241379317</v>
       </c>
       <c r="J13" s="39">
         <f>E13+G13+H13</f>
-        <v>10531.70593306288</v>
+        <v>10405.750507099392</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="4"/>
@@ -7103,7 +7111,7 @@
       </c>
       <c r="I14" s="36">
         <f>I13/G14</f>
-        <v>5.1724137931034493</v>
+        <v>4.9261083743842367</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
@@ -7123,7 +7131,7 @@
       </c>
       <c r="I15" s="36">
         <f>I14*G14</f>
-        <v>72.413793103448285</v>
+        <v>68.965517241379317</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -7139,19 +7147,19 @@
         <v>104</v>
       </c>
       <c r="C17" s="12">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
-      <c r="B18" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="22">
-        <f>C13*24</f>
-        <v>504</v>
+      <c r="B18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="19">
+        <f>C21/C19/C17</f>
+        <v>9.5152129817444184E-2</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -7159,11 +7167,11 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="39">
-        <f>(C17-J13)*C13</f>
-        <v>26634.175405679522</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="22">
+        <f>C13*24</f>
+        <v>480</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -7171,19 +7179,24 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="39">
-        <f>C19*24</f>
-        <v>639220.20973630855</v>
+        <f>(C17-J13)*C13</f>
+        <v>21884.989858012159</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="39">
+        <f>C20*24</f>
+        <v>525239.75659229187</v>
+      </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
     </row>
@@ -7228,7 +7241,7 @@
       </c>
       <c r="B30" s="43">
         <f>((I14+1)*I14/2+1)*B29*G14</f>
-        <v>24935814.506539837</v>
+        <v>22926599.286563616</v>
       </c>
       <c r="C30" t="s">
         <v>151</v>
@@ -7239,9 +7252,12 @@
         <v>148</v>
       </c>
       <c r="B31" s="19">
-        <f>C20/B30</f>
-        <v>2.5634623227112244E-2</v>
-      </c>
+        <f>C21/B30</f>
+        <v>2.2909623447735415E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="43"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M11:M12">
@@ -7284,7 +7300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -6823,7 +6823,7 @@
       </c>
       <c r="J2" s="4">
         <f>I15/170</f>
-        <v>0.40567951318458423</v>
+        <v>0.36975997295469903</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6839,19 +6839,19 @@
       </c>
       <c r="D3" s="4">
         <f>20*C13</f>
-        <v>400</v>
+        <v>364.58333333333326</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>9600</v>
+        <v>8749.9999999999982</v>
       </c>
       <c r="F3" s="38">
         <f>D3*C3</f>
-        <v>4360</v>
+        <v>3973.9583333333326</v>
       </c>
       <c r="G3" s="38">
         <f>F3*24</f>
-        <v>104640</v>
+        <v>95374.999999999985</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
@@ -6878,19 +6878,19 @@
       </c>
       <c r="D4" s="4">
         <f>8*C13</f>
-        <v>160</v>
+        <v>145.83333333333331</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E5" si="0">D4*24</f>
-        <v>3840</v>
+        <v>3499.9999999999995</v>
       </c>
       <c r="F4" s="38">
         <f>D4*C4</f>
-        <v>142400</v>
+        <v>129791.66666666666</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" ref="G4:G5" si="1">F4*24</f>
-        <v>3417600</v>
+        <v>3115000</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" t="s">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="J4">
         <f>J3*J2/100</f>
-        <v>0.1054766734279919</v>
+        <v>9.6137592968221761E-2</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -6917,19 +6917,19 @@
       </c>
       <c r="D5" s="4">
         <f>10*C13</f>
-        <v>200</v>
+        <v>182.29166666666663</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>4374.9999999999991</v>
       </c>
       <c r="F5" s="38">
         <f>D5*C5</f>
-        <v>3600</v>
+        <v>3281.2499999999991</v>
       </c>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>86400</v>
+        <v>78749.999999999971</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="J5" s="4">
         <f>J2-J4</f>
-        <v>0.30020283975659234</v>
+        <v>0.27362237998647726</v>
       </c>
       <c r="L5" t="s">
         <v>97</v>
@@ -6952,11 +6952,11 @@
       <c r="D6" s="4"/>
       <c r="F6" s="38">
         <f>(G13+H13)*C13</f>
-        <v>57755.010141987834</v>
+        <v>51565.122764712913</v>
       </c>
       <c r="G6" s="38">
         <f>F6*24</f>
-        <v>1386120.2434077081</v>
+        <v>1237562.94635311</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -6969,11 +6969,11 @@
       <c r="D7" s="4"/>
       <c r="F7" s="39">
         <f>SUM(F3:F6)</f>
-        <v>208115.01014198782</v>
+        <v>188611.9977647129</v>
       </c>
       <c r="G7" s="39">
         <f>SUM(G3:G6)</f>
-        <v>4994760.2434077077</v>
+        <v>4526687.9463531096</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -7063,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="12">
-        <v>20</v>
+        <v>18.229166666666664</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>39</v>
@@ -7080,15 +7080,15 @@
       </c>
       <c r="H13" s="22">
         <f>$J$5*G13</f>
-        <v>666.7505070993916</v>
+        <v>607.71530594996602</v>
       </c>
       <c r="I13">
         <f>C13/F13</f>
-        <v>68.965517241379317</v>
+        <v>62.859195402298845</v>
       </c>
       <c r="J13" s="39">
         <f>E13+G13+H13</f>
-        <v>10405.750507099392</v>
+        <v>10346.715305949965</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="4"/>
@@ -7104,14 +7104,14 @@
         <v>100</v>
       </c>
       <c r="G14" s="37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>101</v>
       </c>
       <c r="I14" s="36">
         <f>I13/G14</f>
-        <v>4.9261083743842367</v>
+        <v>4.835322723253757</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="I15" s="36">
         <f>I14*G14</f>
-        <v>68.965517241379317</v>
+        <v>62.859195402298838</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="C18" s="19">
         <f>C21/C19/C17</f>
-        <v>9.5152129817444184E-2</v>
+        <v>0.10028562556956826</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="C19" s="22">
         <f>C13*24</f>
-        <v>480</v>
+        <v>437.49999999999994</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="C20" s="39">
         <f>(C17-J13)*C13</f>
-        <v>21884.989858012159</v>
+        <v>21023.418901953759</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="C21" s="39">
         <f>C20*24</f>
-        <v>525239.75659229187</v>
+        <v>504562.05364689021</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B30" s="43">
         <f>((I14+1)*I14/2+1)*B29*G14</f>
-        <v>22926599.286563616</v>
+        <v>20622193.793065332</v>
       </c>
       <c r="C30" t="s">
         <v>151</v>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="B31" s="19">
         <f>C21/B30</f>
-        <v>2.2909623447735415E-2</v>
+        <v>2.4466943658368701E-2</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -6768,7 +6768,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="J2" s="4">
         <f>I15/170</f>
-        <v>0.36975997295469903</v>
+        <v>0.30588235294117649</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6839,19 +6839,19 @@
       </c>
       <c r="D3" s="4">
         <f>20*C13</f>
-        <v>364.58333333333326</v>
+        <v>301.59999999999997</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>8749.9999999999982</v>
+        <v>7238.4</v>
       </c>
       <c r="F3" s="38">
         <f>D3*C3</f>
-        <v>3973.9583333333326</v>
+        <v>3287.4399999999996</v>
       </c>
       <c r="G3" s="38">
         <f>F3*24</f>
-        <v>95374.999999999985</v>
+        <v>78898.559999999998</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
@@ -6878,19 +6878,19 @@
       </c>
       <c r="D4" s="4">
         <f>8*C13</f>
-        <v>145.83333333333331</v>
+        <v>120.63999999999999</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E5" si="0">D4*24</f>
-        <v>3499.9999999999995</v>
+        <v>2895.3599999999997</v>
       </c>
       <c r="F4" s="38">
         <f>D4*C4</f>
-        <v>129791.66666666666</v>
+        <v>107369.59999999999</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" ref="G4:G5" si="1">F4*24</f>
-        <v>3115000</v>
+        <v>2576870.3999999999</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" t="s">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="J4">
         <f>J3*J2/100</f>
-        <v>9.6137592968221761E-2</v>
+        <v>7.952941176470589E-2</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -6917,19 +6917,19 @@
       </c>
       <c r="D5" s="4">
         <f>10*C13</f>
-        <v>182.29166666666663</v>
+        <v>150.79999999999998</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4374.9999999999991</v>
+        <v>3619.2</v>
       </c>
       <c r="F5" s="38">
         <f>D5*C5</f>
-        <v>3281.2499999999991</v>
+        <v>2714.3999999999996</v>
       </c>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>78749.999999999971</v>
+        <v>65145.599999999991</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="J5" s="4">
         <f>J2-J4</f>
-        <v>0.27362237998647726</v>
+        <v>0.22635294117647059</v>
       </c>
       <c r="L5" t="s">
         <v>97</v>
@@ -6952,11 +6952,11 @@
       <c r="D6" s="4"/>
       <c r="F6" s="38">
         <f>(G13+H13)*C13</f>
-        <v>51565.122764712913</v>
+        <v>41073.846625882354</v>
       </c>
       <c r="G6" s="38">
         <f>F6*24</f>
-        <v>1237562.94635311</v>
+        <v>985772.31902117655</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -6969,11 +6969,11 @@
       <c r="D7" s="4"/>
       <c r="F7" s="39">
         <f>SUM(F3:F6)</f>
-        <v>188611.9977647129</v>
+        <v>154445.28662588235</v>
       </c>
       <c r="G7" s="39">
         <f>SUM(G3:G6)</f>
-        <v>4526687.9463531096</v>
+        <v>3706686.8790211766</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -7063,7 +7063,8 @@
         <v>3</v>
       </c>
       <c r="C13" s="12">
-        <v>18.229166666666664</v>
+        <f>0.29*52</f>
+        <v>15.079999999999998</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>39</v>
@@ -7080,15 +7081,15 @@
       </c>
       <c r="H13" s="22">
         <f>$J$5*G13</f>
-        <v>607.71530594996602</v>
+        <v>502.72988235294116</v>
       </c>
       <c r="I13">
         <f>C13/F13</f>
-        <v>62.859195402298845</v>
+        <v>52</v>
       </c>
       <c r="J13" s="39">
         <f>E13+G13+H13</f>
-        <v>10346.715305949965</v>
+        <v>10241.729882352942</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="4"/>
@@ -7111,7 +7112,7 @@
       </c>
       <c r="I14" s="36">
         <f>I13/G14</f>
-        <v>4.835322723253757</v>
+        <v>4</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
@@ -7131,7 +7132,7 @@
       </c>
       <c r="I15" s="36">
         <f>I14*G14</f>
-        <v>62.859195402298838</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -7159,7 +7160,7 @@
       </c>
       <c r="C18" s="19">
         <f>C21/C19/C17</f>
-        <v>0.10028562556956826</v>
+        <v>0.10941479283887463</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -7171,7 +7172,7 @@
       </c>
       <c r="C19" s="22">
         <f>C13*24</f>
-        <v>437.49999999999994</v>
+        <v>361.91999999999996</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -7183,7 +7184,7 @@
       </c>
       <c r="C20" s="39">
         <f>(C17-J13)*C13</f>
-        <v>21023.418901953759</v>
+        <v>18974.713374117637</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -7195,7 +7196,7 @@
       </c>
       <c r="C21" s="39">
         <f>C20*24</f>
-        <v>504562.05364689021</v>
+        <v>455393.12097882328</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -7240,8 +7241,8 @@
         <v>144</v>
       </c>
       <c r="B30" s="43">
-        <f>((I14+1)*I14/2+1)*B29*G14</f>
-        <v>20622193.793065332</v>
+        <f>(1+((I14/2)*(I14-1)))*B29*G14</f>
+        <v>9555000</v>
       </c>
       <c r="C30" t="s">
         <v>151</v>
@@ -7253,10 +7254,13 @@
       </c>
       <c r="B31" s="19">
         <f>C21/B30</f>
-        <v>2.4466943658368701E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+        <v>4.7660190578631426E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="43"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="43"/>
     </row>
   </sheetData>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Documents\SimCompanies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OF\Documents\GitHub\SimCompanies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -555,8 +555,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -763,7 +763,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -804,19 +804,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
@@ -6767,8 +6767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All of them" sheetId="12" r:id="rId1"/>
@@ -4813,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6768,7 +6768,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="J2" s="4">
         <f>I15/170</f>
-        <v>0.30588235294117649</v>
+        <v>0.29213705684293922</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6839,26 +6839,26 @@
       </c>
       <c r="D3" s="4">
         <f>20*C13</f>
-        <v>301.59999999999997</v>
+        <v>295</v>
       </c>
       <c r="E3">
         <f>D3*24</f>
-        <v>7238.4</v>
+        <v>7080</v>
       </c>
       <c r="F3" s="38">
         <f>D3*C3</f>
-        <v>3287.4399999999996</v>
+        <v>3215.5</v>
       </c>
       <c r="G3" s="38">
         <f>F3*24</f>
-        <v>78898.559999999998</v>
+        <v>77172</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
         <v>145</v>
       </c>
       <c r="J3" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <f>18+(16+7+12)/4</f>
@@ -6878,19 +6878,19 @@
       </c>
       <c r="D4" s="4">
         <f>8*C13</f>
-        <v>120.63999999999999</v>
+        <v>118</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E5" si="0">D4*24</f>
-        <v>2895.3599999999997</v>
+        <v>2832</v>
       </c>
       <c r="F4" s="38">
         <f>D4*C4</f>
-        <v>107369.59999999999</v>
+        <v>105020</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" ref="G4:G5" si="1">F4*24</f>
-        <v>2576870.3999999999</v>
+        <v>2520480</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" t="s">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="J4">
         <f>J3*J2/100</f>
-        <v>7.952941176470589E-2</v>
+        <v>0.10224796989502873</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -6917,19 +6917,19 @@
       </c>
       <c r="D5" s="4">
         <f>10*C13</f>
-        <v>150.79999999999998</v>
+        <v>147.5</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>3619.2</v>
+        <v>3540</v>
       </c>
       <c r="F5" s="38">
         <f>D5*C5</f>
-        <v>2714.3999999999996</v>
+        <v>2655</v>
       </c>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>65145.599999999991</v>
+        <v>63720</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="J5" s="4">
         <f>J2-J4</f>
-        <v>0.22635294117647059</v>
+        <v>0.18988908694791051</v>
       </c>
       <c r="L5" t="s">
         <v>97</v>
@@ -6952,11 +6952,11 @@
       <c r="D6" s="4"/>
       <c r="F6" s="38">
         <f>(G13+H13)*C13</f>
-        <v>41073.846625882354</v>
+        <v>38945.36728807685</v>
       </c>
       <c r="G6" s="38">
         <f>F6*24</f>
-        <v>985772.31902117655</v>
+        <v>934688.81491384446</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -6969,11 +6969,11 @@
       <c r="D7" s="4"/>
       <c r="F7" s="39">
         <f>SUM(F3:F6)</f>
-        <v>154445.28662588235</v>
+        <v>149835.86728807684</v>
       </c>
       <c r="G7" s="39">
         <f>SUM(G3:G6)</f>
-        <v>3706686.8790211766</v>
+        <v>3596060.8149138447</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -7063,8 +7063,8 @@
         <v>3</v>
       </c>
       <c r="C13" s="12">
-        <f>0.29*52</f>
-        <v>15.079999999999998</v>
+        <f>0.295*50</f>
+        <v>14.75</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>39</v>
@@ -7074,22 +7074,22 @@
         <v>7518</v>
       </c>
       <c r="F13" s="22">
-        <v>0.28999999999999998</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="G13" s="44">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="H13" s="22">
         <f>$J$5*G13</f>
-        <v>502.72988235294116</v>
+        <v>421.36388393741345</v>
       </c>
       <c r="I13">
         <f>C13/F13</f>
-        <v>52</v>
+        <v>49.663299663299668</v>
       </c>
       <c r="J13" s="39">
         <f>E13+G13+H13</f>
-        <v>10241.729882352942</v>
+        <v>10158.363883937414</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="4"/>
@@ -7112,7 +7112,7 @@
       </c>
       <c r="I14" s="36">
         <f>I13/G14</f>
-        <v>4</v>
+        <v>3.8202538202538205</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="I15" s="36">
         <f>I14*G14</f>
-        <v>52</v>
+        <v>49.663299663299668</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="C18" s="19">
         <f>C21/C19/C17</f>
-        <v>0.10941479283887463</v>
+        <v>0.11666401009239875</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="C19" s="22">
         <f>C13*24</f>
-        <v>361.91999999999996</v>
+        <v>354</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="C20" s="39">
         <f>(C17-J13)*C13</f>
-        <v>18974.713374117637</v>
+        <v>19789.132711923139</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -7196,7 +7196,7 @@
       </c>
       <c r="C21" s="39">
         <f>C20*24</f>
-        <v>455393.12097882328</v>
+        <v>474939.18508615531</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="B30" s="43">
         <f>(1+((I14/2)*(I14-1)))*B29*G14</f>
-        <v>9555000</v>
+        <v>8718313.3065961357</v>
       </c>
       <c r="C30" t="s">
         <v>151</v>
@@ -7254,7 +7254,7 @@
       </c>
       <c r="B31" s="19">
         <f>C21/B30</f>
-        <v>4.7660190578631426E-2</v>
+        <v>5.4476040076103245E-2</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">

--- a/sim companies.xlsx
+++ b/sim companies.xlsx
@@ -6768,7 +6768,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="J2" s="4">
         <f>I15/170</f>
-        <v>0.29213705684293922</v>
+        <v>0.29511804721888751</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="J4">
         <f>J3*J2/100</f>
-        <v>0.10224796989502873</v>
+        <v>0.10329131652661064</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="J5" s="4">
         <f>J2-J4</f>
-        <v>0.18988908694791051</v>
+        <v>0.19182673069227688</v>
       </c>
       <c r="L5" t="s">
         <v>97</v>
@@ -6952,11 +6952,11 @@
       <c r="D6" s="4"/>
       <c r="F6" s="38">
         <f>(G13+H13)*C13</f>
-        <v>38945.36728807685</v>
+        <v>39008.786852240897</v>
       </c>
       <c r="G6" s="38">
         <f>F6*24</f>
-        <v>934688.81491384446</v>
+        <v>936210.88445378153</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -6969,11 +6969,11 @@
       <c r="D7" s="4"/>
       <c r="F7" s="39">
         <f>SUM(F3:F6)</f>
-        <v>149835.86728807684</v>
+        <v>149899.28685224091</v>
       </c>
       <c r="G7" s="39">
         <f>SUM(G3:G6)</f>
-        <v>3596060.8149138447</v>
+        <v>3597582.8844537814</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -7074,22 +7074,23 @@
         <v>7518</v>
       </c>
       <c r="F13" s="22">
-        <v>0.29699999999999999</v>
+        <f>0.28*1.05</f>
+        <v>0.29400000000000004</v>
       </c>
       <c r="G13" s="44">
         <v>2219</v>
       </c>
       <c r="H13" s="22">
         <f>$J$5*G13</f>
-        <v>421.36388393741345</v>
+        <v>425.66351540616239</v>
       </c>
       <c r="I13">
         <f>C13/F13</f>
-        <v>49.663299663299668</v>
+        <v>50.170068027210881</v>
       </c>
       <c r="J13" s="39">
         <f>E13+G13+H13</f>
-        <v>10158.363883937414</v>
+        <v>10162.663515406162</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="4"/>
@@ -7112,7 +7113,7 @@
       </c>
       <c r="I14" s="36">
         <f>I13/G14</f>
-        <v>3.8202538202538205</v>
+        <v>3.8592360020931449</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22" t="s">
@@ -7132,7 +7133,7 @@
       </c>
       <c r="I15" s="36">
         <f>I14*G14</f>
-        <v>49.663299663299668</v>
+        <v>50.170068027210881</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -7160,7 +7161,7 @@
       </c>
       <c r="C18" s="19">
         <f>C21/C19/C17</f>
-        <v>0.11666401009239875</v>
+        <v>0.11629012909511634</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -7184,7 +7185,7 @@
       </c>
       <c r="C20" s="39">
         <f>(C17-J13)*C13</f>
-        <v>19789.132711923139</v>
+        <v>19725.713147759107</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -7196,7 +7197,7 @@
       </c>
       <c r="C21" s="39">
         <f>C20*24</f>
-        <v>474939.18508615531</v>
+        <v>473417.11554621859</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -7242,7 +7243,7 @@
       </c>
       <c r="B30" s="43">
         <f>(1+((I14/2)*(I14-1)))*B29*G14</f>
-        <v>8718313.3065961357</v>
+        <v>8896023.3983703367</v>
       </c>
       <c r="C30" t="s">
         <v>151</v>
@@ -7254,7 +7255,7 @@
       </c>
       <c r="B31" s="19">
         <f>C21/B30</f>
-        <v>5.4476040076103245E-2</v>
+        <v>5.3216712046074865E-2</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
